--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -2,21 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="25605" windowHeight="14520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Burndown" sheetId="1" r:id="rId1"/>
     <sheet name="Sp1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sp2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sp2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sp3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="47">
   <si>
     <t>Time (person-hours (p-h))</t>
   </si>
@@ -124,6 +130,39 @@
   </si>
   <si>
     <t>4, 5, and 8</t>
+  </si>
+  <si>
+    <t>Create Users table</t>
+  </si>
+  <si>
+    <t>Create Users table class</t>
+  </si>
+  <si>
+    <t>Implement User Login and sessions</t>
+  </si>
+  <si>
+    <t>Research new graph libraries</t>
+  </si>
+  <si>
+    <t>Recreate graph with new library</t>
+  </si>
+  <si>
+    <t>Implement Password security hashing</t>
+  </si>
+  <si>
+    <t>24, 30</t>
+  </si>
+  <si>
+    <t>Format graph points</t>
+  </si>
+  <si>
+    <t>Format graph</t>
+  </si>
+  <si>
+    <t>25, 27, 29</t>
+  </si>
+  <si>
+    <t>Implement suggestions to lower evap rate</t>
   </si>
 </sst>
 </file>
@@ -249,26 +288,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -277,7 +316,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -285,17 +324,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -305,7 +344,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -313,12 +352,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -327,40 +366,40 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -368,27 +407,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -396,23 +435,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -556,6 +595,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,6 +667,39 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -868,11 +943,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86251008"/>
-        <c:axId val="86252928"/>
+        <c:axId val="37699968"/>
+        <c:axId val="37701504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86251008"/>
+        <c:axId val="37699968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86252928"/>
+        <c:crossAx val="37701504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -889,7 +964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86252928"/>
+        <c:axId val="37701504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,14 +975,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86251008"/>
+        <c:crossAx val="37699968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1160,11 +1234,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58772096"/>
-        <c:axId val="58782080"/>
+        <c:axId val="37735040"/>
+        <c:axId val="38805888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="58772096"/>
+        <c:axId val="37735040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,14 +1248,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58782080"/>
+        <c:crossAx val="38805888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58782080"/>
+        <c:axId val="38805888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58772096"/>
+        <c:crossAx val="37735040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1415,11 +1489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59540608"/>
-        <c:axId val="59542144"/>
+        <c:axId val="103560320"/>
+        <c:axId val="103561856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="59540608"/>
+        <c:axId val="103560320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,14 +1503,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59542144"/>
+        <c:crossAx val="103561856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="59542144"/>
+        <c:axId val="103561856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,13 +1521,329 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59540608"/>
+        <c:crossAx val="103560320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Working</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp3'!$E$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>42022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42033</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp3'!$D$80:$R$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp3'!$E$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>42022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42033</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp3'!$D$81:$R$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="103605760"/>
+        <c:axId val="103607296"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="103605760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103607296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="103607296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103605760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1552,6 +1942,43 @@
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1864,29 +2291,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2194,8 +2621,13 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2204,14 +2636,14 @@
   <dimension ref="A2:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
@@ -2220,22 +2652,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="61" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="62"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
@@ -2350,10 +2782,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="76">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2417,8 +2849,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2447,8 +2879,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2475,8 +2907,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
@@ -2505,8 +2937,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
@@ -2568,8 +3000,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2592,8 +3024,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2622,8 +3054,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
@@ -2646,8 +3078,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
@@ -2709,8 +3141,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -2733,8 +3165,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
@@ -2757,8 +3189,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="75"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
@@ -2785,8 +3217,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="73">
+      <c r="A18" s="67"/>
+      <c r="B18" s="76">
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -2850,8 +3282,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="74"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -2880,8 +3312,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
@@ -2904,8 +3336,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
@@ -2928,10 +3360,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="66"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="9" t="s">
         <v>24</v>
       </c>
@@ -2993,8 +3425,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="67"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -3017,8 +3449,8 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
@@ -3045,8 +3477,8 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
@@ -3069,10 +3501,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>19</v>
@@ -3137,10 +3569,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="73">
+      <c r="B28" s="76">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -3201,8 +3633,8 @@
       <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="74"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -3248,8 +3680,8 @@
       <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="74"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="7" t="s">
         <v>17</v>
       </c>
@@ -3295,8 +3727,8 @@
       <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="74"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
@@ -3342,8 +3774,8 @@
       <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="74"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="9" t="s">
         <v>19</v>
       </c>
@@ -3402,8 +3834,8 @@
       <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="74"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -3423,8 +3855,8 @@
       <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="74"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
@@ -3470,8 +3902,8 @@
       <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="74"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="8" t="s">
         <v>18</v>
       </c>
@@ -3491,8 +3923,8 @@
       <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="74"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="9" t="s">
         <v>20</v>
       </c>
@@ -3551,8 +3983,8 @@
       <c r="Q36" s="23"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="74"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -3572,8 +4004,8 @@
       <c r="Q37" s="24"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="74"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="7" t="s">
         <v>17</v>
       </c>
@@ -3593,8 +4025,8 @@
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="75"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
@@ -3640,8 +4072,8 @@
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="73">
+      <c r="A40" s="67"/>
+      <c r="B40" s="76">
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -3702,8 +4134,8 @@
       <c r="Q40" s="23"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="74"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -3749,8 +4181,8 @@
       <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="74"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="7" t="s">
         <v>17</v>
       </c>
@@ -3770,8 +4202,8 @@
       <c r="Q42" s="24"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="75"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
@@ -3791,10 +4223,10 @@
       <c r="Q43" s="24"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="66"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
@@ -3853,8 +4285,8 @@
       <c r="Q44" s="23"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="67"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="7" t="s">
         <v>16</v>
       </c>
@@ -3874,8 +4306,8 @@
       <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="67"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="7" t="s">
         <v>17</v>
       </c>
@@ -3921,8 +4353,8 @@
       <c r="Q46" s="24"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="68"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="8" t="s">
         <v>18</v>
       </c>
@@ -3942,10 +4374,10 @@
       <c r="Q47" s="24"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="69"/>
+      <c r="C48" s="72"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>19</v>
@@ -4076,6 +4508,11 @@
     <ignoredError sqref="E40:F40 G40:P40" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4083,11 +4520,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4101,19 +4538,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="70" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -4203,10 +4640,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="81">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -4258,8 +4695,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="79"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -4279,8 +4716,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -4302,8 +4739,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="80"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -4323,8 +4760,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="81" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="84" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -4376,8 +4813,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -4397,8 +4834,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -4418,8 +4855,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -4441,8 +4878,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
@@ -4492,8 +4929,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -4519,8 +4956,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -4542,8 +4979,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
@@ -4563,10 +5000,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="73"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
@@ -4616,8 +5053,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="74"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -4641,8 +5078,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -4664,8 +5101,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -4685,8 +5122,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="76"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="49" t="s">
         <v>31</v>
       </c>
@@ -4736,8 +5173,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -4757,8 +5194,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -4778,8 +5215,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -4801,10 +5238,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>14</v>
@@ -4857,10 +5294,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="78">
+      <c r="B28" s="81">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -4909,8 +5346,8 @@
       <c r="N28" s="23"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="79"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="45" t="s">
         <v>16</v>
       </c>
@@ -4930,8 +5367,8 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
@@ -4969,8 +5406,8 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
@@ -4990,8 +5427,8 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="81" t="s">
+      <c r="A32" s="67"/>
+      <c r="B32" s="84" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -5040,8 +5477,8 @@
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="45" t="s">
         <v>16</v>
       </c>
@@ -5079,8 +5516,8 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="82"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="45" t="s">
         <v>17</v>
       </c>
@@ -5100,8 +5537,8 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -5139,8 +5576,8 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="82"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="52" t="s">
         <v>33</v>
       </c>
@@ -5187,8 +5624,8 @@
       <c r="N36" s="23"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="82"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="45" t="s">
         <v>16</v>
       </c>
@@ -5226,8 +5663,8 @@
       <c r="N37" s="24"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="82"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="45" t="s">
         <v>17</v>
       </c>
@@ -5265,8 +5702,8 @@
       <c r="N38" s="24"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="82"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="45" t="s">
         <v>18</v>
       </c>
@@ -5286,10 +5723,10 @@
       <c r="N39" s="24"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="63" t="s">
+      <c r="A40" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="73"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="10" t="s">
         <v>34</v>
       </c>
@@ -5336,8 +5773,8 @@
       <c r="N40" s="23"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="74"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="45" t="s">
         <v>16</v>
       </c>
@@ -5375,8 +5812,8 @@
       <c r="N41" s="24"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="74"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="45" t="s">
         <v>17</v>
       </c>
@@ -5414,8 +5851,8 @@
       <c r="N42" s="24"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
@@ -5435,8 +5872,8 @@
       <c r="N43" s="24"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="49" t="s">
         <v>31</v>
       </c>
@@ -5483,8 +5920,8 @@
       <c r="N44" s="23"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -5504,8 +5941,8 @@
       <c r="N45" s="24"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -5543,8 +5980,8 @@
       <c r="N46" s="24"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="77"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -5582,10 +6019,10 @@
       <c r="N47" s="24"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="69"/>
+      <c r="C48" s="72"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>14</v>
@@ -5673,24 +6110,3114 @@
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A6:A17"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A40:A47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E2" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="75"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="40">
+        <v>42022</v>
+      </c>
+      <c r="F3" s="40">
+        <v>42023</v>
+      </c>
+      <c r="G3" s="40">
+        <v>42024</v>
+      </c>
+      <c r="H3" s="40">
+        <v>42025</v>
+      </c>
+      <c r="I3" s="40">
+        <v>42026</v>
+      </c>
+      <c r="J3" s="40">
+        <v>42027</v>
+      </c>
+      <c r="K3" s="40">
+        <v>42028</v>
+      </c>
+      <c r="L3" s="40">
+        <v>42029</v>
+      </c>
+      <c r="M3" s="40">
+        <v>42030</v>
+      </c>
+      <c r="N3" s="40">
+        <v>42031</v>
+      </c>
+      <c r="O3" s="40">
+        <v>42032</v>
+      </c>
+      <c r="P3" s="40">
+        <v>42033</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>42034</v>
+      </c>
+      <c r="R3" s="40">
+        <v>42035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="43">
+        <v>1</v>
+      </c>
+      <c r="F4" s="43">
+        <v>2</v>
+      </c>
+      <c r="G4" s="43">
+        <v>3</v>
+      </c>
+      <c r="H4" s="43">
+        <v>4</v>
+      </c>
+      <c r="I4" s="43">
+        <v>5</v>
+      </c>
+      <c r="J4" s="43">
+        <v>6</v>
+      </c>
+      <c r="K4" s="43">
+        <v>7</v>
+      </c>
+      <c r="L4" s="43">
+        <v>8</v>
+      </c>
+      <c r="M4" s="43">
+        <v>9</v>
+      </c>
+      <c r="N4" s="43">
+        <v>10</v>
+      </c>
+      <c r="O4" s="43">
+        <v>11</v>
+      </c>
+      <c r="P4" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>13</v>
+      </c>
+      <c r="R4" s="43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="81">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15">
+        <f>SUM(D7:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" ref="E6:M6" si="0">SUM(E7:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" ref="N6:R6" si="1">SUM(N7:N9)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
+        <f>SUM(E6:R6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28">
+        <f t="shared" ref="S7:S33" si="2">SUM(E7:R7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="67"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="67"/>
+      <c r="B10" s="94">
+        <v>15</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="10">
+        <f>SUM(D11:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" ref="E10:M10" si="3">SUM(E11:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" ref="N10:R10" si="4">SUM(N11:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="94">
+        <v>21</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="10">
+        <f>SUM(D15:D17)</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14:M14" si="5">SUM(E15:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" ref="N14:R14" si="6">SUM(N15:N17)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="24">
+        <v>4</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27">
+        <v>2</v>
+      </c>
+      <c r="K15" s="27">
+        <v>2</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="67"/>
+      <c r="B18" s="94">
+        <v>18</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="10">
+        <f>SUM(D19:D21)</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" ref="E18:M18" si="7">SUM(E19:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" ref="N18:R18" si="8">SUM(N19:N21)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="24">
+        <v>3</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27">
+        <v>3</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="67"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="67"/>
+      <c r="B22" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10">
+        <f>SUM(D23:D25)</f>
+        <v>8</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" ref="E22:M22" si="9">SUM(E23:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="16">
+        <f t="shared" ref="N22:R22" si="10">SUM(N23:N25)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="67"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="67"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="24">
+        <v>8</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="27">
+        <v>4</v>
+      </c>
+      <c r="H24" s="27">
+        <v>4</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
+      <c r="B26" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="10">
+        <f>SUM(D27:D29)</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" ref="E26:M26" si="11">SUM(E27:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" ref="N26:R26" si="12">SUM(N27:N29)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="67"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="67"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="24">
+        <v>5</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27">
+        <v>5</v>
+      </c>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="67"/>
+      <c r="B30" s="86">
+        <v>31</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="10">
+        <f>SUM(D31:D33)</f>
+        <v>3</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" ref="E30:M30" si="13">SUM(E31:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <f t="shared" ref="N30:R30" si="14">SUM(N31:N33)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="67"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="24">
+        <v>3</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27">
+        <v>3</v>
+      </c>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="68"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="76"/>
+      <c r="C34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" ref="D34:M34" si="15">SUM(D35:D37)</f>
+        <v>2</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F34" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
+        <f t="shared" ref="N34:R34" si="16">SUM(N35:N37)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="14">
+        <f>SUM(E34:R34)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="67"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="28">
+        <f>SUM(E35:R35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="67"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="24">
+        <v>2</v>
+      </c>
+      <c r="E36" s="17">
+        <v>2</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="28">
+        <f t="shared" ref="S36:S37" si="17">SUM(E36:R36)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="67"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="67"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" ref="D38:M38" si="18">SUM(D39:D41)</f>
+        <v>6</v>
+      </c>
+      <c r="E38" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="21">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="G38" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="21">
+        <f t="shared" ref="N38:R38" si="19">SUM(N39:N41)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="14">
+        <f>SUM(E38:R38)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="67"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="28">
+        <f>SUM(E39:R39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="67"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="25">
+        <v>6</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17">
+        <v>6</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="28">
+        <f t="shared" ref="S40:S41" si="20">SUM(E40:R40)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="68"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="90"/>
+      <c r="D42" s="2">
+        <f>SUM(D6,D10,D14,D34,D38)</f>
+        <v>12</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42:R42" si="21">SUM(E6,E10,E14,E34,E38,E18,E22,E26,E30)</f>
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="23">
+        <f>SUM(E42:R42)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="81">
+        <v>12</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="15">
+        <f>SUM(D45:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" ref="E44:M44" si="22">SUM(E45:E47)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="16">
+        <f t="shared" ref="N44:R44" si="23">SUM(N45:N47)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="35">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="67"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="24">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="36"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="67"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="24">
+        <f t="shared" ref="D46:D47" si="24">D8</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="37"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="67"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="36"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="67"/>
+      <c r="B48" s="94">
+        <v>15</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="10">
+        <f>SUM(D49:D51)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="16">
+        <f t="shared" ref="E48:M48" si="25">SUM(E49:E51)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="16">
+        <f t="shared" ref="N48:R48" si="26">SUM(N49:N51)</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="35">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="67"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="24">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="37"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="67"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="24">
+        <f t="shared" ref="D50:D51" si="27">D12</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="36"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="67"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="24">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="39"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="67"/>
+      <c r="B52" s="94">
+        <v>21</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="10">
+        <f>SUM(D53:D55)</f>
+        <v>4</v>
+      </c>
+      <c r="E52" s="16">
+        <f t="shared" ref="E52:M52" si="28">SUM(E53:E55)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="16">
+        <f t="shared" ref="N52:R52" si="29">SUM(N53:N55)</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="35">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="67"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="24">
+        <f>D15</f>
+        <v>4</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="37"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="67"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="24">
+        <f t="shared" ref="D54:D55" si="30">D16</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="37"/>
+    </row>
+    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="67"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="24">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="39"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="67"/>
+      <c r="B56" s="94">
+        <v>18</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="10">
+        <f>SUM(D57:D59)</f>
+        <v>3</v>
+      </c>
+      <c r="E56" s="16">
+        <f t="shared" ref="E56:M56" si="31">SUM(E57:E59)</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="16">
+        <f t="shared" ref="N56:R56" si="32">SUM(N57:N59)</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="67"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="24">
+        <f>D19</f>
+        <v>3</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="36"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="67"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="24">
+        <f t="shared" ref="D58:D59" si="33">D20</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="37"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="67"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="24">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="38"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="67"/>
+      <c r="B60" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="10">
+        <f>SUM(D61:D63)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="21">
+        <f t="shared" ref="E60:M60" si="34">SUM(E61:E63)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="21">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="21">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="21">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="21">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="21">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="21">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="21">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="21">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="21">
+        <f t="shared" ref="N60:R60" si="35">SUM(N61:N63)</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="21">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="21">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="21">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="67"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="24">
+        <f>D23</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="37"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="67"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="24">
+        <v>0</v>
+      </c>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="36"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="67"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="24">
+        <f t="shared" ref="D63" si="36">D25</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="39"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="67"/>
+      <c r="B64" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="10">
+        <f>SUM(D65:D67)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="16">
+        <f t="shared" ref="E64:M64" si="37">SUM(E65:E67)</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="16">
+        <f t="shared" ref="N64:R64" si="38">SUM(N65:N67)</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="67"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="24">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="37"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="67"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="24">
+        <v>0</v>
+      </c>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="36"/>
+    </row>
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="67"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="24">
+        <f t="shared" ref="D67" si="39">D29</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="39"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="67"/>
+      <c r="B68" s="86">
+        <v>31</v>
+      </c>
+      <c r="C68" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="10">
+        <f>SUM(D69:D71)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="16">
+        <f t="shared" ref="E68:M68" si="40">SUM(E69:E71)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="16">
+        <f t="shared" ref="N68:R68" si="41">SUM(N69:N71)</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="35">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="67"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="24">
+        <f>D31</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="37"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="67"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="24">
+        <v>0</v>
+      </c>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="37"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="68"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="24">
+        <f t="shared" ref="D71" si="42">D33</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="39"/>
+    </row>
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="81"/>
+      <c r="C72" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="10">
+        <f>SUM(D73:D75)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="16">
+        <f t="shared" ref="E72:M72" si="43">SUM(E73:E75)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="16">
+        <f t="shared" ref="N72:R72" si="44">SUM(N73:N75)</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="35">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="67"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="24">
+        <f>D35</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="36"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="67"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="24">
+        <v>0</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="37"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="67"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="24">
+        <f t="shared" ref="D75" si="45">D37</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="38"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="67"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="10">
+        <f>SUM(D77:D79)</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="21">
+        <f t="shared" ref="E76:M76" si="46">SUM(E77:E79)</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="21">
+        <f t="shared" ref="N76:R76" si="47">SUM(N77:N79)</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="21">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="21">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="21">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="13">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="67"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="24">
+        <f>D39</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="32"/>
+      <c r="Q77" s="32"/>
+      <c r="R77" s="37"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="67"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="24">
+        <v>0</v>
+      </c>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="36"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="68"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="26">
+        <f t="shared" ref="D79" si="48">D41</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="33"/>
+      <c r="R79" s="39"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="89"/>
+      <c r="D80" s="2">
+        <f t="shared" ref="D80:M80" si="49">SUM(D44,D64,D68,D72,D76)</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="2">
+        <f t="shared" ref="N80:R80" si="50">SUM(N44,N64,N68,N72,N76)</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <f>D80</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ref="E81:M81" si="51" xml:space="preserve"> D81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <f t="shared" ref="N81:R81" si="52" xml:space="preserve"> M81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A72:A79"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A6:A33"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A44:A71"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B68:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-15" windowWidth="25605" windowHeight="14520" activeTab="3"/>
@@ -12,7 +12,10 @@
     <sheet name="Sp2" sheetId="4" r:id="rId3"/>
     <sheet name="Sp3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -646,12 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,20 +664,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,16 +688,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -941,22 +975,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37699968"/>
-        <c:axId val="37701504"/>
+        <c:axId val="356541920"/>
+        <c:axId val="356539568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37699968"/>
+        <c:axId val="356541920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37701504"/>
+        <c:crossAx val="356539568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37701504"/>
+        <c:axId val="356539568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +1009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37699968"/>
+        <c:crossAx val="356541920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1232,13 +1266,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37735040"/>
-        <c:axId val="38805888"/>
+        <c:axId val="356546232"/>
+        <c:axId val="356547016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="37735040"/>
+        <c:axId val="356546232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,14 +1281,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38805888"/>
+        <c:crossAx val="356547016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="38805888"/>
+        <c:axId val="356547016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37735040"/>
+        <c:crossAx val="356546232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1487,13 +1520,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103560320"/>
-        <c:axId val="103561856"/>
+        <c:axId val="356543880"/>
+        <c:axId val="356550544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103560320"/>
+        <c:axId val="356543880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,14 +1535,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103561856"/>
+        <c:crossAx val="356550544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103561856"/>
+        <c:axId val="356550544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103560320"/>
+        <c:crossAx val="356543880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1802,13 +1834,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103605760"/>
-        <c:axId val="103607296"/>
+        <c:axId val="356547408"/>
+        <c:axId val="356538392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103605760"/>
+        <c:axId val="356547408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,14 +1849,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103607296"/>
+        <c:crossAx val="356538392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103607296"/>
+        <c:axId val="356538392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,14 +1867,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103605760"/>
+        <c:crossAx val="356547408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2045,7 +2075,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2080,7 +2110,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4643,7 +4673,7 @@
       <c r="A6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="79">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -4696,7 +4726,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="67"/>
-      <c r="B7" s="82"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -4717,7 +4747,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
-      <c r="B8" s="82"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -4740,7 +4770,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="67"/>
-      <c r="B9" s="83"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -4761,7 +4791,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="67"/>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -4814,7 +4844,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="67"/>
-      <c r="B11" s="85"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -4835,7 +4865,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="67"/>
-      <c r="B12" s="85"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -4856,7 +4886,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="67"/>
-      <c r="B13" s="85"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -4879,7 +4909,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="67"/>
-      <c r="B14" s="85"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
@@ -4930,7 +4960,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="67"/>
-      <c r="B15" s="85"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -4957,7 +4987,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
-      <c r="B16" s="85"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -4980,7 +5010,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
-      <c r="B17" s="85"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
@@ -5123,7 +5153,7 @@
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67"/>
-      <c r="B22" s="79"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="49" t="s">
         <v>31</v>
       </c>
@@ -5174,7 +5204,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="67"/>
-      <c r="B23" s="79"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -5195,7 +5225,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="67"/>
-      <c r="B24" s="79"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -5216,7 +5246,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="68"/>
-      <c r="B25" s="80"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -5297,7 +5327,7 @@
       <c r="A28" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="79">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -5347,7 +5377,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="67"/>
-      <c r="B29" s="82"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="45" t="s">
         <v>16</v>
       </c>
@@ -5368,7 +5398,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
-      <c r="B30" s="82"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
@@ -5407,7 +5437,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="83"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
@@ -5428,7 +5458,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="67"/>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -5478,7 +5508,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="67"/>
-      <c r="B33" s="85"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="45" t="s">
         <v>16</v>
       </c>
@@ -5517,7 +5547,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="67"/>
-      <c r="B34" s="85"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="45" t="s">
         <v>17</v>
       </c>
@@ -5538,7 +5568,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="67"/>
-      <c r="B35" s="85"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -5577,7 +5607,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="67"/>
-      <c r="B36" s="85"/>
+      <c r="B36" s="83"/>
       <c r="C36" s="52" t="s">
         <v>33</v>
       </c>
@@ -5625,7 +5655,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="67"/>
-      <c r="B37" s="85"/>
+      <c r="B37" s="83"/>
       <c r="C37" s="45" t="s">
         <v>16</v>
       </c>
@@ -5664,7 +5694,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="67"/>
-      <c r="B38" s="85"/>
+      <c r="B38" s="83"/>
       <c r="C38" s="45" t="s">
         <v>17</v>
       </c>
@@ -5703,7 +5733,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="67"/>
-      <c r="B39" s="85"/>
+      <c r="B39" s="83"/>
       <c r="C39" s="45" t="s">
         <v>18</v>
       </c>
@@ -5873,7 +5903,7 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="67"/>
-      <c r="B44" s="79"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="49" t="s">
         <v>31</v>
       </c>
@@ -5921,7 +5951,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="67"/>
-      <c r="B45" s="79"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -5942,7 +5972,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="67"/>
-      <c r="B46" s="79"/>
+      <c r="B46" s="84"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -5981,7 +6011,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="68"/>
-      <c r="B47" s="80"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -6109,6 +6139,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B17"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A28:A39"/>
@@ -6117,14 +6155,6 @@
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -6142,7 +6172,7 @@
   <dimension ref="A2:S81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6306,15 +6336,14 @@
       <c r="A6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="79">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="15">
-        <f>SUM(D7:D9)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E6" s="16">
         <f t="shared" ref="E6:M6" si="0">SUM(E7:E9)</f>
@@ -6330,7 +6359,7 @@
       </c>
       <c r="H6" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="0"/>
@@ -6374,12 +6403,12 @@
       </c>
       <c r="S6" s="14">
         <f>SUM(E6:R6)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="67"/>
-      <c r="B7" s="82"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -6405,7 +6434,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
-      <c r="B8" s="82"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -6431,7 +6460,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="67"/>
-      <c r="B9" s="83"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -6439,7 +6468,9 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="H9" s="29">
+        <v>1.5</v>
+      </c>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -6452,20 +6483,19 @@
       <c r="R9" s="29"/>
       <c r="S9" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="67"/>
-      <c r="B10" s="94">
+      <c r="B10" s="89">
         <v>15</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="10">
-        <f>SUM(D11:D13)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="16">
         <f t="shared" ref="E10:M10" si="3">SUM(E11:E13)</f>
@@ -6509,7 +6539,7 @@
       </c>
       <c r="O10" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P10" s="16">
         <f t="shared" si="4"/>
@@ -6525,12 +6555,12 @@
       </c>
       <c r="S10" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="67"/>
-      <c r="B11" s="95"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -6556,7 +6586,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="67"/>
-      <c r="B12" s="95"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -6582,7 +6612,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="67"/>
-      <c r="B13" s="96"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -6597,18 +6627,20 @@
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="O13" s="29">
+        <v>1.5</v>
+      </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
       <c r="R13" s="29"/>
       <c r="S13" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="67"/>
-      <c r="B14" s="94">
+      <c r="B14" s="89">
         <v>21</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -6681,7 +6713,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="67"/>
-      <c r="B15" s="95"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -6713,7 +6745,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
-      <c r="B16" s="95"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -6739,7 +6771,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
-      <c r="B17" s="96"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -6765,7 +6797,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
-      <c r="B18" s="94">
+      <c r="B18" s="89">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -6838,7 +6870,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="67"/>
-      <c r="B19" s="95"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -6868,7 +6900,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
-      <c r="B20" s="95"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -6894,7 +6926,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
-      <c r="B21" s="96"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -6920,7 +6952,7 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67"/>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="92" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="60" t="s">
@@ -6993,7 +7025,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="67"/>
-      <c r="B23" s="87"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -7019,7 +7051,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="67"/>
-      <c r="B24" s="87"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -7051,7 +7083,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="67"/>
-      <c r="B25" s="88"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -7077,7 +7109,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="67"/>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="92" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="60" t="s">
@@ -7150,7 +7182,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="67"/>
-      <c r="B27" s="87"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="45" t="s">
         <v>16</v>
       </c>
@@ -7176,7 +7208,7 @@
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67"/>
-      <c r="B28" s="87"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
@@ -7206,7 +7238,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="67"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -7232,7 +7264,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
-      <c r="B30" s="86">
+      <c r="B30" s="92">
         <v>31</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -7305,7 +7337,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="87"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="45" t="s">
         <v>16</v>
       </c>
@@ -7331,7 +7363,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="67"/>
-      <c r="B32" s="87"/>
+      <c r="B32" s="93"/>
       <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
@@ -7361,7 +7393,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="68"/>
-      <c r="B33" s="88"/>
+      <c r="B33" s="94"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -7542,7 +7574,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="67"/>
-      <c r="B38" s="91"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="10" t="s">
         <v>40</v>
       </c>
@@ -7613,7 +7645,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="67"/>
-      <c r="B39" s="92"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="45" t="s">
         <v>16</v>
       </c>
@@ -7639,7 +7671,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="67"/>
-      <c r="B40" s="92"/>
+      <c r="B40" s="87"/>
       <c r="C40" s="45" t="s">
         <v>17</v>
       </c>
@@ -7669,7 +7701,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="68"/>
-      <c r="B41" s="93"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -7694,13 +7726,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="90"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="2">
         <f>SUM(D6,D10,D14,D34,D38)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" ref="E42:R42" si="21">SUM(E6,E10,E14,E34,E38,E18,E22,E26,E30)</f>
@@ -7716,7 +7748,7 @@
       </c>
       <c r="H42" s="2">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="21"/>
@@ -7744,7 +7776,7 @@
       </c>
       <c r="O42" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="21"/>
@@ -7760,14 +7792,14 @@
       </c>
       <c r="S42" s="23">
         <f>SUM(E42:R42)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="81">
+      <c r="B44" s="79">
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -7836,7 +7868,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="67"/>
-      <c r="B45" s="82"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -7861,7 +7893,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="67"/>
-      <c r="B46" s="82"/>
+      <c r="B46" s="80"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -7886,7 +7918,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="67"/>
-      <c r="B47" s="83"/>
+      <c r="B47" s="81"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -7911,7 +7943,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="67"/>
-      <c r="B48" s="94">
+      <c r="B48" s="89">
         <v>15</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -7980,7 +8012,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="67"/>
-      <c r="B49" s="95"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="45" t="s">
         <v>16</v>
       </c>
@@ -8005,7 +8037,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="67"/>
-      <c r="B50" s="95"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="45" t="s">
         <v>17</v>
       </c>
@@ -8030,7 +8062,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="67"/>
-      <c r="B51" s="96"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -8055,7 +8087,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="67"/>
-      <c r="B52" s="94">
+      <c r="B52" s="89">
         <v>21</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -8124,7 +8156,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="67"/>
-      <c r="B53" s="95"/>
+      <c r="B53" s="90"/>
       <c r="C53" s="45" t="s">
         <v>16</v>
       </c>
@@ -8149,7 +8181,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="67"/>
-      <c r="B54" s="95"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="45" t="s">
         <v>17</v>
       </c>
@@ -8174,7 +8206,7 @@
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="67"/>
-      <c r="B55" s="96"/>
+      <c r="B55" s="91"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -8199,7 +8231,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="67"/>
-      <c r="B56" s="94">
+      <c r="B56" s="89">
         <v>18</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -8268,7 +8300,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="67"/>
-      <c r="B57" s="95"/>
+      <c r="B57" s="90"/>
       <c r="C57" s="45" t="s">
         <v>16</v>
       </c>
@@ -8293,7 +8325,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="67"/>
-      <c r="B58" s="95"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="45" t="s">
         <v>17</v>
       </c>
@@ -8318,7 +8350,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="67"/>
-      <c r="B59" s="96"/>
+      <c r="B59" s="91"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -8343,7 +8375,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="67"/>
-      <c r="B60" s="86" t="s">
+      <c r="B60" s="92" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -8412,7 +8444,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="67"/>
-      <c r="B61" s="87"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="45" t="s">
         <v>16</v>
       </c>
@@ -8437,7 +8469,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="67"/>
-      <c r="B62" s="87"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="45" t="s">
         <v>17</v>
       </c>
@@ -8461,7 +8493,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="67"/>
-      <c r="B63" s="88"/>
+      <c r="B63" s="94"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -8486,7 +8518,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="67"/>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="92" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="60" t="s">
@@ -8555,7 +8587,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="67"/>
-      <c r="B65" s="87"/>
+      <c r="B65" s="93"/>
       <c r="C65" s="45" t="s">
         <v>16</v>
       </c>
@@ -8580,7 +8612,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="67"/>
-      <c r="B66" s="87"/>
+      <c r="B66" s="93"/>
       <c r="C66" s="45" t="s">
         <v>17</v>
       </c>
@@ -8604,7 +8636,7 @@
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="67"/>
-      <c r="B67" s="88"/>
+      <c r="B67" s="94"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -8629,7 +8661,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="67"/>
-      <c r="B68" s="86">
+      <c r="B68" s="92">
         <v>31</v>
       </c>
       <c r="C68" s="60" t="s">
@@ -8698,7 +8730,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="67"/>
-      <c r="B69" s="87"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="45" t="s">
         <v>16</v>
       </c>
@@ -8723,7 +8755,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="67"/>
-      <c r="B70" s="87"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="45" t="s">
         <v>17</v>
       </c>
@@ -8747,7 +8779,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="68"/>
-      <c r="B71" s="88"/>
+      <c r="B71" s="94"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -8774,7 +8806,7 @@
       <c r="A72" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="81"/>
+      <c r="B72" s="79"/>
       <c r="C72" s="10" t="s">
         <v>39</v>
       </c>
@@ -8841,7 +8873,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="67"/>
-      <c r="B73" s="82"/>
+      <c r="B73" s="80"/>
       <c r="C73" s="45" t="s">
         <v>16</v>
       </c>
@@ -8866,7 +8898,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="67"/>
-      <c r="B74" s="82"/>
+      <c r="B74" s="80"/>
       <c r="C74" s="45" t="s">
         <v>17</v>
       </c>
@@ -8890,7 +8922,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="67"/>
-      <c r="B75" s="83"/>
+      <c r="B75" s="81"/>
       <c r="C75" s="45" t="s">
         <v>18</v>
       </c>
@@ -8915,7 +8947,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="67"/>
-      <c r="B76" s="91"/>
+      <c r="B76" s="86"/>
       <c r="C76" s="10" t="s">
         <v>40</v>
       </c>
@@ -8982,7 +9014,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="67"/>
-      <c r="B77" s="92"/>
+      <c r="B77" s="87"/>
       <c r="C77" s="45" t="s">
         <v>16</v>
       </c>
@@ -9007,7 +9039,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="67"/>
-      <c r="B78" s="92"/>
+      <c r="B78" s="87"/>
       <c r="C78" s="45" t="s">
         <v>17</v>
       </c>
@@ -9031,7 +9063,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="68"/>
-      <c r="B79" s="93"/>
+      <c r="B79" s="88"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -9055,10 +9087,10 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="89" t="s">
+      <c r="B80" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="89"/>
+      <c r="C80" s="95"/>
       <c r="D80" s="2">
         <f t="shared" ref="D80:M80" si="49">SUM(D44,D64,D68,D72,D76)</f>
         <v>0</v>
@@ -9184,6 +9216,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B68:B71"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
@@ -9200,16 +9242,6 @@
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B64:B67"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B68:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="25605" windowHeight="14520" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="25605" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Product Burndown" sheetId="1" r:id="rId1"/>
@@ -646,12 +646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,20 +661,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -699,6 +684,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -923,10 +923,13 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125</c:v>
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,11 +946,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37699968"/>
-        <c:axId val="37701504"/>
+        <c:axId val="37503360"/>
+        <c:axId val="37504896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37699968"/>
+        <c:axId val="37503360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37701504"/>
+        <c:crossAx val="37504896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,7 +967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37701504"/>
+        <c:axId val="37504896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,13 +978,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37699968"/>
+        <c:crossAx val="37503360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1234,11 +1238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37735040"/>
-        <c:axId val="38805888"/>
+        <c:axId val="37534336"/>
+        <c:axId val="37548416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="37735040"/>
+        <c:axId val="37534336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,14 +1252,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38805888"/>
+        <c:crossAx val="37548416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="38805888"/>
+        <c:axId val="37548416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37735040"/>
+        <c:crossAx val="37534336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1489,11 +1493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103560320"/>
-        <c:axId val="103561856"/>
+        <c:axId val="150946944"/>
+        <c:axId val="150948480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103560320"/>
+        <c:axId val="150946944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,14 +1507,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103561856"/>
+        <c:crossAx val="150948480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103561856"/>
+        <c:axId val="150948480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,13 +1525,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103560320"/>
+        <c:crossAx val="150946944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1629,49 +1634,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,49 +1750,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15.555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>13.611111111111111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9.7222222222222214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.7777777777777768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.8333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.8888888888888875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.9444444444444431</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-1.9444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-3.8888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-5.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-7.7777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-9.7222222222222214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,11 +1809,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103605760"/>
-        <c:axId val="103607296"/>
+        <c:axId val="150986112"/>
+        <c:axId val="168952960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103605760"/>
+        <c:axId val="150986112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,14 +1823,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103607296"/>
+        <c:crossAx val="168952960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103607296"/>
+        <c:axId val="168952960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103605760"/>
+        <c:crossAx val="150986112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2291,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,8 +2384,8 @@
         <v>131</v>
       </c>
       <c r="D4" s="4">
-        <f>H3-E4</f>
-        <v>124</v>
+        <f t="shared" ref="D4:D5" si="0">H3-F4</f>
+        <v>127</v>
       </c>
       <c r="E4" s="4">
         <v>19</v>
@@ -2392,7 +2397,8 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>135</v>
+        <f t="shared" ref="H4:H5" si="1">H3-E4+G3</f>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2403,12 +2409,12 @@
         <v>12</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C15" si="0" xml:space="preserve"> C4 - B5</f>
+        <f t="shared" ref="C5:C15" si="2" xml:space="preserve"> C4 - B5</f>
         <v>119</v>
       </c>
       <c r="D5" s="4">
-        <f>H4-E5</f>
-        <v>121</v>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="E5" s="4">
         <v>14</v>
@@ -2420,26 +2426,38 @@
         <v>23</v>
       </c>
       <c r="H5" s="4">
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
-        <f t="shared" si="0"/>
+      <c r="C6" s="4">
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="D6" s="3">
-        <f>H5-E6</f>
-        <v>125</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="D6" s="4">
+        <f>H5-F6</f>
+        <v>70</v>
+      </c>
+      <c r="E6" s="4">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>H5-E6+G5</f>
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2449,7 +2467,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="D7" s="2"/>
@@ -2464,7 +2482,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="D8" s="2"/>
@@ -2479,7 +2497,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="D9" s="2"/>
@@ -2494,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="D10" s="2"/>
@@ -2509,7 +2527,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="D11" s="2"/>
@@ -2524,7 +2542,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D12" s="2"/>
@@ -2539,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="D13" s="2"/>
@@ -2554,7 +2572,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D14" s="2"/>
@@ -2569,7 +2587,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D15" s="2"/>
@@ -2621,8 +2639,8 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4643,7 +4661,7 @@
       <c r="A6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="79">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -4696,7 +4714,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="67"/>
-      <c r="B7" s="82"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -4717,7 +4735,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
-      <c r="B8" s="82"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -4740,7 +4758,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="67"/>
-      <c r="B9" s="83"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -4761,7 +4779,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="67"/>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -4814,7 +4832,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="67"/>
-      <c r="B11" s="85"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -4835,7 +4853,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="67"/>
-      <c r="B12" s="85"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -4856,7 +4874,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="67"/>
-      <c r="B13" s="85"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -4879,7 +4897,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="67"/>
-      <c r="B14" s="85"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
@@ -4930,7 +4948,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="67"/>
-      <c r="B15" s="85"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -4957,7 +4975,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
-      <c r="B16" s="85"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -4980,7 +4998,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
-      <c r="B17" s="85"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
@@ -5123,7 +5141,7 @@
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67"/>
-      <c r="B22" s="79"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="49" t="s">
         <v>31</v>
       </c>
@@ -5174,7 +5192,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="67"/>
-      <c r="B23" s="79"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -5195,7 +5213,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="67"/>
-      <c r="B24" s="79"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -5216,7 +5234,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="68"/>
-      <c r="B25" s="80"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -5297,7 +5315,7 @@
       <c r="A28" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="79">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -5347,7 +5365,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="67"/>
-      <c r="B29" s="82"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="45" t="s">
         <v>16</v>
       </c>
@@ -5368,7 +5386,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
-      <c r="B30" s="82"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
@@ -5407,7 +5425,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="83"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
@@ -5428,7 +5446,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="67"/>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -5478,7 +5496,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="67"/>
-      <c r="B33" s="85"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="45" t="s">
         <v>16</v>
       </c>
@@ -5517,7 +5535,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="67"/>
-      <c r="B34" s="85"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="45" t="s">
         <v>17</v>
       </c>
@@ -5538,7 +5556,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="67"/>
-      <c r="B35" s="85"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -5577,7 +5595,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="67"/>
-      <c r="B36" s="85"/>
+      <c r="B36" s="83"/>
       <c r="C36" s="52" t="s">
         <v>33</v>
       </c>
@@ -5625,7 +5643,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="67"/>
-      <c r="B37" s="85"/>
+      <c r="B37" s="83"/>
       <c r="C37" s="45" t="s">
         <v>16</v>
       </c>
@@ -5664,7 +5682,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="67"/>
-      <c r="B38" s="85"/>
+      <c r="B38" s="83"/>
       <c r="C38" s="45" t="s">
         <v>17</v>
       </c>
@@ -5703,7 +5721,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="67"/>
-      <c r="B39" s="85"/>
+      <c r="B39" s="83"/>
       <c r="C39" s="45" t="s">
         <v>18</v>
       </c>
@@ -5873,7 +5891,7 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="67"/>
-      <c r="B44" s="79"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="49" t="s">
         <v>31</v>
       </c>
@@ -5921,7 +5939,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="67"/>
-      <c r="B45" s="79"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -5942,7 +5960,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="67"/>
-      <c r="B46" s="79"/>
+      <c r="B46" s="84"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -5981,7 +5999,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="68"/>
-      <c r="B47" s="80"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -6109,6 +6127,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B17"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A28:A39"/>
@@ -6117,14 +6143,6 @@
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -6141,8 +6159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6306,7 +6324,7 @@
       <c r="A6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="79">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -6314,7 +6332,7 @@
       </c>
       <c r="D6" s="15">
         <f>SUM(D7:D9)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E6" s="16">
         <f t="shared" ref="E6:M6" si="0">SUM(E7:E9)</f>
@@ -6330,7 +6348,7 @@
       </c>
       <c r="H6" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="0"/>
@@ -6374,12 +6392,12 @@
       </c>
       <c r="S6" s="14">
         <f>SUM(E6:R6)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="67"/>
-      <c r="B7" s="82"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -6405,7 +6423,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
-      <c r="B8" s="82"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -6431,15 +6449,19 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="67"/>
-      <c r="B9" s="83"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="26">
+        <v>1.5</v>
+      </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="H9" s="29">
+        <v>1.5</v>
+      </c>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -6452,12 +6474,12 @@
       <c r="R9" s="29"/>
       <c r="S9" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="67"/>
-      <c r="B10" s="94">
+      <c r="B10" s="89">
         <v>15</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -6465,7 +6487,7 @@
       </c>
       <c r="D10" s="10">
         <f>SUM(D11:D13)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="16">
         <f t="shared" ref="E10:M10" si="3">SUM(E11:E13)</f>
@@ -6509,7 +6531,7 @@
       </c>
       <c r="O10" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P10" s="16">
         <f t="shared" si="4"/>
@@ -6525,12 +6547,12 @@
       </c>
       <c r="S10" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="67"/>
-      <c r="B11" s="95"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -6556,7 +6578,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="67"/>
-      <c r="B12" s="95"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -6582,11 +6604,13 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="67"/>
-      <c r="B13" s="96"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="26">
+        <v>1.5</v>
+      </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="29"/>
@@ -6597,18 +6621,20 @@
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="O13" s="29">
+        <v>1.5</v>
+      </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
       <c r="R13" s="29"/>
       <c r="S13" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="67"/>
-      <c r="B14" s="94">
+      <c r="B14" s="89">
         <v>21</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -6681,7 +6707,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="67"/>
-      <c r="B15" s="95"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -6713,7 +6739,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
-      <c r="B16" s="95"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -6739,7 +6765,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
-      <c r="B17" s="96"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -6765,7 +6791,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
-      <c r="B18" s="94">
+      <c r="B18" s="89">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -6838,7 +6864,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="67"/>
-      <c r="B19" s="95"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -6868,7 +6894,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
-      <c r="B20" s="95"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -6894,7 +6920,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
-      <c r="B21" s="96"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -6920,7 +6946,7 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67"/>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="92" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="60" t="s">
@@ -6993,7 +7019,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="67"/>
-      <c r="B23" s="87"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -7019,7 +7045,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="67"/>
-      <c r="B24" s="87"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -7051,7 +7077,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="67"/>
-      <c r="B25" s="88"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -7077,7 +7103,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="67"/>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="92" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="60" t="s">
@@ -7150,7 +7176,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="67"/>
-      <c r="B27" s="87"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="45" t="s">
         <v>16</v>
       </c>
@@ -7176,7 +7202,7 @@
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67"/>
-      <c r="B28" s="87"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
@@ -7206,7 +7232,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="67"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -7232,7 +7258,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
-      <c r="B30" s="86">
+      <c r="B30" s="92">
         <v>31</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -7305,7 +7331,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="87"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="45" t="s">
         <v>16</v>
       </c>
@@ -7331,7 +7357,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="67"/>
-      <c r="B32" s="87"/>
+      <c r="B32" s="93"/>
       <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
@@ -7361,7 +7387,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="68"/>
-      <c r="B33" s="88"/>
+      <c r="B33" s="94"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -7542,7 +7568,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="67"/>
-      <c r="B38" s="91"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="10" t="s">
         <v>40</v>
       </c>
@@ -7613,7 +7639,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="67"/>
-      <c r="B39" s="92"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="45" t="s">
         <v>16</v>
       </c>
@@ -7639,7 +7665,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="67"/>
-      <c r="B40" s="92"/>
+      <c r="B40" s="87"/>
       <c r="C40" s="45" t="s">
         <v>17</v>
       </c>
@@ -7669,7 +7695,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="68"/>
-      <c r="B41" s="93"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -7694,13 +7720,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="90"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="2">
         <f>SUM(D6,D10,D14,D34,D38)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" ref="E42:R42" si="21">SUM(E6,E10,E14,E34,E38,E18,E22,E26,E30)</f>
@@ -7716,7 +7742,7 @@
       </c>
       <c r="H42" s="2">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="21"/>
@@ -7744,7 +7770,7 @@
       </c>
       <c r="O42" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="21"/>
@@ -7760,14 +7786,14 @@
       </c>
       <c r="S42" s="23">
         <f>SUM(E42:R42)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="81">
+      <c r="B44" s="79">
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -7775,68 +7801,68 @@
       </c>
       <c r="D44" s="15">
         <f>SUM(D45:D47)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E44" s="16">
         <f t="shared" ref="E44:M44" si="22">SUM(E45:E47)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F44" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G44" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H44" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I44" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K44" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L44" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M44" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N44" s="16">
         <f t="shared" ref="N44:R44" si="23">SUM(N45:N47)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O44" s="16">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P44" s="16">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q44" s="16">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R44" s="35">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="67"/>
-      <c r="B45" s="82"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -7861,7 +7887,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="67"/>
-      <c r="B46" s="82"/>
+      <c r="B46" s="80"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -7886,32 +7912,60 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="67"/>
-      <c r="B47" s="83"/>
+      <c r="B47" s="81"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="24">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="36"/>
+        <v>1.5</v>
+      </c>
+      <c r="E47" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="H47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="J47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="M47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="N47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="O47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="P47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="Q47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R47" s="31">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="67"/>
-      <c r="B48" s="94">
+      <c r="B48" s="89">
         <v>15</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -7919,68 +7973,68 @@
       </c>
       <c r="D48" s="10">
         <f>SUM(D49:D51)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E48" s="16">
         <f t="shared" ref="E48:M48" si="25">SUM(E49:E51)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F48" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G48" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H48" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J48" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K48" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L48" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M48" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N48" s="16">
         <f t="shared" ref="N48:R48" si="26">SUM(N49:N51)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O48" s="16">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-3.25</v>
       </c>
       <c r="P48" s="16">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="Q48" s="16">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-6.5</v>
       </c>
       <c r="R48" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="67"/>
-      <c r="B49" s="95"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="45" t="s">
         <v>16</v>
       </c>
@@ -8005,7 +8059,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="67"/>
-      <c r="B50" s="95"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="45" t="s">
         <v>17</v>
       </c>
@@ -8030,32 +8084,63 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="67"/>
-      <c r="B51" s="96"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="24">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="39"/>
+        <v>1.5</v>
+      </c>
+      <c r="E51" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="F51" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G51" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="H51" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="I51" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="J51" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="K51" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="L51" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="M51" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="N51" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="O51" s="33">
+        <f>1.5-4.75</f>
+        <v>-3.25</v>
+      </c>
+      <c r="P51" s="33">
+        <f>O51-2.75</f>
+        <v>-6</v>
+      </c>
+      <c r="Q51" s="33">
+        <f>P51-0.5</f>
+        <v>-6.5</v>
+      </c>
+      <c r="R51" s="39">
+        <v>-6.5</v>
+      </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="67"/>
-      <c r="B52" s="94">
+      <c r="B52" s="89">
         <v>21</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -8067,31 +8152,31 @@
       </c>
       <c r="E52" s="16">
         <f t="shared" ref="E52:M52" si="28">SUM(E53:E55)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" s="16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G52" s="16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" s="16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52" s="16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J52" s="16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K52" s="16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52" s="16">
         <f t="shared" si="28"/>
@@ -8124,7 +8209,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="67"/>
-      <c r="B53" s="95"/>
+      <c r="B53" s="90"/>
       <c r="C53" s="45" t="s">
         <v>16</v>
       </c>
@@ -8132,24 +8217,52 @@
         <f>D15</f>
         <v>4</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="37"/>
+      <c r="E53" s="31">
+        <v>4</v>
+      </c>
+      <c r="F53" s="31">
+        <v>4</v>
+      </c>
+      <c r="G53" s="31">
+        <v>4</v>
+      </c>
+      <c r="H53" s="31">
+        <v>4</v>
+      </c>
+      <c r="I53" s="31">
+        <v>4</v>
+      </c>
+      <c r="J53" s="31">
+        <v>3</v>
+      </c>
+      <c r="K53" s="31">
+        <v>2</v>
+      </c>
+      <c r="L53" s="32">
+        <v>0</v>
+      </c>
+      <c r="M53" s="32">
+        <v>0</v>
+      </c>
+      <c r="N53" s="32">
+        <v>0</v>
+      </c>
+      <c r="O53" s="32">
+        <v>0</v>
+      </c>
+      <c r="P53" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="32">
+        <v>0</v>
+      </c>
+      <c r="R53" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="67"/>
-      <c r="B54" s="95"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="45" t="s">
         <v>17</v>
       </c>
@@ -8174,7 +8287,7 @@
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="67"/>
-      <c r="B55" s="96"/>
+      <c r="B55" s="91"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -8199,7 +8312,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="67"/>
-      <c r="B56" s="94">
+      <c r="B56" s="89">
         <v>18</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -8211,31 +8324,31 @@
       </c>
       <c r="E56" s="16">
         <f t="shared" ref="E56:M56" si="31">SUM(E57:E59)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F56" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K56" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56" s="16">
         <f t="shared" si="31"/>
@@ -8243,32 +8356,32 @@
       </c>
       <c r="M56" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N56" s="16">
         <f t="shared" ref="N56:R56" si="32">SUM(N57:N59)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O56" s="16">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P56" s="16">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q56" s="16">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R56" s="35">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="67"/>
-      <c r="B57" s="95"/>
+      <c r="B57" s="90"/>
       <c r="C57" s="45" t="s">
         <v>16</v>
       </c>
@@ -8276,24 +8389,52 @@
         <f>D19</f>
         <v>3</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="36"/>
+      <c r="E57" s="31">
+        <v>3</v>
+      </c>
+      <c r="F57" s="31">
+        <v>3</v>
+      </c>
+      <c r="G57" s="31">
+        <v>3</v>
+      </c>
+      <c r="H57" s="31">
+        <v>3</v>
+      </c>
+      <c r="I57" s="31">
+        <v>3</v>
+      </c>
+      <c r="J57" s="31">
+        <v>3</v>
+      </c>
+      <c r="K57" s="31">
+        <v>2</v>
+      </c>
+      <c r="L57" s="31">
+        <v>0</v>
+      </c>
+      <c r="M57" s="31">
+        <v>-1</v>
+      </c>
+      <c r="N57" s="31">
+        <v>-1</v>
+      </c>
+      <c r="O57" s="31">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="31">
+        <v>-1</v>
+      </c>
+      <c r="Q57" s="31">
+        <v>-1</v>
+      </c>
+      <c r="R57" s="31">
+        <v>-1</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="67"/>
-      <c r="B58" s="95"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="45" t="s">
         <v>17</v>
       </c>
@@ -8318,7 +8459,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="67"/>
-      <c r="B59" s="96"/>
+      <c r="B59" s="91"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -8343,7 +8484,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="67"/>
-      <c r="B60" s="86" t="s">
+      <c r="B60" s="92" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -8351,68 +8492,68 @@
       </c>
       <c r="D60" s="10">
         <f>SUM(D61:D63)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E60" s="21">
         <f t="shared" ref="E60:M60" si="34">SUM(E61:E63)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F60" s="21">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G60" s="21">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H60" s="21">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I60" s="21">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J60" s="21">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K60" s="21">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L60" s="21">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M60" s="21">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N60" s="21">
         <f t="shared" ref="N60:R60" si="35">SUM(N61:N63)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O60" s="21">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P60" s="21">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q60" s="21">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R60" s="13">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="67"/>
-      <c r="B61" s="87"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="45" t="s">
         <v>16</v>
       </c>
@@ -8437,31 +8578,60 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="67"/>
-      <c r="B62" s="87"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="24">
-        <v>0</v>
-      </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="36"/>
+        <f>D24</f>
+        <v>8</v>
+      </c>
+      <c r="E62" s="31">
+        <v>8</v>
+      </c>
+      <c r="F62" s="31">
+        <v>8</v>
+      </c>
+      <c r="G62" s="31">
+        <v>8</v>
+      </c>
+      <c r="H62" s="31">
+        <v>8</v>
+      </c>
+      <c r="I62" s="31">
+        <v>8</v>
+      </c>
+      <c r="J62" s="31">
+        <v>8</v>
+      </c>
+      <c r="K62" s="31">
+        <v>4</v>
+      </c>
+      <c r="L62" s="31">
+        <v>4</v>
+      </c>
+      <c r="M62" s="31">
+        <v>4</v>
+      </c>
+      <c r="N62" s="31">
+        <v>4</v>
+      </c>
+      <c r="O62" s="31">
+        <v>4</v>
+      </c>
+      <c r="P62" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="31">
+        <v>4</v>
+      </c>
+      <c r="R62" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="67"/>
-      <c r="B63" s="88"/>
+      <c r="B63" s="94"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -8486,7 +8656,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="67"/>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="92" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="60" t="s">
@@ -8494,68 +8664,68 @@
       </c>
       <c r="D64" s="10">
         <f>SUM(D65:D67)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E64" s="16">
         <f t="shared" ref="E64:M64" si="37">SUM(E65:E67)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F64" s="16">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G64" s="16">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H64" s="16">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J64" s="16">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K64" s="16">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L64" s="16">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M64" s="16">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N64" s="16">
         <f t="shared" ref="N64:R64" si="38">SUM(N65:N67)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O64" s="16">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P64" s="16">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q64" s="16">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R64" s="35">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="67"/>
-      <c r="B65" s="87"/>
+      <c r="B65" s="93"/>
       <c r="C65" s="45" t="s">
         <v>16</v>
       </c>
@@ -8580,31 +8750,60 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="67"/>
-      <c r="B66" s="87"/>
+      <c r="B66" s="93"/>
       <c r="C66" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="24">
-        <v>0</v>
-      </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="36"/>
+        <f>D28</f>
+        <v>5</v>
+      </c>
+      <c r="E66" s="31">
+        <v>5</v>
+      </c>
+      <c r="F66" s="31">
+        <v>5</v>
+      </c>
+      <c r="G66" s="31">
+        <v>5</v>
+      </c>
+      <c r="H66" s="31">
+        <v>5</v>
+      </c>
+      <c r="I66" s="31">
+        <v>5</v>
+      </c>
+      <c r="J66" s="31">
+        <v>5</v>
+      </c>
+      <c r="K66" s="31">
+        <v>5</v>
+      </c>
+      <c r="L66" s="31">
+        <v>5</v>
+      </c>
+      <c r="M66" s="31">
+        <v>5</v>
+      </c>
+      <c r="N66" s="31">
+        <v>5</v>
+      </c>
+      <c r="O66" s="31">
+        <v>5</v>
+      </c>
+      <c r="P66" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="31">
+        <v>5</v>
+      </c>
+      <c r="R66" s="36">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="67"/>
-      <c r="B67" s="88"/>
+      <c r="B67" s="94"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -8629,7 +8828,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="67"/>
-      <c r="B68" s="86">
+      <c r="B68" s="92">
         <v>31</v>
       </c>
       <c r="C68" s="60" t="s">
@@ -8637,68 +8836,68 @@
       </c>
       <c r="D68" s="10">
         <f>SUM(D69:D71)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68" s="16">
         <f t="shared" ref="E68:M68" si="40">SUM(E69:E71)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F68" s="16">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G68" s="16">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" s="16">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I68" s="16">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J68" s="16">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K68" s="16">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L68" s="16">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M68" s="16">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N68" s="16">
         <f t="shared" ref="N68:R68" si="41">SUM(N69:N71)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O68" s="16">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P68" s="16">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q68" s="16">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R68" s="35">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="67"/>
-      <c r="B69" s="87"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="45" t="s">
         <v>16</v>
       </c>
@@ -8723,31 +8922,60 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="67"/>
-      <c r="B70" s="87"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="24">
-        <v>0</v>
-      </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="37"/>
+        <f>D32</f>
+        <v>3</v>
+      </c>
+      <c r="E70" s="31">
+        <v>3</v>
+      </c>
+      <c r="F70" s="31">
+        <v>3</v>
+      </c>
+      <c r="G70" s="31">
+        <v>2</v>
+      </c>
+      <c r="H70" s="31">
+        <v>-1</v>
+      </c>
+      <c r="I70" s="31">
+        <v>-1</v>
+      </c>
+      <c r="J70" s="31">
+        <v>-1</v>
+      </c>
+      <c r="K70" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L70" s="31">
+        <v>-1</v>
+      </c>
+      <c r="M70" s="31">
+        <v>-1</v>
+      </c>
+      <c r="N70" s="31">
+        <v>-1</v>
+      </c>
+      <c r="O70" s="31">
+        <v>-1</v>
+      </c>
+      <c r="P70" s="31">
+        <v>-1</v>
+      </c>
+      <c r="Q70" s="31">
+        <v>-1</v>
+      </c>
+      <c r="R70" s="31">
+        <v>-1</v>
+      </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="68"/>
-      <c r="B71" s="88"/>
+      <c r="B71" s="94"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -8774,74 +9002,74 @@
       <c r="A72" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="81"/>
+      <c r="B72" s="79"/>
       <c r="C72" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="10">
         <f>SUM(D73:D75)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E72" s="16">
         <f t="shared" ref="E72:M72" si="43">SUM(E73:E75)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" s="16">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="16">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="16">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="16">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="16">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="16">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="16">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="16">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="16">
         <f t="shared" ref="N72:R72" si="44">SUM(N73:N75)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" s="16">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" s="16">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="16">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="35">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="67"/>
-      <c r="B73" s="82"/>
+      <c r="B73" s="80"/>
       <c r="C73" s="45" t="s">
         <v>16</v>
       </c>
@@ -8866,31 +9094,60 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="67"/>
-      <c r="B74" s="82"/>
+      <c r="B74" s="80"/>
       <c r="C74" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="24">
-        <v>0</v>
-      </c>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32"/>
-      <c r="R74" s="37"/>
+        <f>D36</f>
+        <v>2</v>
+      </c>
+      <c r="E74" s="31">
+        <v>2</v>
+      </c>
+      <c r="F74" s="31">
+        <v>1</v>
+      </c>
+      <c r="G74" s="31">
+        <v>1</v>
+      </c>
+      <c r="H74" s="31">
+        <v>1</v>
+      </c>
+      <c r="I74" s="31">
+        <v>1</v>
+      </c>
+      <c r="J74" s="31">
+        <v>1</v>
+      </c>
+      <c r="K74" s="31">
+        <v>1</v>
+      </c>
+      <c r="L74" s="31">
+        <v>1</v>
+      </c>
+      <c r="M74" s="31">
+        <v>1</v>
+      </c>
+      <c r="N74" s="31">
+        <v>1</v>
+      </c>
+      <c r="O74" s="31">
+        <v>1</v>
+      </c>
+      <c r="P74" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="31">
+        <v>1</v>
+      </c>
+      <c r="R74" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="67"/>
-      <c r="B75" s="83"/>
+      <c r="B75" s="81"/>
       <c r="C75" s="45" t="s">
         <v>18</v>
       </c>
@@ -8915,74 +9172,74 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="67"/>
-      <c r="B76" s="91"/>
+      <c r="B76" s="86"/>
       <c r="C76" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D76" s="10">
         <f>SUM(D77:D79)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E76" s="21">
         <f t="shared" ref="E76:M76" si="46">SUM(E77:E79)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F76" s="21">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76" s="21">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H76" s="21">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I76" s="21">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J76" s="21">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="K76" s="21">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L76" s="21">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M76" s="21">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N76" s="21">
         <f t="shared" ref="N76:R76" si="47">SUM(N77:N79)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="O76" s="21">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P76" s="21">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Q76" s="21">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R76" s="13">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="67"/>
-      <c r="B77" s="92"/>
+      <c r="B77" s="87"/>
       <c r="C77" s="45" t="s">
         <v>16</v>
       </c>
@@ -9007,31 +9264,60 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="67"/>
-      <c r="B78" s="92"/>
+      <c r="B78" s="87"/>
       <c r="C78" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="24">
-        <v>0</v>
-      </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="31"/>
-      <c r="Q78" s="31"/>
-      <c r="R78" s="36"/>
+        <f>D40</f>
+        <v>6</v>
+      </c>
+      <c r="E78" s="31">
+        <v>6</v>
+      </c>
+      <c r="F78" s="31">
+        <v>2</v>
+      </c>
+      <c r="G78" s="31">
+        <v>-3</v>
+      </c>
+      <c r="H78" s="31">
+        <v>-3</v>
+      </c>
+      <c r="I78" s="31">
+        <v>-3</v>
+      </c>
+      <c r="J78" s="31">
+        <v>-3</v>
+      </c>
+      <c r="K78" s="31">
+        <v>-3</v>
+      </c>
+      <c r="L78" s="31">
+        <v>-3</v>
+      </c>
+      <c r="M78" s="31">
+        <v>-3</v>
+      </c>
+      <c r="N78" s="31">
+        <v>-3</v>
+      </c>
+      <c r="O78" s="31">
+        <v>-3</v>
+      </c>
+      <c r="P78" s="31">
+        <v>-3</v>
+      </c>
+      <c r="Q78" s="31">
+        <v>-3</v>
+      </c>
+      <c r="R78" s="31">
+        <v>-3</v>
+      </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="68"/>
-      <c r="B79" s="93"/>
+      <c r="B79" s="88"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -9055,107 +9341,107 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="89" t="s">
+      <c r="B80" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="89"/>
+      <c r="C80" s="95"/>
       <c r="D80" s="2">
         <f t="shared" ref="D80:M80" si="49">SUM(D44,D64,D68,D72,D76)</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I80" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" ref="N80:R80" si="50">SUM(N44,N64,N68,N72,N76)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D81">
         <f>D80</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="E81">
         <f t="shared" ref="E81:M81" si="51" xml:space="preserve"> D81 - ($D$81/COUNT($D$4:$M$4))</f>
-        <v>0</v>
+        <v>15.555555555555555</v>
       </c>
       <c r="F81">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>13.611111111111111</v>
       </c>
       <c r="G81">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="H81">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>9.7222222222222214</v>
       </c>
       <c r="I81">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>7.7777777777777768</v>
       </c>
       <c r="J81">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>5.8333333333333321</v>
       </c>
       <c r="K81">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>3.8888888888888875</v>
       </c>
       <c r="L81">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1.9444444444444431</v>
       </c>
       <c r="M81">
         <f t="shared" si="51"/>
@@ -9163,27 +9449,37 @@
       </c>
       <c r="N81">
         <f t="shared" ref="N81:R81" si="52" xml:space="preserve"> M81 - ($D$81/COUNT($D$4:$M$4))</f>
-        <v>0</v>
+        <v>-1.9444444444444444</v>
       </c>
       <c r="O81">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>-3.8888888888888888</v>
       </c>
       <c r="P81">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>-5.833333333333333</v>
       </c>
       <c r="Q81">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>-7.7777777777777777</v>
       </c>
       <c r="R81">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>-9.7222222222222214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B68:B71"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
@@ -9200,16 +9496,6 @@
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B64:B67"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B68:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="25605" windowHeight="14520"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="25605" windowHeight="14460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Burndown" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+requirements added during the sprint that are not from the backlog (estimated hours)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="48">
   <si>
     <t>Time (person-hours (p-h))</t>
   </si>
@@ -164,6 +198,9 @@
   <si>
     <t>Implement suggestions to lower evap rate</t>
   </si>
+  <si>
+    <t>Total Estimated Effort</t>
+  </si>
 </sst>
 </file>
 
@@ -172,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +281,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -646,6 +696,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,11 +717,20 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,21 +749,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -729,6 +779,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Product Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -739,24 +813,22 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Product Burndown'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal Remaining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Ideal Remaining</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Product Burndown'!$A$3:$A$15</c:f>
+              <c:f>'Product Burndown'!$A$3:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -783,65 +855,41 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Product Burndown'!$C$3:$C$15</c:f>
+              <c:f>'Product Burndown'!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -853,83 +901,29 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Product Burndown'!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Estimated Remaining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Estimated remaining</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Product Burndown'!$A$3:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Start</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Product Burndown'!$H$3:$H$15</c:f>
+              <c:f>'Product Burndown'!$H$3:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,20 +940,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37503360"/>
-        <c:axId val="37504896"/>
+        <c:axId val="42040704"/>
+        <c:axId val="43460096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37503360"/>
+        <c:axId val="42040704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37504896"/>
+        <c:crossAx val="43460096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -967,18 +980,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37504896"/>
+        <c:axId val="43460096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37503360"/>
+        <c:crossAx val="42040704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1238,11 +1270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37534336"/>
-        <c:axId val="37548416"/>
+        <c:axId val="35568256"/>
+        <c:axId val="35582336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="37534336"/>
+        <c:axId val="35568256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,14 +1284,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37548416"/>
+        <c:crossAx val="35582336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="37548416"/>
+        <c:axId val="35582336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,13 +1302,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37534336"/>
+        <c:crossAx val="35568256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1493,11 +1526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150946944"/>
-        <c:axId val="150948480"/>
+        <c:axId val="168899712"/>
+        <c:axId val="168901248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="150946944"/>
+        <c:axId val="168899712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,14 +1540,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150948480"/>
+        <c:crossAx val="168901248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="150948480"/>
+        <c:axId val="168901248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,7 +1558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150946944"/>
+        <c:crossAx val="168899712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1809,11 +1842,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150986112"/>
-        <c:axId val="168952960"/>
+        <c:axId val="168951168"/>
+        <c:axId val="172496000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="150986112"/>
+        <c:axId val="168951168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,14 +1856,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168952960"/>
+        <c:crossAx val="172496000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168952960"/>
+        <c:axId val="172496000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,7 +1874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150986112"/>
+        <c:crossAx val="168951168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1867,20 +1900,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2293,11 +2326,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,15 +2410,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
         <f xml:space="preserve"> C3 - B4</f>
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D5" si="0">H3-F4</f>
-        <v>127</v>
+        <f>H3-E4</f>
+        <v>124</v>
       </c>
       <c r="E4" s="4">
         <v>19</v>
@@ -2394,11 +2427,11 @@
         <v>16</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H5" si="1">H3-E4+G3</f>
-        <v>124</v>
+        <f t="shared" ref="H4:H5" si="0">H3-F4+G4</f>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2406,15 +2439,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C15" si="2" xml:space="preserve"> C4 - B5</f>
-        <v>119</v>
+        <f t="shared" ref="C5:C15" si="1" xml:space="preserve"> C4 - B5</f>
+        <v>107</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>92</v>
+        <f t="shared" ref="D5:D6" si="2">H4-E5</f>
+        <v>118</v>
       </c>
       <c r="E5" s="4">
         <v>14</v>
@@ -2423,11 +2456,11 @@
         <v>32</v>
       </c>
       <c r="G5" s="4">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2435,15 +2468,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
-      </c>
-      <c r="D6" s="4">
-        <f>H5-F6</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4">
         <v>34</v>
@@ -2452,11 +2485,11 @@
         <v>40</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H6" s="4">
-        <f>H5-E6+G5</f>
-        <v>99</v>
+        <f>H5-F6+G6</f>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2464,11 +2497,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="2"/>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2"/>
@@ -2479,11 +2512,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="2"/>
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
@@ -2494,11 +2527,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="2"/>
-        <v>71</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
@@ -2509,11 +2542,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="2"/>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
@@ -2524,72 +2557,44 @@
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="2"/>
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2641,6 +2646,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2653,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4539,7 +4545,7 @@
   <dimension ref="A2:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="B18" sqref="B18:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4661,7 +4667,7 @@
       <c r="A6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="81">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -4689,7 +4695,7 @@
       </c>
       <c r="I6" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="0"/>
@@ -4709,12 +4715,12 @@
       </c>
       <c r="N6" s="14">
         <f t="shared" ref="N6:N26" si="1">SUM(E6:M6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="67"/>
-      <c r="B7" s="80"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -4735,7 +4741,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
-      <c r="B8" s="80"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -4746,19 +4752,21 @@
       <c r="F8" s="59"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="I8" s="59">
+        <v>2</v>
+      </c>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
       <c r="L8" s="59"/>
       <c r="M8" s="59"/>
       <c r="N8" s="28">
-        <f>SUM(E30:M30)</f>
-        <v>-42</v>
+        <f>SUM(E8:M8)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="67"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -4773,13 +4781,13 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
       <c r="N9" s="30">
-        <f t="shared" si="1"/>
+        <f>SUM(E9:M9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="67"/>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="84" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -4811,7 +4819,7 @@
       </c>
       <c r="J10" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="16">
         <f t="shared" si="2"/>
@@ -4827,33 +4835,37 @@
       </c>
       <c r="N10" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="67"/>
-      <c r="B11" s="83"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="J11" s="27">
+        <v>1</v>
+      </c>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
       <c r="N11" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="67"/>
-      <c r="B12" s="83"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -4868,19 +4880,17 @@
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="28">
-        <f t="shared" si="1"/>
+        <f>SUM(E12:M12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="67"/>
-      <c r="B13" s="83"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="26">
-        <v>1</v>
-      </c>
+      <c r="D13" s="26"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="29"/>
@@ -4897,7 +4907,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="67"/>
-      <c r="B14" s="83"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
@@ -4927,7 +4937,7 @@
       </c>
       <c r="J14" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="16">
         <f t="shared" si="3"/>
@@ -4943,12 +4953,12 @@
       </c>
       <c r="N14" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="67"/>
-      <c r="B15" s="83"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -4975,7 +4985,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
-      <c r="B16" s="83"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -4987,18 +4997,20 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="J16" s="27">
+        <v>3</v>
+      </c>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
-      <c r="B17" s="83"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
@@ -5047,7 +5059,7 @@
       </c>
       <c r="I18" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="4"/>
@@ -5067,7 +5079,7 @@
       </c>
       <c r="N18" s="14">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -5108,14 +5120,16 @@
       <c r="F20" s="17"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -5141,7 +5155,7 @@
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67"/>
-      <c r="B22" s="84"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="49" t="s">
         <v>31</v>
       </c>
@@ -5171,7 +5185,7 @@
       </c>
       <c r="J22" s="50">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="50">
         <f t="shared" si="5"/>
@@ -5187,12 +5201,12 @@
       </c>
       <c r="N22" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="67"/>
-      <c r="B23" s="84"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -5213,34 +5227,36 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="67"/>
-      <c r="B24" s="84"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="25">
+        <v>1</v>
+      </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="J24" s="27">
+        <v>1</v>
+      </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="N24" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="68"/>
-      <c r="B25" s="85"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="26">
-        <v>1</v>
-      </c>
+      <c r="D25" s="26"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="29"/>
@@ -5282,11 +5298,11 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="6"/>
@@ -5302,7 +5318,7 @@
       </c>
       <c r="N26" s="23">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -5315,7 +5331,7 @@
       <c r="A28" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="79">
+      <c r="B28" s="81">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -5365,7 +5381,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="67"/>
-      <c r="B29" s="80"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="45" t="s">
         <v>16</v>
       </c>
@@ -5386,7 +5402,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
-      <c r="B30" s="80"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
@@ -5425,7 +5441,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="81"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
@@ -5446,7 +5462,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="67"/>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="84" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -5496,13 +5512,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="67"/>
-      <c r="B33" s="83"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="57">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="31">
         <v>0</v>
@@ -5535,7 +5551,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="67"/>
-      <c r="B34" s="83"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="45" t="s">
         <v>17</v>
       </c>
@@ -5556,13 +5572,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="67"/>
-      <c r="B35" s="83"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="58">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="33">
         <v>1</v>
@@ -5595,7 +5611,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="67"/>
-      <c r="B36" s="83"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="52" t="s">
         <v>33</v>
       </c>
@@ -5643,7 +5659,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="67"/>
-      <c r="B37" s="83"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="45" t="s">
         <v>16</v>
       </c>
@@ -5682,7 +5698,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="67"/>
-      <c r="B38" s="83"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="45" t="s">
         <v>17</v>
       </c>
@@ -5721,7 +5737,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="67"/>
-      <c r="B39" s="83"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="45" t="s">
         <v>18</v>
       </c>
@@ -5891,7 +5907,7 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="67"/>
-      <c r="B44" s="84"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="49" t="s">
         <v>31</v>
       </c>
@@ -5939,7 +5955,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="67"/>
-      <c r="B45" s="84"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -5960,13 +5976,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="67"/>
-      <c r="B46" s="84"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="57">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="31">
         <v>0</v>
@@ -5999,13 +6015,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="68"/>
-      <c r="B47" s="85"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="58">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="33">
         <v>1</v>
@@ -6127,6 +6143,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
@@ -6135,14 +6159,6 @@
     <mergeCell ref="A6:A17"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -6159,8 +6175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O78" sqref="O78"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6175,7 +6191,7 @@
     <col min="14" max="14" width="12.7109375" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -6317,14 +6333,14 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="61"/>
       <c r="S5" s="54" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="81">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -6397,7 +6413,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="67"/>
-      <c r="B7" s="80"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -6423,7 +6439,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
-      <c r="B8" s="80"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -6449,7 +6465,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="67"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -6479,7 +6495,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="67"/>
-      <c r="B10" s="89">
+      <c r="B10" s="94">
         <v>15</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -6552,7 +6568,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="67"/>
-      <c r="B11" s="90"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -6578,7 +6594,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="67"/>
-      <c r="B12" s="90"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -6604,7 +6620,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="67"/>
-      <c r="B13" s="91"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -6634,7 +6650,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="67"/>
-      <c r="B14" s="89">
+      <c r="B14" s="94">
         <v>21</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -6642,7 +6658,7 @@
       </c>
       <c r="D14" s="10">
         <f>SUM(D15:D17)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" s="16">
         <f t="shared" ref="E14:M14" si="5">SUM(E15:E17)</f>
@@ -6694,7 +6710,7 @@
       </c>
       <c r="Q14" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R14" s="16">
         <f t="shared" si="6"/>
@@ -6702,17 +6718,17 @@
       </c>
       <c r="S14" s="14">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="67"/>
-      <c r="B15" s="90"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -6730,16 +6746,18 @@
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
+      <c r="Q15" s="27">
+        <v>4</v>
+      </c>
       <c r="R15" s="27"/>
       <c r="S15" s="28">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
-      <c r="B16" s="90"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -6765,7 +6783,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
-      <c r="B17" s="91"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -6791,7 +6809,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
-      <c r="B18" s="89">
+      <c r="B18" s="94">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -6864,7 +6882,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="67"/>
-      <c r="B19" s="90"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -6894,7 +6912,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
-      <c r="B20" s="90"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -6920,7 +6938,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
-      <c r="B21" s="91"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -6946,7 +6964,7 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67"/>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="86" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="60" t="s">
@@ -7019,7 +7037,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="67"/>
-      <c r="B23" s="93"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -7045,7 +7063,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="67"/>
-      <c r="B24" s="93"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -7077,7 +7095,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="67"/>
-      <c r="B25" s="94"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -7103,7 +7121,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="67"/>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="86" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="60" t="s">
@@ -7176,7 +7194,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="67"/>
-      <c r="B27" s="93"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="45" t="s">
         <v>16</v>
       </c>
@@ -7202,7 +7220,7 @@
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67"/>
-      <c r="B28" s="93"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
@@ -7232,7 +7250,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="67"/>
-      <c r="B29" s="94"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -7258,7 +7276,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
-      <c r="B30" s="92">
+      <c r="B30" s="86">
         <v>31</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -7331,7 +7349,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="93"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="45" t="s">
         <v>16</v>
       </c>
@@ -7357,7 +7375,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="67"/>
-      <c r="B32" s="93"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
@@ -7387,7 +7405,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="68"/>
-      <c r="B33" s="94"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -7568,7 +7586,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="67"/>
-      <c r="B38" s="86"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="10" t="s">
         <v>40</v>
       </c>
@@ -7639,7 +7657,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="67"/>
-      <c r="B39" s="87"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="45" t="s">
         <v>16</v>
       </c>
@@ -7665,7 +7683,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="67"/>
-      <c r="B40" s="87"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="45" t="s">
         <v>17</v>
       </c>
@@ -7695,7 +7713,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="68"/>
-      <c r="B41" s="88"/>
+      <c r="B41" s="93"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -7720,80 +7738,80 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="96"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="2">
-        <f>SUM(D6,D10,D14,D34,D38)</f>
-        <v>15</v>
+        <f>SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30)</f>
+        <v>38</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" ref="E42:R42" si="21">SUM(E6,E10,E14,E34,E38,E18,E22,E26,E30)</f>
+        <f>SUM(E6,E10,E14,E34,E38,E18,E22,E26,E30)</f>
         <v>2</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(F6,F10,F14,F34,F38,F18,F22,F26,F30)</f>
         <v>6</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(G6,G10,G14,G34,G38,G18,G22,G26,G30)</f>
         <v>4</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(H6,H10,H14,H34,H38,H18,H22,H26,H30)</f>
         <v>5.5</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(I6,I10,I14,I34,I38,I18,I22,I26,I30)</f>
         <v>8</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(J6,J10,J14,J34,J38,J18,J22,J26,J30)</f>
         <v>2</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(K6,K10,K14,K34,K38,K18,K22,K26,K30)</f>
         <v>5</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(L6,L10,L14,L34,L38,L18,L22,L26,L30)</f>
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(M6,M10,M14,M34,M38,M18,M22,M26,M30)</f>
         <v>0</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(N6,N10,N14,N34,N38,N18,N22,N26,N30)</f>
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(O6,O10,O14,O34,O38,O18,O22,O26,O30)</f>
         <v>1.5</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(P6,P10,P14,P34,P38,P18,P22,P26,P30)</f>
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>SUM(Q6,Q10,Q14,Q34,Q38,Q18,Q22,Q26,Q30)</f>
+        <v>4</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(R6,R10,R14,R34,R38,R18,R22,R26,R30)</f>
         <v>0</v>
       </c>
       <c r="S42" s="23">
         <f>SUM(E42:R42)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="79">
+      <c r="B44" s="81">
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -7804,65 +7822,65 @@
         <v>1.5</v>
       </c>
       <c r="E44" s="16">
-        <f t="shared" ref="E44:M44" si="22">SUM(E45:E47)</f>
+        <f t="shared" ref="E44:M44" si="21">SUM(E45:E47)</f>
         <v>1.5</v>
       </c>
       <c r="F44" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="G44" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="H44" s="16">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="16">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="16">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="M44" s="16">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="N44" s="16">
+        <f t="shared" ref="N44:R44" si="22">SUM(N45:N47)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O44" s="16">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="I44" s="16">
+      <c r="P44" s="16">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="J44" s="16">
+      <c r="Q44" s="16">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="K44" s="16">
+      <c r="R44" s="35">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="L44" s="16">
-        <f t="shared" si="22"/>
-        <v>0.5</v>
-      </c>
-      <c r="M44" s="16">
-        <f t="shared" si="22"/>
-        <v>0.5</v>
-      </c>
-      <c r="N44" s="16">
-        <f t="shared" ref="N44:R44" si="23">SUM(N45:N47)</f>
-        <v>0.5</v>
-      </c>
-      <c r="O44" s="16">
-        <f t="shared" si="23"/>
-        <v>0.5</v>
-      </c>
-      <c r="P44" s="16">
-        <f t="shared" si="23"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q44" s="16">
-        <f t="shared" si="23"/>
-        <v>0.5</v>
-      </c>
-      <c r="R44" s="35">
-        <f t="shared" si="23"/>
-        <v>0.5</v>
-      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="67"/>
-      <c r="B45" s="80"/>
+      <c r="B45" s="82"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -7887,12 +7905,12 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="67"/>
-      <c r="B46" s="80"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="24">
-        <f t="shared" ref="D46:D47" si="24">D8</f>
+        <f>D8</f>
         <v>0</v>
       </c>
       <c r="E46" s="31"/>
@@ -7912,12 +7930,12 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="67"/>
-      <c r="B47" s="81"/>
+      <c r="B47" s="83"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="24">
-        <f t="shared" si="24"/>
+        <f>D9</f>
         <v>1.5</v>
       </c>
       <c r="E47" s="31">
@@ -7965,7 +7983,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="67"/>
-      <c r="B48" s="89">
+      <c r="B48" s="94">
         <v>15</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -7976,65 +7994,65 @@
         <v>1.5</v>
       </c>
       <c r="E48" s="16">
-        <f t="shared" ref="E48:M48" si="25">SUM(E49:E51)</f>
+        <f t="shared" ref="E48:M48" si="23">SUM(E49:E51)</f>
         <v>1.5</v>
       </c>
       <c r="F48" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
       <c r="G48" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
       <c r="H48" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
       <c r="I48" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
       <c r="J48" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
       <c r="K48" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
       <c r="L48" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
       <c r="M48" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
       <c r="N48" s="16">
-        <f t="shared" ref="N48:R48" si="26">SUM(N49:N51)</f>
+        <f t="shared" ref="N48:R48" si="24">SUM(N49:N51)</f>
         <v>1.5</v>
       </c>
       <c r="O48" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-3.25</v>
       </c>
       <c r="P48" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-6</v>
       </c>
       <c r="Q48" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-6.5</v>
       </c>
       <c r="R48" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-6.5</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="67"/>
-      <c r="B49" s="90"/>
+      <c r="B49" s="95"/>
       <c r="C49" s="45" t="s">
         <v>16</v>
       </c>
@@ -8059,12 +8077,12 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="67"/>
-      <c r="B50" s="90"/>
+      <c r="B50" s="95"/>
       <c r="C50" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="24">
-        <f t="shared" ref="D50:D51" si="27">D12</f>
+        <f>D12</f>
         <v>0</v>
       </c>
       <c r="E50" s="31"/>
@@ -8084,12 +8102,12 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="67"/>
-      <c r="B51" s="91"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="24">
-        <f t="shared" si="27"/>
+        <f>D13</f>
         <v>1.5</v>
       </c>
       <c r="E51" s="33">
@@ -8140,7 +8158,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="67"/>
-      <c r="B52" s="89">
+      <c r="B52" s="94">
         <v>21</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -8148,74 +8166,74 @@
       </c>
       <c r="D52" s="10">
         <f>SUM(D53:D55)</f>
+        <v>8</v>
+      </c>
+      <c r="E52" s="16">
+        <f t="shared" ref="E52:M52" si="25">SUM(E53:E55)</f>
         <v>4</v>
       </c>
-      <c r="E52" s="16">
-        <f t="shared" ref="E52:M52" si="28">SUM(E53:E55)</f>
+      <c r="F52" s="16">
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="F52" s="16">
-        <f t="shared" si="28"/>
+      <c r="G52" s="16">
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="G52" s="16">
-        <f t="shared" si="28"/>
+      <c r="H52" s="16">
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="H52" s="16">
-        <f t="shared" si="28"/>
+      <c r="I52" s="16">
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="I52" s="16">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
       <c r="J52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="K52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="L52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N52" s="16">
-        <f t="shared" ref="N52:R52" si="29">SUM(N53:N55)</f>
+        <f t="shared" ref="N52:R52" si="26">SUM(N53:N55)</f>
         <v>0</v>
       </c>
       <c r="O52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R52" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="67"/>
-      <c r="B53" s="90"/>
+      <c r="B53" s="95"/>
       <c r="C53" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="24">
         <f>D15</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E53" s="31">
         <v>4</v>
@@ -8262,12 +8280,12 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="67"/>
-      <c r="B54" s="90"/>
+      <c r="B54" s="95"/>
       <c r="C54" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="24">
-        <f t="shared" ref="D54:D55" si="30">D16</f>
+        <f>D16</f>
         <v>0</v>
       </c>
       <c r="E54" s="31"/>
@@ -8287,12 +8305,12 @@
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="67"/>
-      <c r="B55" s="91"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="24">
-        <f t="shared" si="30"/>
+        <f>D17</f>
         <v>0</v>
       </c>
       <c r="E55" s="33"/>
@@ -8312,7 +8330,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="67"/>
-      <c r="B56" s="89">
+      <c r="B56" s="94">
         <v>18</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -8323,65 +8341,65 @@
         <v>3</v>
       </c>
       <c r="E56" s="16">
-        <f t="shared" ref="E56:M56" si="31">SUM(E57:E59)</f>
+        <f t="shared" ref="E56:M56" si="27">SUM(E57:E59)</f>
         <v>3</v>
       </c>
       <c r="F56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="G56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="H56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="I56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="J56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="K56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="L56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="N56" s="16">
-        <f t="shared" ref="N56:R56" si="32">SUM(N57:N59)</f>
+        <f t="shared" ref="N56:R56" si="28">SUM(N57:N59)</f>
         <v>-1</v>
       </c>
       <c r="O56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="P56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="Q56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="R56" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="67"/>
-      <c r="B57" s="90"/>
+      <c r="B57" s="95"/>
       <c r="C57" s="45" t="s">
         <v>16</v>
       </c>
@@ -8434,12 +8452,12 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="67"/>
-      <c r="B58" s="90"/>
+      <c r="B58" s="95"/>
       <c r="C58" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="24">
-        <f t="shared" ref="D58:D59" si="33">D20</f>
+        <f>D20</f>
         <v>0</v>
       </c>
       <c r="E58" s="31"/>
@@ -8459,12 +8477,12 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="67"/>
-      <c r="B59" s="91"/>
+      <c r="B59" s="96"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="24">
-        <f t="shared" si="33"/>
+        <f>D21</f>
         <v>0</v>
       </c>
       <c r="E59" s="33"/>
@@ -8484,7 +8502,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="67"/>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="86" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -8495,65 +8513,65 @@
         <v>8</v>
       </c>
       <c r="E60" s="21">
-        <f t="shared" ref="E60:M60" si="34">SUM(E61:E63)</f>
+        <f t="shared" ref="E60:M60" si="29">SUM(E61:E63)</f>
         <v>8</v>
       </c>
       <c r="F60" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="G60" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="H60" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="I60" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="J60" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="K60" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="L60" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="M60" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="N60" s="21">
-        <f t="shared" ref="N60:R60" si="35">SUM(N61:N63)</f>
+        <f t="shared" ref="N60:R60" si="30">SUM(N61:N63)</f>
         <v>4</v>
       </c>
       <c r="O60" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="P60" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="Q60" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="R60" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="67"/>
-      <c r="B61" s="93"/>
+      <c r="B61" s="87"/>
       <c r="C61" s="45" t="s">
         <v>16</v>
       </c>
@@ -8578,7 +8596,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="67"/>
-      <c r="B62" s="93"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="45" t="s">
         <v>17</v>
       </c>
@@ -8631,12 +8649,12 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="67"/>
-      <c r="B63" s="94"/>
+      <c r="B63" s="88"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="24">
-        <f t="shared" ref="D63" si="36">D25</f>
+        <f>D25</f>
         <v>0</v>
       </c>
       <c r="E63" s="33"/>
@@ -8656,7 +8674,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="67"/>
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="86" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="60" t="s">
@@ -8667,65 +8685,65 @@
         <v>5</v>
       </c>
       <c r="E64" s="16">
-        <f t="shared" ref="E64:M64" si="37">SUM(E65:E67)</f>
+        <f t="shared" ref="E64:M64" si="31">SUM(E65:E67)</f>
         <v>5</v>
       </c>
       <c r="F64" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="G64" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="H64" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="I64" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="J64" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="K64" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L64" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="M64" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="N64" s="16">
-        <f t="shared" ref="N64:R64" si="38">SUM(N65:N67)</f>
+        <f t="shared" ref="N64:R64" si="32">SUM(N65:N67)</f>
         <v>5</v>
       </c>
       <c r="O64" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="P64" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="Q64" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="R64" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="67"/>
-      <c r="B65" s="93"/>
+      <c r="B65" s="87"/>
       <c r="C65" s="45" t="s">
         <v>16</v>
       </c>
@@ -8750,7 +8768,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="67"/>
-      <c r="B66" s="93"/>
+      <c r="B66" s="87"/>
       <c r="C66" s="45" t="s">
         <v>17</v>
       </c>
@@ -8803,12 +8821,12 @@
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="67"/>
-      <c r="B67" s="94"/>
+      <c r="B67" s="88"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="24">
-        <f t="shared" ref="D67" si="39">D29</f>
+        <f>D29</f>
         <v>0</v>
       </c>
       <c r="E67" s="33"/>
@@ -8828,7 +8846,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="67"/>
-      <c r="B68" s="92">
+      <c r="B68" s="86">
         <v>31</v>
       </c>
       <c r="C68" s="60" t="s">
@@ -8839,65 +8857,65 @@
         <v>3</v>
       </c>
       <c r="E68" s="16">
-        <f t="shared" ref="E68:M68" si="40">SUM(E69:E71)</f>
+        <f t="shared" ref="E68:M68" si="33">SUM(E69:E71)</f>
         <v>3</v>
       </c>
       <c r="F68" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="G68" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="H68" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="J68" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="K68" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="L68" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="N68" s="16">
-        <f t="shared" ref="N68:R68" si="41">SUM(N69:N71)</f>
+        <f t="shared" ref="N68:R68" si="34">SUM(N69:N71)</f>
         <v>-1</v>
       </c>
       <c r="O68" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-1</v>
       </c>
       <c r="P68" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-1</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-1</v>
       </c>
       <c r="R68" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="67"/>
-      <c r="B69" s="93"/>
+      <c r="B69" s="87"/>
       <c r="C69" s="45" t="s">
         <v>16</v>
       </c>
@@ -8922,7 +8940,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="67"/>
-      <c r="B70" s="93"/>
+      <c r="B70" s="87"/>
       <c r="C70" s="45" t="s">
         <v>17</v>
       </c>
@@ -8975,12 +8993,12 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="68"/>
-      <c r="B71" s="94"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="24">
-        <f t="shared" ref="D71" si="42">D33</f>
+        <f>D33</f>
         <v>0</v>
       </c>
       <c r="E71" s="33"/>
@@ -9002,7 +9020,7 @@
       <c r="A72" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="79"/>
+      <c r="B72" s="81"/>
       <c r="C72" s="10" t="s">
         <v>39</v>
       </c>
@@ -9011,65 +9029,65 @@
         <v>2</v>
       </c>
       <c r="E72" s="16">
-        <f t="shared" ref="E72:M72" si="43">SUM(E73:E75)</f>
+        <f t="shared" ref="E72:M72" si="35">SUM(E73:E75)</f>
         <v>2</v>
       </c>
       <c r="F72" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G72" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H72" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J72" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="K72" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L72" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N72" s="16">
-        <f t="shared" ref="N72:R72" si="44">SUM(N73:N75)</f>
+        <f t="shared" ref="N72:R72" si="36">SUM(N73:N75)</f>
         <v>1</v>
       </c>
       <c r="O72" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="P72" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R72" s="35">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="67"/>
-      <c r="B73" s="80"/>
+      <c r="B73" s="82"/>
       <c r="C73" s="45" t="s">
         <v>16</v>
       </c>
@@ -9094,7 +9112,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="67"/>
-      <c r="B74" s="80"/>
+      <c r="B74" s="82"/>
       <c r="C74" s="45" t="s">
         <v>17</v>
       </c>
@@ -9147,12 +9165,12 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="67"/>
-      <c r="B75" s="81"/>
+      <c r="B75" s="83"/>
       <c r="C75" s="45" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="24">
-        <f t="shared" ref="D75" si="45">D37</f>
+        <f>D37</f>
         <v>0</v>
       </c>
       <c r="E75" s="33"/>
@@ -9172,7 +9190,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="67"/>
-      <c r="B76" s="86"/>
+      <c r="B76" s="91"/>
       <c r="C76" s="10" t="s">
         <v>40</v>
       </c>
@@ -9181,65 +9199,65 @@
         <v>6</v>
       </c>
       <c r="E76" s="21">
-        <f t="shared" ref="E76:M76" si="46">SUM(E77:E79)</f>
+        <f t="shared" ref="E76:M76" si="37">SUM(E77:E79)</f>
         <v>6</v>
       </c>
       <c r="F76" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="G76" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>-3</v>
       </c>
       <c r="H76" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>-3</v>
       </c>
       <c r="I76" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>-3</v>
       </c>
       <c r="J76" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>-3</v>
       </c>
       <c r="K76" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>-3</v>
       </c>
       <c r="L76" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>-3</v>
       </c>
       <c r="M76" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>-3</v>
       </c>
       <c r="N76" s="21">
-        <f t="shared" ref="N76:R76" si="47">SUM(N77:N79)</f>
+        <f t="shared" ref="N76:R76" si="38">SUM(N77:N79)</f>
         <v>-3</v>
       </c>
       <c r="O76" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>-3</v>
       </c>
       <c r="P76" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>-3</v>
       </c>
       <c r="Q76" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>-3</v>
       </c>
       <c r="R76" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>-3</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="67"/>
-      <c r="B77" s="87"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="45" t="s">
         <v>16</v>
       </c>
@@ -9264,7 +9282,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="67"/>
-      <c r="B78" s="87"/>
+      <c r="B78" s="92"/>
       <c r="C78" s="45" t="s">
         <v>17</v>
       </c>
@@ -9317,12 +9335,12 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="68"/>
-      <c r="B79" s="88"/>
+      <c r="B79" s="93"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="26">
-        <f t="shared" ref="D79" si="48">D41</f>
+        <f t="shared" ref="D79" si="39">D41</f>
         <v>0</v>
       </c>
       <c r="E79" s="33"/>
@@ -9341,68 +9359,68 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="95" t="s">
+      <c r="B80" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="95"/>
+      <c r="C80" s="89"/>
       <c r="D80" s="2">
-        <f t="shared" ref="D80:M80" si="49">SUM(D44,D64,D68,D72,D76)</f>
+        <f t="shared" ref="D80:M80" si="40">SUM(D44,D64,D68,D72,D76)</f>
         <v>17.5</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="40"/>
         <v>17.5</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="40"/>
         <v>12.5</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="40"/>
         <v>6.5</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="40"/>
         <v>2.5</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="40"/>
         <v>2.5</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="40"/>
         <v>2.5</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="40"/>
         <v>2.5</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="40"/>
         <v>2.5</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="40"/>
         <v>2.5</v>
       </c>
       <c r="N80" s="2">
-        <f t="shared" ref="N80:R80" si="50">SUM(N44,N64,N68,N72,N76)</f>
+        <f t="shared" ref="N80:R80" si="41">SUM(N44,N64,N68,N72,N76)</f>
         <v>2.5</v>
       </c>
       <c r="O80" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="41"/>
         <v>2.5</v>
       </c>
       <c r="P80" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="41"/>
         <v>2.5</v>
       </c>
       <c r="Q80" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="41"/>
         <v>2.5</v>
       </c>
       <c r="R80" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9412,74 +9430,64 @@
         <v>17.5</v>
       </c>
       <c r="E81">
-        <f t="shared" ref="E81:M81" si="51" xml:space="preserve"> D81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f xml:space="preserve"> D81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>15.555555555555555</v>
       </c>
       <c r="F81">
-        <f t="shared" si="51"/>
+        <f xml:space="preserve"> E81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>13.611111111111111</v>
       </c>
       <c r="G81">
-        <f t="shared" si="51"/>
+        <f xml:space="preserve"> F81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>11.666666666666666</v>
       </c>
       <c r="H81">
-        <f t="shared" si="51"/>
+        <f xml:space="preserve"> G81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>9.7222222222222214</v>
       </c>
       <c r="I81">
-        <f t="shared" si="51"/>
+        <f xml:space="preserve"> H81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>7.7777777777777768</v>
       </c>
       <c r="J81">
-        <f t="shared" si="51"/>
+        <f xml:space="preserve"> I81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>5.8333333333333321</v>
       </c>
       <c r="K81">
-        <f t="shared" si="51"/>
+        <f xml:space="preserve"> J81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>3.8888888888888875</v>
       </c>
       <c r="L81">
-        <f t="shared" si="51"/>
+        <f xml:space="preserve"> K81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>1.9444444444444431</v>
       </c>
       <c r="M81">
-        <f t="shared" si="51"/>
+        <f xml:space="preserve"> L81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>0</v>
       </c>
       <c r="N81">
-        <f t="shared" ref="N81:R81" si="52" xml:space="preserve"> M81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f xml:space="preserve"> M81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>-1.9444444444444444</v>
       </c>
       <c r="O81">
-        <f t="shared" si="52"/>
+        <f xml:space="preserve"> N81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>-3.8888888888888888</v>
       </c>
       <c r="P81">
-        <f t="shared" si="52"/>
+        <f xml:space="preserve"> O81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>-5.833333333333333</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="52"/>
+        <f xml:space="preserve"> P81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>-7.7777777777777777</v>
       </c>
       <c r="R81">
-        <f t="shared" si="52"/>
+        <f xml:space="preserve"> Q81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>-9.7222222222222214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B68:B71"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
@@ -9496,6 +9504,16 @@
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B64:B67"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B68:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="25605" windowHeight="14460" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="25605" windowHeight="14460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Product Burndown" sheetId="1" r:id="rId1"/>
     <sheet name="Sp1" sheetId="2" r:id="rId2"/>
     <sheet name="Sp2" sheetId="4" r:id="rId3"/>
     <sheet name="Sp3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sp4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="61">
   <si>
     <t>Time (person-hours (p-h))</t>
   </si>
@@ -200,6 +201,45 @@
   </si>
   <si>
     <t>Total Estimated Effort</t>
+  </si>
+  <si>
+    <t>Create About Page</t>
+  </si>
+  <si>
+    <t>Create Forgot Password Page</t>
+  </si>
+  <si>
+    <t>Implement service for city, state, timezone info</t>
+  </si>
+  <si>
+    <t>Create Projects Page</t>
+  </si>
+  <si>
+    <t>Create the Create Account Page</t>
+  </si>
+  <si>
+    <t>Change times to account for timezones</t>
+  </si>
+  <si>
+    <t>Bug Fixes</t>
+  </si>
+  <si>
+    <t>Implement Database Interaction Classes</t>
+  </si>
+  <si>
+    <t>6, 7, 19</t>
+  </si>
+  <si>
+    <t>17, 22</t>
+  </si>
+  <si>
+    <t>Various formatting fixes</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Change windspeed functionality</t>
   </si>
 </sst>
 </file>
@@ -510,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -648,6 +688,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,12 +748,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,20 +763,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -749,6 +786,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -940,11 +1007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42040704"/>
-        <c:axId val="43460096"/>
+        <c:axId val="191985536"/>
+        <c:axId val="191996288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42040704"/>
+        <c:axId val="191985536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +1039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43460096"/>
+        <c:crossAx val="191996288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +1047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43460096"/>
+        <c:axId val="191996288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42040704"/>
+        <c:crossAx val="191985536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1270,11 +1337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35568256"/>
-        <c:axId val="35582336"/>
+        <c:axId val="195048576"/>
+        <c:axId val="195204608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35568256"/>
+        <c:axId val="195048576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,14 +1351,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35582336"/>
+        <c:crossAx val="195204608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35582336"/>
+        <c:axId val="195204608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,14 +1369,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35568256"/>
+        <c:crossAx val="195048576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1526,11 +1592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168899712"/>
-        <c:axId val="168901248"/>
+        <c:axId val="195524864"/>
+        <c:axId val="195616768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="168899712"/>
+        <c:axId val="195524864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,14 +1606,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168901248"/>
+        <c:crossAx val="195616768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168901248"/>
+        <c:axId val="195616768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168899712"/>
+        <c:crossAx val="195524864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1842,11 +1908,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168951168"/>
-        <c:axId val="172496000"/>
+        <c:axId val="197184512"/>
+        <c:axId val="197186304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="168951168"/>
+        <c:axId val="197184512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,14 +1922,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172496000"/>
+        <c:crossAx val="197186304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="172496000"/>
+        <c:axId val="197186304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1940,323 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168951168"/>
+        <c:crossAx val="197184512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Working</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp4'!$E$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42070</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42074</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42076</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp4'!$D$88:$R$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp4'!$E$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42070</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42074</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42076</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp4'!$D$89:$R$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="199470464"/>
+        <c:axId val="199742592"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="199470464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199742592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="199742592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199470464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2016,6 +2398,43 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2345,13 +2764,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2442,7 +2861,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C15" si="1" xml:space="preserve"> C4 - B5</f>
+        <f t="shared" ref="C5:C11" si="1" xml:space="preserve"> C4 - B5</f>
         <v>107</v>
       </c>
       <c r="D5" s="4">
@@ -2676,22 +3095,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="64" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
@@ -2806,10 +3225,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="80">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2873,8 +3292,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2903,8 +3322,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2931,8 +3350,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
@@ -2961,8 +3380,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3024,8 +3443,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -3048,8 +3467,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -3078,8 +3497,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
@@ -3102,8 +3521,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
@@ -3165,8 +3584,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -3189,8 +3608,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
@@ -3213,8 +3632,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
@@ -3241,8 +3660,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="76">
+      <c r="A18" s="71"/>
+      <c r="B18" s="80">
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3306,8 +3725,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -3336,8 +3755,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
@@ -3360,8 +3779,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
@@ -3384,10 +3803,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="9" t="s">
         <v>24</v>
       </c>
@@ -3449,8 +3868,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -3473,8 +3892,8 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="70"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
@@ -3501,8 +3920,8 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="71"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
@@ -3525,10 +3944,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>19</v>
@@ -3593,10 +4012,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="80">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -3657,8 +4076,8 @@
       <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="77"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -3704,8 +4123,8 @@
       <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="7" t="s">
         <v>17</v>
       </c>
@@ -3751,8 +4170,8 @@
       <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="77"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
@@ -3798,8 +4217,8 @@
       <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="81"/>
       <c r="C32" s="9" t="s">
         <v>19</v>
       </c>
@@ -3858,8 +4277,8 @@
       <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="77"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -3879,8 +4298,8 @@
       <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="77"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
@@ -3926,8 +4345,8 @@
       <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="77"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="8" t="s">
         <v>18</v>
       </c>
@@ -3947,8 +4366,8 @@
       <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="9" t="s">
         <v>20</v>
       </c>
@@ -4007,8 +4426,8 @@
       <c r="Q36" s="23"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="77"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -4028,8 +4447,8 @@
       <c r="Q37" s="24"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="77"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="7" t="s">
         <v>17</v>
       </c>
@@ -4049,8 +4468,8 @@
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="78"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
@@ -4096,8 +4515,8 @@
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="76">
+      <c r="A40" s="71"/>
+      <c r="B40" s="80">
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -4158,8 +4577,8 @@
       <c r="Q40" s="23"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="77"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -4205,8 +4624,8 @@
       <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="7" t="s">
         <v>17</v>
       </c>
@@ -4226,8 +4645,8 @@
       <c r="Q42" s="24"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="78"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
@@ -4247,10 +4666,10 @@
       <c r="Q43" s="24"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="69"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
@@ -4309,8 +4728,8 @@
       <c r="Q44" s="23"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="70"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="7" t="s">
         <v>16</v>
       </c>
@@ -4330,8 +4749,8 @@
       <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="70"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="7" t="s">
         <v>17</v>
       </c>
@@ -4377,8 +4796,8 @@
       <c r="Q46" s="24"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
-      <c r="B47" s="71"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="8" t="s">
         <v>18</v>
       </c>
@@ -4398,10 +4817,10 @@
       <c r="Q47" s="24"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="72"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>19</v>
@@ -4544,7 +4963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:B21"/>
     </sheetView>
   </sheetViews>
@@ -4562,19 +4981,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="73" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -4664,10 +5083,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="83">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -4719,8 +5138,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -4740,8 +5159,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -4765,8 +5184,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -4786,8 +5205,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="84" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="86" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -4839,8 +5258,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -4864,8 +5283,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="85"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -4885,8 +5304,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -4906,8 +5325,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
@@ -4957,8 +5376,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="85"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -4984,8 +5403,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -5009,8 +5428,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
@@ -5030,10 +5449,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="76"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
@@ -5083,8 +5502,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -5108,8 +5527,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -5133,8 +5552,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -5154,8 +5573,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="49" t="s">
         <v>31</v>
       </c>
@@ -5205,8 +5624,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -5226,8 +5645,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -5251,8 +5670,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="80"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -5272,10 +5691,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>14</v>
@@ -5328,10 +5747,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="83">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -5380,8 +5799,8 @@
       <c r="N28" s="23"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="82"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="45" t="s">
         <v>16</v>
       </c>
@@ -5401,8 +5820,8 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
@@ -5440,8 +5859,8 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="83"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="85"/>
       <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
@@ -5461,8 +5880,8 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="84" t="s">
+      <c r="A32" s="71"/>
+      <c r="B32" s="86" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -5511,8 +5930,8 @@
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="85"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="45" t="s">
         <v>16</v>
       </c>
@@ -5550,8 +5969,8 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="85"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="45" t="s">
         <v>17</v>
       </c>
@@ -5571,8 +5990,8 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="85"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -5610,8 +6029,8 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="85"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="52" t="s">
         <v>33</v>
       </c>
@@ -5658,8 +6077,8 @@
       <c r="N36" s="23"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="45" t="s">
         <v>16</v>
       </c>
@@ -5697,8 +6116,8 @@
       <c r="N37" s="24"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="85"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="45" t="s">
         <v>17</v>
       </c>
@@ -5736,8 +6155,8 @@
       <c r="N38" s="24"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="85"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="45" t="s">
         <v>18</v>
       </c>
@@ -5757,10 +6176,10 @@
       <c r="N39" s="24"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="76"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="10" t="s">
         <v>34</v>
       </c>
@@ -5807,8 +6226,8 @@
       <c r="N40" s="23"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="77"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="45" t="s">
         <v>16</v>
       </c>
@@ -5846,8 +6265,8 @@
       <c r="N41" s="24"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="45" t="s">
         <v>17</v>
       </c>
@@ -5885,8 +6304,8 @@
       <c r="N42" s="24"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="77"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
@@ -5906,8 +6325,8 @@
       <c r="N43" s="24"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="79"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="49" t="s">
         <v>31</v>
       </c>
@@ -5954,8 +6373,8 @@
       <c r="N44" s="23"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="79"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -5975,8 +6394,8 @@
       <c r="N45" s="24"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="79"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -6014,8 +6433,8 @@
       <c r="N46" s="24"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
-      <c r="B47" s="80"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="89"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -6053,10 +6472,10 @@
       <c r="N47" s="24"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="72"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>14</v>
@@ -6143,6 +6562,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B17"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A28:A39"/>
@@ -6151,14 +6578,6 @@
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -6175,7 +6594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -6195,24 +6614,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="73" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="75"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -6337,10 +6756,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="83">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -6412,8 +6831,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -6438,8 +6857,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -6464,8 +6883,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -6494,8 +6913,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="94">
+      <c r="A10" s="71"/>
+      <c r="B10" s="93">
         <v>15</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -6567,8 +6986,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -6593,8 +7012,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -6619,8 +7038,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -6649,8 +7068,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="94">
+      <c r="A14" s="71"/>
+      <c r="B14" s="93">
         <v>21</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -6722,8 +7141,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="95"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -6756,8 +7175,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="95"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -6782,8 +7201,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -6808,8 +7227,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="94">
+      <c r="A18" s="71"/>
+      <c r="B18" s="93">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -6881,8 +7300,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="95"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -6911,8 +7330,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -6937,8 +7356,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="96"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -6963,8 +7382,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="86" t="s">
+      <c r="A22" s="71"/>
+      <c r="B22" s="96" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="60" t="s">
@@ -7036,8 +7455,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="87"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -7062,8 +7481,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="87"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -7094,8 +7513,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -7120,8 +7539,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="86" t="s">
+      <c r="A26" s="71"/>
+      <c r="B26" s="96" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="60" t="s">
@@ -7193,8 +7612,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="87"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="45" t="s">
         <v>16</v>
       </c>
@@ -7219,8 +7638,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="87"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
@@ -7249,8 +7668,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -7275,8 +7694,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="86">
+      <c r="A30" s="71"/>
+      <c r="B30" s="96">
         <v>31</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -7348,8 +7767,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="87"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="45" t="s">
         <v>16</v>
       </c>
@@ -7374,8 +7793,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="87"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
@@ -7404,8 +7823,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -7430,10 +7849,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="76"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="10" t="s">
         <v>39</v>
       </c>
@@ -7503,8 +7922,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="77"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="45" t="s">
         <v>16</v>
       </c>
@@ -7529,8 +7948,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="45" t="s">
         <v>17</v>
       </c>
@@ -7559,8 +7978,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="77"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="45" t="s">
         <v>18</v>
       </c>
@@ -7585,8 +8004,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="91"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="10" t="s">
         <v>40</v>
       </c>
@@ -7656,8 +8075,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="45" t="s">
         <v>16</v>
       </c>
@@ -7682,8 +8101,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="92"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="45" t="s">
         <v>17</v>
       </c>
@@ -7712,8 +8131,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="93"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -7738,68 +8157,68 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="90"/>
+      <c r="C42" s="100"/>
       <c r="D42" s="2">
-        <f>SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30)</f>
+        <f t="shared" ref="D42:R42" si="21">SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30)</f>
         <v>38</v>
       </c>
       <c r="E42" s="2">
-        <f>SUM(E6,E10,E14,E34,E38,E18,E22,E26,E30)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="F42" s="2">
-        <f>SUM(F6,F10,F14,F34,F38,F18,F22,F26,F30)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="G42" s="2">
-        <f>SUM(G6,G10,G14,G34,G38,G18,G22,G26,G30)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="H42" s="2">
-        <f>SUM(H6,H10,H14,H34,H38,H18,H22,H26,H30)</f>
+        <f t="shared" si="21"/>
         <v>5.5</v>
       </c>
       <c r="I42" s="2">
-        <f>SUM(I6,I10,I14,I34,I38,I18,I22,I26,I30)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="J42" s="2">
-        <f>SUM(J6,J10,J14,J34,J38,J18,J22,J26,J30)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="K42" s="2">
-        <f>SUM(K6,K10,K14,K34,K38,K18,K22,K26,K30)</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="L42" s="2">
-        <f>SUM(L6,L10,L14,L34,L38,L18,L22,L26,L30)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <f>SUM(M6,M10,M14,M34,M38,M18,M22,M26,M30)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N42" s="2">
-        <f>SUM(N6,N10,N14,N34,N38,N18,N22,N26,N30)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f>SUM(O6,O10,O14,O34,O38,O18,O22,O26,O30)</f>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="P42" s="2">
-        <f>SUM(P6,P10,P14,P34,P38,P18,P22,P26,P30)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f>SUM(Q6,Q10,Q14,Q34,Q38,Q18,Q22,Q26,Q30)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="R42" s="2">
-        <f>SUM(R6,R10,R14,R34,R38,R18,R22,R26,R30)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S42" s="23">
@@ -7808,10 +8227,10 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="81">
+      <c r="B44" s="83">
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -7822,65 +8241,65 @@
         <v>1.5</v>
       </c>
       <c r="E44" s="16">
-        <f t="shared" ref="E44:M44" si="21">SUM(E45:E47)</f>
+        <f t="shared" ref="E44:M44" si="22">SUM(E45:E47)</f>
         <v>1.5</v>
       </c>
       <c r="F44" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
       <c r="G44" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
       <c r="H44" s="16">
-        <f t="shared" si="21"/>
-        <v>0.5</v>
-      </c>
-      <c r="I44" s="16">
-        <f t="shared" si="21"/>
-        <v>0.5</v>
-      </c>
-      <c r="J44" s="16">
-        <f t="shared" si="21"/>
-        <v>0.5</v>
-      </c>
-      <c r="K44" s="16">
-        <f t="shared" si="21"/>
-        <v>0.5</v>
-      </c>
-      <c r="L44" s="16">
-        <f t="shared" si="21"/>
-        <v>0.5</v>
-      </c>
-      <c r="M44" s="16">
-        <f t="shared" si="21"/>
-        <v>0.5</v>
-      </c>
-      <c r="N44" s="16">
-        <f t="shared" ref="N44:R44" si="22">SUM(N45:N47)</f>
-        <v>0.5</v>
-      </c>
-      <c r="O44" s="16">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="P44" s="16">
+      <c r="I44" s="16">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="Q44" s="16">
+      <c r="J44" s="16">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="R44" s="35">
+      <c r="K44" s="16">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
+      <c r="L44" s="16">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="M44" s="16">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="N44" s="16">
+        <f t="shared" ref="N44:R44" si="23">SUM(N45:N47)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="P44" s="16">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q44" s="16">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="R44" s="35">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="82"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -7904,8 +8323,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="82"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="84"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -7929,8 +8348,8 @@
       <c r="R46" s="37"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="83"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -7982,8 +8401,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="94">
+      <c r="A48" s="71"/>
+      <c r="B48" s="93">
         <v>15</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -7994,65 +8413,65 @@
         <v>1.5</v>
       </c>
       <c r="E48" s="16">
-        <f t="shared" ref="E48:M48" si="23">SUM(E49:E51)</f>
+        <f t="shared" ref="E48:M48" si="24">SUM(E49:E51)</f>
         <v>1.5</v>
       </c>
       <c r="F48" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="G48" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="H48" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="I48" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="J48" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="K48" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="L48" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="M48" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="N48" s="16">
-        <f t="shared" ref="N48:R48" si="24">SUM(N49:N51)</f>
+        <f t="shared" ref="N48:R48" si="25">SUM(N49:N51)</f>
         <v>1.5</v>
       </c>
       <c r="O48" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-3.25</v>
       </c>
       <c r="P48" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-6</v>
       </c>
       <c r="Q48" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-6.5</v>
       </c>
       <c r="R48" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-6.5</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="95"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="94"/>
       <c r="C49" s="45" t="s">
         <v>16</v>
       </c>
@@ -8076,8 +8495,8 @@
       <c r="R49" s="37"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
-      <c r="B50" s="95"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="94"/>
       <c r="C50" s="45" t="s">
         <v>17</v>
       </c>
@@ -8101,8 +8520,8 @@
       <c r="R50" s="36"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="96"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="95"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -8157,8 +8576,8 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
-      <c r="B52" s="94">
+      <c r="A52" s="71"/>
+      <c r="B52" s="93">
         <v>21</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -8169,65 +8588,65 @@
         <v>8</v>
       </c>
       <c r="E52" s="16">
-        <f t="shared" ref="E52:M52" si="25">SUM(E53:E55)</f>
+        <f t="shared" ref="E52:M52" si="26">SUM(E53:E55)</f>
         <v>4</v>
       </c>
       <c r="F52" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="G52" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="H52" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="I52" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="J52" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="K52" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="L52" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M52" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N52" s="16">
-        <f t="shared" ref="N52:R52" si="26">SUM(N53:N55)</f>
+        <f t="shared" ref="N52:R52" si="27">SUM(N53:N55)</f>
         <v>0</v>
       </c>
       <c r="O52" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P52" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q52" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R52" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="95"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="45" t="s">
         <v>16</v>
       </c>
@@ -8279,8 +8698,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="95"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="94"/>
       <c r="C54" s="45" t="s">
         <v>17</v>
       </c>
@@ -8304,8 +8723,8 @@
       <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
-      <c r="B55" s="96"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="95"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -8329,8 +8748,8 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="94">
+      <c r="A56" s="71"/>
+      <c r="B56" s="93">
         <v>18</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -8341,65 +8760,65 @@
         <v>3</v>
       </c>
       <c r="E56" s="16">
-        <f t="shared" ref="E56:M56" si="27">SUM(E57:E59)</f>
+        <f t="shared" ref="E56:M56" si="28">SUM(E57:E59)</f>
         <v>3</v>
       </c>
       <c r="F56" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="G56" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="H56" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="I56" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="J56" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="K56" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="L56" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M56" s="16">
-        <f t="shared" si="27"/>
-        <v>-1</v>
-      </c>
-      <c r="N56" s="16">
-        <f t="shared" ref="N56:R56" si="28">SUM(N57:N59)</f>
-        <v>-1</v>
-      </c>
-      <c r="O56" s="16">
         <f t="shared" si="28"/>
         <v>-1</v>
       </c>
+      <c r="N56" s="16">
+        <f t="shared" ref="N56:R56" si="29">SUM(N57:N59)</f>
+        <v>-1</v>
+      </c>
+      <c r="O56" s="16">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
       <c r="P56" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
       <c r="Q56" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
       <c r="R56" s="35">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="95"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="94"/>
       <c r="C57" s="45" t="s">
         <v>16</v>
       </c>
@@ -8451,8 +8870,8 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="95"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="94"/>
       <c r="C58" s="45" t="s">
         <v>17</v>
       </c>
@@ -8476,8 +8895,8 @@
       <c r="R58" s="37"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="96"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="95"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -8501,8 +8920,8 @@
       <c r="R59" s="38"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="86" t="s">
+      <c r="A60" s="71"/>
+      <c r="B60" s="96" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -8513,65 +8932,65 @@
         <v>8</v>
       </c>
       <c r="E60" s="21">
-        <f t="shared" ref="E60:M60" si="29">SUM(E61:E63)</f>
+        <f t="shared" ref="E60:M60" si="30">SUM(E61:E63)</f>
         <v>8</v>
       </c>
       <c r="F60" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="G60" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="H60" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="I60" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="J60" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="K60" s="21">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="L60" s="21">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="M60" s="21">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="N60" s="21">
-        <f t="shared" ref="N60:R60" si="30">SUM(N61:N63)</f>
-        <v>4</v>
-      </c>
-      <c r="O60" s="21">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="P60" s="21">
+      <c r="L60" s="21">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="Q60" s="21">
+      <c r="M60" s="21">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
+      <c r="N60" s="21">
+        <f t="shared" ref="N60:R60" si="31">SUM(N61:N63)</f>
+        <v>4</v>
+      </c>
+      <c r="O60" s="21">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="P60" s="21">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="Q60" s="21">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
       <c r="R60" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="87"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="45" t="s">
         <v>16</v>
       </c>
@@ -8595,8 +9014,8 @@
       <c r="R61" s="37"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
-      <c r="B62" s="87"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="45" t="s">
         <v>17</v>
       </c>
@@ -8648,8 +9067,8 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="88"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -8673,8 +9092,8 @@
       <c r="R63" s="39"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="86" t="s">
+      <c r="A64" s="71"/>
+      <c r="B64" s="96" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="60" t="s">
@@ -8685,65 +9104,65 @@
         <v>5</v>
       </c>
       <c r="E64" s="16">
-        <f t="shared" ref="E64:M64" si="31">SUM(E65:E67)</f>
+        <f t="shared" ref="E64:M64" si="32">SUM(E65:E67)</f>
         <v>5</v>
       </c>
       <c r="F64" s="16">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="G64" s="16">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H64" s="16">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="I64" s="16">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="J64" s="16">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="K64" s="16">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="L64" s="16">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="M64" s="16">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="N64" s="16">
-        <f t="shared" ref="N64:R64" si="32">SUM(N65:N67)</f>
-        <v>5</v>
-      </c>
-      <c r="O64" s="16">
         <f t="shared" si="32"/>
         <v>5</v>
       </c>
-      <c r="P64" s="16">
+      <c r="G64" s="16">
         <f t="shared" si="32"/>
         <v>5</v>
       </c>
-      <c r="Q64" s="16">
+      <c r="H64" s="16">
         <f t="shared" si="32"/>
         <v>5</v>
       </c>
+      <c r="I64" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="J64" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="K64" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="L64" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="M64" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="N64" s="16">
+        <f t="shared" ref="N64:R64" si="33">SUM(N65:N67)</f>
+        <v>5</v>
+      </c>
+      <c r="O64" s="16">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="P64" s="16">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="Q64" s="16">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
       <c r="R64" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
-      <c r="B65" s="87"/>
+      <c r="A65" s="71"/>
+      <c r="B65" s="97"/>
       <c r="C65" s="45" t="s">
         <v>16</v>
       </c>
@@ -8767,8 +9186,8 @@
       <c r="R65" s="37"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="67"/>
-      <c r="B66" s="87"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="97"/>
       <c r="C66" s="45" t="s">
         <v>17</v>
       </c>
@@ -8820,8 +9239,8 @@
       </c>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="88"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="98"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -8845,8 +9264,8 @@
       <c r="R67" s="39"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
-      <c r="B68" s="86">
+      <c r="A68" s="71"/>
+      <c r="B68" s="96">
         <v>31</v>
       </c>
       <c r="C68" s="60" t="s">
@@ -8857,65 +9276,65 @@
         <v>3</v>
       </c>
       <c r="E68" s="16">
-        <f t="shared" ref="E68:M68" si="33">SUM(E69:E71)</f>
+        <f t="shared" ref="E68:M68" si="34">SUM(E69:E71)</f>
         <v>3</v>
       </c>
       <c r="F68" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="G68" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="H68" s="16">
-        <f t="shared" si="33"/>
-        <v>-1</v>
-      </c>
-      <c r="I68" s="16">
-        <f t="shared" si="33"/>
-        <v>-1</v>
-      </c>
-      <c r="J68" s="16">
-        <f t="shared" si="33"/>
-        <v>-1</v>
-      </c>
-      <c r="K68" s="16">
-        <f t="shared" si="33"/>
-        <v>-1</v>
-      </c>
-      <c r="L68" s="16">
-        <f t="shared" si="33"/>
-        <v>-1</v>
-      </c>
-      <c r="M68" s="16">
-        <f t="shared" si="33"/>
-        <v>-1</v>
-      </c>
-      <c r="N68" s="16">
-        <f t="shared" ref="N68:R68" si="34">SUM(N69:N71)</f>
-        <v>-1</v>
-      </c>
-      <c r="O68" s="16">
         <f t="shared" si="34"/>
         <v>-1</v>
       </c>
-      <c r="P68" s="16">
+      <c r="I68" s="16">
         <f t="shared" si="34"/>
         <v>-1</v>
       </c>
-      <c r="Q68" s="16">
+      <c r="J68" s="16">
         <f t="shared" si="34"/>
         <v>-1</v>
       </c>
-      <c r="R68" s="35">
+      <c r="K68" s="16">
         <f t="shared" si="34"/>
         <v>-1</v>
       </c>
+      <c r="L68" s="16">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="M68" s="16">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="N68" s="16">
+        <f t="shared" ref="N68:R68" si="35">SUM(N69:N71)</f>
+        <v>-1</v>
+      </c>
+      <c r="O68" s="16">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="P68" s="16">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="Q68" s="16">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="R68" s="35">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
-      <c r="B69" s="87"/>
+      <c r="A69" s="71"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="45" t="s">
         <v>16</v>
       </c>
@@ -8939,8 +9358,8 @@
       <c r="R69" s="37"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
-      <c r="B70" s="87"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="97"/>
       <c r="C70" s="45" t="s">
         <v>17</v>
       </c>
@@ -8992,8 +9411,8 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="68"/>
-      <c r="B71" s="88"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="98"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -9017,10 +9436,10 @@
       <c r="R71" s="39"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="66" t="s">
+      <c r="A72" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="81"/>
+      <c r="B72" s="83"/>
       <c r="C72" s="10" t="s">
         <v>39</v>
       </c>
@@ -9029,65 +9448,65 @@
         <v>2</v>
       </c>
       <c r="E72" s="16">
-        <f t="shared" ref="E72:M72" si="35">SUM(E73:E75)</f>
+        <f t="shared" ref="E72:M72" si="36">SUM(E73:E75)</f>
         <v>2</v>
       </c>
       <c r="F72" s="16">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="G72" s="16">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="H72" s="16">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="I72" s="16">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="J72" s="16">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="K72" s="16">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="L72" s="16">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="M72" s="16">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="N72" s="16">
-        <f t="shared" ref="N72:R72" si="36">SUM(N73:N75)</f>
-        <v>1</v>
-      </c>
-      <c r="O72" s="16">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="P72" s="16">
+      <c r="G72" s="16">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="Q72" s="16">
+      <c r="H72" s="16">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="R72" s="35">
+      <c r="I72" s="16">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
+      <c r="J72" s="16">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="K72" s="16">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="L72" s="16">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="M72" s="16">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="N72" s="16">
+        <f t="shared" ref="N72:R72" si="37">SUM(N73:N75)</f>
+        <v>1</v>
+      </c>
+      <c r="O72" s="16">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="P72" s="16">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="Q72" s="16">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="R72" s="35">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
-      <c r="B73" s="82"/>
+      <c r="A73" s="71"/>
+      <c r="B73" s="84"/>
       <c r="C73" s="45" t="s">
         <v>16</v>
       </c>
@@ -9111,8 +9530,8 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="82"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="84"/>
       <c r="C74" s="45" t="s">
         <v>17</v>
       </c>
@@ -9164,8 +9583,8 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
-      <c r="B75" s="83"/>
+      <c r="A75" s="71"/>
+      <c r="B75" s="85"/>
       <c r="C75" s="45" t="s">
         <v>18</v>
       </c>
@@ -9189,8 +9608,8 @@
       <c r="R75" s="38"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
-      <c r="B76" s="91"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="90"/>
       <c r="C76" s="10" t="s">
         <v>40</v>
       </c>
@@ -9199,65 +9618,65 @@
         <v>6</v>
       </c>
       <c r="E76" s="21">
-        <f t="shared" ref="E76:M76" si="37">SUM(E77:E79)</f>
+        <f t="shared" ref="E76:M76" si="38">SUM(E77:E79)</f>
         <v>6</v>
       </c>
       <c r="F76" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="G76" s="21">
-        <f t="shared" si="37"/>
-        <v>-3</v>
-      </c>
-      <c r="H76" s="21">
-        <f t="shared" si="37"/>
-        <v>-3</v>
-      </c>
-      <c r="I76" s="21">
-        <f t="shared" si="37"/>
-        <v>-3</v>
-      </c>
-      <c r="J76" s="21">
-        <f t="shared" si="37"/>
-        <v>-3</v>
-      </c>
-      <c r="K76" s="21">
-        <f t="shared" si="37"/>
-        <v>-3</v>
-      </c>
-      <c r="L76" s="21">
-        <f t="shared" si="37"/>
-        <v>-3</v>
-      </c>
-      <c r="M76" s="21">
-        <f t="shared" si="37"/>
-        <v>-3</v>
-      </c>
-      <c r="N76" s="21">
-        <f t="shared" ref="N76:R76" si="38">SUM(N77:N79)</f>
-        <v>-3</v>
-      </c>
-      <c r="O76" s="21">
         <f t="shared" si="38"/>
         <v>-3</v>
       </c>
-      <c r="P76" s="21">
+      <c r="H76" s="21">
         <f t="shared" si="38"/>
         <v>-3</v>
       </c>
-      <c r="Q76" s="21">
+      <c r="I76" s="21">
         <f t="shared" si="38"/>
         <v>-3</v>
       </c>
-      <c r="R76" s="13">
+      <c r="J76" s="21">
         <f t="shared" si="38"/>
         <v>-3</v>
       </c>
+      <c r="K76" s="21">
+        <f t="shared" si="38"/>
+        <v>-3</v>
+      </c>
+      <c r="L76" s="21">
+        <f t="shared" si="38"/>
+        <v>-3</v>
+      </c>
+      <c r="M76" s="21">
+        <f t="shared" si="38"/>
+        <v>-3</v>
+      </c>
+      <c r="N76" s="21">
+        <f t="shared" ref="N76:R76" si="39">SUM(N77:N79)</f>
+        <v>-3</v>
+      </c>
+      <c r="O76" s="21">
+        <f t="shared" si="39"/>
+        <v>-3</v>
+      </c>
+      <c r="P76" s="21">
+        <f t="shared" si="39"/>
+        <v>-3</v>
+      </c>
+      <c r="Q76" s="21">
+        <f t="shared" si="39"/>
+        <v>-3</v>
+      </c>
+      <c r="R76" s="13">
+        <f t="shared" si="39"/>
+        <v>-3</v>
+      </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="92"/>
+      <c r="A77" s="71"/>
+      <c r="B77" s="91"/>
       <c r="C77" s="45" t="s">
         <v>16</v>
       </c>
@@ -9281,8 +9700,8 @@
       <c r="R77" s="37"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
-      <c r="B78" s="92"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="91"/>
       <c r="C78" s="45" t="s">
         <v>17</v>
       </c>
@@ -9334,13 +9753,13 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="68"/>
-      <c r="B79" s="93"/>
+      <c r="A79" s="72"/>
+      <c r="B79" s="92"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="26">
-        <f t="shared" ref="D79" si="39">D41</f>
+        <f t="shared" ref="D79" si="40">D41</f>
         <v>0</v>
       </c>
       <c r="E79" s="33"/>
@@ -9359,68 +9778,68 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="89" t="s">
+      <c r="B80" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="89"/>
+      <c r="C80" s="99"/>
       <c r="D80" s="2">
-        <f t="shared" ref="D80:M80" si="40">SUM(D44,D64,D68,D72,D76)</f>
+        <f t="shared" ref="D80:M80" si="41">SUM(D44,D64,D68,D72,D76)</f>
         <v>17.5</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>17.5</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>12.5</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>6.5</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="40"/>
-        <v>2.5</v>
-      </c>
-      <c r="I80" s="2">
-        <f t="shared" si="40"/>
-        <v>2.5</v>
-      </c>
-      <c r="J80" s="2">
-        <f t="shared" si="40"/>
-        <v>2.5</v>
-      </c>
-      <c r="K80" s="2">
-        <f t="shared" si="40"/>
-        <v>2.5</v>
-      </c>
-      <c r="L80" s="2">
-        <f t="shared" si="40"/>
-        <v>2.5</v>
-      </c>
-      <c r="M80" s="2">
-        <f t="shared" si="40"/>
-        <v>2.5</v>
-      </c>
-      <c r="N80" s="2">
-        <f t="shared" ref="N80:R80" si="41">SUM(N44,N64,N68,N72,N76)</f>
-        <v>2.5</v>
-      </c>
-      <c r="O80" s="2">
         <f t="shared" si="41"/>
         <v>2.5</v>
       </c>
-      <c r="P80" s="2">
+      <c r="I80" s="2">
         <f t="shared" si="41"/>
         <v>2.5</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="J80" s="2">
         <f t="shared" si="41"/>
         <v>2.5</v>
       </c>
+      <c r="K80" s="2">
+        <f t="shared" si="41"/>
+        <v>2.5</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="41"/>
+        <v>2.5</v>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" si="41"/>
+        <v>2.5</v>
+      </c>
+      <c r="N80" s="2">
+        <f t="shared" ref="N80:R80" si="42">SUM(N44,N64,N68,N72,N76)</f>
+        <v>2.5</v>
+      </c>
+      <c r="O80" s="2">
+        <f t="shared" si="42"/>
+        <v>2.5</v>
+      </c>
+      <c r="P80" s="2">
+        <f t="shared" si="42"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q80" s="2">
+        <f t="shared" si="42"/>
+        <v>2.5</v>
+      </c>
       <c r="R80" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
     </row>
@@ -9430,64 +9849,74 @@
         <v>17.5</v>
       </c>
       <c r="E81">
-        <f xml:space="preserve"> D81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" ref="E81:R81" si="43" xml:space="preserve"> D81 - ($D$81/COUNT($D$4:$M$4))</f>
         <v>15.555555555555555</v>
       </c>
       <c r="F81">
-        <f xml:space="preserve"> E81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>13.611111111111111</v>
       </c>
       <c r="G81">
-        <f xml:space="preserve"> F81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>11.666666666666666</v>
       </c>
       <c r="H81">
-        <f xml:space="preserve"> G81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>9.7222222222222214</v>
       </c>
       <c r="I81">
-        <f xml:space="preserve"> H81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>7.7777777777777768</v>
       </c>
       <c r="J81">
-        <f xml:space="preserve"> I81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>5.8333333333333321</v>
       </c>
       <c r="K81">
-        <f xml:space="preserve"> J81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>3.8888888888888875</v>
       </c>
       <c r="L81">
-        <f xml:space="preserve"> K81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>1.9444444444444431</v>
       </c>
       <c r="M81">
-        <f xml:space="preserve"> L81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N81">
-        <f xml:space="preserve"> M81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>-1.9444444444444444</v>
       </c>
       <c r="O81">
-        <f xml:space="preserve"> N81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>-3.8888888888888888</v>
       </c>
       <c r="P81">
-        <f xml:space="preserve"> O81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>-5.833333333333333</v>
       </c>
       <c r="Q81">
-        <f xml:space="preserve"> P81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>-7.7777777777777777</v>
       </c>
       <c r="R81">
-        <f xml:space="preserve"> Q81 - ($D$81/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="43"/>
         <v>-9.7222222222222214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B68:B71"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
@@ -9504,16 +9933,6 @@
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B64:B67"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B68:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -9524,4 +9943,3401 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E2" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="40">
+        <v>42064</v>
+      </c>
+      <c r="F3" s="40">
+        <v>42065</v>
+      </c>
+      <c r="G3" s="40">
+        <v>42066</v>
+      </c>
+      <c r="H3" s="40">
+        <v>42067</v>
+      </c>
+      <c r="I3" s="40">
+        <v>42068</v>
+      </c>
+      <c r="J3" s="40">
+        <v>42069</v>
+      </c>
+      <c r="K3" s="40">
+        <v>42070</v>
+      </c>
+      <c r="L3" s="40">
+        <v>42071</v>
+      </c>
+      <c r="M3" s="40">
+        <v>42072</v>
+      </c>
+      <c r="N3" s="40">
+        <v>42073</v>
+      </c>
+      <c r="O3" s="40">
+        <v>42074</v>
+      </c>
+      <c r="P3" s="40">
+        <v>42075</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>42076</v>
+      </c>
+      <c r="R3" s="40">
+        <v>42077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="43">
+        <v>1</v>
+      </c>
+      <c r="F4" s="43">
+        <v>2</v>
+      </c>
+      <c r="G4" s="43">
+        <v>3</v>
+      </c>
+      <c r="H4" s="43">
+        <v>4</v>
+      </c>
+      <c r="I4" s="43">
+        <v>5</v>
+      </c>
+      <c r="J4" s="43">
+        <v>6</v>
+      </c>
+      <c r="K4" s="43">
+        <v>7</v>
+      </c>
+      <c r="L4" s="43">
+        <v>8</v>
+      </c>
+      <c r="M4" s="43">
+        <v>9</v>
+      </c>
+      <c r="N4" s="43">
+        <v>10</v>
+      </c>
+      <c r="O4" s="43">
+        <v>11</v>
+      </c>
+      <c r="P4" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>13</v>
+      </c>
+      <c r="R4" s="43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="83">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="15">
+        <f>SUM(D7:D9)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" ref="E6:R6" si="0">SUM(E7:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
+        <f>SUM(E6:R6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="71"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="24">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27">
+        <v>2</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28">
+        <f t="shared" ref="S7:S33" si="1">SUM(E7:R7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="71"/>
+      <c r="B10" s="93">
+        <v>16</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="10">
+        <f>SUM(D11:D13)</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" ref="E10:R10" si="2">SUM(E11:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="24">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27">
+        <v>2</v>
+      </c>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="71"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
+      <c r="B14" s="93">
+        <v>9</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="10">
+        <f>SUM(D15:D17)</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14:R14" si="3">SUM(E15:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="24">
+        <v>4</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27">
+        <v>4</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="71"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="24">
+        <v>4</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17">
+        <v>4</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="71"/>
+      <c r="B18" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="10">
+        <f>SUM(D19:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" ref="E18:R18" si="4">SUM(E19:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="71"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="71"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
+      <c r="B22" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="10">
+        <f>SUM(D23:D25)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" ref="E22:R22" si="5">SUM(E23:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="14">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="71"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="24">
+        <v>2</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27">
+        <v>2</v>
+      </c>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="71"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="28">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="71"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="10">
+        <f>SUM(D27:D29)</f>
+        <v>2</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" ref="E26:R26" si="6">SUM(E27:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="104"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="24">
+        <v>2</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27">
+        <v>2</v>
+      </c>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="104"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="104"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="104"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="10">
+        <f>SUM(D31:D33)</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" ref="E30:R30" si="7">SUM(E31:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="O30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="104"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="24">
+        <v>2</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27">
+        <v>2</v>
+      </c>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="104"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="104"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="104"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" ref="D34:R34" si="8">SUM(D35:D37)</f>
+        <v>10</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="16">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="14">
+        <f>SUM(E34:R34)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="104"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="24">
+        <v>2</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="28">
+        <f>SUM(E35:R35)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="104"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="24">
+        <v>8</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27">
+        <v>8</v>
+      </c>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="28">
+        <f t="shared" ref="S36:S37" si="9">SUM(E36:R36)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="104"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="104"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" ref="D38:R38" si="10">SUM(D39:D41)</f>
+        <v>2</v>
+      </c>
+      <c r="E38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="21">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="14">
+        <f>SUM(E38:R38)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="104"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="25">
+        <v>2</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27">
+        <v>2</v>
+      </c>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="28">
+        <f>SUM(E39:R39)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="104"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="28">
+        <f t="shared" ref="S40:S45" si="11">SUM(E40:R40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="104"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="104"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="10">
+        <f>SUM(D43:D45)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E42" s="16">
+        <f t="shared" ref="E42:R42" si="12">SUM(E43:E45)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="L42" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="14">
+        <f t="shared" si="11"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="104"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="104"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="E44" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27">
+        <v>2</v>
+      </c>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="28">
+        <f t="shared" si="11"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="104"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="104"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="10">
+        <f>SUM(D47:D49)</f>
+        <v>2</v>
+      </c>
+      <c r="E46" s="16">
+        <f t="shared" ref="E46:R46" si="13">SUM(E47:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="16">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="M46" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="14">
+        <f t="shared" ref="S46:S49" si="14">SUM(E46:R46)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="104"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="24">
+        <v>2</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27">
+        <v>2</v>
+      </c>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="28">
+        <f>SUM(E47:R47)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="104"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="104"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="102"/>
+      <c r="B50" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="100"/>
+      <c r="D50" s="2">
+        <f>SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30,D42,D46)</f>
+        <v>40</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" ref="E50:R50" si="15">SUM(E6,E10,E14,E34,E38,E18,E22,E26,E30,E42,E46)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="15"/>
+        <v>7.5</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="23">
+        <f>SUM(E50:R50)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="102"/>
+      <c r="B52" s="83">
+        <v>12</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="15">
+        <f>SUM(D53:D55)</f>
+        <v>2</v>
+      </c>
+      <c r="E52" s="16">
+        <f t="shared" ref="E52:R52" si="16">SUM(E53:E55)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="102"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="24">
+        <f>D7</f>
+        <v>2</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="36"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="102"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="24">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="37"/>
+    </row>
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="102"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="24">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="102"/>
+      <c r="B56" s="93">
+        <v>15</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="10">
+        <f>SUM(D57:D59)</f>
+        <v>2</v>
+      </c>
+      <c r="E56" s="16">
+        <f t="shared" ref="E56:R56" si="17">SUM(E57:E59)</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="102"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="24">
+        <f>D11</f>
+        <v>2</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="37"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="102"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="24">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="36"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="102"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="24">
+        <f>D13</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="39"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="102"/>
+      <c r="B60" s="93">
+        <v>21</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="10">
+        <f>SUM(D61:D63)</f>
+        <v>8</v>
+      </c>
+      <c r="E60" s="16">
+        <f t="shared" ref="E60:R60" si="18">SUM(E61:E63)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="102"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="24">
+        <f>D15</f>
+        <v>4</v>
+      </c>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="102"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="24">
+        <f>D16</f>
+        <v>4</v>
+      </c>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="37"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="102"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="24">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="39"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="102"/>
+      <c r="B64" s="93">
+        <v>18</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="10">
+        <f>SUM(D65:D67)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="16">
+        <f t="shared" ref="E64:R64" si="19">SUM(E65:E67)</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="102"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="24">
+        <f>D19</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="102"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="24">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="37"/>
+    </row>
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="102"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="24">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="38"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="102"/>
+      <c r="B68" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="10">
+        <f>SUM(D69:D71)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E68" s="21">
+        <f t="shared" ref="E68:R68" si="20">SUM(E69:E71)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="13">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="102"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="24">
+        <f>D23</f>
+        <v>2</v>
+      </c>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="37"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="102"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="24">
+        <f>D24</f>
+        <v>3.5</v>
+      </c>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="36"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="103"/>
+      <c r="B71" s="98"/>
+      <c r="C71" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="24">
+        <f>D25</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="39"/>
+    </row>
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="10">
+        <f>SUM(D73:D75)</f>
+        <v>2</v>
+      </c>
+      <c r="E72" s="16">
+        <f t="shared" ref="E72:R72" si="21">SUM(E73:E75)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="71"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="24">
+        <f>D27</f>
+        <v>2</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="37"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="71"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="24">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="36"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="71"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="24">
+        <f>D29</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="33"/>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="39"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="71"/>
+      <c r="B76" s="96">
+        <v>31</v>
+      </c>
+      <c r="C76" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="10">
+        <f>SUM(D77:D79)</f>
+        <v>2</v>
+      </c>
+      <c r="E76" s="16">
+        <f t="shared" ref="E76:R76" si="22">SUM(E77:E79)</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="35">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="71"/>
+      <c r="B77" s="97"/>
+      <c r="C77" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="24">
+        <f>D31</f>
+        <v>2</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="32"/>
+      <c r="Q77" s="32"/>
+      <c r="R77" s="37"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="71"/>
+      <c r="B78" s="97"/>
+      <c r="C78" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="24">
+        <f>D32</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="31"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="72"/>
+      <c r="B79" s="98"/>
+      <c r="C79" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="24">
+        <f>D33</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="33"/>
+      <c r="R79" s="39"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="83"/>
+      <c r="C80" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="10">
+        <f>SUM(D81:D83)</f>
+        <v>10</v>
+      </c>
+      <c r="E80" s="16">
+        <f t="shared" ref="E80:R80" si="23">SUM(E81:E83)</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="35">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B81" s="84"/>
+      <c r="C81" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="24">
+        <f>D35</f>
+        <v>2</v>
+      </c>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="36"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B82" s="84"/>
+      <c r="C82" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="24">
+        <f>D36</f>
+        <v>8</v>
+      </c>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="31"/>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B83" s="85"/>
+      <c r="C83" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="24">
+        <f>D37</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="34"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="38"/>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B84" s="90"/>
+      <c r="C84" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="10">
+        <f>SUM(D85:D87)</f>
+        <v>2</v>
+      </c>
+      <c r="E84" s="21">
+        <f t="shared" ref="E84:R84" si="24">SUM(E85:E87)</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="13">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B85" s="91"/>
+      <c r="C85" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="24">
+        <f>D39</f>
+        <v>2</v>
+      </c>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="32"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="32"/>
+      <c r="R85" s="37"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B86" s="91"/>
+      <c r="C86" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="24">
+        <f>D40</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
+      <c r="R86" s="31"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B87" s="92"/>
+      <c r="C87" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="26">
+        <f>D41</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="39"/>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B88" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="99"/>
+      <c r="D88" s="2">
+        <f t="shared" ref="D88:R88" si="25">SUM(D52,D72,D76,D80,D84)</f>
+        <v>18</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <f>D88</f>
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <f xml:space="preserve"> D89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>16</v>
+      </c>
+      <c r="F89">
+        <f xml:space="preserve"> E89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>14</v>
+      </c>
+      <c r="G89">
+        <f xml:space="preserve"> F89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>12</v>
+      </c>
+      <c r="H89">
+        <f xml:space="preserve"> G89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>10</v>
+      </c>
+      <c r="I89">
+        <f xml:space="preserve"> H89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>8</v>
+      </c>
+      <c r="J89">
+        <f xml:space="preserve"> I89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>6</v>
+      </c>
+      <c r="K89">
+        <f xml:space="preserve"> J89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <f xml:space="preserve"> K89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <f xml:space="preserve"> L89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <f xml:space="preserve"> M89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>-2</v>
+      </c>
+      <c r="O89">
+        <f xml:space="preserve"> N89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>-4</v>
+      </c>
+      <c r="P89">
+        <f xml:space="preserve"> O89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>-6</v>
+      </c>
+      <c r="Q89">
+        <f xml:space="preserve"> P89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>-8</v>
+      </c>
+      <c r="R89">
+        <f xml:space="preserve"> Q89 - ($D$89/COUNT($D$4:$M$4))</f>
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A72:A79"/>
+    <mergeCell ref="A6:A25"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B30:B33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="25605" windowHeight="14460" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="25605" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Product Burndown" sheetId="1" r:id="rId1"/>
@@ -746,6 +746,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,6 +860,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -865,24 +883,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1051,16 +1051,16 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>66.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,11 +1077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37511936"/>
-        <c:axId val="37513856"/>
+        <c:axId val="118119040"/>
+        <c:axId val="119149312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37511936"/>
+        <c:axId val="118119040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,7 +1098,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weeks</a:t>
+                  <a:t>Sprints</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1109,7 +1109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37513856"/>
+        <c:crossAx val="119149312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1117,7 +1117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37513856"/>
+        <c:axId val="119149312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37511936"/>
+        <c:crossAx val="118119040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1407,11 +1407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38650240"/>
-        <c:axId val="38651776"/>
+        <c:axId val="119166080"/>
+        <c:axId val="119181312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="38650240"/>
+        <c:axId val="119166080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,14 +1421,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38651776"/>
+        <c:crossAx val="119181312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="38651776"/>
+        <c:axId val="119181312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38650240"/>
+        <c:crossAx val="119166080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1662,11 +1662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78461568"/>
-        <c:axId val="78471552"/>
+        <c:axId val="119345920"/>
+        <c:axId val="119347456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78461568"/>
+        <c:axId val="119345920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,14 +1676,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78471552"/>
+        <c:crossAx val="119347456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78471552"/>
+        <c:axId val="119347456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,14 +1694,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78461568"/>
+        <c:crossAx val="119345920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1978,11 +1977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79045760"/>
-        <c:axId val="79047296"/>
+        <c:axId val="119816576"/>
+        <c:axId val="119818112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79045760"/>
+        <c:axId val="119816576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,14 +1991,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79047296"/>
+        <c:crossAx val="119818112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79047296"/>
+        <c:axId val="119818112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,14 +2009,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79045760"/>
+        <c:crossAx val="119816576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2298,11 +2296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82670720"/>
-        <c:axId val="82672256"/>
+        <c:axId val="120048640"/>
+        <c:axId val="120050816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82670720"/>
+        <c:axId val="120048640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +2310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82672256"/>
+        <c:crossAx val="120050816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2320,7 +2318,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82672256"/>
+        <c:axId val="120050816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,14 +2329,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82670720"/>
+        <c:crossAx val="120048640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2615,11 +2612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90777856"/>
-        <c:axId val="90783744"/>
+        <c:axId val="120260480"/>
+        <c:axId val="120262016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90777856"/>
+        <c:axId val="120260480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,14 +2626,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90783744"/>
+        <c:crossAx val="120262016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90783744"/>
+        <c:axId val="120262016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,14 +2644,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90777856"/>
+        <c:crossAx val="120260480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3176,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3192,13 +3188,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3265,20 +3261,20 @@
       </c>
       <c r="D4" s="4">
         <f>H3-E4</f>
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E4" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4">
         <v>16</v>
       </c>
       <c r="G4" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H5" si="0">H3-F4+G4</f>
-        <v>132</v>
+        <f>H3-F4+G4</f>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3289,25 +3285,25 @@
         <v>18</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="1" xml:space="preserve"> C4 - B5</f>
+        <f t="shared" ref="C5:C11" si="0" xml:space="preserve"> C4 - B5</f>
         <v>107</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5" si="2">H4-E5</f>
+        <f>H4-E5</f>
         <v>118</v>
       </c>
       <c r="E5" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4">
         <v>32</v>
       </c>
       <c r="G5" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <f>H4-E5+G5</f>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3318,25 +3314,25 @@
         <v>18</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="D6" s="4">
         <f>H5-E6</f>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4">
         <v>40</v>
       </c>
       <c r="G6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>H5-F6+G6</f>
-        <v>73</v>
+        <f>H5-E6+G6</f>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3347,12 +3343,12 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="D7" s="4">
         <f>H6-E7</f>
-        <v>51.5</v>
+        <v>66.5</v>
       </c>
       <c r="E7" s="4">
         <v>21.5</v>
@@ -3361,11 +3357,11 @@
         <v>53.5</v>
       </c>
       <c r="G7" s="4">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>H6-F7+G7</f>
-        <v>42</v>
+        <f>H6-E7+G7</f>
+        <v>66.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3376,15 +3372,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D8" s="4">
         <f>H7-E8</f>
-        <v>42</v>
+        <v>27.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>39</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3394,12 +3394,13 @@
         <v>18</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -3409,12 +3410,13 @@
         <v>18</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -3424,12 +3426,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -3523,8 +3526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3540,22 +3543,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="75" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
@@ -3670,10 +3673,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="91">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3737,8 +3740,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -3767,8 +3770,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
@@ -3795,8 +3798,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
@@ -3825,8 +3828,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3888,8 +3891,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -3912,8 +3915,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -3942,8 +3945,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
@@ -3966,8 +3969,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="88"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
@@ -4029,8 +4032,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="88"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -4053,8 +4056,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
@@ -4077,8 +4080,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
@@ -4105,8 +4108,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="87">
+      <c r="A18" s="82"/>
+      <c r="B18" s="91">
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4170,8 +4173,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -4200,8 +4203,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
@@ -4224,8 +4227,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="89"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
@@ -4248,10 +4251,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="9" t="s">
         <v>24</v>
       </c>
@@ -4313,8 +4316,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="81"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -4337,8 +4340,8 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
@@ -4365,8 +4368,8 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="82"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
@@ -4389,10 +4392,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="83"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>19</v>
@@ -4457,10 +4460,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="87">
+      <c r="B28" s="91">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4521,8 +4524,8 @@
       <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -4568,8 +4571,8 @@
       <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="88"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="7" t="s">
         <v>17</v>
       </c>
@@ -4615,8 +4618,8 @@
       <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="88"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
@@ -4662,8 +4665,8 @@
       <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="88"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="9" t="s">
         <v>19</v>
       </c>
@@ -4722,8 +4725,8 @@
       <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -4743,8 +4746,8 @@
       <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="88"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
@@ -4790,8 +4793,8 @@
       <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="88"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="8" t="s">
         <v>18</v>
       </c>
@@ -4811,8 +4814,8 @@
       <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="88"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="9" t="s">
         <v>20</v>
       </c>
@@ -4871,8 +4874,8 @@
       <c r="Q36" s="23"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="88"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -4892,8 +4895,8 @@
       <c r="Q37" s="24"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="88"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="7" t="s">
         <v>17</v>
       </c>
@@ -4913,8 +4916,8 @@
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="89"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
@@ -4960,8 +4963,8 @@
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="87">
+      <c r="A40" s="82"/>
+      <c r="B40" s="91">
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -5022,8 +5025,8 @@
       <c r="Q40" s="23"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="88"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -5069,8 +5072,8 @@
       <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="88"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="7" t="s">
         <v>17</v>
       </c>
@@ -5090,8 +5093,8 @@
       <c r="Q42" s="24"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="89"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="93"/>
       <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
@@ -5111,10 +5114,10 @@
       <c r="Q43" s="24"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="80"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
@@ -5173,8 +5176,8 @@
       <c r="Q44" s="23"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="81"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="7" t="s">
         <v>16</v>
       </c>
@@ -5194,8 +5197,8 @@
       <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="81"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="7" t="s">
         <v>17</v>
       </c>
@@ -5241,8 +5244,8 @@
       <c r="Q46" s="24"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
-      <c r="B47" s="82"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="86"/>
       <c r="C47" s="8" t="s">
         <v>18</v>
       </c>
@@ -5262,10 +5265,10 @@
       <c r="Q47" s="24"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="83"/>
+      <c r="C48" s="87"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>19</v>
@@ -5408,7 +5411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
@@ -5426,19 +5429,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="84" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -5528,10 +5531,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="96">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -5583,8 +5586,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -5604,8 +5607,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -5629,8 +5632,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -5650,8 +5653,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="95" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="99" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -5703,8 +5706,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="96"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -5728,8 +5731,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -5749,8 +5752,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -5770,8 +5773,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="96"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
@@ -5821,8 +5824,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -5848,8 +5851,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -5873,8 +5876,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
@@ -5894,10 +5897,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
@@ -5947,8 +5950,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -5972,8 +5975,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -5997,8 +6000,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -6018,8 +6021,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="49" t="s">
         <v>31</v>
       </c>
@@ -6069,8 +6072,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="90"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -6090,8 +6093,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -6115,8 +6118,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="91"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -6136,10 +6139,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="83"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>14</v>
@@ -6192,10 +6195,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="92">
+      <c r="B28" s="96">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -6244,8 +6247,8 @@
       <c r="N28" s="23"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="93"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="45" t="s">
         <v>16</v>
       </c>
@@ -6265,8 +6268,8 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
@@ -6304,8 +6307,8 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="94"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
@@ -6325,8 +6328,8 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="95" t="s">
+      <c r="A32" s="82"/>
+      <c r="B32" s="99" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -6375,8 +6378,8 @@
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="96"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="45" t="s">
         <v>16</v>
       </c>
@@ -6414,8 +6417,8 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="96"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="45" t="s">
         <v>17</v>
       </c>
@@ -6435,8 +6438,8 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="96"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -6474,8 +6477,8 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="96"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="52" t="s">
         <v>33</v>
       </c>
@@ -6522,8 +6525,8 @@
       <c r="N36" s="23"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="96"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="45" t="s">
         <v>16</v>
       </c>
@@ -6561,8 +6564,8 @@
       <c r="N37" s="24"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="96"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="45" t="s">
         <v>17</v>
       </c>
@@ -6600,8 +6603,8 @@
       <c r="N38" s="24"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="96"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="45" t="s">
         <v>18</v>
       </c>
@@ -6621,10 +6624,10 @@
       <c r="N39" s="24"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="87"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="10" t="s">
         <v>34</v>
       </c>
@@ -6671,8 +6674,8 @@
       <c r="N40" s="23"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="88"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="45" t="s">
         <v>16</v>
       </c>
@@ -6710,8 +6713,8 @@
       <c r="N41" s="24"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="88"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="45" t="s">
         <v>17</v>
       </c>
@@ -6749,8 +6752,8 @@
       <c r="N42" s="24"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="88"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
@@ -6770,8 +6773,8 @@
       <c r="N43" s="24"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="90"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="49" t="s">
         <v>31</v>
       </c>
@@ -6818,8 +6821,8 @@
       <c r="N44" s="23"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="90"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="94"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -6839,8 +6842,8 @@
       <c r="N45" s="24"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="90"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -6878,8 +6881,8 @@
       <c r="N46" s="24"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
-      <c r="B47" s="91"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -6917,10 +6920,10 @@
       <c r="N47" s="24"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="83"/>
+      <c r="C48" s="87"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>14</v>
@@ -6969,7 +6972,7 @@
         <v>14</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:M49" si="14" xml:space="preserve"> D49 - ($D$49/COUNT($D$4:$M$4))</f>
+        <f t="shared" ref="E49:L49" si="14" xml:space="preserve"> D49 - ($D$49/COUNT($D$4:$M$4))</f>
         <v>12.444444444444445</v>
       </c>
       <c r="F49">
@@ -7039,8 +7042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7059,24 +7062,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="84" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -7201,10 +7204,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="96">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -7276,8 +7279,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -7302,8 +7305,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -7328,8 +7331,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -7358,8 +7361,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="105">
+      <c r="A10" s="82"/>
+      <c r="B10" s="109">
         <v>15</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -7431,8 +7434,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="106"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -7457,8 +7460,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="106"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -7483,8 +7486,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="107"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -7513,8 +7516,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="105">
+      <c r="A14" s="82"/>
+      <c r="B14" s="109">
         <v>21</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -7586,8 +7589,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="106"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -7620,8 +7623,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="106"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -7646,8 +7649,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="107"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -7672,8 +7675,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="105">
+      <c r="A18" s="82"/>
+      <c r="B18" s="109">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -7745,8 +7748,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="106"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -7775,8 +7778,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="106"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -7801,8 +7804,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="107"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -7827,8 +7830,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="97" t="s">
+      <c r="A22" s="82"/>
+      <c r="B22" s="101" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="60" t="s">
@@ -7900,8 +7903,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="98"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -7926,8 +7929,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="98"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -7958,8 +7961,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="99"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -7984,8 +7987,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="97" t="s">
+      <c r="A26" s="82"/>
+      <c r="B26" s="101" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="60" t="s">
@@ -8057,8 +8060,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="98"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="45" t="s">
         <v>16</v>
       </c>
@@ -8083,8 +8086,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="98"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
@@ -8113,8 +8116,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="99"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -8139,8 +8142,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="97">
+      <c r="A30" s="82"/>
+      <c r="B30" s="101">
         <v>31</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -8212,8 +8215,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="45" t="s">
         <v>16</v>
       </c>
@@ -8238,8 +8241,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="98"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
@@ -8268,8 +8271,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="99"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -8294,10 +8297,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="87"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="10" t="s">
         <v>39</v>
       </c>
@@ -8367,8 +8370,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="88"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="45" t="s">
         <v>16</v>
       </c>
@@ -8393,8 +8396,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="88"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="45" t="s">
         <v>17</v>
       </c>
@@ -8423,8 +8426,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="88"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="45" t="s">
         <v>18</v>
       </c>
@@ -8449,8 +8452,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="102"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="106"/>
       <c r="C38" s="10" t="s">
         <v>40</v>
       </c>
@@ -8520,8 +8523,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="103"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="107"/>
       <c r="C39" s="45" t="s">
         <v>16</v>
       </c>
@@ -8546,8 +8549,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="103"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="107"/>
       <c r="C40" s="45" t="s">
         <v>17</v>
       </c>
@@ -8576,8 +8579,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="B41" s="104"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="108"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -8602,10 +8605,10 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="101"/>
+      <c r="C42" s="105"/>
       <c r="D42" s="2">
         <f t="shared" ref="D42:R42" si="21">SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30)</f>
         <v>38</v>
@@ -8672,10 +8675,10 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="92">
+      <c r="B44" s="96">
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -8743,8 +8746,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="93"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -8768,8 +8771,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="93"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -8793,8 +8796,8 @@
       <c r="R46" s="37"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="94"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="98"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -8846,8 +8849,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="105">
+      <c r="A48" s="82"/>
+      <c r="B48" s="109">
         <v>15</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -8915,8 +8918,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="106"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="110"/>
       <c r="C49" s="45" t="s">
         <v>16</v>
       </c>
@@ -8940,8 +8943,8 @@
       <c r="R49" s="37"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="106"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="45" t="s">
         <v>17</v>
       </c>
@@ -8965,8 +8968,8 @@
       <c r="R50" s="36"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
-      <c r="B51" s="107"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -9021,8 +9024,8 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="105">
+      <c r="A52" s="82"/>
+      <c r="B52" s="109">
         <v>21</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -9090,8 +9093,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="106"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="110"/>
       <c r="C53" s="45" t="s">
         <v>16</v>
       </c>
@@ -9143,8 +9146,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="106"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="110"/>
       <c r="C54" s="45" t="s">
         <v>17</v>
       </c>
@@ -9168,8 +9171,8 @@
       <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
-      <c r="B55" s="107"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -9193,8 +9196,8 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="105">
+      <c r="A56" s="82"/>
+      <c r="B56" s="109">
         <v>18</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -9262,8 +9265,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="106"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="110"/>
       <c r="C57" s="45" t="s">
         <v>16</v>
       </c>
@@ -9315,8 +9318,8 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="B58" s="106"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="110"/>
       <c r="C58" s="45" t="s">
         <v>17</v>
       </c>
@@ -9340,8 +9343,8 @@
       <c r="R58" s="37"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
-      <c r="B59" s="107"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -9365,8 +9368,8 @@
       <c r="R59" s="38"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
-      <c r="B60" s="97" t="s">
+      <c r="A60" s="82"/>
+      <c r="B60" s="101" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -9434,8 +9437,8 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
-      <c r="B61" s="98"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="102"/>
       <c r="C61" s="45" t="s">
         <v>16</v>
       </c>
@@ -9459,8 +9462,8 @@
       <c r="R61" s="37"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
-      <c r="B62" s="98"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="45" t="s">
         <v>17</v>
       </c>
@@ -9512,8 +9515,8 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
-      <c r="B63" s="99"/>
+      <c r="A63" s="82"/>
+      <c r="B63" s="103"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -9537,8 +9540,8 @@
       <c r="R63" s="39"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
-      <c r="B64" s="97" t="s">
+      <c r="A64" s="82"/>
+      <c r="B64" s="101" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="60" t="s">
@@ -9606,8 +9609,8 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
-      <c r="B65" s="98"/>
+      <c r="A65" s="82"/>
+      <c r="B65" s="102"/>
       <c r="C65" s="45" t="s">
         <v>16</v>
       </c>
@@ -9631,8 +9634,8 @@
       <c r="R65" s="37"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
-      <c r="B66" s="98"/>
+      <c r="A66" s="82"/>
+      <c r="B66" s="102"/>
       <c r="C66" s="45" t="s">
         <v>17</v>
       </c>
@@ -9684,8 +9687,8 @@
       </c>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="99"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="103"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -9709,8 +9712,8 @@
       <c r="R67" s="39"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="78"/>
-      <c r="B68" s="97">
+      <c r="A68" s="82"/>
+      <c r="B68" s="101">
         <v>31</v>
       </c>
       <c r="C68" s="60" t="s">
@@ -9778,8 +9781,8 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
-      <c r="B69" s="98"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="102"/>
       <c r="C69" s="45" t="s">
         <v>16</v>
       </c>
@@ -9803,8 +9806,8 @@
       <c r="R69" s="37"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="78"/>
-      <c r="B70" s="98"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="102"/>
       <c r="C70" s="45" t="s">
         <v>17</v>
       </c>
@@ -9856,8 +9859,8 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="79"/>
-      <c r="B71" s="99"/>
+      <c r="A71" s="83"/>
+      <c r="B71" s="103"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -9881,10 +9884,10 @@
       <c r="R71" s="39"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="92"/>
+      <c r="B72" s="96"/>
       <c r="C72" s="10" t="s">
         <v>39</v>
       </c>
@@ -9950,8 +9953,8 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="78"/>
-      <c r="B73" s="93"/>
+      <c r="A73" s="82"/>
+      <c r="B73" s="97"/>
       <c r="C73" s="45" t="s">
         <v>16</v>
       </c>
@@ -9975,8 +9978,8 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
-      <c r="B74" s="93"/>
+      <c r="A74" s="82"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="45" t="s">
         <v>17</v>
       </c>
@@ -10028,8 +10031,8 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="78"/>
-      <c r="B75" s="94"/>
+      <c r="A75" s="82"/>
+      <c r="B75" s="98"/>
       <c r="C75" s="45" t="s">
         <v>18</v>
       </c>
@@ -10053,8 +10056,8 @@
       <c r="R75" s="38"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="78"/>
-      <c r="B76" s="102"/>
+      <c r="A76" s="82"/>
+      <c r="B76" s="106"/>
       <c r="C76" s="10" t="s">
         <v>40</v>
       </c>
@@ -10120,8 +10123,8 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="78"/>
-      <c r="B77" s="103"/>
+      <c r="A77" s="82"/>
+      <c r="B77" s="107"/>
       <c r="C77" s="45" t="s">
         <v>16</v>
       </c>
@@ -10145,8 +10148,8 @@
       <c r="R77" s="37"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
-      <c r="B78" s="103"/>
+      <c r="A78" s="82"/>
+      <c r="B78" s="107"/>
       <c r="C78" s="45" t="s">
         <v>17</v>
       </c>
@@ -10198,8 +10201,8 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="79"/>
-      <c r="B79" s="104"/>
+      <c r="A79" s="83"/>
+      <c r="B79" s="108"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -10223,10 +10226,10 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="100" t="s">
+      <c r="B80" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="100"/>
+      <c r="C80" s="104"/>
       <c r="D80" s="2">
         <f t="shared" ref="D80:M80" si="41">SUM(D44,D64,D68,D72,D76)</f>
         <v>17.5</v>
@@ -10394,8 +10397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="O116" sqref="O116"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10414,24 +10417,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="84" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -10556,10 +10559,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="96">
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -10631,8 +10634,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="66" t="s">
         <v>16</v>
       </c>
@@ -10661,8 +10664,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="66" t="s">
         <v>17</v>
       </c>
@@ -10687,8 +10690,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -10713,8 +10716,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="105">
+      <c r="A10" s="82"/>
+      <c r="B10" s="109">
         <v>16</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -10786,8 +10789,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="106"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="66" t="s">
         <v>16</v>
       </c>
@@ -10816,8 +10819,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="106"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="66" t="s">
         <v>17</v>
       </c>
@@ -10842,8 +10845,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="107"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -10868,8 +10871,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="105">
+      <c r="A14" s="82"/>
+      <c r="B14" s="109">
         <v>9</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -10941,8 +10944,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="106"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="66" t="s">
         <v>16</v>
       </c>
@@ -10971,8 +10974,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="106"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="66" t="s">
         <v>17</v>
       </c>
@@ -11001,8 +11004,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="107"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -11027,8 +11030,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="105" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="109" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -11100,8 +11103,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="106"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="66" t="s">
         <v>16</v>
       </c>
@@ -11126,8 +11129,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="106"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="66" t="s">
         <v>17</v>
       </c>
@@ -11152,8 +11155,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="107"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -11182,8 +11185,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="92" t="s">
+      <c r="A22" s="82"/>
+      <c r="B22" s="96" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -11255,8 +11258,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="93"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="66" t="s">
         <v>16</v>
       </c>
@@ -11285,8 +11288,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="93"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="66" t="s">
         <v>17</v>
       </c>
@@ -11315,8 +11318,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="94"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -11341,7 +11344,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="81" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="63"/>
@@ -11414,7 +11417,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="64"/>
       <c r="C27" s="66" t="s">
         <v>16</v>
@@ -11444,7 +11447,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="64"/>
       <c r="C28" s="66" t="s">
         <v>17</v>
@@ -11470,7 +11473,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="65"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
@@ -11496,8 +11499,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="97"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="60" t="s">
         <v>52</v>
       </c>
@@ -11567,8 +11570,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="66" t="s">
         <v>16</v>
       </c>
@@ -11597,8 +11600,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="98"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="66" t="s">
         <v>17</v>
       </c>
@@ -11623,8 +11626,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="99"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -11649,8 +11652,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="87"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="60" t="s">
         <v>58</v>
       </c>
@@ -11720,8 +11723,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="88"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="66" t="s">
         <v>16</v>
       </c>
@@ -11750,8 +11753,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="88"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="66" t="s">
         <v>17</v>
       </c>
@@ -11780,8 +11783,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="88"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="66" t="s">
         <v>18</v>
       </c>
@@ -11806,8 +11809,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="97"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="60" t="s">
         <v>53</v>
       </c>
@@ -11877,8 +11880,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="98"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="66" t="s">
         <v>16</v>
       </c>
@@ -11907,8 +11910,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="98"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="66" t="s">
         <v>17</v>
       </c>
@@ -11933,8 +11936,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="99"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -11959,8 +11962,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="97"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="101"/>
       <c r="C42" s="60" t="s">
         <v>60</v>
       </c>
@@ -12030,8 +12033,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="98"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="66" t="s">
         <v>16</v>
       </c>
@@ -12056,8 +12059,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="98"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="66" t="s">
         <v>17</v>
       </c>
@@ -12088,8 +12091,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="99"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="46" t="s">
         <v>18</v>
       </c>
@@ -12114,8 +12117,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="97"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="60" t="s">
         <v>59</v>
       </c>
@@ -12185,8 +12188,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="98"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="66" t="s">
         <v>16</v>
       </c>
@@ -12215,8 +12218,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="98"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="66" t="s">
         <v>17</v>
       </c>
@@ -12241,8 +12244,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
-      <c r="B49" s="99"/>
+      <c r="A49" s="83"/>
+      <c r="B49" s="103"/>
       <c r="C49" s="46" t="s">
         <v>18</v>
       </c>
@@ -12267,11 +12270,11 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="119"/>
-      <c r="B50" s="101" t="s">
+      <c r="A50" s="77"/>
+      <c r="B50" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="101"/>
+      <c r="C50" s="105"/>
       <c r="D50" s="2">
         <f>SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30,D42,D46)</f>
         <v>44</v>
@@ -12339,10 +12342,10 @@
     </row>
     <row r="51" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="92">
+      <c r="B52" s="96">
         <v>28</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -12410,8 +12413,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="93"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="97"/>
       <c r="C53" s="70" t="s">
         <v>16</v>
       </c>
@@ -12463,8 +12466,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="93"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="97"/>
       <c r="C54" s="70" t="s">
         <v>17</v>
       </c>
@@ -12488,8 +12491,8 @@
       <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
-      <c r="B55" s="94"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -12513,8 +12516,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="105">
+      <c r="A56" s="82"/>
+      <c r="B56" s="109">
         <v>16</v>
       </c>
       <c r="C56" s="47" t="s">
@@ -12582,8 +12585,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="106"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="110"/>
       <c r="C57" s="70" t="s">
         <v>16</v>
       </c>
@@ -12635,8 +12638,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="B58" s="106"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="110"/>
       <c r="C58" s="70" t="s">
         <v>17</v>
       </c>
@@ -12660,8 +12663,8 @@
       <c r="R58" s="36"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
-      <c r="B59" s="107"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -12685,8 +12688,8 @@
       <c r="R59" s="39"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
-      <c r="B60" s="105">
+      <c r="A60" s="82"/>
+      <c r="B60" s="109">
         <v>9</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -12754,8 +12757,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
-      <c r="B61" s="106"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="110"/>
       <c r="C61" s="70" t="s">
         <v>16</v>
       </c>
@@ -12807,8 +12810,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
-      <c r="B62" s="106"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="70" t="s">
         <v>17</v>
       </c>
@@ -12860,8 +12863,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
-      <c r="B63" s="107"/>
+      <c r="A63" s="82"/>
+      <c r="B63" s="111"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -12885,8 +12888,8 @@
       <c r="R63" s="39"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
-      <c r="B64" s="105" t="s">
+      <c r="A64" s="82"/>
+      <c r="B64" s="109" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -12954,8 +12957,8 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
-      <c r="B65" s="106"/>
+      <c r="A65" s="82"/>
+      <c r="B65" s="110"/>
       <c r="C65" s="70" t="s">
         <v>16</v>
       </c>
@@ -12979,8 +12982,8 @@
       <c r="R65" s="36"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
-      <c r="B66" s="106"/>
+      <c r="A66" s="82"/>
+      <c r="B66" s="110"/>
       <c r="C66" s="70" t="s">
         <v>17</v>
       </c>
@@ -13004,8 +13007,8 @@
       <c r="R66" s="37"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="107"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="111"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -13057,8 +13060,8 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="78"/>
-      <c r="B68" s="92" t="s">
+      <c r="A68" s="82"/>
+      <c r="B68" s="96" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -13126,8 +13129,8 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
-      <c r="B69" s="93"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="70" t="s">
         <v>16</v>
       </c>
@@ -13179,8 +13182,8 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="78"/>
-      <c r="B70" s="93"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="97"/>
       <c r="C70" s="70" t="s">
         <v>17</v>
       </c>
@@ -13232,8 +13235,8 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="79"/>
-      <c r="B71" s="94"/>
+      <c r="A71" s="83"/>
+      <c r="B71" s="98"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -13257,7 +13260,7 @@
       <c r="R71" s="39"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="117" t="s">
+      <c r="A72" s="112" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="67"/>
@@ -13326,7 +13329,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="118"/>
+      <c r="A73" s="113"/>
       <c r="B73" s="68"/>
       <c r="C73" s="70" t="s">
         <v>16</v>
@@ -13379,7 +13382,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="118"/>
+      <c r="A74" s="113"/>
       <c r="B74" s="68"/>
       <c r="C74" s="70" t="s">
         <v>17</v>
@@ -13404,7 +13407,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="118"/>
+      <c r="A75" s="113"/>
       <c r="B75" s="69"/>
       <c r="C75" s="46" t="s">
         <v>18</v>
@@ -13429,8 +13432,8 @@
       <c r="R75" s="39"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="118"/>
-      <c r="B76" s="97"/>
+      <c r="A76" s="113"/>
+      <c r="B76" s="101"/>
       <c r="C76" s="60" t="s">
         <v>52</v>
       </c>
@@ -13496,8 +13499,8 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="118"/>
-      <c r="B77" s="98"/>
+      <c r="A77" s="113"/>
+      <c r="B77" s="102"/>
       <c r="C77" s="70" t="s">
         <v>16</v>
       </c>
@@ -13549,8 +13552,8 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="118"/>
-      <c r="B78" s="98"/>
+      <c r="A78" s="113"/>
+      <c r="B78" s="102"/>
       <c r="C78" s="70" t="s">
         <v>17</v>
       </c>
@@ -13574,8 +13577,8 @@
       <c r="R78" s="36"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="118"/>
-      <c r="B79" s="99"/>
+      <c r="A79" s="113"/>
+      <c r="B79" s="103"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -13599,8 +13602,8 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="118"/>
-      <c r="B80" s="92"/>
+      <c r="A80" s="113"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="60" t="s">
         <v>58</v>
       </c>
@@ -13666,8 +13669,8 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="118"/>
-      <c r="B81" s="93"/>
+      <c r="A81" s="113"/>
+      <c r="B81" s="97"/>
       <c r="C81" s="70" t="s">
         <v>16</v>
       </c>
@@ -13719,8 +13722,8 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="118"/>
-      <c r="B82" s="93"/>
+      <c r="A82" s="113"/>
+      <c r="B82" s="97"/>
       <c r="C82" s="70" t="s">
         <v>17</v>
       </c>
@@ -13772,8 +13775,8 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="118"/>
-      <c r="B83" s="94"/>
+      <c r="A83" s="113"/>
+      <c r="B83" s="98"/>
       <c r="C83" s="46" t="s">
         <v>18</v>
       </c>
@@ -13797,8 +13800,8 @@
       <c r="R83" s="38"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="118"/>
-      <c r="B84" s="97"/>
+      <c r="A84" s="113"/>
+      <c r="B84" s="101"/>
       <c r="C84" s="60" t="s">
         <v>53</v>
       </c>
@@ -13864,8 +13867,8 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="118"/>
-      <c r="B85" s="98"/>
+      <c r="A85" s="113"/>
+      <c r="B85" s="102"/>
       <c r="C85" s="70" t="s">
         <v>16</v>
       </c>
@@ -13917,8 +13920,8 @@
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="118"/>
-      <c r="B86" s="98"/>
+      <c r="A86" s="113"/>
+      <c r="B86" s="102"/>
       <c r="C86" s="70" t="s">
         <v>17</v>
       </c>
@@ -13970,8 +13973,8 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="118"/>
-      <c r="B87" s="99"/>
+      <c r="A87" s="113"/>
+      <c r="B87" s="103"/>
       <c r="C87" s="46" t="s">
         <v>18</v>
       </c>
@@ -13995,8 +13998,8 @@
       <c r="R87" s="39"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="118"/>
-      <c r="B88" s="97"/>
+      <c r="A88" s="113"/>
+      <c r="B88" s="101"/>
       <c r="C88" s="60" t="s">
         <v>60</v>
       </c>
@@ -14062,8 +14065,8 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="118"/>
-      <c r="B89" s="98"/>
+      <c r="A89" s="113"/>
+      <c r="B89" s="102"/>
       <c r="C89" s="70" t="s">
         <v>16</v>
       </c>
@@ -14087,8 +14090,8 @@
       <c r="R89" s="37"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="118"/>
-      <c r="B90" s="98"/>
+      <c r="A90" s="113"/>
+      <c r="B90" s="102"/>
       <c r="C90" s="70" t="s">
         <v>17</v>
       </c>
@@ -14140,8 +14143,8 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="118"/>
-      <c r="B91" s="99"/>
+      <c r="A91" s="113"/>
+      <c r="B91" s="103"/>
       <c r="C91" s="46" t="s">
         <v>18</v>
       </c>
@@ -14165,8 +14168,8 @@
       <c r="R91" s="39"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="118"/>
-      <c r="B92" s="97"/>
+      <c r="A92" s="113"/>
+      <c r="B92" s="101"/>
       <c r="C92" s="60" t="s">
         <v>59</v>
       </c>
@@ -14232,8 +14235,8 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="118"/>
-      <c r="B93" s="98"/>
+      <c r="A93" s="113"/>
+      <c r="B93" s="102"/>
       <c r="C93" s="70" t="s">
         <v>16</v>
       </c>
@@ -14285,8 +14288,8 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="118"/>
-      <c r="B94" s="98"/>
+      <c r="A94" s="113"/>
+      <c r="B94" s="102"/>
       <c r="C94" s="70" t="s">
         <v>17</v>
       </c>
@@ -14338,8 +14341,8 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="118"/>
-      <c r="B95" s="99"/>
+      <c r="A95" s="113"/>
+      <c r="B95" s="103"/>
       <c r="C95" s="46" t="s">
         <v>18</v>
       </c>
@@ -14363,16 +14366,16 @@
       <c r="R95" s="39"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B96" s="100" t="s">
+      <c r="B96" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="100"/>
+      <c r="C96" s="104"/>
       <c r="D96" s="2">
         <f>SUM(D52,D56,D60,D64,D68,D72,D76,D80,D84,D88,D92)</f>
         <v>44</v>
       </c>
       <c r="E96" s="2">
-        <f t="shared" ref="E96:R96" si="27">SUM(E52,E56,E60,E64,E68,E72,E76,E80,E84,E88,E92)</f>
+        <f t="shared" ref="E96:Q96" si="27">SUM(E52,E56,E60,E64,E68,E72,E76,E80,E84,E88,E92)</f>
         <v>44</v>
       </c>
       <c r="F96" s="2">
@@ -14438,7 +14441,7 @@
         <v>40.857142857142854</v>
       </c>
       <c r="F97">
-        <f t="shared" ref="F97:R97" si="28" xml:space="preserve"> E97 - ($D$96/COUNT($E$4:$R$4))</f>
+        <f t="shared" ref="F97:Q97" si="28" xml:space="preserve"> E97 - ($D$96/COUNT($E$4:$R$4))</f>
         <v>37.714285714285708</v>
       </c>
       <c r="G97">
@@ -14497,12 +14500,18 @@
     <mergeCell ref="A52:A71"/>
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="A6:A25"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B84:B87"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B50:C50"/>
@@ -14513,13 +14522,7 @@
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B88:B91"/>
     <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A6:A25"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14531,8 +14534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14551,24 +14554,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="84" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -14693,10 +14696,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="114" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -14768,8 +14771,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="109"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="70" t="s">
         <v>16</v>
       </c>
@@ -14798,8 +14801,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="109"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="70" t="s">
         <v>17</v>
       </c>
@@ -14828,8 +14831,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="110"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -14854,8 +14857,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="111">
+      <c r="A10" s="82"/>
+      <c r="B10" s="117">
         <v>26</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -14927,8 +14930,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="70" t="s">
         <v>16</v>
       </c>
@@ -14957,8 +14960,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="112"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="70" t="s">
         <v>17</v>
       </c>
@@ -14987,8 +14990,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="113"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -15013,8 +15016,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="111">
+      <c r="A14" s="82"/>
+      <c r="B14" s="117">
         <v>26</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -15086,8 +15089,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="70" t="s">
         <v>16</v>
       </c>
@@ -15118,8 +15121,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="112"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="70" t="s">
         <v>17</v>
       </c>
@@ -15144,8 +15147,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="113"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -15178,8 +15181,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="111" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="117" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -15251,8 +15254,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="118"/>
       <c r="C19" s="70" t="s">
         <v>16</v>
       </c>
@@ -15277,8 +15280,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="70" t="s">
         <v>17</v>
       </c>
@@ -15309,8 +15312,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -15335,10 +15338,10 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="108"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="10" t="s">
         <v>67</v>
       </c>
@@ -15408,8 +15411,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="109"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="70" t="s">
         <v>16</v>
       </c>
@@ -15438,8 +15441,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="109"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="70" t="s">
         <v>17</v>
       </c>
@@ -15468,8 +15471,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="110"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -15500,8 +15503,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="114"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="60" t="s">
         <v>68</v>
       </c>
@@ -15571,8 +15574,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="115"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="70" t="s">
         <v>16</v>
       </c>
@@ -15603,8 +15606,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="115"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="70" t="s">
         <v>17</v>
       </c>
@@ -15635,8 +15638,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="116"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -15668,10 +15671,10 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="72"/>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="101"/>
+      <c r="C30" s="105"/>
       <c r="D30" s="2">
         <f>SUM(D6,D10,D14,D18,D22,D26)</f>
         <v>66</v>
@@ -15742,7 +15745,7 @@
       <c r="A32" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="92">
+      <c r="B32" s="96">
         <v>12</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -15811,7 +15814,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="72"/>
-      <c r="B33" s="93"/>
+      <c r="B33" s="97"/>
       <c r="C33" s="70" t="s">
         <v>16</v>
       </c>
@@ -15836,7 +15839,7 @@
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="72"/>
-      <c r="B34" s="93"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="70" t="s">
         <v>17</v>
       </c>
@@ -15861,7 +15864,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="72"/>
-      <c r="B35" s="94"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -15886,7 +15889,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="72"/>
-      <c r="B36" s="105">
+      <c r="B36" s="109">
         <v>15</v>
       </c>
       <c r="C36" s="47" t="s">
@@ -15955,7 +15958,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="72"/>
-      <c r="B37" s="106"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="70" t="s">
         <v>16</v>
       </c>
@@ -15980,7 +15983,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="72"/>
-      <c r="B38" s="106"/>
+      <c r="B38" s="110"/>
       <c r="C38" s="70" t="s">
         <v>17</v>
       </c>
@@ -16005,7 +16008,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="72"/>
-      <c r="B39" s="107"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="46" t="s">
         <v>18</v>
       </c>
@@ -16030,7 +16033,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="72"/>
-      <c r="B40" s="105">
+      <c r="B40" s="109">
         <v>21</v>
       </c>
       <c r="C40" s="60" t="s">
@@ -16099,7 +16102,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="72"/>
-      <c r="B41" s="106"/>
+      <c r="B41" s="110"/>
       <c r="C41" s="70" t="s">
         <v>16</v>
       </c>
@@ -16124,7 +16127,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="72"/>
-      <c r="B42" s="106"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="70" t="s">
         <v>17</v>
       </c>
@@ -16149,7 +16152,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="72"/>
-      <c r="B43" s="107"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
@@ -16174,7 +16177,7 @@
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="72"/>
-      <c r="B44" s="105">
+      <c r="B44" s="109">
         <v>18</v>
       </c>
       <c r="C44" s="60" t="s">
@@ -16243,7 +16246,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="72"/>
-      <c r="B45" s="106"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="70" t="s">
         <v>16</v>
       </c>
@@ -16268,7 +16271,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="72"/>
-      <c r="B46" s="106"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="70" t="s">
         <v>17</v>
       </c>
@@ -16293,7 +16296,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="72"/>
-      <c r="B47" s="107"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -16318,7 +16321,7 @@
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="72"/>
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="101" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="60" t="s">
@@ -16387,7 +16390,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="72"/>
-      <c r="B49" s="98"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="70" t="s">
         <v>16</v>
       </c>
@@ -16412,7 +16415,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="72"/>
-      <c r="B50" s="98"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="70" t="s">
         <v>17</v>
       </c>
@@ -16437,7 +16440,7 @@
     </row>
     <row r="51" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="73"/>
-      <c r="B51" s="99"/>
+      <c r="B51" s="103"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -16461,10 +16464,10 @@
       <c r="R51" s="39"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="97" t="s">
+      <c r="B52" s="101" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -16532,8 +16535,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="98"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="102"/>
       <c r="C53" s="70" t="s">
         <v>16</v>
       </c>
@@ -16557,8 +16560,8 @@
       <c r="R53" s="37"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="98"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="70" t="s">
         <v>17</v>
       </c>
@@ -16582,8 +16585,8 @@
       <c r="R54" s="36"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
-      <c r="B55" s="99"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="103"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -16607,8 +16610,8 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="97">
+      <c r="A56" s="82"/>
+      <c r="B56" s="101">
         <v>31</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -16676,8 +16679,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="98"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="102"/>
       <c r="C57" s="70" t="s">
         <v>16</v>
       </c>
@@ -16701,8 +16704,8 @@
       <c r="R57" s="37"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="B58" s="98"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="102"/>
       <c r="C58" s="70" t="s">
         <v>17</v>
       </c>
@@ -16726,8 +16729,8 @@
       <c r="R58" s="31"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="79"/>
-      <c r="B59" s="99"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="103"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -16751,7 +16754,7 @@
       <c r="R59" s="39"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="92"/>
+      <c r="B60" s="96"/>
       <c r="C60" s="10" t="s">
         <v>39</v>
       </c>
@@ -16817,7 +16820,7 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="93"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="70" t="s">
         <v>16</v>
       </c>
@@ -16841,7 +16844,7 @@
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="93"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="70" t="s">
         <v>17</v>
       </c>
@@ -16865,7 +16868,7 @@
       <c r="R62" s="31"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="94"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="70" t="s">
         <v>18</v>
       </c>
@@ -16889,7 +16892,7 @@
       <c r="R63" s="38"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="102"/>
+      <c r="B64" s="106"/>
       <c r="C64" s="10" t="s">
         <v>40</v>
       </c>
@@ -16955,7 +16958,7 @@
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="103"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="70" t="s">
         <v>16</v>
       </c>
@@ -16979,7 +16982,7 @@
       <c r="R65" s="37"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="103"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="70" t="s">
         <v>17</v>
       </c>
@@ -17003,7 +17006,7 @@
       <c r="R66" s="31"/>
     </row>
     <row r="67" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="104"/>
+      <c r="B67" s="108"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -17027,10 +17030,10 @@
       <c r="R67" s="39"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="100" t="s">
+      <c r="B68" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="100"/>
+      <c r="C68" s="104"/>
       <c r="D68" s="2" t="e">
         <f t="shared" ref="D68:R68" si="17">SUM(D32,D52,D56,D60,D64)</f>
         <v>#REF!</v>
@@ -17098,59 +17101,59 @@
         <v>#REF!</v>
       </c>
       <c r="E69" t="e">
-        <f xml:space="preserve"> D69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" ref="E69:R69" si="18" xml:space="preserve"> D69 - ($D$69/COUNT($D$4:$M$4))</f>
         <v>#REF!</v>
       </c>
       <c r="F69" t="e">
-        <f xml:space="preserve"> E69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="G69" t="e">
-        <f xml:space="preserve"> F69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="H69" t="e">
-        <f xml:space="preserve"> G69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="I69" t="e">
-        <f xml:space="preserve"> H69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="J69" t="e">
-        <f xml:space="preserve"> I69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="K69" t="e">
-        <f xml:space="preserve"> J69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="L69" t="e">
-        <f xml:space="preserve"> K69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="M69" t="e">
-        <f xml:space="preserve"> L69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="N69" t="e">
-        <f xml:space="preserve"> M69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="O69" t="e">
-        <f xml:space="preserve"> N69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="P69" t="e">
-        <f xml:space="preserve"> O69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="Q69" t="e">
-        <f xml:space="preserve"> P69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="R69" t="e">
-        <f xml:space="preserve"> Q69 - ($D$69/COUNT($D$4:$M$4))</f>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
     </row>

--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -806,12 +806,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,20 +821,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,6 +844,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1051,16 +1051,16 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>127</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.5</c:v>
+                  <c:v>71.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,11 +1077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118119040"/>
-        <c:axId val="119149312"/>
+        <c:axId val="8094848"/>
+        <c:axId val="8096768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118119040"/>
+        <c:axId val="8094848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119149312"/>
+        <c:crossAx val="8096768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1117,7 +1117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119149312"/>
+        <c:axId val="8096768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118119040"/>
+        <c:crossAx val="8094848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1407,11 +1407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119166080"/>
-        <c:axId val="119181312"/>
+        <c:axId val="33800960"/>
+        <c:axId val="33802496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="119166080"/>
+        <c:axId val="33800960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,14 +1421,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119181312"/>
+        <c:crossAx val="33802496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="119181312"/>
+        <c:axId val="33802496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119166080"/>
+        <c:crossAx val="33800960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1662,11 +1662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119345920"/>
-        <c:axId val="119347456"/>
+        <c:axId val="70003712"/>
+        <c:axId val="70021888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="119345920"/>
+        <c:axId val="70003712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,14 +1676,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119347456"/>
+        <c:crossAx val="70021888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="119347456"/>
+        <c:axId val="70021888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119345920"/>
+        <c:crossAx val="70003712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1977,11 +1977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119816576"/>
-        <c:axId val="119818112"/>
+        <c:axId val="90195456"/>
+        <c:axId val="90196992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="119816576"/>
+        <c:axId val="90195456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,14 +1991,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119818112"/>
+        <c:crossAx val="90196992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="119818112"/>
+        <c:axId val="90196992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,7 +2009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119816576"/>
+        <c:crossAx val="90195456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2296,11 +2296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120048640"/>
-        <c:axId val="120050816"/>
+        <c:axId val="105477632"/>
+        <c:axId val="105479168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120048640"/>
+        <c:axId val="105477632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120050816"/>
+        <c:crossAx val="105479168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2318,7 +2318,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120050816"/>
+        <c:axId val="105479168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120048640"/>
+        <c:crossAx val="105477632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2612,11 +2612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120260480"/>
-        <c:axId val="120262016"/>
+        <c:axId val="105193472"/>
+        <c:axId val="105195008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="120260480"/>
+        <c:axId val="105193472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,14 +2626,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120262016"/>
+        <c:crossAx val="105195008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120262016"/>
+        <c:axId val="105195008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2644,7 +2644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120260480"/>
+        <c:crossAx val="105193472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3173,7 +3173,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,20 +3261,20 @@
       </c>
       <c r="D4" s="4">
         <f>H3-E4</f>
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E4" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
         <v>16</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4">
         <f>H3-F4+G4</f>
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3293,17 +3293,17 @@
         <v>118</v>
       </c>
       <c r="E5" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4">
         <v>32</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4">
         <f>H4-E5+G5</f>
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3319,20 +3319,20 @@
       </c>
       <c r="D6" s="4">
         <f>H5-E6</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E6" s="4">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F6" s="4">
         <v>40</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H6" s="4">
         <f>H5-E6+G6</f>
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3348,20 +3348,20 @@
       </c>
       <c r="D7" s="4">
         <f>H6-E7</f>
-        <v>66.5</v>
+        <v>49</v>
       </c>
       <c r="E7" s="4">
-        <v>21.5</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4">
         <v>53.5</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H7" s="4">
         <f>H6-E7+G7</f>
-        <v>66.5</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="D8" s="4">
         <f>H7-E8</f>
-        <v>27.5</v>
+        <v>32.5</v>
       </c>
       <c r="E8" s="2">
         <v>39</v>
@@ -5534,7 +5534,7 @@
       <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="94">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -5587,7 +5587,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
-      <c r="B9" s="98"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="97" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -5707,7 +5707,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
-      <c r="B11" s="100"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
-      <c r="B12" s="100"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
-      <c r="B13" s="100"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
-      <c r="B14" s="100"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
-      <c r="B15" s="100"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="82"/>
-      <c r="B16" s="100"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
-      <c r="B17" s="100"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
-      <c r="B22" s="94"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="49" t="s">
         <v>31</v>
       </c>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="82"/>
-      <c r="B23" s="94"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
-      <c r="B24" s="94"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="83"/>
-      <c r="B25" s="95"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="A28" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="96">
+      <c r="B28" s="94">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -6248,7 +6248,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="82"/>
-      <c r="B29" s="97"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="45" t="s">
         <v>16</v>
       </c>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="82"/>
-      <c r="B30" s="97"/>
+      <c r="B30" s="95"/>
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="82"/>
-      <c r="B31" s="98"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="82"/>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="97" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -6379,7 +6379,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="82"/>
-      <c r="B33" s="100"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="45" t="s">
         <v>16</v>
       </c>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="82"/>
-      <c r="B34" s="100"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="45" t="s">
         <v>17</v>
       </c>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="82"/>
-      <c r="B35" s="100"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="82"/>
-      <c r="B36" s="100"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="52" t="s">
         <v>33</v>
       </c>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="82"/>
-      <c r="B37" s="100"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="45" t="s">
         <v>16</v>
       </c>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="82"/>
-      <c r="B38" s="100"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="45" t="s">
         <v>17</v>
       </c>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="82"/>
-      <c r="B39" s="100"/>
+      <c r="B39" s="98"/>
       <c r="C39" s="45" t="s">
         <v>18</v>
       </c>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82"/>
-      <c r="B44" s="94"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="49" t="s">
         <v>31</v>
       </c>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="82"/>
-      <c r="B45" s="94"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="82"/>
-      <c r="B46" s="94"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="83"/>
-      <c r="B47" s="95"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -7010,6 +7010,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B17"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A28:A39"/>
@@ -7018,14 +7026,6 @@
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7042,8 +7042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7207,7 +7207,7 @@
       <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="94">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -7280,7 +7280,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -7332,7 +7332,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
-      <c r="B9" s="98"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
-      <c r="B10" s="109">
+      <c r="B10" s="104">
         <v>15</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -7435,7 +7435,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
-      <c r="B11" s="110"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
-      <c r="B12" s="110"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
-      <c r="B13" s="111"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
-      <c r="B14" s="109">
+      <c r="B14" s="104">
         <v>21</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -7590,7 +7590,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
-      <c r="B15" s="110"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="82"/>
-      <c r="B16" s="110"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
-      <c r="B17" s="111"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="82"/>
-      <c r="B18" s="109">
+      <c r="B18" s="104">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -7749,7 +7749,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="82"/>
-      <c r="B19" s="110"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
-      <c r="B20" s="110"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
-      <c r="B21" s="111"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="60" t="s">
@@ -7904,7 +7904,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="82"/>
-      <c r="B23" s="102"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -7930,7 +7930,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
-      <c r="B24" s="102"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="82"/>
-      <c r="B25" s="103"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="82"/>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="60" t="s">
@@ -8061,7 +8061,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="82"/>
-      <c r="B27" s="102"/>
+      <c r="B27" s="108"/>
       <c r="C27" s="45" t="s">
         <v>16</v>
       </c>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="82"/>
-      <c r="B28" s="102"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="82"/>
-      <c r="B29" s="103"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -8143,7 +8143,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="82"/>
-      <c r="B30" s="101">
+      <c r="B30" s="107">
         <v>31</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -8216,7 +8216,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="82"/>
-      <c r="B31" s="102"/>
+      <c r="B31" s="108"/>
       <c r="C31" s="45" t="s">
         <v>16</v>
       </c>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="82"/>
-      <c r="B32" s="102"/>
+      <c r="B32" s="108"/>
       <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="83"/>
-      <c r="B33" s="103"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="82"/>
-      <c r="B38" s="106"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="10" t="s">
         <v>40</v>
       </c>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="82"/>
-      <c r="B39" s="107"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="45" t="s">
         <v>16</v>
       </c>
@@ -8550,7 +8550,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="82"/>
-      <c r="B40" s="107"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="45" t="s">
         <v>17</v>
       </c>
@@ -8580,7 +8580,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="83"/>
-      <c r="B41" s="108"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -8605,10 +8605,10 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="105"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="2">
         <f t="shared" ref="D42:R42" si="21">SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30)</f>
         <v>38</v>
@@ -8678,7 +8678,7 @@
       <c r="A44" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="96">
+      <c r="B44" s="94">
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -8747,7 +8747,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="82"/>
-      <c r="B45" s="97"/>
+      <c r="B45" s="95"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="82"/>
-      <c r="B46" s="97"/>
+      <c r="B46" s="95"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="82"/>
-      <c r="B47" s="98"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -8850,7 +8850,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="82"/>
-      <c r="B48" s="109">
+      <c r="B48" s="104">
         <v>15</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -8919,7 +8919,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="82"/>
-      <c r="B49" s="110"/>
+      <c r="B49" s="105"/>
       <c r="C49" s="45" t="s">
         <v>16</v>
       </c>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="82"/>
-      <c r="B50" s="110"/>
+      <c r="B50" s="105"/>
       <c r="C50" s="45" t="s">
         <v>17</v>
       </c>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="82"/>
-      <c r="B51" s="111"/>
+      <c r="B51" s="106"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -9025,7 +9025,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="82"/>
-      <c r="B52" s="109">
+      <c r="B52" s="104">
         <v>21</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -9094,7 +9094,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="82"/>
-      <c r="B53" s="110"/>
+      <c r="B53" s="105"/>
       <c r="C53" s="45" t="s">
         <v>16</v>
       </c>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="82"/>
-      <c r="B54" s="110"/>
+      <c r="B54" s="105"/>
       <c r="C54" s="45" t="s">
         <v>17</v>
       </c>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="82"/>
-      <c r="B55" s="111"/>
+      <c r="B55" s="106"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="82"/>
-      <c r="B56" s="109">
+      <c r="B56" s="104">
         <v>18</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -9266,7 +9266,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="82"/>
-      <c r="B57" s="110"/>
+      <c r="B57" s="105"/>
       <c r="C57" s="45" t="s">
         <v>16</v>
       </c>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="82"/>
-      <c r="B58" s="110"/>
+      <c r="B58" s="105"/>
       <c r="C58" s="45" t="s">
         <v>17</v>
       </c>
@@ -9344,7 +9344,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="82"/>
-      <c r="B59" s="111"/>
+      <c r="B59" s="106"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -9369,7 +9369,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="82"/>
-      <c r="B60" s="101" t="s">
+      <c r="B60" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -9438,7 +9438,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="82"/>
-      <c r="B61" s="102"/>
+      <c r="B61" s="108"/>
       <c r="C61" s="45" t="s">
         <v>16</v>
       </c>
@@ -9463,7 +9463,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="82"/>
-      <c r="B62" s="102"/>
+      <c r="B62" s="108"/>
       <c r="C62" s="45" t="s">
         <v>17</v>
       </c>
@@ -9516,7 +9516,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="82"/>
-      <c r="B63" s="103"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="82"/>
-      <c r="B64" s="101" t="s">
+      <c r="B64" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="60" t="s">
@@ -9610,7 +9610,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="82"/>
-      <c r="B65" s="102"/>
+      <c r="B65" s="108"/>
       <c r="C65" s="45" t="s">
         <v>16</v>
       </c>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="82"/>
-      <c r="B66" s="102"/>
+      <c r="B66" s="108"/>
       <c r="C66" s="45" t="s">
         <v>17</v>
       </c>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="82"/>
-      <c r="B67" s="103"/>
+      <c r="B67" s="109"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="82"/>
-      <c r="B68" s="101">
+      <c r="B68" s="107">
         <v>31</v>
       </c>
       <c r="C68" s="60" t="s">
@@ -9782,7 +9782,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="82"/>
-      <c r="B69" s="102"/>
+      <c r="B69" s="108"/>
       <c r="C69" s="45" t="s">
         <v>16</v>
       </c>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="82"/>
-      <c r="B70" s="102"/>
+      <c r="B70" s="108"/>
       <c r="C70" s="45" t="s">
         <v>17</v>
       </c>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="83"/>
-      <c r="B71" s="103"/>
+      <c r="B71" s="109"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -9887,7 +9887,7 @@
       <c r="A72" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="96"/>
+      <c r="B72" s="94"/>
       <c r="C72" s="10" t="s">
         <v>39</v>
       </c>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="82"/>
-      <c r="B73" s="97"/>
+      <c r="B73" s="95"/>
       <c r="C73" s="45" t="s">
         <v>16</v>
       </c>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="82"/>
-      <c r="B74" s="97"/>
+      <c r="B74" s="95"/>
       <c r="C74" s="45" t="s">
         <v>17</v>
       </c>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="82"/>
-      <c r="B75" s="98"/>
+      <c r="B75" s="96"/>
       <c r="C75" s="45" t="s">
         <v>18</v>
       </c>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="82"/>
-      <c r="B76" s="106"/>
+      <c r="B76" s="101"/>
       <c r="C76" s="10" t="s">
         <v>40</v>
       </c>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="82"/>
-      <c r="B77" s="107"/>
+      <c r="B77" s="102"/>
       <c r="C77" s="45" t="s">
         <v>16</v>
       </c>
@@ -10149,7 +10149,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="82"/>
-      <c r="B78" s="107"/>
+      <c r="B78" s="102"/>
       <c r="C78" s="45" t="s">
         <v>17</v>
       </c>
@@ -10202,7 +10202,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="83"/>
-      <c r="B79" s="108"/>
+      <c r="B79" s="103"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -10226,10 +10226,10 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="104" t="s">
+      <c r="B80" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="104"/>
+      <c r="C80" s="110"/>
       <c r="D80" s="2">
         <f t="shared" ref="D80:M80" si="41">SUM(D44,D64,D68,D72,D76)</f>
         <v>17.5</v>
@@ -10355,6 +10355,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B68:B71"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
@@ -10371,16 +10381,6 @@
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B64:B67"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B68:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -10397,8 +10397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S97"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10562,7 +10562,7 @@
       <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="94">
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -10635,7 +10635,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="66" t="s">
         <v>16</v>
       </c>
@@ -10665,7 +10665,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="66" t="s">
         <v>17</v>
       </c>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
-      <c r="B9" s="98"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -10717,7 +10717,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
-      <c r="B10" s="109">
+      <c r="B10" s="104">
         <v>16</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -10790,7 +10790,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
-      <c r="B11" s="110"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="66" t="s">
         <v>16</v>
       </c>
@@ -10820,7 +10820,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
-      <c r="B12" s="110"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="66" t="s">
         <v>17</v>
       </c>
@@ -10846,7 +10846,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
-      <c r="B13" s="111"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -10872,7 +10872,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
-      <c r="B14" s="109">
+      <c r="B14" s="104">
         <v>9</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -10945,7 +10945,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
-      <c r="B15" s="110"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="66" t="s">
         <v>16</v>
       </c>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="82"/>
-      <c r="B16" s="110"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="66" t="s">
         <v>17</v>
       </c>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
-      <c r="B17" s="111"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="82"/>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="104" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -11104,7 +11104,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="82"/>
-      <c r="B19" s="110"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="66" t="s">
         <v>16</v>
       </c>
@@ -11130,7 +11130,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
-      <c r="B20" s="110"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="66" t="s">
         <v>17</v>
       </c>
@@ -11156,7 +11156,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
-      <c r="B21" s="111"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="94" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -11259,7 +11259,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="82"/>
-      <c r="B23" s="97"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="66" t="s">
         <v>16</v>
       </c>
@@ -11289,7 +11289,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
-      <c r="B24" s="97"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="66" t="s">
         <v>17</v>
       </c>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="82"/>
-      <c r="B25" s="98"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -11500,7 +11500,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="82"/>
-      <c r="B30" s="101"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="60" t="s">
         <v>52</v>
       </c>
@@ -11571,7 +11571,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="82"/>
-      <c r="B31" s="102"/>
+      <c r="B31" s="108"/>
       <c r="C31" s="66" t="s">
         <v>16</v>
       </c>
@@ -11601,7 +11601,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="82"/>
-      <c r="B32" s="102"/>
+      <c r="B32" s="108"/>
       <c r="C32" s="66" t="s">
         <v>17</v>
       </c>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="82"/>
-      <c r="B33" s="103"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="82"/>
-      <c r="B38" s="101"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="60" t="s">
         <v>53</v>
       </c>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="82"/>
-      <c r="B39" s="102"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="66" t="s">
         <v>16</v>
       </c>
@@ -11911,7 +11911,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="82"/>
-      <c r="B40" s="102"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="66" t="s">
         <v>17</v>
       </c>
@@ -11937,7 +11937,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="82"/>
-      <c r="B41" s="103"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="82"/>
-      <c r="B42" s="101"/>
+      <c r="B42" s="107"/>
       <c r="C42" s="60" t="s">
         <v>60</v>
       </c>
@@ -12034,7 +12034,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="82"/>
-      <c r="B43" s="102"/>
+      <c r="B43" s="108"/>
       <c r="C43" s="66" t="s">
         <v>16</v>
       </c>
@@ -12060,7 +12060,7 @@
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82"/>
-      <c r="B44" s="102"/>
+      <c r="B44" s="108"/>
       <c r="C44" s="66" t="s">
         <v>17</v>
       </c>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="82"/>
-      <c r="B45" s="103"/>
+      <c r="B45" s="109"/>
       <c r="C45" s="46" t="s">
         <v>18</v>
       </c>
@@ -12118,7 +12118,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="82"/>
-      <c r="B46" s="101"/>
+      <c r="B46" s="107"/>
       <c r="C46" s="60" t="s">
         <v>59</v>
       </c>
@@ -12189,7 +12189,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="82"/>
-      <c r="B47" s="102"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="66" t="s">
         <v>16</v>
       </c>
@@ -12219,7 +12219,7 @@
     </row>
     <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="82"/>
-      <c r="B48" s="102"/>
+      <c r="B48" s="108"/>
       <c r="C48" s="66" t="s">
         <v>17</v>
       </c>
@@ -12245,7 +12245,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="83"/>
-      <c r="B49" s="103"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="46" t="s">
         <v>18</v>
       </c>
@@ -12271,10 +12271,10 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="77"/>
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="105"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="2">
         <f>SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30,D42,D46)</f>
         <v>44</v>
@@ -12345,7 +12345,7 @@
       <c r="A52" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="96">
+      <c r="B52" s="94">
         <v>28</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -12414,7 +12414,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="82"/>
-      <c r="B53" s="97"/>
+      <c r="B53" s="95"/>
       <c r="C53" s="70" t="s">
         <v>16</v>
       </c>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="82"/>
-      <c r="B54" s="97"/>
+      <c r="B54" s="95"/>
       <c r="C54" s="70" t="s">
         <v>17</v>
       </c>
@@ -12492,7 +12492,7 @@
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="82"/>
-      <c r="B55" s="98"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -12517,7 +12517,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="82"/>
-      <c r="B56" s="109">
+      <c r="B56" s="104">
         <v>16</v>
       </c>
       <c r="C56" s="47" t="s">
@@ -12586,7 +12586,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="82"/>
-      <c r="B57" s="110"/>
+      <c r="B57" s="105"/>
       <c r="C57" s="70" t="s">
         <v>16</v>
       </c>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="82"/>
-      <c r="B58" s="110"/>
+      <c r="B58" s="105"/>
       <c r="C58" s="70" t="s">
         <v>17</v>
       </c>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="82"/>
-      <c r="B59" s="111"/>
+      <c r="B59" s="106"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="82"/>
-      <c r="B60" s="109">
+      <c r="B60" s="104">
         <v>9</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -12758,7 +12758,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="82"/>
-      <c r="B61" s="110"/>
+      <c r="B61" s="105"/>
       <c r="C61" s="70" t="s">
         <v>16</v>
       </c>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="82"/>
-      <c r="B62" s="110"/>
+      <c r="B62" s="105"/>
       <c r="C62" s="70" t="s">
         <v>17</v>
       </c>
@@ -12864,7 +12864,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="82"/>
-      <c r="B63" s="111"/>
+      <c r="B63" s="106"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="82"/>
-      <c r="B64" s="109" t="s">
+      <c r="B64" s="104" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -12958,7 +12958,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="82"/>
-      <c r="B65" s="110"/>
+      <c r="B65" s="105"/>
       <c r="C65" s="70" t="s">
         <v>16</v>
       </c>
@@ -12983,7 +12983,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="82"/>
-      <c r="B66" s="110"/>
+      <c r="B66" s="105"/>
       <c r="C66" s="70" t="s">
         <v>17</v>
       </c>
@@ -13008,7 +13008,7 @@
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="82"/>
-      <c r="B67" s="111"/>
+      <c r="B67" s="106"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -13061,7 +13061,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="82"/>
-      <c r="B68" s="96" t="s">
+      <c r="B68" s="94" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -13130,7 +13130,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="82"/>
-      <c r="B69" s="97"/>
+      <c r="B69" s="95"/>
       <c r="C69" s="70" t="s">
         <v>16</v>
       </c>
@@ -13183,7 +13183,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="82"/>
-      <c r="B70" s="97"/>
+      <c r="B70" s="95"/>
       <c r="C70" s="70" t="s">
         <v>17</v>
       </c>
@@ -13236,7 +13236,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="83"/>
-      <c r="B71" s="98"/>
+      <c r="B71" s="96"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -13433,7 +13433,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="113"/>
-      <c r="B76" s="101"/>
+      <c r="B76" s="107"/>
       <c r="C76" s="60" t="s">
         <v>52</v>
       </c>
@@ -13500,7 +13500,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="113"/>
-      <c r="B77" s="102"/>
+      <c r="B77" s="108"/>
       <c r="C77" s="70" t="s">
         <v>16</v>
       </c>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="113"/>
-      <c r="B78" s="102"/>
+      <c r="B78" s="108"/>
       <c r="C78" s="70" t="s">
         <v>17</v>
       </c>
@@ -13578,7 +13578,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="113"/>
-      <c r="B79" s="103"/>
+      <c r="B79" s="109"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -13603,7 +13603,7 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="113"/>
-      <c r="B80" s="96"/>
+      <c r="B80" s="94"/>
       <c r="C80" s="60" t="s">
         <v>58</v>
       </c>
@@ -13670,7 +13670,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="113"/>
-      <c r="B81" s="97"/>
+      <c r="B81" s="95"/>
       <c r="C81" s="70" t="s">
         <v>16</v>
       </c>
@@ -13723,7 +13723,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="113"/>
-      <c r="B82" s="97"/>
+      <c r="B82" s="95"/>
       <c r="C82" s="70" t="s">
         <v>17</v>
       </c>
@@ -13776,7 +13776,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="113"/>
-      <c r="B83" s="98"/>
+      <c r="B83" s="96"/>
       <c r="C83" s="46" t="s">
         <v>18</v>
       </c>
@@ -13801,7 +13801,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="113"/>
-      <c r="B84" s="101"/>
+      <c r="B84" s="107"/>
       <c r="C84" s="60" t="s">
         <v>53</v>
       </c>
@@ -13868,7 +13868,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="113"/>
-      <c r="B85" s="102"/>
+      <c r="B85" s="108"/>
       <c r="C85" s="70" t="s">
         <v>16</v>
       </c>
@@ -13921,7 +13921,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="113"/>
-      <c r="B86" s="102"/>
+      <c r="B86" s="108"/>
       <c r="C86" s="70" t="s">
         <v>17</v>
       </c>
@@ -13974,7 +13974,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="113"/>
-      <c r="B87" s="103"/>
+      <c r="B87" s="109"/>
       <c r="C87" s="46" t="s">
         <v>18</v>
       </c>
@@ -13999,7 +13999,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="113"/>
-      <c r="B88" s="101"/>
+      <c r="B88" s="107"/>
       <c r="C88" s="60" t="s">
         <v>60</v>
       </c>
@@ -14066,7 +14066,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="113"/>
-      <c r="B89" s="102"/>
+      <c r="B89" s="108"/>
       <c r="C89" s="70" t="s">
         <v>16</v>
       </c>
@@ -14091,7 +14091,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="113"/>
-      <c r="B90" s="102"/>
+      <c r="B90" s="108"/>
       <c r="C90" s="70" t="s">
         <v>17</v>
       </c>
@@ -14144,7 +14144,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="113"/>
-      <c r="B91" s="103"/>
+      <c r="B91" s="109"/>
       <c r="C91" s="46" t="s">
         <v>18</v>
       </c>
@@ -14169,7 +14169,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="113"/>
-      <c r="B92" s="101"/>
+      <c r="B92" s="107"/>
       <c r="C92" s="60" t="s">
         <v>59</v>
       </c>
@@ -14236,7 +14236,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="113"/>
-      <c r="B93" s="102"/>
+      <c r="B93" s="108"/>
       <c r="C93" s="70" t="s">
         <v>16</v>
       </c>
@@ -14289,7 +14289,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="113"/>
-      <c r="B94" s="102"/>
+      <c r="B94" s="108"/>
       <c r="C94" s="70" t="s">
         <v>17</v>
       </c>
@@ -14342,7 +14342,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="113"/>
-      <c r="B95" s="103"/>
+      <c r="B95" s="109"/>
       <c r="C95" s="46" t="s">
         <v>18</v>
       </c>
@@ -14366,10 +14366,10 @@
       <c r="R95" s="39"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B96" s="104" t="s">
+      <c r="B96" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="104"/>
+      <c r="C96" s="110"/>
       <c r="D96" s="2">
         <f>SUM(D52,D56,D60,D64,D68,D72,D76,D80,D84,D88,D92)</f>
         <v>44</v>
@@ -14495,18 +14495,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="A72:A95"/>
-    <mergeCell ref="A52:A71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="A6:A25"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -14523,6 +14511,18 @@
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A72:A95"/>
+    <mergeCell ref="A52:A71"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="A6:A25"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15671,10 +15671,10 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="72"/>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="105"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="2">
         <f>SUM(D6,D10,D14,D18,D22,D26)</f>
         <v>66</v>
@@ -15745,7 +15745,7 @@
       <c r="A32" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="96">
+      <c r="B32" s="94">
         <v>12</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -15814,7 +15814,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="72"/>
-      <c r="B33" s="97"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="70" t="s">
         <v>16</v>
       </c>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="72"/>
-      <c r="B34" s="97"/>
+      <c r="B34" s="95"/>
       <c r="C34" s="70" t="s">
         <v>17</v>
       </c>
@@ -15864,7 +15864,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="72"/>
-      <c r="B35" s="98"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -15889,7 +15889,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="72"/>
-      <c r="B36" s="109">
+      <c r="B36" s="104">
         <v>15</v>
       </c>
       <c r="C36" s="47" t="s">
@@ -15958,7 +15958,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="72"/>
-      <c r="B37" s="110"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="70" t="s">
         <v>16</v>
       </c>
@@ -15983,7 +15983,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="72"/>
-      <c r="B38" s="110"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="70" t="s">
         <v>17</v>
       </c>
@@ -16008,7 +16008,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="72"/>
-      <c r="B39" s="111"/>
+      <c r="B39" s="106"/>
       <c r="C39" s="46" t="s">
         <v>18</v>
       </c>
@@ -16033,7 +16033,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="72"/>
-      <c r="B40" s="109">
+      <c r="B40" s="104">
         <v>21</v>
       </c>
       <c r="C40" s="60" t="s">
@@ -16102,7 +16102,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="72"/>
-      <c r="B41" s="110"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="70" t="s">
         <v>16</v>
       </c>
@@ -16127,7 +16127,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="72"/>
-      <c r="B42" s="110"/>
+      <c r="B42" s="105"/>
       <c r="C42" s="70" t="s">
         <v>17</v>
       </c>
@@ -16152,7 +16152,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="72"/>
-      <c r="B43" s="111"/>
+      <c r="B43" s="106"/>
       <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
@@ -16177,7 +16177,7 @@
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="72"/>
-      <c r="B44" s="109">
+      <c r="B44" s="104">
         <v>18</v>
       </c>
       <c r="C44" s="60" t="s">
@@ -16246,7 +16246,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="72"/>
-      <c r="B45" s="110"/>
+      <c r="B45" s="105"/>
       <c r="C45" s="70" t="s">
         <v>16</v>
       </c>
@@ -16271,7 +16271,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="72"/>
-      <c r="B46" s="110"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="70" t="s">
         <v>17</v>
       </c>
@@ -16296,7 +16296,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="72"/>
-      <c r="B47" s="111"/>
+      <c r="B47" s="106"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -16321,7 +16321,7 @@
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="72"/>
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="60" t="s">
@@ -16390,7 +16390,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="72"/>
-      <c r="B49" s="102"/>
+      <c r="B49" s="108"/>
       <c r="C49" s="70" t="s">
         <v>16</v>
       </c>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="72"/>
-      <c r="B50" s="102"/>
+      <c r="B50" s="108"/>
       <c r="C50" s="70" t="s">
         <v>17</v>
       </c>
@@ -16440,7 +16440,7 @@
     </row>
     <row r="51" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="73"/>
-      <c r="B51" s="103"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -16467,7 +16467,7 @@
       <c r="A52" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="101" t="s">
+      <c r="B52" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -16536,7 +16536,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="82"/>
-      <c r="B53" s="102"/>
+      <c r="B53" s="108"/>
       <c r="C53" s="70" t="s">
         <v>16</v>
       </c>
@@ -16561,7 +16561,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="82"/>
-      <c r="B54" s="102"/>
+      <c r="B54" s="108"/>
       <c r="C54" s="70" t="s">
         <v>17</v>
       </c>
@@ -16586,7 +16586,7 @@
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="82"/>
-      <c r="B55" s="103"/>
+      <c r="B55" s="109"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -16611,7 +16611,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="82"/>
-      <c r="B56" s="101">
+      <c r="B56" s="107">
         <v>31</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -16680,7 +16680,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="82"/>
-      <c r="B57" s="102"/>
+      <c r="B57" s="108"/>
       <c r="C57" s="70" t="s">
         <v>16</v>
       </c>
@@ -16705,7 +16705,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="82"/>
-      <c r="B58" s="102"/>
+      <c r="B58" s="108"/>
       <c r="C58" s="70" t="s">
         <v>17</v>
       </c>
@@ -16730,7 +16730,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="83"/>
-      <c r="B59" s="103"/>
+      <c r="B59" s="109"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -16754,7 +16754,7 @@
       <c r="R59" s="39"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="96"/>
+      <c r="B60" s="94"/>
       <c r="C60" s="10" t="s">
         <v>39</v>
       </c>
@@ -16820,7 +16820,7 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="97"/>
+      <c r="B61" s="95"/>
       <c r="C61" s="70" t="s">
         <v>16</v>
       </c>
@@ -16844,7 +16844,7 @@
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="97"/>
+      <c r="B62" s="95"/>
       <c r="C62" s="70" t="s">
         <v>17</v>
       </c>
@@ -16868,7 +16868,7 @@
       <c r="R62" s="31"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="98"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="70" t="s">
         <v>18</v>
       </c>
@@ -16892,7 +16892,7 @@
       <c r="R63" s="38"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="106"/>
+      <c r="B64" s="101"/>
       <c r="C64" s="10" t="s">
         <v>40</v>
       </c>
@@ -16958,7 +16958,7 @@
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="107"/>
+      <c r="B65" s="102"/>
       <c r="C65" s="70" t="s">
         <v>16</v>
       </c>
@@ -16982,7 +16982,7 @@
       <c r="R65" s="37"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="107"/>
+      <c r="B66" s="102"/>
       <c r="C66" s="70" t="s">
         <v>17</v>
       </c>
@@ -17006,7 +17006,7 @@
       <c r="R66" s="31"/>
     </row>
     <row r="67" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="108"/>
+      <c r="B67" s="103"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -17030,10 +17030,10 @@
       <c r="R67" s="39"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="104" t="s">
+      <c r="B68" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="104"/>
+      <c r="C68" s="110"/>
       <c r="D68" s="2" t="e">
         <f t="shared" ref="D68:R68" si="17">SUM(D32,D52,D56,D60,D64)</f>
         <v>#REF!</v>
@@ -17160,18 +17160,6 @@
     <row r="72" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="L2:R2"/>
@@ -17181,6 +17169,18 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -806,6 +806,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,11 +827,20 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -844,21 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1051,16 +1051,16 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,11 +1077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="8094848"/>
-        <c:axId val="8096768"/>
+        <c:axId val="34309248"/>
+        <c:axId val="34311168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8094848"/>
+        <c:axId val="34309248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8096768"/>
+        <c:crossAx val="34311168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1117,7 +1117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8096768"/>
+        <c:axId val="34311168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8094848"/>
+        <c:crossAx val="34309248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1407,11 +1407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="33800960"/>
-        <c:axId val="33802496"/>
+        <c:axId val="34718464"/>
+        <c:axId val="34720000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="33800960"/>
+        <c:axId val="34718464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,14 +1421,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33802496"/>
+        <c:crossAx val="34720000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="33802496"/>
+        <c:axId val="34720000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33800960"/>
+        <c:crossAx val="34718464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1662,11 +1662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70003712"/>
-        <c:axId val="70021888"/>
+        <c:axId val="45100032"/>
+        <c:axId val="45118208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70003712"/>
+        <c:axId val="45100032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,14 +1676,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70021888"/>
+        <c:crossAx val="45118208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70021888"/>
+        <c:axId val="45118208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70003712"/>
+        <c:crossAx val="45100032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1977,11 +1977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90195456"/>
-        <c:axId val="90196992"/>
+        <c:axId val="51463680"/>
+        <c:axId val="51465216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90195456"/>
+        <c:axId val="51463680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,14 +1991,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90196992"/>
+        <c:crossAx val="51465216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90196992"/>
+        <c:axId val="51465216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,7 +2009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90195456"/>
+        <c:crossAx val="51463680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2296,11 +2296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105477632"/>
-        <c:axId val="105479168"/>
+        <c:axId val="53179904"/>
+        <c:axId val="53181440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105477632"/>
+        <c:axId val="53179904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105479168"/>
+        <c:crossAx val="53181440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2318,7 +2318,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105479168"/>
+        <c:axId val="53181440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105477632"/>
+        <c:crossAx val="53179904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2612,11 +2612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105193472"/>
-        <c:axId val="105195008"/>
+        <c:axId val="51251456"/>
+        <c:axId val="51261440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105193472"/>
+        <c:axId val="51251456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,14 +2626,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105195008"/>
+        <c:crossAx val="51261440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105195008"/>
+        <c:axId val="51261440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2644,7 +2644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105193472"/>
+        <c:crossAx val="51251456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3173,7 +3173,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,8 +3273,8 @@
         <v>5</v>
       </c>
       <c r="H4" s="4">
-        <f>H3-F4+G4</f>
-        <v>132</v>
+        <f>H3-E4+G4</f>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D5" s="4">
         <f>H4-E5</f>
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E5" s="4">
         <v>14</v>
@@ -3302,8 +3302,8 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <f>H4-E5+G5</f>
-        <v>123</v>
+        <f t="shared" ref="H5:H7" si="1">H4-E5+G5</f>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="D6" s="4">
         <f>H5-E6</f>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E6" s="4">
         <v>38</v>
@@ -3331,8 +3331,8 @@
         <v>8</v>
       </c>
       <c r="H6" s="4">
-        <f>H5-E6+G6</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="D7" s="4">
         <f>H6-E7</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4">
         <v>44</v>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="H7" s="4">
         <f>H6-E7+G7</f>
-        <v>71.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="D8" s="4">
         <f>H7-E8</f>
-        <v>32.5</v>
+        <v>29.5</v>
       </c>
       <c r="E8" s="2">
         <v>39</v>
@@ -5534,7 +5534,7 @@
       <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="96">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -5587,7 +5587,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
-      <c r="B7" s="95"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
-      <c r="B8" s="95"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
-      <c r="B9" s="96"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="99" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -5707,7 +5707,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
-      <c r="B11" s="98"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
-      <c r="B12" s="98"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
-      <c r="B13" s="98"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
-      <c r="B14" s="98"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
-      <c r="B15" s="98"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="82"/>
-      <c r="B16" s="98"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
-      <c r="B17" s="98"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
-      <c r="B22" s="99"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="49" t="s">
         <v>31</v>
       </c>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="82"/>
-      <c r="B23" s="99"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
-      <c r="B24" s="99"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="83"/>
-      <c r="B25" s="100"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="A28" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="94">
+      <c r="B28" s="96">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -6248,7 +6248,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="82"/>
-      <c r="B29" s="95"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="45" t="s">
         <v>16</v>
       </c>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="82"/>
-      <c r="B30" s="95"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="82"/>
-      <c r="B31" s="96"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="82"/>
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="99" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -6379,7 +6379,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="82"/>
-      <c r="B33" s="98"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="45" t="s">
         <v>16</v>
       </c>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="82"/>
-      <c r="B34" s="98"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="45" t="s">
         <v>17</v>
       </c>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="82"/>
-      <c r="B35" s="98"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="82"/>
-      <c r="B36" s="98"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="52" t="s">
         <v>33</v>
       </c>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="82"/>
-      <c r="B37" s="98"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="45" t="s">
         <v>16</v>
       </c>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="82"/>
-      <c r="B38" s="98"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="45" t="s">
         <v>17</v>
       </c>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="82"/>
-      <c r="B39" s="98"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="45" t="s">
         <v>18</v>
       </c>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82"/>
-      <c r="B44" s="99"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="49" t="s">
         <v>31</v>
       </c>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="82"/>
-      <c r="B45" s="99"/>
+      <c r="B45" s="94"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="82"/>
-      <c r="B46" s="99"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="83"/>
-      <c r="B47" s="100"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -7010,6 +7010,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
@@ -7018,14 +7026,6 @@
     <mergeCell ref="A6:A17"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7207,7 +7207,7 @@
       <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="96">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -7280,7 +7280,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
-      <c r="B7" s="95"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
-      <c r="B8" s="95"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -7332,7 +7332,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
-      <c r="B9" s="96"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
-      <c r="B10" s="104">
+      <c r="B10" s="109">
         <v>15</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -7435,7 +7435,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
-      <c r="B11" s="105"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
-      <c r="B12" s="105"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
-      <c r="B13" s="106"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
-      <c r="B14" s="104">
+      <c r="B14" s="109">
         <v>21</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -7590,7 +7590,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
-      <c r="B15" s="105"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="82"/>
-      <c r="B16" s="105"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
-      <c r="B17" s="106"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="82"/>
-      <c r="B18" s="104">
+      <c r="B18" s="109">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -7749,7 +7749,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="82"/>
-      <c r="B19" s="105"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
-      <c r="B20" s="105"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
-      <c r="B21" s="106"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="101" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="60" t="s">
@@ -7904,7 +7904,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="82"/>
-      <c r="B23" s="108"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -7930,7 +7930,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
-      <c r="B24" s="108"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="82"/>
-      <c r="B25" s="109"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="82"/>
-      <c r="B26" s="107" t="s">
+      <c r="B26" s="101" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="60" t="s">
@@ -8061,7 +8061,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="82"/>
-      <c r="B27" s="108"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="45" t="s">
         <v>16</v>
       </c>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="82"/>
-      <c r="B28" s="108"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="82"/>
-      <c r="B29" s="109"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -8143,7 +8143,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="82"/>
-      <c r="B30" s="107">
+      <c r="B30" s="101">
         <v>31</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -8216,7 +8216,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="82"/>
-      <c r="B31" s="108"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="45" t="s">
         <v>16</v>
       </c>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="82"/>
-      <c r="B32" s="108"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="83"/>
-      <c r="B33" s="109"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="82"/>
-      <c r="B38" s="101"/>
+      <c r="B38" s="106"/>
       <c r="C38" s="10" t="s">
         <v>40</v>
       </c>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="82"/>
-      <c r="B39" s="102"/>
+      <c r="B39" s="107"/>
       <c r="C39" s="45" t="s">
         <v>16</v>
       </c>
@@ -8550,7 +8550,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="82"/>
-      <c r="B40" s="102"/>
+      <c r="B40" s="107"/>
       <c r="C40" s="45" t="s">
         <v>17</v>
       </c>
@@ -8580,7 +8580,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="83"/>
-      <c r="B41" s="103"/>
+      <c r="B41" s="108"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -8605,10 +8605,10 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="111" t="s">
+      <c r="B42" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="105"/>
       <c r="D42" s="2">
         <f t="shared" ref="D42:R42" si="21">SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30)</f>
         <v>38</v>
@@ -8678,7 +8678,7 @@
       <c r="A44" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="94">
+      <c r="B44" s="96">
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -8747,7 +8747,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="82"/>
-      <c r="B45" s="95"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="82"/>
-      <c r="B46" s="95"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="82"/>
-      <c r="B47" s="96"/>
+      <c r="B47" s="98"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -8850,7 +8850,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="82"/>
-      <c r="B48" s="104">
+      <c r="B48" s="109">
         <v>15</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -8919,7 +8919,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="82"/>
-      <c r="B49" s="105"/>
+      <c r="B49" s="110"/>
       <c r="C49" s="45" t="s">
         <v>16</v>
       </c>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="82"/>
-      <c r="B50" s="105"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="45" t="s">
         <v>17</v>
       </c>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="82"/>
-      <c r="B51" s="106"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -9025,7 +9025,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="82"/>
-      <c r="B52" s="104">
+      <c r="B52" s="109">
         <v>21</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -9094,7 +9094,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="82"/>
-      <c r="B53" s="105"/>
+      <c r="B53" s="110"/>
       <c r="C53" s="45" t="s">
         <v>16</v>
       </c>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="82"/>
-      <c r="B54" s="105"/>
+      <c r="B54" s="110"/>
       <c r="C54" s="45" t="s">
         <v>17</v>
       </c>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="82"/>
-      <c r="B55" s="106"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="82"/>
-      <c r="B56" s="104">
+      <c r="B56" s="109">
         <v>18</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -9266,7 +9266,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="82"/>
-      <c r="B57" s="105"/>
+      <c r="B57" s="110"/>
       <c r="C57" s="45" t="s">
         <v>16</v>
       </c>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="82"/>
-      <c r="B58" s="105"/>
+      <c r="B58" s="110"/>
       <c r="C58" s="45" t="s">
         <v>17</v>
       </c>
@@ -9344,7 +9344,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="82"/>
-      <c r="B59" s="106"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -9369,7 +9369,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="82"/>
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="101" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -9438,7 +9438,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="82"/>
-      <c r="B61" s="108"/>
+      <c r="B61" s="102"/>
       <c r="C61" s="45" t="s">
         <v>16</v>
       </c>
@@ -9463,7 +9463,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="82"/>
-      <c r="B62" s="108"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="45" t="s">
         <v>17</v>
       </c>
@@ -9516,7 +9516,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="82"/>
-      <c r="B63" s="109"/>
+      <c r="B63" s="103"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="82"/>
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="101" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="60" t="s">
@@ -9610,7 +9610,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="82"/>
-      <c r="B65" s="108"/>
+      <c r="B65" s="102"/>
       <c r="C65" s="45" t="s">
         <v>16</v>
       </c>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="82"/>
-      <c r="B66" s="108"/>
+      <c r="B66" s="102"/>
       <c r="C66" s="45" t="s">
         <v>17</v>
       </c>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="82"/>
-      <c r="B67" s="109"/>
+      <c r="B67" s="103"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="82"/>
-      <c r="B68" s="107">
+      <c r="B68" s="101">
         <v>31</v>
       </c>
       <c r="C68" s="60" t="s">
@@ -9782,7 +9782,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="82"/>
-      <c r="B69" s="108"/>
+      <c r="B69" s="102"/>
       <c r="C69" s="45" t="s">
         <v>16</v>
       </c>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="82"/>
-      <c r="B70" s="108"/>
+      <c r="B70" s="102"/>
       <c r="C70" s="45" t="s">
         <v>17</v>
       </c>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="83"/>
-      <c r="B71" s="109"/>
+      <c r="B71" s="103"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -9887,7 +9887,7 @@
       <c r="A72" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="94"/>
+      <c r="B72" s="96"/>
       <c r="C72" s="10" t="s">
         <v>39</v>
       </c>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="82"/>
-      <c r="B73" s="95"/>
+      <c r="B73" s="97"/>
       <c r="C73" s="45" t="s">
         <v>16</v>
       </c>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="82"/>
-      <c r="B74" s="95"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="45" t="s">
         <v>17</v>
       </c>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="82"/>
-      <c r="B75" s="96"/>
+      <c r="B75" s="98"/>
       <c r="C75" s="45" t="s">
         <v>18</v>
       </c>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="82"/>
-      <c r="B76" s="101"/>
+      <c r="B76" s="106"/>
       <c r="C76" s="10" t="s">
         <v>40</v>
       </c>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="82"/>
-      <c r="B77" s="102"/>
+      <c r="B77" s="107"/>
       <c r="C77" s="45" t="s">
         <v>16</v>
       </c>
@@ -10149,7 +10149,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="82"/>
-      <c r="B78" s="102"/>
+      <c r="B78" s="107"/>
       <c r="C78" s="45" t="s">
         <v>17</v>
       </c>
@@ -10202,7 +10202,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="83"/>
-      <c r="B79" s="103"/>
+      <c r="B79" s="108"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -10226,10 +10226,10 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="110" t="s">
+      <c r="B80" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="110"/>
+      <c r="C80" s="104"/>
       <c r="D80" s="2">
         <f t="shared" ref="D80:M80" si="41">SUM(D44,D64,D68,D72,D76)</f>
         <v>17.5</v>
@@ -10355,16 +10355,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B68:B71"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
@@ -10381,6 +10371,16 @@
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B64:B67"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B68:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -10562,7 +10562,7 @@
       <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="96">
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -10635,7 +10635,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
-      <c r="B7" s="95"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="66" t="s">
         <v>16</v>
       </c>
@@ -10665,7 +10665,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
-      <c r="B8" s="95"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="66" t="s">
         <v>17</v>
       </c>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
-      <c r="B9" s="96"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -10717,7 +10717,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
-      <c r="B10" s="104">
+      <c r="B10" s="109">
         <v>16</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -10790,7 +10790,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
-      <c r="B11" s="105"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="66" t="s">
         <v>16</v>
       </c>
@@ -10820,7 +10820,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
-      <c r="B12" s="105"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="66" t="s">
         <v>17</v>
       </c>
@@ -10846,7 +10846,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
-      <c r="B13" s="106"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -10872,7 +10872,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
-      <c r="B14" s="104">
+      <c r="B14" s="109">
         <v>9</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -10945,7 +10945,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
-      <c r="B15" s="105"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="66" t="s">
         <v>16</v>
       </c>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="82"/>
-      <c r="B16" s="105"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="66" t="s">
         <v>17</v>
       </c>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
-      <c r="B17" s="106"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="82"/>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="109" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -11104,7 +11104,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="82"/>
-      <c r="B19" s="105"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="66" t="s">
         <v>16</v>
       </c>
@@ -11130,7 +11130,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
-      <c r="B20" s="105"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="66" t="s">
         <v>17</v>
       </c>
@@ -11156,7 +11156,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
-      <c r="B21" s="106"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="96" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -11259,7 +11259,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="82"/>
-      <c r="B23" s="95"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="66" t="s">
         <v>16</v>
       </c>
@@ -11289,7 +11289,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
-      <c r="B24" s="95"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="66" t="s">
         <v>17</v>
       </c>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="82"/>
-      <c r="B25" s="96"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -11500,7 +11500,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="82"/>
-      <c r="B30" s="107"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="60" t="s">
         <v>52</v>
       </c>
@@ -11571,7 +11571,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="82"/>
-      <c r="B31" s="108"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="66" t="s">
         <v>16</v>
       </c>
@@ -11601,7 +11601,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="82"/>
-      <c r="B32" s="108"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="66" t="s">
         <v>17</v>
       </c>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="82"/>
-      <c r="B33" s="109"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="82"/>
-      <c r="B38" s="107"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="60" t="s">
         <v>53</v>
       </c>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="82"/>
-      <c r="B39" s="108"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="66" t="s">
         <v>16</v>
       </c>
@@ -11911,7 +11911,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="82"/>
-      <c r="B40" s="108"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="66" t="s">
         <v>17</v>
       </c>
@@ -11937,7 +11937,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="82"/>
-      <c r="B41" s="109"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="82"/>
-      <c r="B42" s="107"/>
+      <c r="B42" s="101"/>
       <c r="C42" s="60" t="s">
         <v>60</v>
       </c>
@@ -12034,7 +12034,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="82"/>
-      <c r="B43" s="108"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="66" t="s">
         <v>16</v>
       </c>
@@ -12060,7 +12060,7 @@
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82"/>
-      <c r="B44" s="108"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="66" t="s">
         <v>17</v>
       </c>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="82"/>
-      <c r="B45" s="109"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="46" t="s">
         <v>18</v>
       </c>
@@ -12118,7 +12118,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="82"/>
-      <c r="B46" s="107"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="60" t="s">
         <v>59</v>
       </c>
@@ -12189,7 +12189,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="82"/>
-      <c r="B47" s="108"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="66" t="s">
         <v>16</v>
       </c>
@@ -12219,7 +12219,7 @@
     </row>
     <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="82"/>
-      <c r="B48" s="108"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="66" t="s">
         <v>17</v>
       </c>
@@ -12245,7 +12245,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="83"/>
-      <c r="B49" s="109"/>
+      <c r="B49" s="103"/>
       <c r="C49" s="46" t="s">
         <v>18</v>
       </c>
@@ -12271,10 +12271,10 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="77"/>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="111"/>
+      <c r="C50" s="105"/>
       <c r="D50" s="2">
         <f>SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30,D42,D46)</f>
         <v>44</v>
@@ -12345,7 +12345,7 @@
       <c r="A52" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="94">
+      <c r="B52" s="96">
         <v>28</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -12414,7 +12414,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="82"/>
-      <c r="B53" s="95"/>
+      <c r="B53" s="97"/>
       <c r="C53" s="70" t="s">
         <v>16</v>
       </c>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="82"/>
-      <c r="B54" s="95"/>
+      <c r="B54" s="97"/>
       <c r="C54" s="70" t="s">
         <v>17</v>
       </c>
@@ -12492,7 +12492,7 @@
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="82"/>
-      <c r="B55" s="96"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -12517,7 +12517,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="82"/>
-      <c r="B56" s="104">
+      <c r="B56" s="109">
         <v>16</v>
       </c>
       <c r="C56" s="47" t="s">
@@ -12586,7 +12586,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="82"/>
-      <c r="B57" s="105"/>
+      <c r="B57" s="110"/>
       <c r="C57" s="70" t="s">
         <v>16</v>
       </c>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="82"/>
-      <c r="B58" s="105"/>
+      <c r="B58" s="110"/>
       <c r="C58" s="70" t="s">
         <v>17</v>
       </c>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="82"/>
-      <c r="B59" s="106"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="82"/>
-      <c r="B60" s="104">
+      <c r="B60" s="109">
         <v>9</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -12758,7 +12758,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="82"/>
-      <c r="B61" s="105"/>
+      <c r="B61" s="110"/>
       <c r="C61" s="70" t="s">
         <v>16</v>
       </c>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="82"/>
-      <c r="B62" s="105"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="70" t="s">
         <v>17</v>
       </c>
@@ -12864,7 +12864,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="82"/>
-      <c r="B63" s="106"/>
+      <c r="B63" s="111"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="82"/>
-      <c r="B64" s="104" t="s">
+      <c r="B64" s="109" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -12958,7 +12958,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="82"/>
-      <c r="B65" s="105"/>
+      <c r="B65" s="110"/>
       <c r="C65" s="70" t="s">
         <v>16</v>
       </c>
@@ -12983,7 +12983,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="82"/>
-      <c r="B66" s="105"/>
+      <c r="B66" s="110"/>
       <c r="C66" s="70" t="s">
         <v>17</v>
       </c>
@@ -13008,7 +13008,7 @@
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="82"/>
-      <c r="B67" s="106"/>
+      <c r="B67" s="111"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -13061,7 +13061,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="82"/>
-      <c r="B68" s="94" t="s">
+      <c r="B68" s="96" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -13130,7 +13130,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="82"/>
-      <c r="B69" s="95"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="70" t="s">
         <v>16</v>
       </c>
@@ -13183,7 +13183,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="82"/>
-      <c r="B70" s="95"/>
+      <c r="B70" s="97"/>
       <c r="C70" s="70" t="s">
         <v>17</v>
       </c>
@@ -13236,7 +13236,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="83"/>
-      <c r="B71" s="96"/>
+      <c r="B71" s="98"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -13433,7 +13433,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="113"/>
-      <c r="B76" s="107"/>
+      <c r="B76" s="101"/>
       <c r="C76" s="60" t="s">
         <v>52</v>
       </c>
@@ -13500,7 +13500,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="113"/>
-      <c r="B77" s="108"/>
+      <c r="B77" s="102"/>
       <c r="C77" s="70" t="s">
         <v>16</v>
       </c>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="113"/>
-      <c r="B78" s="108"/>
+      <c r="B78" s="102"/>
       <c r="C78" s="70" t="s">
         <v>17</v>
       </c>
@@ -13578,7 +13578,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="113"/>
-      <c r="B79" s="109"/>
+      <c r="B79" s="103"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -13603,7 +13603,7 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="113"/>
-      <c r="B80" s="94"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="60" t="s">
         <v>58</v>
       </c>
@@ -13670,7 +13670,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="113"/>
-      <c r="B81" s="95"/>
+      <c r="B81" s="97"/>
       <c r="C81" s="70" t="s">
         <v>16</v>
       </c>
@@ -13723,7 +13723,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="113"/>
-      <c r="B82" s="95"/>
+      <c r="B82" s="97"/>
       <c r="C82" s="70" t="s">
         <v>17</v>
       </c>
@@ -13776,7 +13776,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="113"/>
-      <c r="B83" s="96"/>
+      <c r="B83" s="98"/>
       <c r="C83" s="46" t="s">
         <v>18</v>
       </c>
@@ -13801,7 +13801,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="113"/>
-      <c r="B84" s="107"/>
+      <c r="B84" s="101"/>
       <c r="C84" s="60" t="s">
         <v>53</v>
       </c>
@@ -13868,7 +13868,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="113"/>
-      <c r="B85" s="108"/>
+      <c r="B85" s="102"/>
       <c r="C85" s="70" t="s">
         <v>16</v>
       </c>
@@ -13921,7 +13921,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="113"/>
-      <c r="B86" s="108"/>
+      <c r="B86" s="102"/>
       <c r="C86" s="70" t="s">
         <v>17</v>
       </c>
@@ -13974,7 +13974,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="113"/>
-      <c r="B87" s="109"/>
+      <c r="B87" s="103"/>
       <c r="C87" s="46" t="s">
         <v>18</v>
       </c>
@@ -13999,7 +13999,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="113"/>
-      <c r="B88" s="107"/>
+      <c r="B88" s="101"/>
       <c r="C88" s="60" t="s">
         <v>60</v>
       </c>
@@ -14066,7 +14066,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="113"/>
-      <c r="B89" s="108"/>
+      <c r="B89" s="102"/>
       <c r="C89" s="70" t="s">
         <v>16</v>
       </c>
@@ -14091,7 +14091,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="113"/>
-      <c r="B90" s="108"/>
+      <c r="B90" s="102"/>
       <c r="C90" s="70" t="s">
         <v>17</v>
       </c>
@@ -14144,7 +14144,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="113"/>
-      <c r="B91" s="109"/>
+      <c r="B91" s="103"/>
       <c r="C91" s="46" t="s">
         <v>18</v>
       </c>
@@ -14169,7 +14169,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="113"/>
-      <c r="B92" s="107"/>
+      <c r="B92" s="101"/>
       <c r="C92" s="60" t="s">
         <v>59</v>
       </c>
@@ -14236,7 +14236,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="113"/>
-      <c r="B93" s="108"/>
+      <c r="B93" s="102"/>
       <c r="C93" s="70" t="s">
         <v>16</v>
       </c>
@@ -14289,7 +14289,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="113"/>
-      <c r="B94" s="108"/>
+      <c r="B94" s="102"/>
       <c r="C94" s="70" t="s">
         <v>17</v>
       </c>
@@ -14342,7 +14342,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="113"/>
-      <c r="B95" s="109"/>
+      <c r="B95" s="103"/>
       <c r="C95" s="46" t="s">
         <v>18</v>
       </c>
@@ -14366,10 +14366,10 @@
       <c r="R95" s="39"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B96" s="110" t="s">
+      <c r="B96" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="110"/>
+      <c r="C96" s="104"/>
       <c r="D96" s="2">
         <f>SUM(D52,D56,D60,D64,D68,D72,D76,D80,D84,D88,D92)</f>
         <v>44</v>
@@ -14495,6 +14495,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A72:A95"/>
+    <mergeCell ref="A52:A71"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="A6:A25"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -14511,18 +14523,6 @@
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="A72:A95"/>
-    <mergeCell ref="A52:A71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="A6:A25"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15671,10 +15671,10 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="72"/>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="111"/>
+      <c r="C30" s="105"/>
       <c r="D30" s="2">
         <f>SUM(D6,D10,D14,D18,D22,D26)</f>
         <v>66</v>
@@ -15745,7 +15745,7 @@
       <c r="A32" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="94">
+      <c r="B32" s="96">
         <v>12</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -15814,7 +15814,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="72"/>
-      <c r="B33" s="95"/>
+      <c r="B33" s="97"/>
       <c r="C33" s="70" t="s">
         <v>16</v>
       </c>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="72"/>
-      <c r="B34" s="95"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="70" t="s">
         <v>17</v>
       </c>
@@ -15864,7 +15864,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="72"/>
-      <c r="B35" s="96"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -15889,7 +15889,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="72"/>
-      <c r="B36" s="104">
+      <c r="B36" s="109">
         <v>15</v>
       </c>
       <c r="C36" s="47" t="s">
@@ -15958,7 +15958,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="72"/>
-      <c r="B37" s="105"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="70" t="s">
         <v>16</v>
       </c>
@@ -15983,7 +15983,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="72"/>
-      <c r="B38" s="105"/>
+      <c r="B38" s="110"/>
       <c r="C38" s="70" t="s">
         <v>17</v>
       </c>
@@ -16008,7 +16008,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="72"/>
-      <c r="B39" s="106"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="46" t="s">
         <v>18</v>
       </c>
@@ -16033,7 +16033,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="72"/>
-      <c r="B40" s="104">
+      <c r="B40" s="109">
         <v>21</v>
       </c>
       <c r="C40" s="60" t="s">
@@ -16102,7 +16102,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="72"/>
-      <c r="B41" s="105"/>
+      <c r="B41" s="110"/>
       <c r="C41" s="70" t="s">
         <v>16</v>
       </c>
@@ -16127,7 +16127,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="72"/>
-      <c r="B42" s="105"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="70" t="s">
         <v>17</v>
       </c>
@@ -16152,7 +16152,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="72"/>
-      <c r="B43" s="106"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
@@ -16177,7 +16177,7 @@
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="72"/>
-      <c r="B44" s="104">
+      <c r="B44" s="109">
         <v>18</v>
       </c>
       <c r="C44" s="60" t="s">
@@ -16246,7 +16246,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="72"/>
-      <c r="B45" s="105"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="70" t="s">
         <v>16</v>
       </c>
@@ -16271,7 +16271,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="72"/>
-      <c r="B46" s="105"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="70" t="s">
         <v>17</v>
       </c>
@@ -16296,7 +16296,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="72"/>
-      <c r="B47" s="106"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -16321,7 +16321,7 @@
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="72"/>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="101" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="60" t="s">
@@ -16390,7 +16390,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="72"/>
-      <c r="B49" s="108"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="70" t="s">
         <v>16</v>
       </c>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="72"/>
-      <c r="B50" s="108"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="70" t="s">
         <v>17</v>
       </c>
@@ -16440,7 +16440,7 @@
     </row>
     <row r="51" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="73"/>
-      <c r="B51" s="109"/>
+      <c r="B51" s="103"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -16467,7 +16467,7 @@
       <c r="A52" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="101" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -16536,7 +16536,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="82"/>
-      <c r="B53" s="108"/>
+      <c r="B53" s="102"/>
       <c r="C53" s="70" t="s">
         <v>16</v>
       </c>
@@ -16561,7 +16561,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="82"/>
-      <c r="B54" s="108"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="70" t="s">
         <v>17</v>
       </c>
@@ -16586,7 +16586,7 @@
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="82"/>
-      <c r="B55" s="109"/>
+      <c r="B55" s="103"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -16611,7 +16611,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="82"/>
-      <c r="B56" s="107">
+      <c r="B56" s="101">
         <v>31</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -16680,7 +16680,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="82"/>
-      <c r="B57" s="108"/>
+      <c r="B57" s="102"/>
       <c r="C57" s="70" t="s">
         <v>16</v>
       </c>
@@ -16705,7 +16705,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="82"/>
-      <c r="B58" s="108"/>
+      <c r="B58" s="102"/>
       <c r="C58" s="70" t="s">
         <v>17</v>
       </c>
@@ -16730,7 +16730,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="83"/>
-      <c r="B59" s="109"/>
+      <c r="B59" s="103"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -16754,7 +16754,7 @@
       <c r="R59" s="39"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="94"/>
+      <c r="B60" s="96"/>
       <c r="C60" s="10" t="s">
         <v>39</v>
       </c>
@@ -16820,7 +16820,7 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="95"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="70" t="s">
         <v>16</v>
       </c>
@@ -16844,7 +16844,7 @@
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="95"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="70" t="s">
         <v>17</v>
       </c>
@@ -16868,7 +16868,7 @@
       <c r="R62" s="31"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="96"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="70" t="s">
         <v>18</v>
       </c>
@@ -16892,7 +16892,7 @@
       <c r="R63" s="38"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="101"/>
+      <c r="B64" s="106"/>
       <c r="C64" s="10" t="s">
         <v>40</v>
       </c>
@@ -16958,7 +16958,7 @@
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="102"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="70" t="s">
         <v>16</v>
       </c>
@@ -16982,7 +16982,7 @@
       <c r="R65" s="37"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="102"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="70" t="s">
         <v>17</v>
       </c>
@@ -17006,7 +17006,7 @@
       <c r="R66" s="31"/>
     </row>
     <row r="67" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="103"/>
+      <c r="B67" s="108"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -17030,10 +17030,10 @@
       <c r="R67" s="39"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="110" t="s">
+      <c r="B68" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="110"/>
+      <c r="C68" s="104"/>
       <c r="D68" s="2" t="e">
         <f t="shared" ref="D68:R68" si="17">SUM(D32,D52,D56,D60,D64)</f>
         <v>#REF!</v>
@@ -17160,6 +17160,18 @@
     <row r="72" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="L2:R2"/>
@@ -17169,18 +17181,6 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="A6:A21"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="25605" windowHeight="14460"/>
+    <workbookView xWindow="15" yWindow="-30" windowWidth="14265" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Product Burndown" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,6 @@
     <sheet name="Sp5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -58,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="69">
   <si>
     <t>Time (person-hours (p-h))</t>
   </si>
@@ -737,13 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -757,6 +746,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -806,12 +798,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,20 +813,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,6 +836,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -884,13 +876,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -962,7 +983,7 @@
             <c:strRef>
               <c:f>'Product Burndown'!$A$3:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -983,12 +1004,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1003,27 +1018,21 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1077,11 +1086,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34309248"/>
-        <c:axId val="34311168"/>
+        <c:axId val="64980096"/>
+        <c:axId val="64982016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34309248"/>
+        <c:axId val="64980096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34311168"/>
+        <c:crossAx val="64982016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1117,7 +1126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34311168"/>
+        <c:axId val="64982016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34309248"/>
+        <c:crossAx val="64980096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1407,11 +1416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34718464"/>
-        <c:axId val="34720000"/>
+        <c:axId val="65594112"/>
+        <c:axId val="65595648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34718464"/>
+        <c:axId val="65594112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,14 +1430,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34720000"/>
+        <c:crossAx val="65595648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34720000"/>
+        <c:axId val="65595648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34718464"/>
+        <c:crossAx val="65594112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1662,11 +1671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45100032"/>
-        <c:axId val="45118208"/>
+        <c:axId val="65678336"/>
+        <c:axId val="65700608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="45100032"/>
+        <c:axId val="65678336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,14 +1685,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45118208"/>
+        <c:crossAx val="65700608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="45118208"/>
+        <c:axId val="65700608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45100032"/>
+        <c:crossAx val="65678336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1977,11 +1986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51463680"/>
-        <c:axId val="51465216"/>
+        <c:axId val="46877696"/>
+        <c:axId val="46883584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="51463680"/>
+        <c:axId val="46877696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,14 +2000,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51465216"/>
+        <c:crossAx val="46883584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="51465216"/>
+        <c:axId val="46883584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,7 +2018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51463680"/>
+        <c:crossAx val="46877696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2296,11 +2305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53179904"/>
-        <c:axId val="53181440"/>
+        <c:axId val="46962176"/>
+        <c:axId val="46963712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53179904"/>
+        <c:axId val="46962176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53181440"/>
+        <c:crossAx val="46963712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2318,7 +2327,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53181440"/>
+        <c:axId val="46963712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,13 +2338,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53179904"/>
+        <c:crossAx val="46962176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2432,54 +2442,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp5'!$D$68:$R$68</c:f>
+              <c:f>'Sp5'!$D$56:$R$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>25.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-14.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-21.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-25.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-30.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2548,54 +2558,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp5'!$D$69:$R$69</c:f>
+              <c:f>'Sp5'!$D$57:$R$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>61.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>56.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>51.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>47.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>42.428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>37.714285714285708</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>32.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>28.285714285714278</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>23.571428571428562</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>18.857142857142847</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>14.142857142857132</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>9.4285714285714164</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4.714285714285702</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-1.2434497875801753E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,11 +2622,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51251456"/>
-        <c:axId val="51261440"/>
+        <c:axId val="47587328"/>
+        <c:axId val="47588864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="51251456"/>
+        <c:axId val="47587328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,14 +2636,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51261440"/>
+        <c:crossAx val="47588864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="51261440"/>
+        <c:axId val="47588864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2644,13 +2654,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51251456"/>
+        <c:crossAx val="47587328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2852,13 +2863,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3172,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,13 +3199,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3253,11 +3264,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4">
         <f xml:space="preserve"> C3 - B4</f>
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D4" s="4">
         <f>H3-E4</f>
@@ -3282,11 +3293,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C11" si="0" xml:space="preserve"> C4 - B5</f>
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4">
         <f>H4-E5</f>
@@ -3302,7 +3313,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H7" si="1">H4-E5+G5</f>
+        <f t="shared" ref="H5:H6" si="1">H4-E5+G5</f>
         <v>120</v>
       </c>
     </row>
@@ -3311,11 +3322,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4">
         <f>H5-E6</f>
@@ -3340,11 +3351,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4">
         <f>H6-E7</f>
@@ -3368,12 +3379,12 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <v>18</v>
+      <c r="B8" s="4">
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4">
         <f>H7-E8</f>
@@ -3390,12 +3401,12 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>18</v>
+      <c r="B9" s="4">
+        <v>23</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
@@ -3403,32 +3414,18 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3543,22 +3540,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="79" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="80"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
@@ -3673,10 +3670,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="90">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3740,8 +3737,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="92"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -3770,8 +3767,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="92"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
@@ -3798,8 +3795,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
@@ -3828,8 +3825,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3891,8 +3888,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="92"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -3915,8 +3912,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="92"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -3945,8 +3942,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
@@ -3969,8 +3966,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="92"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
@@ -4032,8 +4029,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="92"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -4056,8 +4053,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="92"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
@@ -4080,8 +4077,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
@@ -4108,8 +4105,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="91">
+      <c r="A18" s="81"/>
+      <c r="B18" s="90">
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4173,8 +4170,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -4203,8 +4200,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="92"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
@@ -4227,8 +4224,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="93"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
@@ -4251,10 +4248,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="84"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="9" t="s">
         <v>24</v>
       </c>
@@ -4316,8 +4313,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -4340,8 +4337,8 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
@@ -4368,8 +4365,8 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="86"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
@@ -4392,10 +4389,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="87"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>19</v>
@@ -4460,10 +4457,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="91">
+      <c r="B28" s="90">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4524,8 +4521,8 @@
       <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="92"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -4571,8 +4568,8 @@
       <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="92"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="7" t="s">
         <v>17</v>
       </c>
@@ -4618,8 +4615,8 @@
       <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="92"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
@@ -4665,8 +4662,8 @@
       <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="9" t="s">
         <v>19</v>
       </c>
@@ -4725,8 +4722,8 @@
       <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
-      <c r="B33" s="92"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -4746,8 +4743,8 @@
       <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="92"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
@@ -4793,8 +4790,8 @@
       <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="92"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="8" t="s">
         <v>18</v>
       </c>
@@ -4814,8 +4811,8 @@
       <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="9" t="s">
         <v>20</v>
       </c>
@@ -4874,8 +4871,8 @@
       <c r="Q36" s="23"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="92"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -4895,8 +4892,8 @@
       <c r="Q37" s="24"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="92"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="7" t="s">
         <v>17</v>
       </c>
@@ -4916,8 +4913,8 @@
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
-      <c r="B39" s="93"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
@@ -4963,8 +4960,8 @@
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
-      <c r="B40" s="91">
+      <c r="A40" s="81"/>
+      <c r="B40" s="90">
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -5025,8 +5022,8 @@
       <c r="Q40" s="23"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="92"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -5072,8 +5069,8 @@
       <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="7" t="s">
         <v>17</v>
       </c>
@@ -5093,8 +5090,8 @@
       <c r="Q42" s="24"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="93"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
@@ -5114,10 +5111,10 @@
       <c r="Q43" s="24"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="84"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
@@ -5176,8 +5173,8 @@
       <c r="Q44" s="23"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="85"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="7" t="s">
         <v>16</v>
       </c>
@@ -5197,8 +5194,8 @@
       <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="85"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="84"/>
       <c r="C46" s="7" t="s">
         <v>17</v>
       </c>
@@ -5244,8 +5241,8 @@
       <c r="Q46" s="24"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
-      <c r="B47" s="86"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="8" t="s">
         <v>18</v>
       </c>
@@ -5265,10 +5262,10 @@
       <c r="Q47" s="24"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="87"/>
+      <c r="C48" s="86"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>19</v>
@@ -5429,19 +5426,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="88" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -5531,10 +5528,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="93">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -5586,8 +5583,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="97"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -5607,8 +5604,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -5632,8 +5629,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -5653,8 +5650,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="99" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="96" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -5706,8 +5703,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="100"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -5731,8 +5728,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -5752,8 +5749,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -5773,8 +5770,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
@@ -5824,8 +5821,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -5851,8 +5848,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -5876,8 +5873,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
@@ -5897,10 +5894,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="91"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
@@ -5950,8 +5947,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -5975,8 +5972,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="92"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -6000,8 +5997,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="92"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -6021,8 +6018,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="49" t="s">
         <v>31</v>
       </c>
@@ -6072,8 +6069,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="94"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -6093,8 +6090,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="94"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -6118,8 +6115,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="95"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -6139,10 +6136,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="87"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>14</v>
@@ -6195,10 +6192,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="96">
+      <c r="B28" s="93">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -6247,8 +6244,8 @@
       <c r="N28" s="23"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="97"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="45" t="s">
         <v>16</v>
       </c>
@@ -6268,8 +6265,8 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="97"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
@@ -6307,8 +6304,8 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
@@ -6328,8 +6325,8 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="99" t="s">
+      <c r="A32" s="81"/>
+      <c r="B32" s="96" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -6378,8 +6375,8 @@
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
-      <c r="B33" s="100"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="97"/>
       <c r="C33" s="45" t="s">
         <v>16</v>
       </c>
@@ -6417,8 +6414,8 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="100"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="45" t="s">
         <v>17</v>
       </c>
@@ -6438,8 +6435,8 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="100"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -6477,8 +6474,8 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="100"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="52" t="s">
         <v>33</v>
       </c>
@@ -6525,8 +6522,8 @@
       <c r="N36" s="23"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="45" t="s">
         <v>16</v>
       </c>
@@ -6564,8 +6561,8 @@
       <c r="N37" s="24"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="100"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="45" t="s">
         <v>17</v>
       </c>
@@ -6603,8 +6600,8 @@
       <c r="N38" s="24"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
-      <c r="B39" s="100"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="45" t="s">
         <v>18</v>
       </c>
@@ -6624,10 +6621,10 @@
       <c r="N39" s="24"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="91"/>
+      <c r="B40" s="90"/>
       <c r="C40" s="10" t="s">
         <v>34</v>
       </c>
@@ -6674,8 +6671,8 @@
       <c r="N40" s="23"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="92"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="45" t="s">
         <v>16</v>
       </c>
@@ -6713,8 +6710,8 @@
       <c r="N41" s="24"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="45" t="s">
         <v>17</v>
       </c>
@@ -6752,8 +6749,8 @@
       <c r="N42" s="24"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
@@ -6773,8 +6770,8 @@
       <c r="N43" s="24"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="94"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="49" t="s">
         <v>31</v>
       </c>
@@ -6821,8 +6818,8 @@
       <c r="N44" s="23"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="94"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -6842,8 +6839,8 @@
       <c r="N45" s="24"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="94"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -6881,8 +6878,8 @@
       <c r="N46" s="24"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
-      <c r="B47" s="95"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -6920,10 +6917,10 @@
       <c r="N47" s="24"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="87"/>
+      <c r="C48" s="86"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>14</v>
@@ -7010,6 +7007,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B17"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A28:A39"/>
@@ -7018,14 +7023,6 @@
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7062,24 +7059,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="88" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -7204,10 +7201,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="93">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -7279,8 +7276,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="97"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -7305,8 +7302,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -7331,8 +7328,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -7361,8 +7358,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="109">
+      <c r="A10" s="81"/>
+      <c r="B10" s="103">
         <v>15</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -7434,8 +7431,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="110"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -7460,8 +7457,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="110"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -7486,8 +7483,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -7516,8 +7513,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="109">
+      <c r="A14" s="81"/>
+      <c r="B14" s="103">
         <v>21</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -7589,8 +7586,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="110"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -7623,8 +7620,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="110"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -7649,8 +7646,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -7675,8 +7672,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="109">
+      <c r="A18" s="81"/>
+      <c r="B18" s="103">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -7748,8 +7745,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -7778,8 +7775,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -7804,8 +7801,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -7830,8 +7827,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="101" t="s">
+      <c r="A22" s="81"/>
+      <c r="B22" s="106" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="60" t="s">
@@ -7903,8 +7900,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="102"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -7929,8 +7926,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="102"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -7961,8 +7958,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="103"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -7987,8 +7984,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="101" t="s">
+      <c r="A26" s="81"/>
+      <c r="B26" s="106" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="60" t="s">
@@ -8060,8 +8057,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="45" t="s">
         <v>16</v>
       </c>
@@ -8086,8 +8083,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
@@ -8116,8 +8113,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -8142,8 +8139,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="101">
+      <c r="A30" s="81"/>
+      <c r="B30" s="106">
         <v>31</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -8215,8 +8212,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="107"/>
       <c r="C31" s="45" t="s">
         <v>16</v>
       </c>
@@ -8241,8 +8238,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
@@ -8271,8 +8268,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="103"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -8297,10 +8294,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="91"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="10" t="s">
         <v>39</v>
       </c>
@@ -8370,8 +8367,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="92"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="45" t="s">
         <v>16</v>
       </c>
@@ -8396,8 +8393,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="45" t="s">
         <v>17</v>
       </c>
@@ -8426,8 +8423,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="92"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="45" t="s">
         <v>18</v>
       </c>
@@ -8452,8 +8449,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="106"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="10" t="s">
         <v>40</v>
       </c>
@@ -8523,8 +8520,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
-      <c r="B39" s="107"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="45" t="s">
         <v>16</v>
       </c>
@@ -8549,8 +8546,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
-      <c r="B40" s="107"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="45" t="s">
         <v>17</v>
       </c>
@@ -8579,8 +8576,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="108"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -8605,10 +8602,10 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="105"/>
+      <c r="C42" s="110"/>
       <c r="D42" s="2">
         <f t="shared" ref="D42:R42" si="21">SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30)</f>
         <v>38</v>
@@ -8675,10 +8672,10 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="96">
+      <c r="B44" s="93">
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -8746,8 +8743,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="97"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="94"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -8771,8 +8768,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="97"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -8796,8 +8793,8 @@
       <c r="R46" s="37"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="98"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -8849,8 +8846,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="109">
+      <c r="A48" s="81"/>
+      <c r="B48" s="103">
         <v>15</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -8918,8 +8915,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="45" t="s">
         <v>16</v>
       </c>
@@ -8943,8 +8940,8 @@
       <c r="R49" s="37"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="110"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="45" t="s">
         <v>17</v>
       </c>
@@ -8968,8 +8965,8 @@
       <c r="R50" s="36"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
-      <c r="B51" s="111"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="105"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -9024,8 +9021,8 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="109">
+      <c r="A52" s="81"/>
+      <c r="B52" s="103">
         <v>21</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -9093,8 +9090,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
-      <c r="B53" s="110"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="45" t="s">
         <v>16</v>
       </c>
@@ -9146,8 +9143,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="110"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="45" t="s">
         <v>17</v>
       </c>
@@ -9171,8 +9168,8 @@
       <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="82"/>
-      <c r="B55" s="111"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="105"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -9196,8 +9193,8 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
-      <c r="B56" s="109">
+      <c r="A56" s="81"/>
+      <c r="B56" s="103">
         <v>18</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -9265,8 +9262,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="82"/>
-      <c r="B57" s="110"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="45" t="s">
         <v>16</v>
       </c>
@@ -9318,8 +9315,8 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="82"/>
-      <c r="B58" s="110"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="45" t="s">
         <v>17</v>
       </c>
@@ -9343,8 +9340,8 @@
       <c r="R58" s="37"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="82"/>
-      <c r="B59" s="111"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="105"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -9368,8 +9365,8 @@
       <c r="R59" s="38"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="82"/>
-      <c r="B60" s="101" t="s">
+      <c r="A60" s="81"/>
+      <c r="B60" s="106" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -9437,8 +9434,8 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="82"/>
-      <c r="B61" s="102"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="107"/>
       <c r="C61" s="45" t="s">
         <v>16</v>
       </c>
@@ -9462,8 +9459,8 @@
       <c r="R61" s="37"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="82"/>
-      <c r="B62" s="102"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="45" t="s">
         <v>17</v>
       </c>
@@ -9515,8 +9512,8 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="82"/>
-      <c r="B63" s="103"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="108"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -9540,8 +9537,8 @@
       <c r="R63" s="39"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="82"/>
-      <c r="B64" s="101" t="s">
+      <c r="A64" s="81"/>
+      <c r="B64" s="106" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="60" t="s">
@@ -9609,8 +9606,8 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="82"/>
-      <c r="B65" s="102"/>
+      <c r="A65" s="81"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="45" t="s">
         <v>16</v>
       </c>
@@ -9634,8 +9631,8 @@
       <c r="R65" s="37"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="82"/>
-      <c r="B66" s="102"/>
+      <c r="A66" s="81"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="45" t="s">
         <v>17</v>
       </c>
@@ -9687,8 +9684,8 @@
       </c>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="82"/>
-      <c r="B67" s="103"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="108"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -9712,8 +9709,8 @@
       <c r="R67" s="39"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="82"/>
-      <c r="B68" s="101">
+      <c r="A68" s="81"/>
+      <c r="B68" s="106">
         <v>31</v>
       </c>
       <c r="C68" s="60" t="s">
@@ -9781,8 +9778,8 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="82"/>
-      <c r="B69" s="102"/>
+      <c r="A69" s="81"/>
+      <c r="B69" s="107"/>
       <c r="C69" s="45" t="s">
         <v>16</v>
       </c>
@@ -9806,8 +9803,8 @@
       <c r="R69" s="37"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="82"/>
-      <c r="B70" s="102"/>
+      <c r="A70" s="81"/>
+      <c r="B70" s="107"/>
       <c r="C70" s="45" t="s">
         <v>17</v>
       </c>
@@ -9859,8 +9856,8 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="83"/>
-      <c r="B71" s="103"/>
+      <c r="A71" s="82"/>
+      <c r="B71" s="108"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -9884,10 +9881,10 @@
       <c r="R71" s="39"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="81" t="s">
+      <c r="A72" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="96"/>
+      <c r="B72" s="93"/>
       <c r="C72" s="10" t="s">
         <v>39</v>
       </c>
@@ -9953,8 +9950,8 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="82"/>
-      <c r="B73" s="97"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="94"/>
       <c r="C73" s="45" t="s">
         <v>16</v>
       </c>
@@ -9978,8 +9975,8 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="82"/>
-      <c r="B74" s="97"/>
+      <c r="A74" s="81"/>
+      <c r="B74" s="94"/>
       <c r="C74" s="45" t="s">
         <v>17</v>
       </c>
@@ -10031,8 +10028,8 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="82"/>
-      <c r="B75" s="98"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="95"/>
       <c r="C75" s="45" t="s">
         <v>18</v>
       </c>
@@ -10056,8 +10053,8 @@
       <c r="R75" s="38"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="82"/>
-      <c r="B76" s="106"/>
+      <c r="A76" s="81"/>
+      <c r="B76" s="100"/>
       <c r="C76" s="10" t="s">
         <v>40</v>
       </c>
@@ -10123,8 +10120,8 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="82"/>
-      <c r="B77" s="107"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="101"/>
       <c r="C77" s="45" t="s">
         <v>16</v>
       </c>
@@ -10148,8 +10145,8 @@
       <c r="R77" s="37"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="82"/>
-      <c r="B78" s="107"/>
+      <c r="A78" s="81"/>
+      <c r="B78" s="101"/>
       <c r="C78" s="45" t="s">
         <v>17</v>
       </c>
@@ -10201,8 +10198,8 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="83"/>
-      <c r="B79" s="108"/>
+      <c r="A79" s="82"/>
+      <c r="B79" s="102"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -10226,10 +10223,10 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="104" t="s">
+      <c r="B80" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="104"/>
+      <c r="C80" s="109"/>
       <c r="D80" s="2">
         <f t="shared" ref="D80:M80" si="41">SUM(D44,D64,D68,D72,D76)</f>
         <v>17.5</v>
@@ -10355,6 +10352,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B68:B71"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
@@ -10371,16 +10378,6 @@
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B64:B67"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B68:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -10397,8 +10394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S97"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="R97" sqref="R97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10417,24 +10414,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="88" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -10559,10 +10556,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="93">
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -10634,8 +10631,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="97"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="66" t="s">
         <v>16</v>
       </c>
@@ -10664,8 +10661,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="66" t="s">
         <v>17</v>
       </c>
@@ -10690,8 +10687,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -10716,8 +10713,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="109">
+      <c r="A10" s="81"/>
+      <c r="B10" s="103">
         <v>16</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -10789,8 +10786,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="110"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="66" t="s">
         <v>16</v>
       </c>
@@ -10819,8 +10816,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="110"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="66" t="s">
         <v>17</v>
       </c>
@@ -10845,8 +10842,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -10871,8 +10868,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="109">
+      <c r="A14" s="81"/>
+      <c r="B14" s="103">
         <v>9</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -10944,8 +10941,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="110"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="66" t="s">
         <v>16</v>
       </c>
@@ -10974,8 +10971,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="110"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="66" t="s">
         <v>17</v>
       </c>
@@ -11004,8 +11001,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -11030,8 +11027,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="109" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="103" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -11103,8 +11100,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="66" t="s">
         <v>16</v>
       </c>
@@ -11129,8 +11126,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="66" t="s">
         <v>17</v>
       </c>
@@ -11155,8 +11152,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -11185,8 +11182,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="96" t="s">
+      <c r="A22" s="81"/>
+      <c r="B22" s="93" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -11258,8 +11255,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="97"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="66" t="s">
         <v>16</v>
       </c>
@@ -11288,8 +11285,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="97"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="66" t="s">
         <v>17</v>
       </c>
@@ -11318,8 +11315,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="98"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -11344,7 +11341,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="80" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="63"/>
@@ -11417,7 +11414,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="64"/>
       <c r="C27" s="66" t="s">
         <v>16</v>
@@ -11447,7 +11444,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="64"/>
       <c r="C28" s="66" t="s">
         <v>17</v>
@@ -11473,7 +11470,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="65"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
@@ -11499,8 +11496,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="101"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="60" t="s">
         <v>52</v>
       </c>
@@ -11570,8 +11567,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="107"/>
       <c r="C31" s="66" t="s">
         <v>16</v>
       </c>
@@ -11600,8 +11597,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="66" t="s">
         <v>17</v>
       </c>
@@ -11626,8 +11623,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
-      <c r="B33" s="103"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -11652,8 +11649,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="91"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="60" t="s">
         <v>58</v>
       </c>
@@ -11723,8 +11720,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="92"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="66" t="s">
         <v>16</v>
       </c>
@@ -11753,8 +11750,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="66" t="s">
         <v>17</v>
       </c>
@@ -11783,8 +11780,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="92"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="66" t="s">
         <v>18</v>
       </c>
@@ -11809,8 +11806,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="101"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="106"/>
       <c r="C38" s="60" t="s">
         <v>53</v>
       </c>
@@ -11880,8 +11877,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
-      <c r="B39" s="102"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="107"/>
       <c r="C39" s="66" t="s">
         <v>16</v>
       </c>
@@ -11910,8 +11907,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
-      <c r="B40" s="102"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="107"/>
       <c r="C40" s="66" t="s">
         <v>17</v>
       </c>
@@ -11936,8 +11933,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="103"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="108"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -11962,8 +11959,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="101"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="106"/>
       <c r="C42" s="60" t="s">
         <v>60</v>
       </c>
@@ -12033,8 +12030,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="102"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="66" t="s">
         <v>16</v>
       </c>
@@ -12059,8 +12056,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="102"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="66" t="s">
         <v>17</v>
       </c>
@@ -12091,8 +12088,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="103"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="108"/>
       <c r="C45" s="46" t="s">
         <v>18</v>
       </c>
@@ -12117,8 +12114,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="101"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="106"/>
       <c r="C46" s="60" t="s">
         <v>59</v>
       </c>
@@ -12188,8 +12185,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="102"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="66" t="s">
         <v>16</v>
       </c>
@@ -12218,8 +12215,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="102"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="107"/>
       <c r="C48" s="66" t="s">
         <v>17</v>
       </c>
@@ -12244,8 +12241,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
-      <c r="B49" s="103"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="108"/>
       <c r="C49" s="46" t="s">
         <v>18</v>
       </c>
@@ -12270,11 +12267,11 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
-      <c r="B50" s="105" t="s">
+      <c r="A50" s="75"/>
+      <c r="B50" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="105"/>
+      <c r="C50" s="110"/>
       <c r="D50" s="2">
         <f>SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30,D42,D46)</f>
         <v>44</v>
@@ -12342,10 +12339,10 @@
     </row>
     <row r="51" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="96">
+      <c r="B52" s="93">
         <v>28</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -12413,8 +12410,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
-      <c r="B53" s="97"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="70" t="s">
         <v>16</v>
       </c>
@@ -12466,8 +12463,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="97"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="94"/>
       <c r="C54" s="70" t="s">
         <v>17</v>
       </c>
@@ -12491,8 +12488,8 @@
       <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="82"/>
-      <c r="B55" s="98"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="95"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -12516,8 +12513,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
-      <c r="B56" s="109">
+      <c r="A56" s="81"/>
+      <c r="B56" s="103">
         <v>16</v>
       </c>
       <c r="C56" s="47" t="s">
@@ -12585,8 +12582,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="82"/>
-      <c r="B57" s="110"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="70" t="s">
         <v>16</v>
       </c>
@@ -12638,8 +12635,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="82"/>
-      <c r="B58" s="110"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="70" t="s">
         <v>17</v>
       </c>
@@ -12663,8 +12660,8 @@
       <c r="R58" s="36"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="82"/>
-      <c r="B59" s="111"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="105"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -12688,8 +12685,8 @@
       <c r="R59" s="39"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="82"/>
-      <c r="B60" s="109">
+      <c r="A60" s="81"/>
+      <c r="B60" s="103">
         <v>9</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -12757,8 +12754,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="82"/>
-      <c r="B61" s="110"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="70" t="s">
         <v>16</v>
       </c>
@@ -12810,8 +12807,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="82"/>
-      <c r="B62" s="110"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="70" t="s">
         <v>17</v>
       </c>
@@ -12863,8 +12860,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="82"/>
-      <c r="B63" s="111"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="105"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -12888,8 +12885,8 @@
       <c r="R63" s="39"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="82"/>
-      <c r="B64" s="109" t="s">
+      <c r="A64" s="81"/>
+      <c r="B64" s="103" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -12957,8 +12954,8 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="82"/>
-      <c r="B65" s="110"/>
+      <c r="A65" s="81"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="70" t="s">
         <v>16</v>
       </c>
@@ -12982,8 +12979,8 @@
       <c r="R65" s="36"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="82"/>
-      <c r="B66" s="110"/>
+      <c r="A66" s="81"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="70" t="s">
         <v>17</v>
       </c>
@@ -13007,8 +13004,8 @@
       <c r="R66" s="37"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="82"/>
-      <c r="B67" s="111"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="105"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -13060,8 +13057,8 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="82"/>
-      <c r="B68" s="96" t="s">
+      <c r="A68" s="81"/>
+      <c r="B68" s="93" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -13129,8 +13126,8 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="82"/>
-      <c r="B69" s="97"/>
+      <c r="A69" s="81"/>
+      <c r="B69" s="94"/>
       <c r="C69" s="70" t="s">
         <v>16</v>
       </c>
@@ -13182,8 +13179,8 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="82"/>
-      <c r="B70" s="97"/>
+      <c r="A70" s="81"/>
+      <c r="B70" s="94"/>
       <c r="C70" s="70" t="s">
         <v>17</v>
       </c>
@@ -13235,8 +13232,8 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="83"/>
-      <c r="B71" s="98"/>
+      <c r="A71" s="82"/>
+      <c r="B71" s="95"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -13260,7 +13257,7 @@
       <c r="R71" s="39"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="112" t="s">
+      <c r="A72" s="111" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="67"/>
@@ -13329,7 +13326,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="113"/>
+      <c r="A73" s="112"/>
       <c r="B73" s="68"/>
       <c r="C73" s="70" t="s">
         <v>16</v>
@@ -13382,7 +13379,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="113"/>
+      <c r="A74" s="112"/>
       <c r="B74" s="68"/>
       <c r="C74" s="70" t="s">
         <v>17</v>
@@ -13407,7 +13404,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="113"/>
+      <c r="A75" s="112"/>
       <c r="B75" s="69"/>
       <c r="C75" s="46" t="s">
         <v>18</v>
@@ -13432,8 +13429,8 @@
       <c r="R75" s="39"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="113"/>
-      <c r="B76" s="101"/>
+      <c r="A76" s="112"/>
+      <c r="B76" s="106"/>
       <c r="C76" s="60" t="s">
         <v>52</v>
       </c>
@@ -13499,8 +13496,8 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="113"/>
-      <c r="B77" s="102"/>
+      <c r="A77" s="112"/>
+      <c r="B77" s="107"/>
       <c r="C77" s="70" t="s">
         <v>16</v>
       </c>
@@ -13552,8 +13549,8 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="113"/>
-      <c r="B78" s="102"/>
+      <c r="A78" s="112"/>
+      <c r="B78" s="107"/>
       <c r="C78" s="70" t="s">
         <v>17</v>
       </c>
@@ -13577,8 +13574,8 @@
       <c r="R78" s="36"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="113"/>
-      <c r="B79" s="103"/>
+      <c r="A79" s="112"/>
+      <c r="B79" s="108"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -13602,8 +13599,8 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="113"/>
-      <c r="B80" s="96"/>
+      <c r="A80" s="112"/>
+      <c r="B80" s="93"/>
       <c r="C80" s="60" t="s">
         <v>58</v>
       </c>
@@ -13669,8 +13666,8 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="113"/>
-      <c r="B81" s="97"/>
+      <c r="A81" s="112"/>
+      <c r="B81" s="94"/>
       <c r="C81" s="70" t="s">
         <v>16</v>
       </c>
@@ -13722,8 +13719,8 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="113"/>
-      <c r="B82" s="97"/>
+      <c r="A82" s="112"/>
+      <c r="B82" s="94"/>
       <c r="C82" s="70" t="s">
         <v>17</v>
       </c>
@@ -13775,8 +13772,8 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="113"/>
-      <c r="B83" s="98"/>
+      <c r="A83" s="112"/>
+      <c r="B83" s="95"/>
       <c r="C83" s="46" t="s">
         <v>18</v>
       </c>
@@ -13800,8 +13797,8 @@
       <c r="R83" s="38"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="113"/>
-      <c r="B84" s="101"/>
+      <c r="A84" s="112"/>
+      <c r="B84" s="106"/>
       <c r="C84" s="60" t="s">
         <v>53</v>
       </c>
@@ -13867,8 +13864,8 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="113"/>
-      <c r="B85" s="102"/>
+      <c r="A85" s="112"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="70" t="s">
         <v>16</v>
       </c>
@@ -13920,8 +13917,8 @@
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="113"/>
-      <c r="B86" s="102"/>
+      <c r="A86" s="112"/>
+      <c r="B86" s="107"/>
       <c r="C86" s="70" t="s">
         <v>17</v>
       </c>
@@ -13973,8 +13970,8 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="113"/>
-      <c r="B87" s="103"/>
+      <c r="A87" s="112"/>
+      <c r="B87" s="108"/>
       <c r="C87" s="46" t="s">
         <v>18</v>
       </c>
@@ -13998,8 +13995,8 @@
       <c r="R87" s="39"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="113"/>
-      <c r="B88" s="101"/>
+      <c r="A88" s="112"/>
+      <c r="B88" s="106"/>
       <c r="C88" s="60" t="s">
         <v>60</v>
       </c>
@@ -14065,8 +14062,8 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="113"/>
-      <c r="B89" s="102"/>
+      <c r="A89" s="112"/>
+      <c r="B89" s="107"/>
       <c r="C89" s="70" t="s">
         <v>16</v>
       </c>
@@ -14090,8 +14087,8 @@
       <c r="R89" s="37"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="113"/>
-      <c r="B90" s="102"/>
+      <c r="A90" s="112"/>
+      <c r="B90" s="107"/>
       <c r="C90" s="70" t="s">
         <v>17</v>
       </c>
@@ -14143,8 +14140,8 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="113"/>
-      <c r="B91" s="103"/>
+      <c r="A91" s="112"/>
+      <c r="B91" s="108"/>
       <c r="C91" s="46" t="s">
         <v>18</v>
       </c>
@@ -14168,8 +14165,8 @@
       <c r="R91" s="39"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="113"/>
-      <c r="B92" s="101"/>
+      <c r="A92" s="112"/>
+      <c r="B92" s="106"/>
       <c r="C92" s="60" t="s">
         <v>59</v>
       </c>
@@ -14235,8 +14232,8 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="113"/>
-      <c r="B93" s="102"/>
+      <c r="A93" s="112"/>
+      <c r="B93" s="107"/>
       <c r="C93" s="70" t="s">
         <v>16</v>
       </c>
@@ -14288,8 +14285,8 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="113"/>
-      <c r="B94" s="102"/>
+      <c r="A94" s="112"/>
+      <c r="B94" s="107"/>
       <c r="C94" s="70" t="s">
         <v>17</v>
       </c>
@@ -14341,8 +14338,8 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="113"/>
-      <c r="B95" s="103"/>
+      <c r="A95" s="112"/>
+      <c r="B95" s="108"/>
       <c r="C95" s="46" t="s">
         <v>18</v>
       </c>
@@ -14366,10 +14363,10 @@
       <c r="R95" s="39"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B96" s="104" t="s">
+      <c r="B96" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="104"/>
+      <c r="C96" s="109"/>
       <c r="D96" s="2">
         <f>SUM(D52,D56,D60,D64,D68,D72,D76,D80,D84,D88,D92)</f>
         <v>44</v>
@@ -14473,7 +14470,7 @@
         <v>15.714285714285708</v>
       </c>
       <c r="N97">
-        <f t="shared" si="28"/>
+        <f xml:space="preserve"> M97 - ($D$96/COUNT($E$4:$R$4))</f>
         <v>12.571428571428566</v>
       </c>
       <c r="O97">
@@ -14495,18 +14492,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="A72:A95"/>
-    <mergeCell ref="A52:A71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="A6:A25"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -14523,6 +14508,18 @@
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A72:A95"/>
+    <mergeCell ref="A52:A71"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="A6:A25"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14534,11 +14531,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -14547,31 +14544,33 @@
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="13" width="8.85546875"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="16" width="8.85546875"/>
     <col min="17" max="17" width="11.7109375" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="88" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -14696,10 +14695,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="113" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -14771,8 +14770,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="115"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="70" t="s">
         <v>16</v>
       </c>
@@ -14801,8 +14800,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="115"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="70" t="s">
         <v>17</v>
       </c>
@@ -14831,8 +14830,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="116"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="115"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -14857,8 +14856,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="117">
+      <c r="A10" s="81"/>
+      <c r="B10" s="116">
         <v>26</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -14930,8 +14929,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="118"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="70" t="s">
         <v>16</v>
       </c>
@@ -14960,8 +14959,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="118"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="70" t="s">
         <v>17</v>
       </c>
@@ -14990,8 +14989,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -15016,8 +15015,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="117">
+      <c r="A14" s="81"/>
+      <c r="B14" s="116">
         <v>26</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -15089,8 +15088,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="118"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="70" t="s">
         <v>16</v>
       </c>
@@ -15121,8 +15120,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="118"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="70" t="s">
         <v>17</v>
       </c>
@@ -15147,8 +15146,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="119"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -15181,8 +15180,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="117" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="116" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -15254,8 +15253,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="118"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="70" t="s">
         <v>16</v>
       </c>
@@ -15280,8 +15279,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="118"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="70" t="s">
         <v>17</v>
       </c>
@@ -15312,8 +15311,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="119"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -15338,10 +15337,10 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="114"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="10" t="s">
         <v>67</v>
       </c>
@@ -15411,8 +15410,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="115"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="70" t="s">
         <v>16</v>
       </c>
@@ -15441,8 +15440,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="115"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="70" t="s">
         <v>17</v>
       </c>
@@ -15471,8 +15470,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="116"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -15503,8 +15502,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="74"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="60" t="s">
         <v>68</v>
       </c>
@@ -15574,8 +15573,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="75"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="70" t="s">
         <v>16</v>
       </c>
@@ -15606,8 +15605,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="75"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="70" t="s">
         <v>17</v>
       </c>
@@ -15638,8 +15637,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -15670,11 +15669,11 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="105" t="s">
+      <c r="A30" s="71"/>
+      <c r="B30" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="105"/>
+      <c r="C30" s="110"/>
       <c r="D30" s="2">
         <f>SUM(D6,D10,D14,D18,D22,D26)</f>
         <v>66</v>
@@ -15742,14 +15741,14 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="96">
-        <v>12</v>
+      <c r="B32" s="113" t="s">
+        <v>62</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D32" s="15">
         <f>SUM(D33:D35)</f>
@@ -15757,121 +15756,172 @@
       </c>
       <c r="E32" s="16">
         <f t="shared" ref="E32:R32" si="8">SUM(E33:E35)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="M32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="N32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="O32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="P32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="Q32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="R32" s="35">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="70" t="s">
+      <c r="A33" s="81"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="76" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="24">
-        <f>D7</f>
         <v>1</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="36"/>
+      <c r="E33" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="31">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="31">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="31">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="31">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L33" s="31">
+        <v>-1.5</v>
+      </c>
+      <c r="M33" s="31">
+        <v>-1.5</v>
+      </c>
+      <c r="N33" s="31">
+        <v>-1.5</v>
+      </c>
+      <c r="O33" s="31">
+        <v>-1.5</v>
+      </c>
+      <c r="P33" s="31">
+        <v>-1.5</v>
+      </c>
+      <c r="Q33" s="31">
+        <v>-1.5</v>
+      </c>
+      <c r="R33" s="31">
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="70" t="s">
+      <c r="A34" s="81"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="76" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="24">
-        <f>D8</f>
         <v>3</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="37"/>
+      <c r="E34" s="31">
+        <v>3</v>
+      </c>
+      <c r="F34" s="31">
+        <v>3</v>
+      </c>
+      <c r="G34" s="31">
+        <v>0</v>
+      </c>
+      <c r="H34" s="31">
+        <v>0</v>
+      </c>
+      <c r="I34" s="31">
+        <v>0</v>
+      </c>
+      <c r="J34" s="31">
+        <v>0</v>
+      </c>
+      <c r="K34" s="32">
+        <v>-3</v>
+      </c>
+      <c r="L34" s="32">
+        <v>-3</v>
+      </c>
+      <c r="M34" s="32">
+        <v>-3</v>
+      </c>
+      <c r="N34" s="32">
+        <v>-3</v>
+      </c>
+      <c r="O34" s="32">
+        <v>-3</v>
+      </c>
+      <c r="P34" s="32">
+        <v>-3</v>
+      </c>
+      <c r="Q34" s="32">
+        <v>-3</v>
+      </c>
+      <c r="R34" s="32">
+        <v>-3</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="98"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="24">
-        <f>D9</f>
-        <v>0</v>
-      </c>
+      <c r="D35" s="26"/>
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
@@ -15888,12 +15938,12 @@
       <c r="R35" s="31"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="109">
-        <v>15</v>
+      <c r="A36" s="81"/>
+      <c r="B36" s="116">
+        <v>26</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D36" s="10">
         <f>SUM(D37:D39)</f>
@@ -15901,35 +15951,35 @@
       </c>
       <c r="E36" s="16">
         <f t="shared" ref="E36:R36" si="9">SUM(E37:E39)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="16">
         <f t="shared" si="9"/>
@@ -15937,86 +15987,158 @@
       </c>
       <c r="N36" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O36" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P36" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="R36" s="35">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
-      <c r="B37" s="110"/>
-      <c r="C37" s="70" t="s">
+      <c r="A37" s="81"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="76" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="24">
-        <f>D11</f>
-        <v>2</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="E37" s="31">
+        <f>D37</f>
+        <v>2</v>
+      </c>
+      <c r="F37" s="31">
+        <f t="shared" ref="F37:K37" si="10">E37</f>
+        <v>2</v>
+      </c>
+      <c r="G37" s="31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="I37" s="31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J37" s="31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K37" s="31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L37" s="32">
+        <v>0</v>
+      </c>
+      <c r="M37" s="32">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="32">
+        <v>-3</v>
+      </c>
+      <c r="O37" s="32">
+        <v>-4</v>
+      </c>
+      <c r="P37" s="32">
+        <v>-5</v>
+      </c>
+      <c r="Q37" s="32">
+        <v>-6</v>
+      </c>
+      <c r="R37" s="37">
+        <v>-8</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
-      <c r="B38" s="110"/>
-      <c r="C38" s="70" t="s">
+      <c r="A38" s="81"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="76" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="24">
-        <f>D12</f>
         <v>1</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="36"/>
+      <c r="E38" s="31">
+        <f t="shared" ref="E38:R39" si="11">D38</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R38" s="31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
-      <c r="B39" s="111"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="118"/>
       <c r="C39" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="24">
-        <f>D13</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="33"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
@@ -16032,111 +16154,144 @@
       <c r="R39" s="39"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="109">
-        <v>21</v>
+      <c r="A40" s="81"/>
+      <c r="B40" s="116">
+        <v>26</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D40" s="10">
         <f>SUM(D41:D43)</f>
         <v>25</v>
       </c>
       <c r="E40" s="16">
-        <f t="shared" ref="E40:R40" si="10">SUM(E41:E43)</f>
-        <v>0</v>
+        <f t="shared" ref="E40:R40" si="12">SUM(E41:E43)</f>
+        <v>10</v>
       </c>
       <c r="F40" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>9.25</v>
       </c>
       <c r="G40" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="H40" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="I40" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="J40" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="K40" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="L40" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="N40" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>-2.5</v>
       </c>
       <c r="O40" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>-5</v>
       </c>
       <c r="P40" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>-8</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>-11</v>
       </c>
       <c r="R40" s="35">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>-11</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="70" t="s">
+      <c r="A41" s="81"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="76" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="24">
-        <f>D15</f>
         <v>10</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
+      <c r="E41" s="31">
+        <f>D41</f>
+        <v>10</v>
+      </c>
+      <c r="F41" s="31">
+        <f t="shared" ref="F41:K41" si="13">E41</f>
+        <v>10</v>
+      </c>
+      <c r="G41" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="H41" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="I41" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="J41" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="K41" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="L41" s="32">
+        <v>8</v>
+      </c>
+      <c r="M41" s="32">
+        <v>5</v>
+      </c>
+      <c r="N41" s="32">
+        <v>-2.5</v>
+      </c>
+      <c r="O41" s="32">
+        <v>-5</v>
+      </c>
+      <c r="P41" s="32">
+        <v>-8</v>
+      </c>
+      <c r="Q41" s="32">
+        <v>-11</v>
+      </c>
+      <c r="R41" s="32">
+        <v>-11</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="70" t="s">
+      <c r="A42" s="81"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="24">
-        <f>D16</f>
-        <v>0</v>
-      </c>
+      <c r="D42" s="24"/>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
+      <c r="F42" s="31">
+        <v>-0.75</v>
+      </c>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
@@ -16151,13 +16306,12 @@
       <c r="R42" s="37"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
-      <c r="B43" s="111"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="118"/>
       <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="24">
-        <f>D17</f>
+      <c r="D43" s="26">
         <v>15</v>
       </c>
       <c r="E43" s="33"/>
@@ -16176,84 +16330,81 @@
       <c r="R43" s="39"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="72"/>
-      <c r="B44" s="109">
-        <v>18</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>41</v>
+      <c r="A44" s="81"/>
+      <c r="B44" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="D44" s="10">
         <f>SUM(D45:D47)</f>
         <v>7</v>
       </c>
       <c r="E44" s="16">
-        <f t="shared" ref="E44:R44" si="11">SUM(E45:E47)</f>
-        <v>0</v>
+        <f t="shared" ref="E44:R44" si="14">SUM(E45:E47)</f>
+        <v>7</v>
       </c>
       <c r="F44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3.5</v>
       </c>
       <c r="G44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="H44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="J44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="K44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-1</v>
       </c>
       <c r="L44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-1</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-1</v>
       </c>
       <c r="N44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-1</v>
       </c>
       <c r="O44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-1</v>
       </c>
       <c r="P44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-1</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-1</v>
       </c>
       <c r="R44" s="35">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="72"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="70" t="s">
+      <c r="A45" s="81"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="24">
-        <f>D19</f>
-        <v>0</v>
-      </c>
+      <c r="D45" s="24"/>
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
@@ -16270,40 +16421,64 @@
       <c r="R45" s="31"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="110"/>
-      <c r="C46" s="70" t="s">
+      <c r="A46" s="81"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="76" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="24">
-        <f>D20</f>
         <v>7</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="37"/>
+      <c r="E46" s="31">
+        <v>7</v>
+      </c>
+      <c r="F46" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="G46" s="31">
+        <v>1</v>
+      </c>
+      <c r="H46" s="31">
+        <v>1</v>
+      </c>
+      <c r="I46" s="31">
+        <v>1</v>
+      </c>
+      <c r="J46" s="31">
+        <v>1</v>
+      </c>
+      <c r="K46" s="32">
+        <v>-1</v>
+      </c>
+      <c r="L46" s="32">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="32">
+        <v>-1</v>
+      </c>
+      <c r="N46" s="32">
+        <v>-1</v>
+      </c>
+      <c r="O46" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P46" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q46" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R46" s="32">
+        <v>-1</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="111"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="118"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="24">
-        <f>D21</f>
-        <v>0</v>
-      </c>
+      <c r="D47" s="26"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="34"/>
@@ -16320,132 +16495,185 @@
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="72"/>
-      <c r="B48" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>43</v>
+      <c r="A48" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="113"/>
+      <c r="C48" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D48" s="10">
         <f>SUM(D49:D51)</f>
         <v>12</v>
       </c>
       <c r="E48" s="21">
-        <f t="shared" ref="E48:R48" si="12">SUM(E49:E51)</f>
-        <v>0</v>
+        <f t="shared" ref="E48:R48" si="15">SUM(E49:E51)</f>
+        <v>8</v>
       </c>
       <c r="F48" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>7</v>
       </c>
       <c r="G48" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>6.5</v>
       </c>
       <c r="H48" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>6.5</v>
       </c>
       <c r="I48" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>6.5</v>
       </c>
       <c r="J48" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>6.5</v>
       </c>
       <c r="K48" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.5</v>
       </c>
       <c r="L48" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.5</v>
       </c>
       <c r="M48" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>3.5</v>
       </c>
       <c r="N48" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>3.5</v>
       </c>
       <c r="O48" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1.5</v>
       </c>
       <c r="P48" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>-1.5</v>
       </c>
       <c r="Q48" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>-1.5</v>
       </c>
       <c r="R48" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="70" t="s">
+      <c r="A49" s="81"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="76" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="24">
-        <f>D23</f>
         <v>5</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="37"/>
+      <c r="E49" s="31">
+        <v>5</v>
+      </c>
+      <c r="F49" s="31">
+        <v>5</v>
+      </c>
+      <c r="G49" s="31">
+        <v>5</v>
+      </c>
+      <c r="H49" s="31">
+        <v>5</v>
+      </c>
+      <c r="I49" s="31">
+        <v>5</v>
+      </c>
+      <c r="J49" s="31">
+        <v>5</v>
+      </c>
+      <c r="K49" s="31">
+        <v>5</v>
+      </c>
+      <c r="L49" s="31">
+        <v>5</v>
+      </c>
+      <c r="M49" s="32">
+        <v>4</v>
+      </c>
+      <c r="N49" s="32">
+        <v>4</v>
+      </c>
+      <c r="O49" s="32">
+        <v>2</v>
+      </c>
+      <c r="P49" s="32">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="32">
+        <v>2</v>
+      </c>
+      <c r="R49" s="32">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="70" t="s">
+      <c r="A50" s="81"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="76" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="24">
-        <f>D24</f>
         <v>3</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="36"/>
+      <c r="E50" s="31">
+        <v>3</v>
+      </c>
+      <c r="F50" s="31">
+        <v>2</v>
+      </c>
+      <c r="G50" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="H50" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="I50" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="J50" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="K50" s="31">
+        <v>-0.5</v>
+      </c>
+      <c r="L50" s="31">
+        <v>-0.5</v>
+      </c>
+      <c r="M50" s="31">
+        <v>-0.5</v>
+      </c>
+      <c r="N50" s="31">
+        <v>-0.5</v>
+      </c>
+      <c r="O50" s="31">
+        <v>-0.5</v>
+      </c>
+      <c r="P50" s="31">
+        <v>-3.5</v>
+      </c>
+      <c r="Q50" s="31">
+        <v>-3.5</v>
+      </c>
+      <c r="R50" s="31">
+        <v>-3.5</v>
+      </c>
     </row>
     <row r="51" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
-      <c r="B51" s="103"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="115"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="24">
-        <f>D25</f>
+      <c r="D51" s="26">
         <v>4</v>
       </c>
       <c r="E51" s="33"/>
@@ -16463,138 +16691,189 @@
       <c r="Q51" s="33"/>
       <c r="R51" s="39"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="101" t="s">
-        <v>45</v>
-      </c>
+    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="81"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="60" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D52" s="10">
         <f>SUM(D53:D55)</f>
         <v>15</v>
       </c>
       <c r="E52" s="16">
-        <f t="shared" ref="E52:R52" si="13">SUM(E53:E55)</f>
-        <v>0</v>
+        <f t="shared" ref="E52:R52" si="16">SUM(E53:E55)</f>
+        <v>6</v>
       </c>
       <c r="F52" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>0.5</v>
       </c>
       <c r="G52" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-0.5</v>
       </c>
       <c r="H52" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-1.5</v>
       </c>
       <c r="I52" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-1.5</v>
       </c>
       <c r="J52" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-1.5</v>
       </c>
       <c r="K52" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-1.5</v>
       </c>
       <c r="L52" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-2.5</v>
       </c>
       <c r="M52" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-2.5</v>
       </c>
       <c r="N52" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-2.5</v>
       </c>
       <c r="O52" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-2.5</v>
       </c>
       <c r="P52" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-2.5</v>
       </c>
       <c r="Q52" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-2.5</v>
       </c>
       <c r="R52" s="35">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="70" t="s">
+      <c r="A53" s="81"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="76" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="24">
-        <f>D27</f>
         <v>5</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="37"/>
+      <c r="E53" s="31">
+        <v>2</v>
+      </c>
+      <c r="F53" s="31">
+        <v>0</v>
+      </c>
+      <c r="G53" s="31">
+        <v>0</v>
+      </c>
+      <c r="H53" s="31">
+        <v>0</v>
+      </c>
+      <c r="I53" s="31">
+        <v>0</v>
+      </c>
+      <c r="J53" s="31">
+        <v>0</v>
+      </c>
+      <c r="K53" s="31">
+        <v>0</v>
+      </c>
+      <c r="L53" s="31">
+        <v>0</v>
+      </c>
+      <c r="M53" s="31">
+        <v>0</v>
+      </c>
+      <c r="N53" s="31">
+        <v>0</v>
+      </c>
+      <c r="O53" s="31">
+        <v>0</v>
+      </c>
+      <c r="P53" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="31">
+        <v>0</v>
+      </c>
+      <c r="R53" s="37">
+        <v>-3</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="70" t="s">
+      <c r="A54" s="81"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="76" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="24">
-        <f>D28</f>
         <v>5</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="36"/>
+      <c r="E54" s="31">
+        <v>2</v>
+      </c>
+      <c r="F54" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="31">
+        <v>-0.5</v>
+      </c>
+      <c r="H54" s="31">
+        <v>-1.5</v>
+      </c>
+      <c r="I54" s="31">
+        <v>-1.5</v>
+      </c>
+      <c r="J54" s="31">
+        <v>-1.5</v>
+      </c>
+      <c r="K54" s="31">
+        <v>-1.5</v>
+      </c>
+      <c r="L54" s="31">
+        <v>-2.5</v>
+      </c>
+      <c r="M54" s="31">
+        <v>-2.5</v>
+      </c>
+      <c r="N54" s="31">
+        <v>-2.5</v>
+      </c>
+      <c r="O54" s="31">
+        <v>-2.5</v>
+      </c>
+      <c r="P54" s="31">
+        <v>-2.5</v>
+      </c>
+      <c r="Q54" s="31">
+        <v>-2.5</v>
+      </c>
+      <c r="R54" s="31">
+        <v>-2.5</v>
+      </c>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="82"/>
-      <c r="B55" s="103"/>
+      <c r="B55" s="74"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="24">
-        <f>D29</f>
+      <c r="D55" s="26">
         <v>5</v>
       </c>
-      <c r="E55" s="33"/>
+      <c r="E55" s="33">
+        <v>2</v>
+      </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
@@ -16610,568 +16889,139 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
-      <c r="B56" s="101">
-        <v>31</v>
-      </c>
-      <c r="C56" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="10" t="e">
-        <f>SUM(D57:D59)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="16">
-        <f t="shared" ref="E56:R56" si="14">SUM(E57:E59)</f>
-        <v>0</v>
-      </c>
-      <c r="F56" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="B56" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="109"/>
+      <c r="D56" s="2">
+        <f>SUM(D32, D36, D40, D44, D48,D52)</f>
+        <v>66</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" ref="E56:R56" si="17">SUM(E32, E36, E40, E44, E48,E52)</f>
+        <v>36</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="17"/>
+        <v>25.25</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="17"/>
+        <v>5.5</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="17"/>
+        <v>-9</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="17"/>
+        <v>-14.5</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" si="17"/>
+        <v>-21.5</v>
+      </c>
+      <c r="Q56" s="2">
+        <f t="shared" si="17"/>
+        <v>-25.5</v>
+      </c>
+      <c r="R56" s="2">
+        <f t="shared" si="17"/>
+        <v>-30.5</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="82"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="37"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="82"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
-      <c r="B59" s="103"/>
-      <c r="C59" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="39"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="96"/>
-      <c r="C60" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="10" t="e">
-        <f>SUM(D61:D63)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E60" s="16">
-        <f t="shared" ref="E60:R60" si="15">SUM(E61:E63)</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="35">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="97"/>
-      <c r="C61" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="36"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="97"/>
-      <c r="C62" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="98"/>
-      <c r="C63" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="38"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="106"/>
-      <c r="C64" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="10" t="e">
-        <f>SUM(D65:D67)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E64" s="21">
-        <f t="shared" ref="E64:R64" si="16">SUM(E65:E67)</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="13">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="107"/>
-      <c r="C65" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="37"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="107"/>
-      <c r="C66" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-    </row>
-    <row r="67" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="108"/>
-      <c r="C67" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="26" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="39"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="104"/>
-      <c r="D68" s="2" t="e">
-        <f t="shared" ref="D68:R68" si="17">SUM(D32,D52,D56,D60,D64)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="R68" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D69" t="e">
-        <f>D68</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E69" t="e">
-        <f t="shared" ref="E69:R69" si="18" xml:space="preserve"> D69 - ($D$69/COUNT($D$4:$M$4))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F69" t="e">
+      <c r="D57">
+        <f>D56</f>
+        <v>66</v>
+      </c>
+      <c r="E57" s="119">
+        <f xml:space="preserve"> D57 - ($D$57/COUNT($E$4:$R$4))</f>
+        <v>61.285714285714285</v>
+      </c>
+      <c r="F57" s="119">
+        <f t="shared" ref="F57:R57" si="18" xml:space="preserve"> E57 - ($D$57/COUNT($E$4:$R$4))</f>
+        <v>56.571428571428569</v>
+      </c>
+      <c r="G57" s="119">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G69" t="e">
+        <v>51.857142857142854</v>
+      </c>
+      <c r="H57" s="119">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H69" t="e">
+        <v>47.142857142857139</v>
+      </c>
+      <c r="I57" s="119">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I69" t="e">
+        <v>42.428571428571423</v>
+      </c>
+      <c r="J57" s="119">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J69" t="e">
+        <v>37.714285714285708</v>
+      </c>
+      <c r="K57" s="119">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K69" t="e">
+        <v>32.999999999999993</v>
+      </c>
+      <c r="L57" s="119">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L69" t="e">
+        <v>28.285714285714278</v>
+      </c>
+      <c r="M57" s="119">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M69" t="e">
+        <v>23.571428571428562</v>
+      </c>
+      <c r="N57" s="119">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N69" t="e">
+        <v>18.857142857142847</v>
+      </c>
+      <c r="O57" s="119">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O69" t="e">
+        <v>14.142857142857132</v>
+      </c>
+      <c r="P57" s="119">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P69" t="e">
+        <v>9.4285714285714164</v>
+      </c>
+      <c r="Q57" s="119">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q69" t="e">
+        <v>4.714285714285702</v>
+      </c>
+      <c r="R57" s="119">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R69" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="72" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>-1.2434497875801753E-14</v>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
+  <mergeCells count="18">
+    <mergeCell ref="A32:A47"/>
+    <mergeCell ref="A48:A55"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="L2:R2"/>
@@ -17181,6 +17031,13 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-30" windowWidth="14265" windowHeight="13020" activeTab="5"/>
+    <workbookView xWindow="15" yWindow="-30" windowWidth="14265" windowHeight="13020" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Product Burndown" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Sp3" sheetId="3" r:id="rId4"/>
     <sheet name="Sp4" sheetId="5" r:id="rId5"/>
     <sheet name="Sp5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sp6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="81">
   <si>
     <t>Time (person-hours (p-h))</t>
   </si>
@@ -260,6 +261,42 @@
   </si>
   <si>
     <t>Server Setup</t>
+  </si>
+  <si>
+    <t>Timer script</t>
+  </si>
+  <si>
+    <t>10, 11</t>
+  </si>
+  <si>
+    <t>Email System</t>
+  </si>
+  <si>
+    <t>10, 11, 12, 16, 26</t>
+  </si>
+  <si>
+    <t>drop databases for admin</t>
+  </si>
+  <si>
+    <t>37, 38, 39</t>
+  </si>
+  <si>
+    <t>ui formatting</t>
+  </si>
+  <si>
+    <t>code improvements, updates, bugfixes</t>
+  </si>
+  <si>
+    <t>transfer code to server</t>
+  </si>
+  <si>
+    <t>10, 11, 20, 36</t>
+  </si>
+  <si>
+    <t>10, 11, 20</t>
+  </si>
+  <si>
+    <t>Database and interaction classes</t>
   </si>
 </sst>
 </file>
@@ -570,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -750,6 +787,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,6 +839,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,11 +860,20 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -836,21 +892,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -876,7 +917,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -1086,11 +1135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64980096"/>
-        <c:axId val="64982016"/>
+        <c:axId val="68380928"/>
+        <c:axId val="68039040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64980096"/>
+        <c:axId val="68380928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64982016"/>
+        <c:crossAx val="68039040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1126,7 +1175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64982016"/>
+        <c:axId val="68039040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64980096"/>
+        <c:crossAx val="68380928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1416,11 +1465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65594112"/>
-        <c:axId val="65595648"/>
+        <c:axId val="68388736"/>
+        <c:axId val="68390272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="65594112"/>
+        <c:axId val="68388736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,14 +1479,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65595648"/>
+        <c:crossAx val="68390272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65595648"/>
+        <c:axId val="68390272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65594112"/>
+        <c:crossAx val="68388736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1671,11 +1720,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65678336"/>
-        <c:axId val="65700608"/>
+        <c:axId val="68874624"/>
+        <c:axId val="68876160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="65678336"/>
+        <c:axId val="68874624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,14 +1734,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65700608"/>
+        <c:crossAx val="68876160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65700608"/>
+        <c:axId val="68876160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +1752,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65678336"/>
+        <c:crossAx val="68874624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1986,11 +2035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46877696"/>
-        <c:axId val="46883584"/>
+        <c:axId val="68766336"/>
+        <c:axId val="68796800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="46877696"/>
+        <c:axId val="68766336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,14 +2049,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46883584"/>
+        <c:crossAx val="68796800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="46883584"/>
+        <c:axId val="68796800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +2067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46877696"/>
+        <c:crossAx val="68766336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2305,11 +2354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46962176"/>
-        <c:axId val="46963712"/>
+        <c:axId val="69116672"/>
+        <c:axId val="69118208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46962176"/>
+        <c:axId val="69116672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,7 +2368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46963712"/>
+        <c:crossAx val="69118208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2327,7 +2376,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46963712"/>
+        <c:axId val="69118208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,14 +2387,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46962176"/>
+        <c:crossAx val="69116672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2622,11 +2670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47587328"/>
-        <c:axId val="47588864"/>
+        <c:axId val="82799616"/>
+        <c:axId val="82805504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="47587328"/>
+        <c:axId val="82799616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2636,14 +2684,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47588864"/>
+        <c:crossAx val="82805504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="47588864"/>
+        <c:axId val="82805504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2702,239 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47587328"/>
+        <c:crossAx val="82799616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Working</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp6'!$E$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>42101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42113</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp6'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp6'!$E$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>42101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42113</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp6'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="99461760"/>
+        <c:axId val="99471744"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="99461760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99471744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="99471744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99461760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2871,6 +3151,43 @@
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3184,7 +3501,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,13 +3516,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3296,7 +3613,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="0" xml:space="preserve"> C4 - B5</f>
+        <f t="shared" ref="C5:C9" si="0" xml:space="preserve"> C4 - B5</f>
         <v>95</v>
       </c>
       <c r="D5" s="4">
@@ -3540,22 +3857,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="78" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="79"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="81"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
@@ -3670,10 +3987,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="92">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3737,8 +4054,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="91"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -3767,8 +4084,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="91"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
@@ -3795,8 +4112,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="91"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
@@ -3825,8 +4142,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="91"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3888,8 +4205,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="91"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -3912,8 +4229,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="91"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -3942,8 +4259,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="91"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
@@ -3966,8 +4283,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="91"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
@@ -4029,8 +4346,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="91"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -4053,8 +4370,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
@@ -4077,8 +4394,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="92"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
@@ -4105,8 +4422,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="90">
+      <c r="A18" s="83"/>
+      <c r="B18" s="92">
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4170,8 +4487,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="91"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -4200,8 +4517,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="91"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
@@ -4224,8 +4541,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="92"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
@@ -4248,10 +4565,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="83"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="9" t="s">
         <v>24</v>
       </c>
@@ -4313,8 +4630,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="84"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -4337,8 +4654,8 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
@@ -4365,8 +4682,8 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="85"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
@@ -4389,10 +4706,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="86"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>19</v>
@@ -4457,10 +4774,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="90">
+      <c r="B28" s="92">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4521,8 +4838,8 @@
       <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="91"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -4568,8 +4885,8 @@
       <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="91"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="7" t="s">
         <v>17</v>
       </c>
@@ -4615,8 +4932,8 @@
       <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="91"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
@@ -4662,8 +4979,8 @@
       <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="91"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="93"/>
       <c r="C32" s="9" t="s">
         <v>19</v>
       </c>
@@ -4722,8 +5039,8 @@
       <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="91"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -4743,8 +5060,8 @@
       <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="91"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
@@ -4790,8 +5107,8 @@
       <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="8" t="s">
         <v>18</v>
       </c>
@@ -4811,8 +5128,8 @@
       <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="91"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="9" t="s">
         <v>20</v>
       </c>
@@ -4871,8 +5188,8 @@
       <c r="Q36" s="23"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="91"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -4892,8 +5209,8 @@
       <c r="Q37" s="24"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="91"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="7" t="s">
         <v>17</v>
       </c>
@@ -4913,8 +5230,8 @@
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
@@ -4960,8 +5277,8 @@
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="90">
+      <c r="A40" s="83"/>
+      <c r="B40" s="92">
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -5022,8 +5339,8 @@
       <c r="Q40" s="23"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="91"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="93"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -5069,8 +5386,8 @@
       <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="91"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="7" t="s">
         <v>17</v>
       </c>
@@ -5090,8 +5407,8 @@
       <c r="Q42" s="24"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
@@ -5111,10 +5428,10 @@
       <c r="Q43" s="24"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="83"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
@@ -5173,8 +5490,8 @@
       <c r="Q44" s="23"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
-      <c r="B45" s="84"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="7" t="s">
         <v>16</v>
       </c>
@@ -5194,8 +5511,8 @@
       <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="84"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="7" t="s">
         <v>17</v>
       </c>
@@ -5241,8 +5558,8 @@
       <c r="Q46" s="24"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="85"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="87"/>
       <c r="C47" s="8" t="s">
         <v>18</v>
       </c>
@@ -5262,10 +5579,10 @@
       <c r="Q47" s="24"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="86"/>
+      <c r="C48" s="88"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>19</v>
@@ -5426,19 +5743,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="87" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -5528,10 +5845,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="97">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -5583,8 +5900,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="94"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -5604,8 +5921,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -5629,8 +5946,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -5650,8 +5967,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="96" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="100" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -5703,8 +6020,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="97"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -5728,8 +6045,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -5749,8 +6066,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="97"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -5770,8 +6087,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="97"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
@@ -5821,8 +6138,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="97"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -5848,8 +6165,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="97"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -5873,8 +6190,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="97"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
@@ -5894,10 +6211,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="90"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
@@ -5947,8 +6264,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="91"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -5972,8 +6289,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="91"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -5997,8 +6314,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="91"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -6018,8 +6335,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="98"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="49" t="s">
         <v>31</v>
       </c>
@@ -6069,8 +6386,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="98"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -6090,8 +6407,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="98"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -6115,8 +6432,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="99"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -6136,10 +6453,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="86"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>14</v>
@@ -6192,10 +6509,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="93">
+      <c r="B28" s="97">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -6244,8 +6561,8 @@
       <c r="N28" s="23"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="94"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="45" t="s">
         <v>16</v>
       </c>
@@ -6265,8 +6582,8 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="94"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
@@ -6304,8 +6621,8 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="95"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
@@ -6325,8 +6642,8 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="96" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="100" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -6375,8 +6692,8 @@
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="97"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="45" t="s">
         <v>16</v>
       </c>
@@ -6414,8 +6731,8 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="97"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="45" t="s">
         <v>17</v>
       </c>
@@ -6435,8 +6752,8 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="97"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -6474,8 +6791,8 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="97"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="52" t="s">
         <v>33</v>
       </c>
@@ -6522,8 +6839,8 @@
       <c r="N36" s="23"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="97"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="45" t="s">
         <v>16</v>
       </c>
@@ -6561,8 +6878,8 @@
       <c r="N37" s="24"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="97"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="45" t="s">
         <v>17</v>
       </c>
@@ -6600,8 +6917,8 @@
       <c r="N38" s="24"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="97"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="45" t="s">
         <v>18</v>
       </c>
@@ -6621,10 +6938,10 @@
       <c r="N39" s="24"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="90"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="10" t="s">
         <v>34</v>
       </c>
@@ -6671,8 +6988,8 @@
       <c r="N40" s="23"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="91"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="93"/>
       <c r="C41" s="45" t="s">
         <v>16</v>
       </c>
@@ -6710,8 +7027,8 @@
       <c r="N41" s="24"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="91"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="45" t="s">
         <v>17</v>
       </c>
@@ -6749,8 +7066,8 @@
       <c r="N42" s="24"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="91"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="93"/>
       <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
@@ -6770,8 +7087,8 @@
       <c r="N43" s="24"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
-      <c r="B44" s="98"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="95"/>
       <c r="C44" s="49" t="s">
         <v>31</v>
       </c>
@@ -6818,8 +7135,8 @@
       <c r="N44" s="23"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
-      <c r="B45" s="98"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="95"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -6839,8 +7156,8 @@
       <c r="N45" s="24"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="98"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="95"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -6878,8 +7195,8 @@
       <c r="N46" s="24"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="99"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -6917,10 +7234,10 @@
       <c r="N47" s="24"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="86"/>
+      <c r="C48" s="88"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>14</v>
@@ -7007,6 +7324,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
@@ -7015,14 +7340,6 @@
     <mergeCell ref="A6:A17"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7059,24 +7376,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="87" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="89"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="91"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -7201,10 +7518,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="97">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -7276,8 +7593,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="94"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -7302,8 +7619,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -7328,8 +7645,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -7358,8 +7675,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="103">
+      <c r="A10" s="83"/>
+      <c r="B10" s="110">
         <v>15</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -7431,8 +7748,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="104"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -7457,8 +7774,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="104"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -7483,8 +7800,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="105"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -7513,8 +7830,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="103">
+      <c r="A14" s="83"/>
+      <c r="B14" s="110">
         <v>21</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -7586,8 +7903,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="104"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -7620,8 +7937,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="104"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -7646,8 +7963,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="105"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -7672,8 +7989,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="103">
+      <c r="A18" s="83"/>
+      <c r="B18" s="110">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -7745,8 +8062,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -7775,8 +8092,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="104"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -7801,8 +8118,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="105"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -7827,8 +8144,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="106" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="102" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="60" t="s">
@@ -7900,8 +8217,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="107"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -7926,8 +8243,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="107"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -7958,8 +8275,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="108"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -7984,8 +8301,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="106" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="102" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="60" t="s">
@@ -8057,8 +8374,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="107"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="45" t="s">
         <v>16</v>
       </c>
@@ -8083,8 +8400,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="107"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
@@ -8113,8 +8430,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="108"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -8139,8 +8456,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="106">
+      <c r="A30" s="83"/>
+      <c r="B30" s="102">
         <v>31</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -8212,8 +8529,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="107"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="45" t="s">
         <v>16</v>
       </c>
@@ -8238,8 +8555,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
@@ -8268,8 +8585,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
-      <c r="B33" s="108"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -8294,10 +8611,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="90"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="10" t="s">
         <v>39</v>
       </c>
@@ -8367,8 +8684,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="45" t="s">
         <v>16</v>
       </c>
@@ -8393,8 +8710,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="91"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="45" t="s">
         <v>17</v>
       </c>
@@ -8423,8 +8740,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="91"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="45" t="s">
         <v>18</v>
       </c>
@@ -8449,8 +8766,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="100"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="10" t="s">
         <v>40</v>
       </c>
@@ -8520,8 +8837,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="45" t="s">
         <v>16</v>
       </c>
@@ -8546,8 +8863,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="45" t="s">
         <v>17</v>
       </c>
@@ -8576,8 +8893,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="102"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -8602,10 +8919,10 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="110"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="2">
         <f t="shared" ref="D42:R42" si="21">SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30)</f>
         <v>38</v>
@@ -8672,10 +8989,10 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="93">
+      <c r="B44" s="97">
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -8743,8 +9060,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
-      <c r="B45" s="94"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -8768,8 +9085,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="94"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -8793,8 +9110,8 @@
       <c r="R46" s="37"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="81"/>
-      <c r="B47" s="95"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -8846,8 +9163,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="81"/>
-      <c r="B48" s="103">
+      <c r="A48" s="83"/>
+      <c r="B48" s="110">
         <v>15</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -8915,8 +9232,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="81"/>
-      <c r="B49" s="104"/>
+      <c r="A49" s="83"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="45" t="s">
         <v>16</v>
       </c>
@@ -8940,8 +9257,8 @@
       <c r="R49" s="37"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
-      <c r="B50" s="104"/>
+      <c r="A50" s="83"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="45" t="s">
         <v>17</v>
       </c>
@@ -8965,8 +9282,8 @@
       <c r="R50" s="36"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="81"/>
-      <c r="B51" s="105"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="112"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -9021,8 +9338,8 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="81"/>
-      <c r="B52" s="103">
+      <c r="A52" s="83"/>
+      <c r="B52" s="110">
         <v>21</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -9090,8 +9407,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
-      <c r="B53" s="104"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="45" t="s">
         <v>16</v>
       </c>
@@ -9143,8 +9460,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="81"/>
-      <c r="B54" s="104"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="45" t="s">
         <v>17</v>
       </c>
@@ -9168,8 +9485,8 @@
       <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="81"/>
-      <c r="B55" s="105"/>
+      <c r="A55" s="83"/>
+      <c r="B55" s="112"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -9193,8 +9510,8 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="81"/>
-      <c r="B56" s="103">
+      <c r="A56" s="83"/>
+      <c r="B56" s="110">
         <v>18</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -9262,8 +9579,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="81"/>
-      <c r="B57" s="104"/>
+      <c r="A57" s="83"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="45" t="s">
         <v>16</v>
       </c>
@@ -9315,8 +9632,8 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="81"/>
-      <c r="B58" s="104"/>
+      <c r="A58" s="83"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="45" t="s">
         <v>17</v>
       </c>
@@ -9340,8 +9657,8 @@
       <c r="R58" s="37"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="81"/>
-      <c r="B59" s="105"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="112"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -9365,8 +9682,8 @@
       <c r="R59" s="38"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="81"/>
-      <c r="B60" s="106" t="s">
+      <c r="A60" s="83"/>
+      <c r="B60" s="102" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -9434,8 +9751,8 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="81"/>
-      <c r="B61" s="107"/>
+      <c r="A61" s="83"/>
+      <c r="B61" s="103"/>
       <c r="C61" s="45" t="s">
         <v>16</v>
       </c>
@@ -9459,8 +9776,8 @@
       <c r="R61" s="37"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="81"/>
-      <c r="B62" s="107"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="103"/>
       <c r="C62" s="45" t="s">
         <v>17</v>
       </c>
@@ -9512,8 +9829,8 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="81"/>
-      <c r="B63" s="108"/>
+      <c r="A63" s="83"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -9537,8 +9854,8 @@
       <c r="R63" s="39"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="81"/>
-      <c r="B64" s="106" t="s">
+      <c r="A64" s="83"/>
+      <c r="B64" s="102" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="60" t="s">
@@ -9606,8 +9923,8 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="81"/>
-      <c r="B65" s="107"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="103"/>
       <c r="C65" s="45" t="s">
         <v>16</v>
       </c>
@@ -9631,8 +9948,8 @@
       <c r="R65" s="37"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="81"/>
-      <c r="B66" s="107"/>
+      <c r="A66" s="83"/>
+      <c r="B66" s="103"/>
       <c r="C66" s="45" t="s">
         <v>17</v>
       </c>
@@ -9684,8 +10001,8 @@
       </c>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="81"/>
-      <c r="B67" s="108"/>
+      <c r="A67" s="83"/>
+      <c r="B67" s="104"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -9709,8 +10026,8 @@
       <c r="R67" s="39"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="81"/>
-      <c r="B68" s="106">
+      <c r="A68" s="83"/>
+      <c r="B68" s="102">
         <v>31</v>
       </c>
       <c r="C68" s="60" t="s">
@@ -9778,8 +10095,8 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="81"/>
-      <c r="B69" s="107"/>
+      <c r="A69" s="83"/>
+      <c r="B69" s="103"/>
       <c r="C69" s="45" t="s">
         <v>16</v>
       </c>
@@ -9803,8 +10120,8 @@
       <c r="R69" s="37"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="81"/>
-      <c r="B70" s="107"/>
+      <c r="A70" s="83"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="45" t="s">
         <v>17</v>
       </c>
@@ -9856,8 +10173,8 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="82"/>
-      <c r="B71" s="108"/>
+      <c r="A71" s="84"/>
+      <c r="B71" s="104"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -9881,10 +10198,10 @@
       <c r="R71" s="39"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="93"/>
+      <c r="B72" s="97"/>
       <c r="C72" s="10" t="s">
         <v>39</v>
       </c>
@@ -9950,8 +10267,8 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="81"/>
-      <c r="B73" s="94"/>
+      <c r="A73" s="83"/>
+      <c r="B73" s="98"/>
       <c r="C73" s="45" t="s">
         <v>16</v>
       </c>
@@ -9975,8 +10292,8 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="81"/>
-      <c r="B74" s="94"/>
+      <c r="A74" s="83"/>
+      <c r="B74" s="98"/>
       <c r="C74" s="45" t="s">
         <v>17</v>
       </c>
@@ -10028,8 +10345,8 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="81"/>
-      <c r="B75" s="95"/>
+      <c r="A75" s="83"/>
+      <c r="B75" s="99"/>
       <c r="C75" s="45" t="s">
         <v>18</v>
       </c>
@@ -10053,8 +10370,8 @@
       <c r="R75" s="38"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="81"/>
-      <c r="B76" s="100"/>
+      <c r="A76" s="83"/>
+      <c r="B76" s="107"/>
       <c r="C76" s="10" t="s">
         <v>40</v>
       </c>
@@ -10120,8 +10437,8 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="81"/>
-      <c r="B77" s="101"/>
+      <c r="A77" s="83"/>
+      <c r="B77" s="108"/>
       <c r="C77" s="45" t="s">
         <v>16</v>
       </c>
@@ -10145,8 +10462,8 @@
       <c r="R77" s="37"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="81"/>
-      <c r="B78" s="101"/>
+      <c r="A78" s="83"/>
+      <c r="B78" s="108"/>
       <c r="C78" s="45" t="s">
         <v>17</v>
       </c>
@@ -10198,8 +10515,8 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="82"/>
-      <c r="B79" s="102"/>
+      <c r="A79" s="84"/>
+      <c r="B79" s="109"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -10223,10 +10540,10 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="109" t="s">
+      <c r="B80" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="109"/>
+      <c r="C80" s="105"/>
       <c r="D80" s="2">
         <f t="shared" ref="D80:M80" si="41">SUM(D44,D64,D68,D72,D76)</f>
         <v>17.5</v>
@@ -10352,16 +10669,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B68:B71"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
@@ -10378,6 +10685,16 @@
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B64:B67"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B68:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -10414,24 +10731,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="87" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="89"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="91"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -10556,10 +10873,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="97">
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -10631,8 +10948,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="94"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="66" t="s">
         <v>16</v>
       </c>
@@ -10661,8 +10978,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="66" t="s">
         <v>17</v>
       </c>
@@ -10687,8 +11004,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -10713,8 +11030,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="103">
+      <c r="A10" s="83"/>
+      <c r="B10" s="110">
         <v>16</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -10786,8 +11103,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="104"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="66" t="s">
         <v>16</v>
       </c>
@@ -10816,8 +11133,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="104"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="66" t="s">
         <v>17</v>
       </c>
@@ -10842,8 +11159,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="105"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -10868,8 +11185,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="103">
+      <c r="A14" s="83"/>
+      <c r="B14" s="110">
         <v>9</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -10941,8 +11258,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="104"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="66" t="s">
         <v>16</v>
       </c>
@@ -10971,8 +11288,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="104"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="66" t="s">
         <v>17</v>
       </c>
@@ -11001,8 +11318,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="105"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -11027,8 +11344,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="103" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="110" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -11100,8 +11417,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="66" t="s">
         <v>16</v>
       </c>
@@ -11126,8 +11443,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="104"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="66" t="s">
         <v>17</v>
       </c>
@@ -11152,8 +11469,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="105"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -11182,8 +11499,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="93" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="97" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -11255,8 +11572,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="94"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="66" t="s">
         <v>16</v>
       </c>
@@ -11285,8 +11602,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="94"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="66" t="s">
         <v>17</v>
       </c>
@@ -11315,8 +11632,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="95"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -11341,7 +11658,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="82" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="63"/>
@@ -11414,7 +11731,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="64"/>
       <c r="C27" s="66" t="s">
         <v>16</v>
@@ -11444,7 +11761,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="64"/>
       <c r="C28" s="66" t="s">
         <v>17</v>
@@ -11470,7 +11787,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="65"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
@@ -11496,8 +11813,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="106"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="60" t="s">
         <v>52</v>
       </c>
@@ -11567,8 +11884,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="107"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="66" t="s">
         <v>16</v>
       </c>
@@ -11597,8 +11914,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="66" t="s">
         <v>17</v>
       </c>
@@ -11623,8 +11940,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="108"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -11649,8 +11966,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="90"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="60" t="s">
         <v>58</v>
       </c>
@@ -11720,8 +12037,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="66" t="s">
         <v>16</v>
       </c>
@@ -11750,8 +12067,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="91"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="66" t="s">
         <v>17</v>
       </c>
@@ -11780,8 +12097,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="91"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="66" t="s">
         <v>18</v>
       </c>
@@ -11806,8 +12123,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="106"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="60" t="s">
         <v>53</v>
       </c>
@@ -11877,8 +12194,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="107"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="66" t="s">
         <v>16</v>
       </c>
@@ -11907,8 +12224,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="107"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="66" t="s">
         <v>17</v>
       </c>
@@ -11933,8 +12250,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="108"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -11959,8 +12276,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="106"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="60" t="s">
         <v>60</v>
       </c>
@@ -12030,8 +12347,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="107"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="103"/>
       <c r="C43" s="66" t="s">
         <v>16</v>
       </c>
@@ -12056,8 +12373,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
-      <c r="B44" s="107"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="66" t="s">
         <v>17</v>
       </c>
@@ -12088,8 +12405,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
-      <c r="B45" s="108"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="46" t="s">
         <v>18</v>
       </c>
@@ -12114,8 +12431,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="106"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="60" t="s">
         <v>59</v>
       </c>
@@ -12185,8 +12502,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="81"/>
-      <c r="B47" s="107"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="103"/>
       <c r="C47" s="66" t="s">
         <v>16</v>
       </c>
@@ -12215,8 +12532,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="81"/>
-      <c r="B48" s="107"/>
+      <c r="A48" s="83"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="66" t="s">
         <v>17</v>
       </c>
@@ -12241,8 +12558,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="108"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="46" t="s">
         <v>18</v>
       </c>
@@ -12268,10 +12585,10 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="75"/>
-      <c r="B50" s="110" t="s">
+      <c r="B50" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="110"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="2">
         <f>SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30,D42,D46)</f>
         <v>44</v>
@@ -12339,10 +12656,10 @@
     </row>
     <row r="51" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="80" t="s">
+      <c r="A52" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="93">
+      <c r="B52" s="97">
         <v>28</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -12410,8 +12727,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
-      <c r="B53" s="94"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="98"/>
       <c r="C53" s="70" t="s">
         <v>16</v>
       </c>
@@ -12463,8 +12780,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="81"/>
-      <c r="B54" s="94"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="70" t="s">
         <v>17</v>
       </c>
@@ -12488,8 +12805,8 @@
       <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="81"/>
-      <c r="B55" s="95"/>
+      <c r="A55" s="83"/>
+      <c r="B55" s="99"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -12513,8 +12830,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="81"/>
-      <c r="B56" s="103">
+      <c r="A56" s="83"/>
+      <c r="B56" s="110">
         <v>16</v>
       </c>
       <c r="C56" s="47" t="s">
@@ -12582,8 +12899,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="81"/>
-      <c r="B57" s="104"/>
+      <c r="A57" s="83"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="70" t="s">
         <v>16</v>
       </c>
@@ -12635,8 +12952,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="81"/>
-      <c r="B58" s="104"/>
+      <c r="A58" s="83"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="70" t="s">
         <v>17</v>
       </c>
@@ -12660,8 +12977,8 @@
       <c r="R58" s="36"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="81"/>
-      <c r="B59" s="105"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="112"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -12685,8 +13002,8 @@
       <c r="R59" s="39"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="81"/>
-      <c r="B60" s="103">
+      <c r="A60" s="83"/>
+      <c r="B60" s="110">
         <v>9</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -12754,8 +13071,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="81"/>
-      <c r="B61" s="104"/>
+      <c r="A61" s="83"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="70" t="s">
         <v>16</v>
       </c>
@@ -12807,8 +13124,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="81"/>
-      <c r="B62" s="104"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="111"/>
       <c r="C62" s="70" t="s">
         <v>17</v>
       </c>
@@ -12860,8 +13177,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="81"/>
-      <c r="B63" s="105"/>
+      <c r="A63" s="83"/>
+      <c r="B63" s="112"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -12885,8 +13202,8 @@
       <c r="R63" s="39"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="81"/>
-      <c r="B64" s="103" t="s">
+      <c r="A64" s="83"/>
+      <c r="B64" s="110" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -12954,8 +13271,8 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="81"/>
-      <c r="B65" s="104"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="111"/>
       <c r="C65" s="70" t="s">
         <v>16</v>
       </c>
@@ -12979,8 +13296,8 @@
       <c r="R65" s="36"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="81"/>
-      <c r="B66" s="104"/>
+      <c r="A66" s="83"/>
+      <c r="B66" s="111"/>
       <c r="C66" s="70" t="s">
         <v>17</v>
       </c>
@@ -13004,8 +13321,8 @@
       <c r="R66" s="37"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="81"/>
-      <c r="B67" s="105"/>
+      <c r="A67" s="83"/>
+      <c r="B67" s="112"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -13057,8 +13374,8 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="81"/>
-      <c r="B68" s="93" t="s">
+      <c r="A68" s="83"/>
+      <c r="B68" s="97" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -13126,8 +13443,8 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="81"/>
-      <c r="B69" s="94"/>
+      <c r="A69" s="83"/>
+      <c r="B69" s="98"/>
       <c r="C69" s="70" t="s">
         <v>16</v>
       </c>
@@ -13179,8 +13496,8 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="81"/>
-      <c r="B70" s="94"/>
+      <c r="A70" s="83"/>
+      <c r="B70" s="98"/>
       <c r="C70" s="70" t="s">
         <v>17</v>
       </c>
@@ -13232,8 +13549,8 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="82"/>
-      <c r="B71" s="95"/>
+      <c r="A71" s="84"/>
+      <c r="B71" s="99"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -13257,7 +13574,7 @@
       <c r="R71" s="39"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="111" t="s">
+      <c r="A72" s="113" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="67"/>
@@ -13326,7 +13643,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="112"/>
+      <c r="A73" s="114"/>
       <c r="B73" s="68"/>
       <c r="C73" s="70" t="s">
         <v>16</v>
@@ -13379,7 +13696,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="112"/>
+      <c r="A74" s="114"/>
       <c r="B74" s="68"/>
       <c r="C74" s="70" t="s">
         <v>17</v>
@@ -13404,7 +13721,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="112"/>
+      <c r="A75" s="114"/>
       <c r="B75" s="69"/>
       <c r="C75" s="46" t="s">
         <v>18</v>
@@ -13429,8 +13746,8 @@
       <c r="R75" s="39"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="112"/>
-      <c r="B76" s="106"/>
+      <c r="A76" s="114"/>
+      <c r="B76" s="102"/>
       <c r="C76" s="60" t="s">
         <v>52</v>
       </c>
@@ -13496,8 +13813,8 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="112"/>
-      <c r="B77" s="107"/>
+      <c r="A77" s="114"/>
+      <c r="B77" s="103"/>
       <c r="C77" s="70" t="s">
         <v>16</v>
       </c>
@@ -13549,8 +13866,8 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="112"/>
-      <c r="B78" s="107"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="103"/>
       <c r="C78" s="70" t="s">
         <v>17</v>
       </c>
@@ -13574,8 +13891,8 @@
       <c r="R78" s="36"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="112"/>
-      <c r="B79" s="108"/>
+      <c r="A79" s="114"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -13599,8 +13916,8 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="112"/>
-      <c r="B80" s="93"/>
+      <c r="A80" s="114"/>
+      <c r="B80" s="97"/>
       <c r="C80" s="60" t="s">
         <v>58</v>
       </c>
@@ -13666,8 +13983,8 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="112"/>
-      <c r="B81" s="94"/>
+      <c r="A81" s="114"/>
+      <c r="B81" s="98"/>
       <c r="C81" s="70" t="s">
         <v>16</v>
       </c>
@@ -13719,8 +14036,8 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="112"/>
-      <c r="B82" s="94"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="98"/>
       <c r="C82" s="70" t="s">
         <v>17</v>
       </c>
@@ -13772,8 +14089,8 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="112"/>
-      <c r="B83" s="95"/>
+      <c r="A83" s="114"/>
+      <c r="B83" s="99"/>
       <c r="C83" s="46" t="s">
         <v>18</v>
       </c>
@@ -13797,8 +14114,8 @@
       <c r="R83" s="38"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="112"/>
-      <c r="B84" s="106"/>
+      <c r="A84" s="114"/>
+      <c r="B84" s="102"/>
       <c r="C84" s="60" t="s">
         <v>53</v>
       </c>
@@ -13864,8 +14181,8 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="112"/>
-      <c r="B85" s="107"/>
+      <c r="A85" s="114"/>
+      <c r="B85" s="103"/>
       <c r="C85" s="70" t="s">
         <v>16</v>
       </c>
@@ -13917,8 +14234,8 @@
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="112"/>
-      <c r="B86" s="107"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="103"/>
       <c r="C86" s="70" t="s">
         <v>17</v>
       </c>
@@ -13970,8 +14287,8 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="112"/>
-      <c r="B87" s="108"/>
+      <c r="A87" s="114"/>
+      <c r="B87" s="104"/>
       <c r="C87" s="46" t="s">
         <v>18</v>
       </c>
@@ -13995,8 +14312,8 @@
       <c r="R87" s="39"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="112"/>
-      <c r="B88" s="106"/>
+      <c r="A88" s="114"/>
+      <c r="B88" s="102"/>
       <c r="C88" s="60" t="s">
         <v>60</v>
       </c>
@@ -14062,8 +14379,8 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="112"/>
-      <c r="B89" s="107"/>
+      <c r="A89" s="114"/>
+      <c r="B89" s="103"/>
       <c r="C89" s="70" t="s">
         <v>16</v>
       </c>
@@ -14087,8 +14404,8 @@
       <c r="R89" s="37"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="112"/>
-      <c r="B90" s="107"/>
+      <c r="A90" s="114"/>
+      <c r="B90" s="103"/>
       <c r="C90" s="70" t="s">
         <v>17</v>
       </c>
@@ -14140,8 +14457,8 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="112"/>
-      <c r="B91" s="108"/>
+      <c r="A91" s="114"/>
+      <c r="B91" s="104"/>
       <c r="C91" s="46" t="s">
         <v>18</v>
       </c>
@@ -14165,8 +14482,8 @@
       <c r="R91" s="39"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="112"/>
-      <c r="B92" s="106"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="102"/>
       <c r="C92" s="60" t="s">
         <v>59</v>
       </c>
@@ -14232,8 +14549,8 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="112"/>
-      <c r="B93" s="107"/>
+      <c r="A93" s="114"/>
+      <c r="B93" s="103"/>
       <c r="C93" s="70" t="s">
         <v>16</v>
       </c>
@@ -14285,8 +14602,8 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="112"/>
-      <c r="B94" s="107"/>
+      <c r="A94" s="114"/>
+      <c r="B94" s="103"/>
       <c r="C94" s="70" t="s">
         <v>17</v>
       </c>
@@ -14338,8 +14655,8 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="112"/>
-      <c r="B95" s="108"/>
+      <c r="A95" s="114"/>
+      <c r="B95" s="104"/>
       <c r="C95" s="46" t="s">
         <v>18</v>
       </c>
@@ -14363,10 +14680,10 @@
       <c r="R95" s="39"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B96" s="109" t="s">
+      <c r="B96" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="109"/>
+      <c r="C96" s="105"/>
       <c r="D96" s="2">
         <f>SUM(D52,D56,D60,D64,D68,D72,D76,D80,D84,D88,D92)</f>
         <v>44</v>
@@ -14492,6 +14809,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A72:A95"/>
+    <mergeCell ref="A52:A71"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="A6:A25"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -14508,18 +14837,6 @@
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="A72:A95"/>
-    <mergeCell ref="A52:A71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="A6:A25"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14531,8 +14848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14553,24 +14870,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="87" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="89"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="91"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -14695,10 +15012,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="115" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -14770,8 +15087,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="114"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="70" t="s">
         <v>16</v>
       </c>
@@ -14800,8 +15117,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="114"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>17</v>
       </c>
@@ -14830,8 +15147,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="115"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -14856,8 +15173,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="116">
+      <c r="A10" s="83"/>
+      <c r="B10" s="118">
         <v>26</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -14929,8 +15246,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="117"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="70" t="s">
         <v>16</v>
       </c>
@@ -14959,8 +15276,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="70" t="s">
         <v>17</v>
       </c>
@@ -14989,8 +15306,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="118"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -15015,8 +15332,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="116">
+      <c r="A14" s="83"/>
+      <c r="B14" s="118">
         <v>26</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -15088,8 +15405,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="117"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="70" t="s">
         <v>16</v>
       </c>
@@ -15120,8 +15437,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="117"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="70" t="s">
         <v>17</v>
       </c>
@@ -15146,8 +15463,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="118"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -15180,8 +15497,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="116" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="118" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -15253,8 +15570,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="117"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="70" t="s">
         <v>16</v>
       </c>
@@ -15279,8 +15596,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="70" t="s">
         <v>17</v>
       </c>
@@ -15311,8 +15628,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="118"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -15337,10 +15654,10 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="113"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="10" t="s">
         <v>67</v>
       </c>
@@ -15410,8 +15727,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="114"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="70" t="s">
         <v>16</v>
       </c>
@@ -15440,8 +15757,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="114"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="70" t="s">
         <v>17</v>
       </c>
@@ -15470,8 +15787,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="115"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -15502,7 +15819,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="72"/>
       <c r="C26" s="60" t="s">
         <v>68</v>
@@ -15573,7 +15890,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="73"/>
       <c r="C27" s="70" t="s">
         <v>16</v>
@@ -15605,7 +15922,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="73"/>
       <c r="C28" s="70" t="s">
         <v>17</v>
@@ -15637,7 +15954,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="74"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
@@ -15670,10 +15987,10 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="71"/>
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="110"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="2">
         <f>SUM(D6,D10,D14,D18,D22,D26)</f>
         <v>66</v>
@@ -15741,10 +16058,10 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="115" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -15812,8 +16129,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="114"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="76" t="s">
         <v>16</v>
       </c>
@@ -15864,8 +16181,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="114"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="76" t="s">
         <v>17</v>
       </c>
@@ -15916,8 +16233,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="115"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="117"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -15938,8 +16255,8 @@
       <c r="R35" s="31"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="116">
+      <c r="A36" s="83"/>
+      <c r="B36" s="118">
         <v>26</v>
       </c>
       <c r="C36" s="47" t="s">
@@ -16007,8 +16324,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="117"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="76" t="s">
         <v>16</v>
       </c>
@@ -16066,8 +16383,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="117"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="76" t="s">
         <v>17</v>
       </c>
@@ -16075,7 +16392,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="31">
-        <f t="shared" ref="E38:R39" si="11">D38</f>
+        <f t="shared" ref="E38:R38" si="11">D38</f>
         <v>1</v>
       </c>
       <c r="F38" s="31">
@@ -16132,8 +16449,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="118"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="120"/>
       <c r="C39" s="46" t="s">
         <v>18</v>
       </c>
@@ -16154,8 +16471,8 @@
       <c r="R39" s="39"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="116">
+      <c r="A40" s="83"/>
+      <c r="B40" s="118">
         <v>26</v>
       </c>
       <c r="C40" s="60" t="s">
@@ -16223,8 +16540,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="117"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="119"/>
       <c r="C41" s="76" t="s">
         <v>16</v>
       </c>
@@ -16282,8 +16599,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="117"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="119"/>
       <c r="C42" s="76" t="s">
         <v>17</v>
       </c>
@@ -16306,8 +16623,8 @@
       <c r="R42" s="37"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="118"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="120"/>
       <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
@@ -16330,8 +16647,8 @@
       <c r="R43" s="39"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
-      <c r="B44" s="116" t="s">
+      <c r="A44" s="83"/>
+      <c r="B44" s="118" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -16399,8 +16716,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
-      <c r="B45" s="117"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="76" t="s">
         <v>16</v>
       </c>
@@ -16421,8 +16738,8 @@
       <c r="R45" s="31"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="117"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="76" t="s">
         <v>17</v>
       </c>
@@ -16473,8 +16790,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="81"/>
-      <c r="B47" s="118"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="120"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -16495,10 +16812,10 @@
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="113"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="10" t="s">
         <v>67</v>
       </c>
@@ -16564,8 +16881,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="81"/>
-      <c r="B49" s="114"/>
+      <c r="A49" s="83"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="76" t="s">
         <v>16</v>
       </c>
@@ -16616,8 +16933,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
-      <c r="B50" s="114"/>
+      <c r="A50" s="83"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="76" t="s">
         <v>17</v>
       </c>
@@ -16668,8 +16985,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="81"/>
-      <c r="B51" s="115"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="117"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -16692,7 +17009,7 @@
       <c r="R51" s="39"/>
     </row>
     <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="81"/>
+      <c r="A52" s="83"/>
       <c r="B52" s="72"/>
       <c r="C52" s="60" t="s">
         <v>68</v>
@@ -16759,7 +17076,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
+      <c r="A53" s="83"/>
       <c r="B53" s="73"/>
       <c r="C53" s="76" t="s">
         <v>16</v>
@@ -16811,7 +17128,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="81"/>
+      <c r="A54" s="83"/>
       <c r="B54" s="73"/>
       <c r="C54" s="76" t="s">
         <v>17</v>
@@ -16863,7 +17180,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="82"/>
+      <c r="A55" s="84"/>
       <c r="B55" s="74"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
@@ -16889,10 +17206,10 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="109" t="s">
+      <c r="B56" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="109"/>
+      <c r="C56" s="105"/>
       <c r="D56" s="2">
         <f>SUM(D32, D36, D40, D44, D48,D52)</f>
         <v>66</v>
@@ -16959,59 +17276,59 @@
         <f>D56</f>
         <v>66</v>
       </c>
-      <c r="E57" s="119">
+      <c r="E57" s="78">
         <f xml:space="preserve"> D57 - ($D$57/COUNT($E$4:$R$4))</f>
         <v>61.285714285714285</v>
       </c>
-      <c r="F57" s="119">
+      <c r="F57" s="78">
         <f t="shared" ref="F57:R57" si="18" xml:space="preserve"> E57 - ($D$57/COUNT($E$4:$R$4))</f>
         <v>56.571428571428569</v>
       </c>
-      <c r="G57" s="119">
+      <c r="G57" s="78">
         <f t="shared" si="18"/>
         <v>51.857142857142854</v>
       </c>
-      <c r="H57" s="119">
+      <c r="H57" s="78">
         <f t="shared" si="18"/>
         <v>47.142857142857139</v>
       </c>
-      <c r="I57" s="119">
+      <c r="I57" s="78">
         <f t="shared" si="18"/>
         <v>42.428571428571423</v>
       </c>
-      <c r="J57" s="119">
+      <c r="J57" s="78">
         <f t="shared" si="18"/>
         <v>37.714285714285708</v>
       </c>
-      <c r="K57" s="119">
+      <c r="K57" s="78">
         <f t="shared" si="18"/>
         <v>32.999999999999993</v>
       </c>
-      <c r="L57" s="119">
+      <c r="L57" s="78">
         <f t="shared" si="18"/>
         <v>28.285714285714278</v>
       </c>
-      <c r="M57" s="119">
+      <c r="M57" s="78">
         <f t="shared" si="18"/>
         <v>23.571428571428562</v>
       </c>
-      <c r="N57" s="119">
+      <c r="N57" s="78">
         <f t="shared" si="18"/>
         <v>18.857142857142847</v>
       </c>
-      <c r="O57" s="119">
+      <c r="O57" s="78">
         <f t="shared" si="18"/>
         <v>14.142857142857132</v>
       </c>
-      <c r="P57" s="119">
+      <c r="P57" s="78">
         <f t="shared" si="18"/>
         <v>9.4285714285714164</v>
       </c>
-      <c r="Q57" s="119">
+      <c r="Q57" s="78">
         <f t="shared" si="18"/>
         <v>4.714285714285702</v>
       </c>
-      <c r="R57" s="119">
+      <c r="R57" s="78">
         <f t="shared" si="18"/>
         <v>-1.2434497875801753E-14</v>
       </c>
@@ -17020,6 +17337,13 @@
     <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
     <mergeCell ref="A32:A47"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="A22:A29"/>
@@ -17031,13 +17355,1557 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="A6:A21"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="78" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="78" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="78" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="78" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="78" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="78" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" style="78"/>
+    <col min="14" max="14" width="9.7109375" style="78" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="78"/>
+    <col min="17" max="17" width="11.7109375" style="78" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="78" customWidth="1"/>
+    <col min="19" max="19" width="21" style="78" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E2" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="91"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="40">
+        <v>42101</v>
+      </c>
+      <c r="F3" s="40">
+        <v>42102</v>
+      </c>
+      <c r="G3" s="40">
+        <v>42103</v>
+      </c>
+      <c r="H3" s="40">
+        <v>42104</v>
+      </c>
+      <c r="I3" s="40">
+        <v>42105</v>
+      </c>
+      <c r="J3" s="40">
+        <v>42106</v>
+      </c>
+      <c r="K3" s="40">
+        <v>42107</v>
+      </c>
+      <c r="L3" s="40">
+        <v>42108</v>
+      </c>
+      <c r="M3" s="40">
+        <v>42109</v>
+      </c>
+      <c r="N3" s="40">
+        <v>42110</v>
+      </c>
+      <c r="O3" s="40">
+        <v>42111</v>
+      </c>
+      <c r="P3" s="40">
+        <v>42112</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>42113</v>
+      </c>
+      <c r="R3" s="40">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="43">
+        <v>1</v>
+      </c>
+      <c r="F4" s="43">
+        <v>2</v>
+      </c>
+      <c r="G4" s="43">
+        <v>3</v>
+      </c>
+      <c r="H4" s="43">
+        <v>4</v>
+      </c>
+      <c r="I4" s="43">
+        <v>5</v>
+      </c>
+      <c r="J4" s="43">
+        <v>6</v>
+      </c>
+      <c r="K4" s="43">
+        <v>7</v>
+      </c>
+      <c r="L4" s="43">
+        <v>8</v>
+      </c>
+      <c r="M4" s="43">
+        <v>9</v>
+      </c>
+      <c r="N4" s="43">
+        <v>10</v>
+      </c>
+      <c r="O4" s="43">
+        <v>11</v>
+      </c>
+      <c r="P4" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>13</v>
+      </c>
+      <c r="R4" s="43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="15">
+        <f>SUM(D7:D9)</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" ref="E6:R6" si="0">SUM(E7:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
+        <f>SUM(E6:R6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="24">
+        <v>6</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28">
+        <f t="shared" ref="S7:S9" si="1">SUM(E7:R7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="122"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="122"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="122"/>
+      <c r="B10" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="15">
+        <f>SUM(D11:D13)</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" ref="E10:R10" si="2">SUM(E11:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <f>SUM(E10:R10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="122"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="24">
+        <v>4</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28">
+        <f t="shared" ref="S11:S17" si="3">SUM(E11:R11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="122"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="24">
+        <v>4</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62">
+        <v>4</v>
+      </c>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="28">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="122"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="122"/>
+      <c r="B14" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="10">
+        <f>SUM(D15:D17)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14:R14" si="4">SUM(E15:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="122"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="122"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="122"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="26">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="122"/>
+      <c r="B18" s="115">
+        <v>39</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="15">
+        <f>SUM(D19:D21)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" ref="E18:R18" si="5">SUM(E19:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="14">
+        <f>SUM(E18:R18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="122"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28">
+        <f t="shared" ref="S19:S21" si="6">SUM(E19:R19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="122"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="122"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="26">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="122"/>
+      <c r="B22" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="15">
+        <f>SUM(D23:D25)</f>
+        <v>8</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" ref="E22:R22" si="7">SUM(E23:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="14">
+        <f>SUM(E22:R22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="122"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="24">
+        <v>3</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28">
+        <f t="shared" ref="S23:S37" si="8">SUM(E23:R23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="122"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="24">
+        <v>5</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62">
+        <v>5</v>
+      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="28">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="122"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="122"/>
+      <c r="B26" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="10">
+        <f>SUM(D27:D29)</f>
+        <v>7</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" ref="E26:R26" si="9">SUM(E27:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="122"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="122"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="24">
+        <v>7</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27">
+        <v>7</v>
+      </c>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="28">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="122"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="122"/>
+      <c r="B30" s="118">
+        <v>40</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="10">
+        <f>SUM(D31:D33)</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" ref="E30:R30" si="10">SUM(E31:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="122"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="122"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="24">
+        <v>2</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27">
+        <v>2</v>
+      </c>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="28">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="122"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="122"/>
+      <c r="B34" s="118">
+        <v>41</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="10">
+        <f>SUM(D35:D37)</f>
+        <v>6</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" ref="E34:R34" si="11">SUM(E35:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="122"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="24">
+        <v>6</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="122"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="122"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="75"/>
+      <c r="B38" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="106"/>
+      <c r="D38" s="2">
+        <f>SUM(D6,D10,D14,D18, D22, D26, D30, D34)</f>
+        <v>39</v>
+      </c>
+      <c r="E38" s="2">
+        <f>SUM(E6,E10,E14,E18, E22, E26, E30, E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <f>SUM(F6,F10,F14,F18, F22, F26, F30, F34)</f>
+        <v>4</v>
+      </c>
+      <c r="G38" s="2">
+        <f>SUM(G6,G10,G14,G18, G22, G26, G30, G34)</f>
+        <v>5</v>
+      </c>
+      <c r="H38" s="2">
+        <f>SUM(H6,H10,H14,H18, H22, H26, H30, H34)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <f>SUM(I6,I10,I14,I18, I22, I26, I30, I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <f>SUM(J6,J10,J14,J18, J22, J26, J30, J34)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <f>SUM(K6,K10,K14,K18, K22, K26, K30, K34)</f>
+        <v>2</v>
+      </c>
+      <c r="L38" s="2">
+        <f>SUM(L6,L10,L14,L18, L22, L26, L30, L34)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <f>SUM(M6,M10,M14,M18, M22, M26, M30, M34)</f>
+        <v>7</v>
+      </c>
+      <c r="N38" s="2">
+        <f>SUM(N6,N10,N14,N18, N22, N26, N30, N34)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <f>SUM(O6,O10,O14,O18, O22, O26, O30, O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <f>SUM(P6,P10,P14,P18, P22, P26, P30, P34)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <f>SUM(Q6,Q10,Q14,Q18, Q22, Q26, Q30, Q34)</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="2">
+        <f>SUM(R6,R10,R14,R18, R22, R26, R30, R34)</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="123">
+        <f>SUM(S6,S10,S14,S18, S22, S26, S30, S34)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="75"/>
+      <c r="B39" s="42"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="75"/>
+      <c r="B40" s="42"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="75"/>
+      <c r="B41" s="42"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="75"/>
+      <c r="B42" s="42"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="75"/>
+      <c r="B43" s="42"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="75"/>
+      <c r="B44" s="42"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="75"/>
+      <c r="B45" s="42"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="75"/>
+      <c r="B46" s="42"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="75"/>
+      <c r="B47" s="42"/>
+    </row>
+    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+    </row>
+    <row r="51" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A6:A37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="-30" windowWidth="14265" windowHeight="13020" activeTab="6"/>
@@ -15,7 +15,10 @@
     <sheet name="Sp5" sheetId="6" r:id="rId6"/>
     <sheet name="Sp6" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -25,7 +28,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -791,6 +794,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,12 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,20 +860,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -892,6 +883,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -922,9 +928,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -964,6 +967,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1135,11 +1141,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68380928"/>
-        <c:axId val="68039040"/>
+        <c:axId val="268191096"/>
+        <c:axId val="268185216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68380928"/>
+        <c:axId val="268191096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,10 +1170,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68039040"/>
+        <c:crossAx val="268185216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1175,7 +1182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68039040"/>
+        <c:axId val="268185216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68380928"/>
+        <c:crossAx val="268191096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,13 +1470,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68388736"/>
-        <c:axId val="68390272"/>
+        <c:axId val="268187568"/>
+        <c:axId val="268191880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68388736"/>
+        <c:axId val="268187568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,14 +1485,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68390272"/>
+        <c:crossAx val="268191880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68390272"/>
+        <c:axId val="268191880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,7 +1503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68388736"/>
+        <c:crossAx val="268187568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1718,13 +1724,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68874624"/>
-        <c:axId val="68876160"/>
+        <c:axId val="268187176"/>
+        <c:axId val="268186784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68874624"/>
+        <c:axId val="268187176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,14 +1739,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68876160"/>
+        <c:crossAx val="268186784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68876160"/>
+        <c:axId val="268186784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68874624"/>
+        <c:crossAx val="268187176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2033,13 +2038,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68766336"/>
-        <c:axId val="68796800"/>
+        <c:axId val="268189136"/>
+        <c:axId val="268186000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68766336"/>
+        <c:axId val="268189136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,14 +2053,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68796800"/>
+        <c:crossAx val="268186000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68796800"/>
+        <c:axId val="268186000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68766336"/>
+        <c:crossAx val="268189136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2352,23 +2356,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69116672"/>
-        <c:axId val="69118208"/>
+        <c:axId val="268186392"/>
+        <c:axId val="268187960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69116672"/>
+        <c:axId val="268186392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69118208"/>
+        <c:crossAx val="268187960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2376,7 +2379,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69118208"/>
+        <c:axId val="268187960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +2390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69116672"/>
+        <c:crossAx val="268186392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2668,13 +2671,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82799616"/>
-        <c:axId val="82805504"/>
+        <c:axId val="267792184"/>
+        <c:axId val="267792576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="82799616"/>
+        <c:axId val="267792184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,14 +2686,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82805504"/>
+        <c:crossAx val="267792576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="82805504"/>
+        <c:axId val="267792576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,14 +2704,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82799616"/>
+        <c:crossAx val="267792184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2900,13 +2901,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99461760"/>
-        <c:axId val="99471744"/>
+        <c:axId val="334335624"/>
+        <c:axId val="334338368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="99461760"/>
+        <c:axId val="334335624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,14 +2916,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99471744"/>
+        <c:crossAx val="334338368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="99471744"/>
+        <c:axId val="334338368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,14 +2934,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99461760"/>
+        <c:crossAx val="334335624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3254,7 +3253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3289,7 +3288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3516,13 +3515,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3857,22 +3856,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="80" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="82"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
@@ -3987,10 +3986,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="93">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4054,8 +4053,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -4084,8 +4083,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
@@ -4112,8 +4111,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
@@ -4142,8 +4141,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="93"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
@@ -4205,8 +4204,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="93"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -4229,8 +4228,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -4259,8 +4258,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="93"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
@@ -4283,8 +4282,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
@@ -4346,8 +4345,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -4370,8 +4369,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="93"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
@@ -4394,8 +4393,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="94"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
@@ -4422,8 +4421,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="92">
+      <c r="A18" s="84"/>
+      <c r="B18" s="93">
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4487,8 +4486,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="93"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -4517,8 +4516,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="93"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
@@ -4541,8 +4540,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
@@ -4565,10 +4564,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="9" t="s">
         <v>24</v>
       </c>
@@ -4630,8 +4629,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="86"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -4654,8 +4653,8 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="86"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
@@ -4682,8 +4681,8 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="87"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
@@ -4706,10 +4705,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="88"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>19</v>
@@ -4774,10 +4773,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="92">
+      <c r="B28" s="93">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4838,8 +4837,8 @@
       <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="93"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -4885,8 +4884,8 @@
       <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="7" t="s">
         <v>17</v>
       </c>
@@ -4932,8 +4931,8 @@
       <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="93"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
@@ -4979,8 +4978,8 @@
       <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="93"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="9" t="s">
         <v>19</v>
       </c>
@@ -5039,8 +5038,8 @@
       <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="93"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="94"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -5060,8 +5059,8 @@
       <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="93"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
@@ -5107,8 +5106,8 @@
       <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="93"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="8" t="s">
         <v>18</v>
       </c>
@@ -5128,8 +5127,8 @@
       <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="9" t="s">
         <v>20</v>
       </c>
@@ -5188,8 +5187,8 @@
       <c r="Q36" s="23"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="93"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -5209,8 +5208,8 @@
       <c r="Q37" s="24"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="93"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="7" t="s">
         <v>17</v>
       </c>
@@ -5230,8 +5229,8 @@
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="94"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
@@ -5277,8 +5276,8 @@
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="92">
+      <c r="A40" s="84"/>
+      <c r="B40" s="93">
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -5339,8 +5338,8 @@
       <c r="Q40" s="23"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="93"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="94"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -5386,8 +5385,8 @@
       <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="93"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="7" t="s">
         <v>17</v>
       </c>
@@ -5407,8 +5406,8 @@
       <c r="Q42" s="24"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="94"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
@@ -5428,10 +5427,10 @@
       <c r="Q43" s="24"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="85"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
@@ -5490,8 +5489,8 @@
       <c r="Q44" s="23"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
-      <c r="B45" s="86"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="7" t="s">
         <v>16</v>
       </c>
@@ -5511,8 +5510,8 @@
       <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="86"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="7" t="s">
         <v>17</v>
       </c>
@@ -5558,8 +5557,8 @@
       <c r="Q46" s="24"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
-      <c r="B47" s="87"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="8" t="s">
         <v>18</v>
       </c>
@@ -5579,10 +5578,10 @@
       <c r="Q47" s="24"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="88"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>19</v>
@@ -5743,19 +5742,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="89" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -5845,10 +5844,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="97">
+      <c r="B6" s="96">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -5900,8 +5899,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -5921,8 +5920,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -5946,8 +5945,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -5967,8 +5966,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="100" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="99" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -6020,8 +6019,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -6045,8 +6044,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -6066,8 +6065,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="101"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -6087,8 +6086,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="101"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
@@ -6138,8 +6137,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="101"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -6165,8 +6164,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -6190,8 +6189,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
@@ -6211,10 +6210,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="92"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
@@ -6264,8 +6263,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="93"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -6289,8 +6288,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="93"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -6314,8 +6313,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="93"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -6335,8 +6334,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="95"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="49" t="s">
         <v>31</v>
       </c>
@@ -6386,8 +6385,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="95"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -6407,8 +6406,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="95"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -6432,8 +6431,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="96"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -6453,10 +6452,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="88"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>14</v>
@@ -6509,10 +6508,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="97">
+      <c r="B28" s="96">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -6561,8 +6560,8 @@
       <c r="N28" s="23"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="98"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="45" t="s">
         <v>16</v>
       </c>
@@ -6582,8 +6581,8 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="98"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
@@ -6621,8 +6620,8 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="99"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
@@ -6642,8 +6641,8 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="100" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="99" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -6692,8 +6691,8 @@
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="101"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="45" t="s">
         <v>16</v>
       </c>
@@ -6731,8 +6730,8 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="101"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="45" t="s">
         <v>17</v>
       </c>
@@ -6752,8 +6751,8 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="101"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -6791,8 +6790,8 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="101"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="52" t="s">
         <v>33</v>
       </c>
@@ -6839,8 +6838,8 @@
       <c r="N36" s="23"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="101"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="45" t="s">
         <v>16</v>
       </c>
@@ -6878,8 +6877,8 @@
       <c r="N37" s="24"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="101"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="45" t="s">
         <v>17</v>
       </c>
@@ -6917,8 +6916,8 @@
       <c r="N38" s="24"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="45" t="s">
         <v>18</v>
       </c>
@@ -6938,10 +6937,10 @@
       <c r="N39" s="24"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="92"/>
+      <c r="B40" s="93"/>
       <c r="C40" s="10" t="s">
         <v>34</v>
       </c>
@@ -6988,8 +6987,8 @@
       <c r="N40" s="23"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="93"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="94"/>
       <c r="C41" s="45" t="s">
         <v>16</v>
       </c>
@@ -7027,8 +7026,8 @@
       <c r="N41" s="24"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="93"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="45" t="s">
         <v>17</v>
       </c>
@@ -7066,8 +7065,8 @@
       <c r="N42" s="24"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="93"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
@@ -7087,8 +7086,8 @@
       <c r="N43" s="24"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="95"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="101"/>
       <c r="C44" s="49" t="s">
         <v>31</v>
       </c>
@@ -7135,8 +7134,8 @@
       <c r="N44" s="23"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
-      <c r="B45" s="95"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="101"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -7156,8 +7155,8 @@
       <c r="N45" s="24"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="95"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -7195,8 +7194,8 @@
       <c r="N46" s="24"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
-      <c r="B47" s="96"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -7234,10 +7233,10 @@
       <c r="N47" s="24"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="88"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>14</v>
@@ -7324,6 +7323,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B17"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A28:A39"/>
@@ -7332,14 +7339,6 @@
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7376,24 +7375,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="89" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -7518,10 +7517,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="97">
+      <c r="B6" s="96">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -7593,8 +7592,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -7619,8 +7618,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
@@ -7645,8 +7644,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -7675,8 +7674,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="110">
+      <c r="A10" s="84"/>
+      <c r="B10" s="106">
         <v>15</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -7748,8 +7747,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="111"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
@@ -7774,8 +7773,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="45" t="s">
         <v>17</v>
       </c>
@@ -7800,8 +7799,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -7830,8 +7829,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="110">
+      <c r="A14" s="84"/>
+      <c r="B14" s="106">
         <v>21</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -7903,8 +7902,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="111"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
@@ -7937,8 +7936,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
@@ -7963,8 +7962,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="112"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -7989,8 +7988,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="110">
+      <c r="A18" s="84"/>
+      <c r="B18" s="106">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -8062,8 +8061,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="111"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
@@ -8092,8 +8091,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="111"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
@@ -8118,8 +8117,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="112"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -8144,8 +8143,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="102" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="109" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="60" t="s">
@@ -8217,8 +8216,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="103"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
@@ -8243,8 +8242,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="103"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
@@ -8275,8 +8274,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="104"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -8301,8 +8300,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
-      <c r="B26" s="102" t="s">
+      <c r="A26" s="84"/>
+      <c r="B26" s="109" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="60" t="s">
@@ -8374,8 +8373,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="103"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="110"/>
       <c r="C27" s="45" t="s">
         <v>16</v>
       </c>
@@ -8400,8 +8399,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="103"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="110"/>
       <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
@@ -8430,8 +8429,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="104"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -8456,8 +8455,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="102">
+      <c r="A30" s="84"/>
+      <c r="B30" s="109">
         <v>31</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -8529,8 +8528,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="103"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="45" t="s">
         <v>16</v>
       </c>
@@ -8555,8 +8554,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="103"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
@@ -8585,8 +8584,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="104"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -8611,10 +8610,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="92"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="10" t="s">
         <v>39</v>
       </c>
@@ -8684,8 +8683,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="93"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="45" t="s">
         <v>16</v>
       </c>
@@ -8710,8 +8709,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="45" t="s">
         <v>17</v>
       </c>
@@ -8740,8 +8739,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="93"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="45" t="s">
         <v>18</v>
       </c>
@@ -8766,8 +8765,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="107"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="10" t="s">
         <v>40</v>
       </c>
@@ -8837,8 +8836,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="108"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="45" t="s">
         <v>16</v>
       </c>
@@ -8863,8 +8862,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="108"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="45" t="s">
         <v>17</v>
       </c>
@@ -8893,8 +8892,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="109"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -8919,10 +8918,10 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="106"/>
+      <c r="C42" s="113"/>
       <c r="D42" s="2">
         <f t="shared" ref="D42:R42" si="21">SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30)</f>
         <v>38</v>
@@ -8989,10 +8988,10 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="97">
+      <c r="B44" s="96">
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -9060,8 +9059,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
-      <c r="B45" s="98"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="45" t="s">
         <v>16</v>
       </c>
@@ -9085,8 +9084,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="98"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="45" t="s">
         <v>17</v>
       </c>
@@ -9110,8 +9109,8 @@
       <c r="R46" s="37"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
-      <c r="B47" s="99"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="98"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -9163,8 +9162,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
-      <c r="B48" s="110">
+      <c r="A48" s="84"/>
+      <c r="B48" s="106">
         <v>15</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -9232,8 +9231,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
-      <c r="B49" s="111"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="45" t="s">
         <v>16</v>
       </c>
@@ -9257,8 +9256,8 @@
       <c r="R49" s="37"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="84"/>
+      <c r="B50" s="107"/>
       <c r="C50" s="45" t="s">
         <v>17</v>
       </c>
@@ -9282,8 +9281,8 @@
       <c r="R50" s="36"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
-      <c r="B51" s="112"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="108"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -9338,8 +9337,8 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
-      <c r="B52" s="110">
+      <c r="A52" s="84"/>
+      <c r="B52" s="106">
         <v>21</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -9407,8 +9406,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
-      <c r="B53" s="111"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="107"/>
       <c r="C53" s="45" t="s">
         <v>16</v>
       </c>
@@ -9460,8 +9459,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
-      <c r="B54" s="111"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="107"/>
       <c r="C54" s="45" t="s">
         <v>17</v>
       </c>
@@ -9485,8 +9484,8 @@
       <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
-      <c r="B55" s="112"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="108"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -9510,8 +9509,8 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
-      <c r="B56" s="110">
+      <c r="A56" s="84"/>
+      <c r="B56" s="106">
         <v>18</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -9579,8 +9578,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
-      <c r="B57" s="111"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="107"/>
       <c r="C57" s="45" t="s">
         <v>16</v>
       </c>
@@ -9632,8 +9631,8 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
-      <c r="B58" s="111"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="107"/>
       <c r="C58" s="45" t="s">
         <v>17</v>
       </c>
@@ -9657,8 +9656,8 @@
       <c r="R58" s="37"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="108"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -9682,8 +9681,8 @@
       <c r="R59" s="38"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
-      <c r="B60" s="102" t="s">
+      <c r="A60" s="84"/>
+      <c r="B60" s="109" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -9751,8 +9750,8 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="83"/>
-      <c r="B61" s="103"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="110"/>
       <c r="C61" s="45" t="s">
         <v>16</v>
       </c>
@@ -9776,8 +9775,8 @@
       <c r="R61" s="37"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
-      <c r="B62" s="103"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="45" t="s">
         <v>17</v>
       </c>
@@ -9829,8 +9828,8 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
-      <c r="B63" s="104"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="111"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -9854,8 +9853,8 @@
       <c r="R63" s="39"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
-      <c r="B64" s="102" t="s">
+      <c r="A64" s="84"/>
+      <c r="B64" s="109" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="60" t="s">
@@ -9923,8 +9922,8 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
-      <c r="B65" s="103"/>
+      <c r="A65" s="84"/>
+      <c r="B65" s="110"/>
       <c r="C65" s="45" t="s">
         <v>16</v>
       </c>
@@ -9948,8 +9947,8 @@
       <c r="R65" s="37"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
-      <c r="B66" s="103"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="110"/>
       <c r="C66" s="45" t="s">
         <v>17</v>
       </c>
@@ -10001,8 +10000,8 @@
       </c>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="83"/>
-      <c r="B67" s="104"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="111"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -10026,8 +10025,8 @@
       <c r="R67" s="39"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="83"/>
-      <c r="B68" s="102">
+      <c r="A68" s="84"/>
+      <c r="B68" s="109">
         <v>31</v>
       </c>
       <c r="C68" s="60" t="s">
@@ -10095,8 +10094,8 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="83"/>
-      <c r="B69" s="103"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="110"/>
       <c r="C69" s="45" t="s">
         <v>16</v>
       </c>
@@ -10120,8 +10119,8 @@
       <c r="R69" s="37"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="83"/>
-      <c r="B70" s="103"/>
+      <c r="A70" s="84"/>
+      <c r="B70" s="110"/>
       <c r="C70" s="45" t="s">
         <v>17</v>
       </c>
@@ -10173,8 +10172,8 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="84"/>
-      <c r="B71" s="104"/>
+      <c r="A71" s="85"/>
+      <c r="B71" s="111"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -10198,10 +10197,10 @@
       <c r="R71" s="39"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="82" t="s">
+      <c r="A72" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="97"/>
+      <c r="B72" s="96"/>
       <c r="C72" s="10" t="s">
         <v>39</v>
       </c>
@@ -10267,8 +10266,8 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="83"/>
-      <c r="B73" s="98"/>
+      <c r="A73" s="84"/>
+      <c r="B73" s="97"/>
       <c r="C73" s="45" t="s">
         <v>16</v>
       </c>
@@ -10292,8 +10291,8 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="83"/>
-      <c r="B74" s="98"/>
+      <c r="A74" s="84"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="45" t="s">
         <v>17</v>
       </c>
@@ -10345,8 +10344,8 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="83"/>
-      <c r="B75" s="99"/>
+      <c r="A75" s="84"/>
+      <c r="B75" s="98"/>
       <c r="C75" s="45" t="s">
         <v>18</v>
       </c>
@@ -10370,8 +10369,8 @@
       <c r="R75" s="38"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="83"/>
-      <c r="B76" s="107"/>
+      <c r="A76" s="84"/>
+      <c r="B76" s="103"/>
       <c r="C76" s="10" t="s">
         <v>40</v>
       </c>
@@ -10437,8 +10436,8 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="83"/>
-      <c r="B77" s="108"/>
+      <c r="A77" s="84"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="45" t="s">
         <v>16</v>
       </c>
@@ -10462,8 +10461,8 @@
       <c r="R77" s="37"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="83"/>
-      <c r="B78" s="108"/>
+      <c r="A78" s="84"/>
+      <c r="B78" s="104"/>
       <c r="C78" s="45" t="s">
         <v>17</v>
       </c>
@@ -10515,8 +10514,8 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="84"/>
-      <c r="B79" s="109"/>
+      <c r="A79" s="85"/>
+      <c r="B79" s="105"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -10540,10 +10539,10 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="105" t="s">
+      <c r="B80" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="105"/>
+      <c r="C80" s="112"/>
       <c r="D80" s="2">
         <f t="shared" ref="D80:M80" si="41">SUM(D44,D64,D68,D72,D76)</f>
         <v>17.5</v>
@@ -10669,6 +10668,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B68:B71"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
@@ -10685,16 +10694,6 @@
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B64:B67"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B68:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -10731,24 +10730,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="89" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -10873,10 +10872,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="97">
+      <c r="B6" s="96">
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -10948,8 +10947,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="66" t="s">
         <v>16</v>
       </c>
@@ -10978,8 +10977,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="66" t="s">
         <v>17</v>
       </c>
@@ -11004,8 +11003,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -11030,8 +11029,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="110">
+      <c r="A10" s="84"/>
+      <c r="B10" s="106">
         <v>16</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -11103,8 +11102,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="111"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="66" t="s">
         <v>16</v>
       </c>
@@ -11133,8 +11132,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="66" t="s">
         <v>17</v>
       </c>
@@ -11159,8 +11158,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -11185,8 +11184,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="110">
+      <c r="A14" s="84"/>
+      <c r="B14" s="106">
         <v>9</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -11258,8 +11257,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="111"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="66" t="s">
         <v>16</v>
       </c>
@@ -11288,8 +11287,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="66" t="s">
         <v>17</v>
       </c>
@@ -11318,8 +11317,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="112"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -11344,8 +11343,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="110" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="106" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -11417,8 +11416,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="111"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="66" t="s">
         <v>16</v>
       </c>
@@ -11443,8 +11442,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="111"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="66" t="s">
         <v>17</v>
       </c>
@@ -11469,8 +11468,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="112"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -11499,8 +11498,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="97" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="96" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -11572,8 +11571,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="98"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="66" t="s">
         <v>16</v>
       </c>
@@ -11602,8 +11601,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="98"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="66" t="s">
         <v>17</v>
       </c>
@@ -11632,8 +11631,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="99"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -11658,7 +11657,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="83" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="63"/>
@@ -11731,7 +11730,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="64"/>
       <c r="C27" s="66" t="s">
         <v>16</v>
@@ -11761,7 +11760,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="64"/>
       <c r="C28" s="66" t="s">
         <v>17</v>
@@ -11787,7 +11786,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="65"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
@@ -11813,8 +11812,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="60" t="s">
         <v>52</v>
       </c>
@@ -11884,8 +11883,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="103"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="66" t="s">
         <v>16</v>
       </c>
@@ -11914,8 +11913,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="103"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="66" t="s">
         <v>17</v>
       </c>
@@ -11940,8 +11939,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="104"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
@@ -11966,8 +11965,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="92"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="60" t="s">
         <v>58</v>
       </c>
@@ -12037,8 +12036,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="93"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="66" t="s">
         <v>16</v>
       </c>
@@ -12067,8 +12066,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="66" t="s">
         <v>17</v>
       </c>
@@ -12097,8 +12096,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="93"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="66" t="s">
         <v>18</v>
       </c>
@@ -12123,8 +12122,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="102"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="60" t="s">
         <v>53</v>
       </c>
@@ -12194,8 +12193,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="103"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="66" t="s">
         <v>16</v>
       </c>
@@ -12224,8 +12223,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="103"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="66" t="s">
         <v>17</v>
       </c>
@@ -12250,8 +12249,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="104"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
@@ -12276,8 +12275,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="102"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="60" t="s">
         <v>60</v>
       </c>
@@ -12347,8 +12346,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="103"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="66" t="s">
         <v>16</v>
       </c>
@@ -12373,8 +12372,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="103"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="66" t="s">
         <v>17</v>
       </c>
@@ -12405,8 +12404,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
-      <c r="B45" s="104"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="46" t="s">
         <v>18</v>
       </c>
@@ -12431,8 +12430,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="102"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="109"/>
       <c r="C46" s="60" t="s">
         <v>59</v>
       </c>
@@ -12502,8 +12501,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
-      <c r="B47" s="103"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="66" t="s">
         <v>16</v>
       </c>
@@ -12532,8 +12531,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
-      <c r="B48" s="103"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="110"/>
       <c r="C48" s="66" t="s">
         <v>17</v>
       </c>
@@ -12558,8 +12557,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
-      <c r="B49" s="104"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="46" t="s">
         <v>18</v>
       </c>
@@ -12585,10 +12584,10 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="75"/>
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="106"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="2">
         <f>SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30,D42,D46)</f>
         <v>44</v>
@@ -12656,10 +12655,10 @@
     </row>
     <row r="51" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="97">
+      <c r="B52" s="96">
         <v>28</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -12727,8 +12726,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
-      <c r="B53" s="98"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="97"/>
       <c r="C53" s="70" t="s">
         <v>16</v>
       </c>
@@ -12780,8 +12779,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
-      <c r="B54" s="98"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="97"/>
       <c r="C54" s="70" t="s">
         <v>17</v>
       </c>
@@ -12805,8 +12804,8 @@
       <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
-      <c r="B55" s="99"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
       </c>
@@ -12830,8 +12829,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
-      <c r="B56" s="110">
+      <c r="A56" s="84"/>
+      <c r="B56" s="106">
         <v>16</v>
       </c>
       <c r="C56" s="47" t="s">
@@ -12899,8 +12898,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
-      <c r="B57" s="111"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="107"/>
       <c r="C57" s="70" t="s">
         <v>16</v>
       </c>
@@ -12952,8 +12951,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
-      <c r="B58" s="111"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="107"/>
       <c r="C58" s="70" t="s">
         <v>17</v>
       </c>
@@ -12977,8 +12976,8 @@
       <c r="R58" s="36"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="108"/>
       <c r="C59" s="46" t="s">
         <v>18</v>
       </c>
@@ -13002,8 +13001,8 @@
       <c r="R59" s="39"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
-      <c r="B60" s="110">
+      <c r="A60" s="84"/>
+      <c r="B60" s="106">
         <v>9</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -13071,8 +13070,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="83"/>
-      <c r="B61" s="111"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="107"/>
       <c r="C61" s="70" t="s">
         <v>16</v>
       </c>
@@ -13124,8 +13123,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
-      <c r="B62" s="111"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="70" t="s">
         <v>17</v>
       </c>
@@ -13177,8 +13176,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
-      <c r="B63" s="112"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="108"/>
       <c r="C63" s="46" t="s">
         <v>18</v>
       </c>
@@ -13202,8 +13201,8 @@
       <c r="R63" s="39"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
-      <c r="B64" s="110" t="s">
+      <c r="A64" s="84"/>
+      <c r="B64" s="106" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -13271,8 +13270,8 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
-      <c r="B65" s="111"/>
+      <c r="A65" s="84"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="70" t="s">
         <v>16</v>
       </c>
@@ -13296,8 +13295,8 @@
       <c r="R65" s="36"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
-      <c r="B66" s="111"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="70" t="s">
         <v>17</v>
       </c>
@@ -13321,8 +13320,8 @@
       <c r="R66" s="37"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="83"/>
-      <c r="B67" s="112"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="108"/>
       <c r="C67" s="46" t="s">
         <v>18</v>
       </c>
@@ -13374,8 +13373,8 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="83"/>
-      <c r="B68" s="97" t="s">
+      <c r="A68" s="84"/>
+      <c r="B68" s="96" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -13443,8 +13442,8 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="83"/>
-      <c r="B69" s="98"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="70" t="s">
         <v>16</v>
       </c>
@@ -13496,8 +13495,8 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="83"/>
-      <c r="B70" s="98"/>
+      <c r="A70" s="84"/>
+      <c r="B70" s="97"/>
       <c r="C70" s="70" t="s">
         <v>17</v>
       </c>
@@ -13549,8 +13548,8 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="84"/>
-      <c r="B71" s="99"/>
+      <c r="A71" s="85"/>
+      <c r="B71" s="98"/>
       <c r="C71" s="46" t="s">
         <v>18</v>
       </c>
@@ -13574,7 +13573,7 @@
       <c r="R71" s="39"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="113" t="s">
+      <c r="A72" s="114" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="67"/>
@@ -13643,7 +13642,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="114"/>
+      <c r="A73" s="115"/>
       <c r="B73" s="68"/>
       <c r="C73" s="70" t="s">
         <v>16</v>
@@ -13696,7 +13695,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="114"/>
+      <c r="A74" s="115"/>
       <c r="B74" s="68"/>
       <c r="C74" s="70" t="s">
         <v>17</v>
@@ -13721,7 +13720,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="114"/>
+      <c r="A75" s="115"/>
       <c r="B75" s="69"/>
       <c r="C75" s="46" t="s">
         <v>18</v>
@@ -13746,8 +13745,8 @@
       <c r="R75" s="39"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="114"/>
-      <c r="B76" s="102"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="109"/>
       <c r="C76" s="60" t="s">
         <v>52</v>
       </c>
@@ -13813,8 +13812,8 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="114"/>
-      <c r="B77" s="103"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="110"/>
       <c r="C77" s="70" t="s">
         <v>16</v>
       </c>
@@ -13866,8 +13865,8 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="114"/>
-      <c r="B78" s="103"/>
+      <c r="A78" s="115"/>
+      <c r="B78" s="110"/>
       <c r="C78" s="70" t="s">
         <v>17</v>
       </c>
@@ -13891,8 +13890,8 @@
       <c r="R78" s="36"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="114"/>
-      <c r="B79" s="104"/>
+      <c r="A79" s="115"/>
+      <c r="B79" s="111"/>
       <c r="C79" s="46" t="s">
         <v>18</v>
       </c>
@@ -13916,8 +13915,8 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="114"/>
-      <c r="B80" s="97"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="60" t="s">
         <v>58</v>
       </c>
@@ -13983,8 +13982,8 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="114"/>
-      <c r="B81" s="98"/>
+      <c r="A81" s="115"/>
+      <c r="B81" s="97"/>
       <c r="C81" s="70" t="s">
         <v>16</v>
       </c>
@@ -14036,8 +14035,8 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="114"/>
-      <c r="B82" s="98"/>
+      <c r="A82" s="115"/>
+      <c r="B82" s="97"/>
       <c r="C82" s="70" t="s">
         <v>17</v>
       </c>
@@ -14089,8 +14088,8 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="114"/>
-      <c r="B83" s="99"/>
+      <c r="A83" s="115"/>
+      <c r="B83" s="98"/>
       <c r="C83" s="46" t="s">
         <v>18</v>
       </c>
@@ -14114,8 +14113,8 @@
       <c r="R83" s="38"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="114"/>
-      <c r="B84" s="102"/>
+      <c r="A84" s="115"/>
+      <c r="B84" s="109"/>
       <c r="C84" s="60" t="s">
         <v>53</v>
       </c>
@@ -14181,8 +14180,8 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="114"/>
-      <c r="B85" s="103"/>
+      <c r="A85" s="115"/>
+      <c r="B85" s="110"/>
       <c r="C85" s="70" t="s">
         <v>16</v>
       </c>
@@ -14234,8 +14233,8 @@
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="114"/>
-      <c r="B86" s="103"/>
+      <c r="A86" s="115"/>
+      <c r="B86" s="110"/>
       <c r="C86" s="70" t="s">
         <v>17</v>
       </c>
@@ -14287,8 +14286,8 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="114"/>
-      <c r="B87" s="104"/>
+      <c r="A87" s="115"/>
+      <c r="B87" s="111"/>
       <c r="C87" s="46" t="s">
         <v>18</v>
       </c>
@@ -14312,8 +14311,8 @@
       <c r="R87" s="39"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="114"/>
-      <c r="B88" s="102"/>
+      <c r="A88" s="115"/>
+      <c r="B88" s="109"/>
       <c r="C88" s="60" t="s">
         <v>60</v>
       </c>
@@ -14379,8 +14378,8 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="114"/>
-      <c r="B89" s="103"/>
+      <c r="A89" s="115"/>
+      <c r="B89" s="110"/>
       <c r="C89" s="70" t="s">
         <v>16</v>
       </c>
@@ -14404,8 +14403,8 @@
       <c r="R89" s="37"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="114"/>
-      <c r="B90" s="103"/>
+      <c r="A90" s="115"/>
+      <c r="B90" s="110"/>
       <c r="C90" s="70" t="s">
         <v>17</v>
       </c>
@@ -14457,8 +14456,8 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="114"/>
-      <c r="B91" s="104"/>
+      <c r="A91" s="115"/>
+      <c r="B91" s="111"/>
       <c r="C91" s="46" t="s">
         <v>18</v>
       </c>
@@ -14482,8 +14481,8 @@
       <c r="R91" s="39"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="114"/>
-      <c r="B92" s="102"/>
+      <c r="A92" s="115"/>
+      <c r="B92" s="109"/>
       <c r="C92" s="60" t="s">
         <v>59</v>
       </c>
@@ -14549,8 +14548,8 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="114"/>
-      <c r="B93" s="103"/>
+      <c r="A93" s="115"/>
+      <c r="B93" s="110"/>
       <c r="C93" s="70" t="s">
         <v>16</v>
       </c>
@@ -14602,8 +14601,8 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="114"/>
-      <c r="B94" s="103"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="110"/>
       <c r="C94" s="70" t="s">
         <v>17</v>
       </c>
@@ -14655,8 +14654,8 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="114"/>
-      <c r="B95" s="104"/>
+      <c r="A95" s="115"/>
+      <c r="B95" s="111"/>
       <c r="C95" s="46" t="s">
         <v>18</v>
       </c>
@@ -14680,10 +14679,10 @@
       <c r="R95" s="39"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B96" s="105" t="s">
+      <c r="B96" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="105"/>
+      <c r="C96" s="112"/>
       <c r="D96" s="2">
         <f>SUM(D52,D56,D60,D64,D68,D72,D76,D80,D84,D88,D92)</f>
         <v>44</v>
@@ -14809,18 +14808,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="A72:A95"/>
-    <mergeCell ref="A52:A71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="A6:A25"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -14837,6 +14824,18 @@
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A72:A95"/>
+    <mergeCell ref="A52:A71"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="A6:A25"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14870,24 +14869,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="89" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -15012,10 +15011,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="116" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -15087,8 +15086,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="116"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="70" t="s">
         <v>16</v>
       </c>
@@ -15117,8 +15116,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="116"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>17</v>
       </c>
@@ -15147,8 +15146,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -15173,8 +15172,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="118">
+      <c r="A10" s="84"/>
+      <c r="B10" s="119">
         <v>26</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -15246,8 +15245,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="119"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="70" t="s">
         <v>16</v>
       </c>
@@ -15276,8 +15275,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="119"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="70" t="s">
         <v>17</v>
       </c>
@@ -15306,8 +15305,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="120"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -15332,8 +15331,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="118">
+      <c r="A14" s="84"/>
+      <c r="B14" s="119">
         <v>26</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -15405,8 +15404,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="119"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="70" t="s">
         <v>16</v>
       </c>
@@ -15437,8 +15436,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="119"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="70" t="s">
         <v>17</v>
       </c>
@@ -15463,8 +15462,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="120"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
@@ -15497,8 +15496,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="118" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="119" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -15570,8 +15569,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="119"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="70" t="s">
         <v>16</v>
       </c>
@@ -15596,8 +15595,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="119"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="70" t="s">
         <v>17</v>
       </c>
@@ -15628,8 +15627,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="120"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
@@ -15654,10 +15653,10 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="115"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="10" t="s">
         <v>67</v>
       </c>
@@ -15727,8 +15726,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="116"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="70" t="s">
         <v>16</v>
       </c>
@@ -15757,8 +15756,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="116"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="70" t="s">
         <v>17</v>
       </c>
@@ -15787,8 +15786,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="117"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="118"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -15819,7 +15818,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="72"/>
       <c r="C26" s="60" t="s">
         <v>68</v>
@@ -15890,7 +15889,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="73"/>
       <c r="C27" s="70" t="s">
         <v>16</v>
@@ -15922,7 +15921,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="73"/>
       <c r="C28" s="70" t="s">
         <v>17</v>
@@ -15954,7 +15953,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="74"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
@@ -15987,10 +15986,10 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="71"/>
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="106"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="2">
         <f>SUM(D6,D10,D14,D18,D22,D26)</f>
         <v>66</v>
@@ -16058,10 +16057,10 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="116" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -16129,8 +16128,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="116"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="76" t="s">
         <v>16</v>
       </c>
@@ -16181,8 +16180,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="116"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="76" t="s">
         <v>17</v>
       </c>
@@ -16233,8 +16232,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="117"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="46" t="s">
         <v>18</v>
       </c>
@@ -16255,8 +16254,8 @@
       <c r="R35" s="31"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="118">
+      <c r="A36" s="84"/>
+      <c r="B36" s="119">
         <v>26</v>
       </c>
       <c r="C36" s="47" t="s">
@@ -16324,8 +16323,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="119"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="76" t="s">
         <v>16</v>
       </c>
@@ -16383,8 +16382,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="119"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="76" t="s">
         <v>17</v>
       </c>
@@ -16449,8 +16448,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="120"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="121"/>
       <c r="C39" s="46" t="s">
         <v>18</v>
       </c>
@@ -16471,8 +16470,8 @@
       <c r="R39" s="39"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="118">
+      <c r="A40" s="84"/>
+      <c r="B40" s="119">
         <v>26</v>
       </c>
       <c r="C40" s="60" t="s">
@@ -16540,8 +16539,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="119"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="120"/>
       <c r="C41" s="76" t="s">
         <v>16</v>
       </c>
@@ -16599,8 +16598,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="119"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="120"/>
       <c r="C42" s="76" t="s">
         <v>17</v>
       </c>
@@ -16623,8 +16622,8 @@
       <c r="R42" s="37"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="120"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="121"/>
       <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
@@ -16647,8 +16646,8 @@
       <c r="R43" s="39"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="118" t="s">
+      <c r="A44" s="84"/>
+      <c r="B44" s="119" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -16716,8 +16715,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
-      <c r="B45" s="119"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="120"/>
       <c r="C45" s="76" t="s">
         <v>16</v>
       </c>
@@ -16738,8 +16737,8 @@
       <c r="R45" s="31"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="119"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="120"/>
       <c r="C46" s="76" t="s">
         <v>17</v>
       </c>
@@ -16790,8 +16789,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
-      <c r="B47" s="120"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="121"/>
       <c r="C47" s="46" t="s">
         <v>18</v>
       </c>
@@ -16812,10 +16811,10 @@
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="115"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="10" t="s">
         <v>67</v>
       </c>
@@ -16881,8 +16880,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
-      <c r="B49" s="116"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="76" t="s">
         <v>16</v>
       </c>
@@ -16933,8 +16932,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
-      <c r="B50" s="116"/>
+      <c r="A50" s="84"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="76" t="s">
         <v>17</v>
       </c>
@@ -16985,8 +16984,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
-      <c r="B51" s="117"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="118"/>
       <c r="C51" s="46" t="s">
         <v>18</v>
       </c>
@@ -17009,7 +17008,7 @@
       <c r="R51" s="39"/>
     </row>
     <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
+      <c r="A52" s="84"/>
       <c r="B52" s="72"/>
       <c r="C52" s="60" t="s">
         <v>68</v>
@@ -17076,7 +17075,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
+      <c r="A53" s="84"/>
       <c r="B53" s="73"/>
       <c r="C53" s="76" t="s">
         <v>16</v>
@@ -17128,7 +17127,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="73"/>
       <c r="C54" s="76" t="s">
         <v>17</v>
@@ -17180,7 +17179,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="84"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="74"/>
       <c r="C55" s="46" t="s">
         <v>18</v>
@@ -17206,10 +17205,10 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="105" t="s">
+      <c r="B56" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="105"/>
+      <c r="C56" s="112"/>
       <c r="D56" s="2">
         <f>SUM(D32, D36, D40, D44, D48,D52)</f>
         <v>66</v>
@@ -17337,13 +17336,6 @@
     <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
     <mergeCell ref="A32:A47"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="A22:A29"/>
@@ -17355,6 +17347,13 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17366,8 +17365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17389,24 +17388,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="89" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -17531,10 +17530,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="116" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -17606,8 +17605,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="116"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="77" t="s">
         <v>16</v>
       </c>
@@ -17634,8 +17633,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="116"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="77" t="s">
         <v>17</v>
       </c>
@@ -17660,8 +17659,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
@@ -17686,8 +17685,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
-      <c r="B10" s="115" t="s">
+      <c r="A10" s="123"/>
+      <c r="B10" s="116" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -17759,8 +17758,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="77" t="s">
         <v>16</v>
       </c>
@@ -17787,8 +17786,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="77" t="s">
         <v>17</v>
       </c>
@@ -17817,8 +17816,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
@@ -17843,8 +17842,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="122"/>
-      <c r="B14" s="118" t="s">
+      <c r="A14" s="123"/>
+      <c r="B14" s="119" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="47" t="s">
@@ -17852,7 +17851,7 @@
       </c>
       <c r="D14" s="10">
         <f>SUM(D15:D17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="16">
         <f t="shared" ref="E14:R14" si="4">SUM(E15:E17)</f>
@@ -17888,7 +17887,7 @@
       </c>
       <c r="M14" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="16">
         <f t="shared" si="4"/>
@@ -17912,12 +17911,12 @@
       </c>
       <c r="S14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
-      <c r="B15" s="119"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="77" t="s">
         <v>16</v>
       </c>
@@ -17942,8 +17941,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
-      <c r="B16" s="119"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="77" t="s">
         <v>17</v>
       </c>
@@ -17968,13 +17967,13 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
-      <c r="B17" s="120"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -17984,7 +17983,9 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
+      <c r="M17" s="29">
+        <v>2</v>
+      </c>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
@@ -17992,12 +17993,12 @@
       <c r="R17" s="29"/>
       <c r="S17" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
-      <c r="B18" s="115">
+      <c r="A18" s="123"/>
+      <c r="B18" s="116">
         <v>39</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -18005,7 +18006,7 @@
       </c>
       <c r="D18" s="15">
         <f>SUM(D19:D21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" ref="E18:R18" si="5">SUM(E19:E21)</f>
@@ -18041,7 +18042,7 @@
       </c>
       <c r="M18" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="16">
         <f t="shared" si="5"/>
@@ -18065,12 +18066,12 @@
       </c>
       <c r="S18" s="14">
         <f>SUM(E18:R18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="116"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="77" t="s">
         <v>16</v>
       </c>
@@ -18095,8 +18096,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="122"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="77" t="s">
         <v>17</v>
       </c>
@@ -18121,13 +18122,13 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -18137,7 +18138,9 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
+      <c r="M21" s="29">
+        <v>2</v>
+      </c>
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
@@ -18145,12 +18148,12 @@
       <c r="R21" s="29"/>
       <c r="S21" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="122"/>
-      <c r="B22" s="115" t="s">
+      <c r="A22" s="123"/>
+      <c r="B22" s="116" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -18222,8 +18225,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
-      <c r="B23" s="116"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="77" t="s">
         <v>16</v>
       </c>
@@ -18250,8 +18253,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
-      <c r="B24" s="116"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="77" t="s">
         <v>17</v>
       </c>
@@ -18280,8 +18283,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="122"/>
-      <c r="B25" s="117"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="118"/>
       <c r="C25" s="46" t="s">
         <v>18</v>
       </c>
@@ -18306,8 +18309,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="122"/>
-      <c r="B26" s="118" t="s">
+      <c r="A26" s="123"/>
+      <c r="B26" s="119" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="47" t="s">
@@ -18379,8 +18382,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="122"/>
-      <c r="B27" s="119"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="77" t="s">
         <v>16</v>
       </c>
@@ -18405,8 +18408,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="122"/>
-      <c r="B28" s="119"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="77" t="s">
         <v>17</v>
       </c>
@@ -18435,8 +18438,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="122"/>
-      <c r="B29" s="120"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
@@ -18461,8 +18464,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="122"/>
-      <c r="B30" s="118">
+      <c r="A30" s="123"/>
+      <c r="B30" s="119">
         <v>40</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -18470,7 +18473,7 @@
       </c>
       <c r="D30" s="10">
         <f>SUM(D31:D33)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E30" s="16">
         <f t="shared" ref="E30:R30" si="10">SUM(E31:E33)</f>
@@ -18502,7 +18505,7 @@
       </c>
       <c r="L30" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M30" s="16">
         <f t="shared" si="10"/>
@@ -18530,12 +18533,12 @@
       </c>
       <c r="S30" s="14">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="122"/>
-      <c r="B31" s="119"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="77" t="s">
         <v>16</v>
       </c>
@@ -18560,8 +18563,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="122"/>
-      <c r="B32" s="119"/>
+      <c r="A32" s="123"/>
+      <c r="B32" s="120"/>
       <c r="C32" s="77" t="s">
         <v>17</v>
       </c>
@@ -18590,12 +18593,14 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="122"/>
-      <c r="B33" s="120"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="121"/>
       <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="26">
+        <v>6</v>
+      </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="29"/>
@@ -18603,7 +18608,9 @@
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="L33" s="29">
+        <v>6</v>
+      </c>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
       <c r="O33" s="29"/>
@@ -18612,12 +18619,12 @@
       <c r="R33" s="29"/>
       <c r="S33" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="122"/>
-      <c r="B34" s="118">
+      <c r="A34" s="123"/>
+      <c r="B34" s="119">
         <v>41</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -18689,8 +18696,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="122"/>
-      <c r="B35" s="119"/>
+      <c r="A35" s="123"/>
+      <c r="B35" s="120"/>
       <c r="C35" s="77" t="s">
         <v>16</v>
       </c>
@@ -18717,8 +18724,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="122"/>
-      <c r="B36" s="119"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="120"/>
       <c r="C36" s="77" t="s">
         <v>17</v>
       </c>
@@ -18743,8 +18750,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="122"/>
-      <c r="B37" s="120"/>
+      <c r="A37" s="123"/>
+      <c r="B37" s="121"/>
       <c r="C37" s="46" t="s">
         <v>18</v>
       </c>
@@ -18770,73 +18777,73 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="75"/>
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="106"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="2">
-        <f>SUM(D6,D10,D14,D18, D22, D26, D30, D34)</f>
-        <v>39</v>
+        <f t="shared" ref="D38:S38" si="12">SUM(D6,D10,D14,D18, D22, D26, D30, D34)</f>
+        <v>47</v>
       </c>
       <c r="E38" s="2">
-        <f>SUM(E6,E10,E14,E18, E22, E26, E30, E34)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <f>SUM(F6,F10,F14,F18, F22, F26, F30, F34)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="G38" s="2">
-        <f>SUM(G6,G10,G14,G18, G22, G26, G30, G34)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H38" s="2">
-        <f>SUM(H6,H10,H14,H18, H22, H26, H30, H34)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f>SUM(I6,I10,I14,I18, I22, I26, I30, I34)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J38" s="2">
-        <f>SUM(J6,J10,J14,J18, J22, J26, J30, J34)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K38" s="2">
-        <f>SUM(K6,K10,K14,K18, K22, K26, K30, K34)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="L38" s="2">
-        <f>SUM(L6,L10,L14,L18, L22, L26, L30, L34)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="M38" s="2">
-        <f>SUM(M6,M10,M14,M18, M22, M26, M30, M34)</f>
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="N38" s="2">
-        <f>SUM(N6,N10,N14,N18, N22, N26, N30, N34)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f>SUM(O6,O10,O14,O18, O22, O26, O30, O34)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P38" s="2">
-        <f>SUM(P6,P10,P14,P18, P22, P26, P30, P34)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q38" s="2">
-        <f>SUM(Q6,Q10,Q14,Q18, Q22, Q26, Q30, Q34)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f>SUM(R6,R10,R14,R18, R22, R26, R30, R34)</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="123">
-        <f>SUM(S6,S10,S14,S18, S22, S26, S30, S34)</f>
-        <v>18</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="79">
+        <f t="shared" si="12"/>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -18894,11 +18901,6 @@
     <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A6:A37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="L2:R2"/>
@@ -18906,6 +18908,11 @@
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A6:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-30" windowWidth="14265" windowHeight="13020" activeTab="6"/>
+    <workbookView xWindow="15" yWindow="-30" windowWidth="14265" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Product Burndown" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -28,7 +28,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Start</t>
-  </si>
-  <si>
-    <t>Added Requirements</t>
   </si>
   <si>
     <t>Planned Effort</t>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>Database and interaction classes</t>
+  </si>
+  <si>
+    <t>Added Effort</t>
   </si>
 </sst>
 </file>
@@ -845,6 +845,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,11 +866,20 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -883,21 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1115,16 +1115,19 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.5</c:v>
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,11 +1144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="268191096"/>
-        <c:axId val="268185216"/>
+        <c:axId val="110344064"/>
+        <c:axId val="110350336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="268191096"/>
+        <c:axId val="110344064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,7 +1177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268185216"/>
+        <c:crossAx val="110350336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1182,7 +1185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268185216"/>
+        <c:axId val="110350336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,7 +1215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268191096"/>
+        <c:crossAx val="110344064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1470,12 +1473,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="268187568"/>
-        <c:axId val="268191880"/>
+        <c:axId val="121832960"/>
+        <c:axId val="121834496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="268187568"/>
+        <c:axId val="121832960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,14 +1489,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268191880"/>
+        <c:crossAx val="121834496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="268191880"/>
+        <c:axId val="121834496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268187568"/>
+        <c:crossAx val="121832960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1724,12 +1728,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="268187176"/>
-        <c:axId val="268186784"/>
+        <c:axId val="121868288"/>
+        <c:axId val="121869824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="268187176"/>
+        <c:axId val="121868288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,14 +1744,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268186784"/>
+        <c:crossAx val="121869824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="268186784"/>
+        <c:axId val="121869824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268187176"/>
+        <c:crossAx val="121868288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2038,12 +2043,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="268189136"/>
-        <c:axId val="268186000"/>
+        <c:axId val="124324096"/>
+        <c:axId val="124325888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="268189136"/>
+        <c:axId val="124324096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,14 +2059,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268186000"/>
+        <c:crossAx val="124325888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="268186000"/>
+        <c:axId val="124325888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,7 +2077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268189136"/>
+        <c:crossAx val="124324096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2356,12 +2362,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="268186392"/>
-        <c:axId val="268187960"/>
+        <c:axId val="124356864"/>
+        <c:axId val="124370944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="268186392"/>
+        <c:axId val="124356864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2371,7 +2378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268187960"/>
+        <c:crossAx val="124370944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2379,7 +2386,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268187960"/>
+        <c:axId val="124370944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2390,7 +2397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268186392"/>
+        <c:crossAx val="124356864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2671,12 +2678,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="267792184"/>
-        <c:axId val="267792576"/>
+        <c:axId val="124465920"/>
+        <c:axId val="124467456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="267792184"/>
+        <c:axId val="124465920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,14 +2694,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267792576"/>
+        <c:crossAx val="124467456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="267792576"/>
+        <c:axId val="124467456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,7 +2712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267792184"/>
+        <c:crossAx val="124465920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2901,12 +2909,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334335624"/>
-        <c:axId val="334338368"/>
+        <c:axId val="124549760"/>
+        <c:axId val="124551552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334335624"/>
+        <c:axId val="124549760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,14 +2925,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334338368"/>
+        <c:crossAx val="124551552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334338368"/>
+        <c:axId val="124551552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +2943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334335624"/>
+        <c:crossAx val="124549760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3253,7 +3262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3288,7 +3297,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3499,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3537,13 +3546,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
@@ -3600,8 +3609,8 @@
         <v>5</v>
       </c>
       <c r="H4" s="4">
-        <f>H3-E4+G4</f>
-        <v>129</v>
+        <f t="shared" ref="H4:H7" si="0">H3-E4+G3</f>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3612,12 +3621,12 @@
         <v>24</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C9" si="0" xml:space="preserve"> C4 - B5</f>
+        <f t="shared" ref="C5:C9" si="1" xml:space="preserve"> C4 - B5</f>
         <v>95</v>
       </c>
       <c r="D5" s="4">
-        <f>H4-E5</f>
-        <v>115</v>
+        <f t="shared" ref="D5:D8" si="2">H4-E5</f>
+        <v>110</v>
       </c>
       <c r="E5" s="4">
         <v>14</v>
@@ -3629,8 +3638,8 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H6" si="1">H4-E5+G5</f>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3641,12 +3650,12 @@
         <v>24</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="D6" s="4">
-        <f>H5-E6</f>
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="E6" s="4">
         <v>38</v>
@@ -3658,8 +3667,8 @@
         <v>8</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3670,12 +3679,12 @@
         <v>24</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="D7" s="4">
-        <f>H6-E7</f>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="E7" s="4">
         <v>44</v>
@@ -3687,31 +3696,38 @@
         <v>22.5</v>
       </c>
       <c r="H7" s="4">
-        <f>H6-E7+G7</f>
-        <v>68.5</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4">
         <v>24</v>
       </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="D8" s="4">
-        <f>H7-E8</f>
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4">
+        <v>58.75</v>
+      </c>
+      <c r="G8" s="4">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4">
+        <f>H7-E8+G7</f>
         <v>29.5</v>
       </c>
-      <c r="E8" s="2">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3721,7 +3737,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9" s="2"/>
@@ -3857,7 +3873,7 @@
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E2" s="90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="91"/>
       <c r="G2" s="91"/>
@@ -3865,7 +3881,7 @@
       <c r="I2" s="91"/>
       <c r="J2" s="92"/>
       <c r="K2" s="81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" s="81"/>
       <c r="M2" s="81"/>
@@ -3875,7 +3891,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="40">
@@ -3917,7 +3933,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="42">
         <v>0</v>
@@ -3961,13 +3977,13 @@
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
@@ -3982,18 +3998,18 @@
       <c r="O5" s="44"/>
       <c r="P5" s="44"/>
       <c r="Q5" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="93">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="15">
         <f>SUM(D7:D9)</f>
@@ -4056,7 +4072,7 @@
       <c r="A7" s="84"/>
       <c r="B7" s="94"/>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="24">
         <v>2</v>
@@ -4086,7 +4102,7 @@
       <c r="A8" s="84"/>
       <c r="B8" s="94"/>
       <c r="C8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="24">
         <v>2</v>
@@ -4114,7 +4130,7 @@
       <c r="A9" s="84"/>
       <c r="B9" s="94"/>
       <c r="C9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="26">
         <v>2</v>
@@ -4144,7 +4160,7 @@
       <c r="A10" s="84"/>
       <c r="B10" s="94"/>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10">
         <f>SUM(D11:D13)</f>
@@ -4207,7 +4223,7 @@
       <c r="A11" s="84"/>
       <c r="B11" s="94"/>
       <c r="C11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="17"/>
@@ -4231,7 +4247,7 @@
       <c r="A12" s="84"/>
       <c r="B12" s="94"/>
       <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="24">
         <v>3</v>
@@ -4261,7 +4277,7 @@
       <c r="A13" s="84"/>
       <c r="B13" s="94"/>
       <c r="C13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="18"/>
@@ -4285,7 +4301,7 @@
       <c r="A14" s="84"/>
       <c r="B14" s="94"/>
       <c r="C14" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="10">
         <f>SUM(D15:D17)</f>
@@ -4348,7 +4364,7 @@
       <c r="A15" s="84"/>
       <c r="B15" s="94"/>
       <c r="C15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="17"/>
@@ -4372,7 +4388,7 @@
       <c r="A16" s="84"/>
       <c r="B16" s="94"/>
       <c r="C16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="17"/>
@@ -4396,7 +4412,7 @@
       <c r="A17" s="84"/>
       <c r="B17" s="95"/>
       <c r="C17" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="26">
         <v>1</v>
@@ -4426,7 +4442,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="10">
         <f>SUM(D19:D21)</f>
@@ -4489,7 +4505,7 @@
       <c r="A19" s="84"/>
       <c r="B19" s="94"/>
       <c r="C19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="24">
         <v>4</v>
@@ -4519,7 +4535,7 @@
       <c r="A20" s="84"/>
       <c r="B20" s="94"/>
       <c r="C20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="17"/>
@@ -4543,7 +4559,7 @@
       <c r="A21" s="85"/>
       <c r="B21" s="95"/>
       <c r="C21" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="18"/>
@@ -4565,11 +4581,11 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="86"/>
       <c r="C22" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="10">
         <f>SUM(D23:D25)</f>
@@ -4632,7 +4648,7 @@
       <c r="A23" s="84"/>
       <c r="B23" s="87"/>
       <c r="C23" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="17"/>
@@ -4656,7 +4672,7 @@
       <c r="A24" s="84"/>
       <c r="B24" s="87"/>
       <c r="C24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="25">
         <v>5</v>
@@ -4684,7 +4700,7 @@
       <c r="A25" s="85"/>
       <c r="B25" s="88"/>
       <c r="C25" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="18"/>
@@ -4706,7 +4722,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="89"/>
       <c r="D26" s="2">
@@ -4774,13 +4790,13 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="93">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="15">
         <f>SUM(D29:D31)</f>
@@ -4840,7 +4856,7 @@
       <c r="A29" s="84"/>
       <c r="B29" s="94"/>
       <c r="C29" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="24">
         <v>2</v>
@@ -4887,7 +4903,7 @@
       <c r="A30" s="84"/>
       <c r="B30" s="94"/>
       <c r="C30" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="24">
         <v>2</v>
@@ -4934,7 +4950,7 @@
       <c r="A31" s="84"/>
       <c r="B31" s="94"/>
       <c r="C31" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="26">
         <v>2</v>
@@ -4981,7 +4997,7 @@
       <c r="A32" s="84"/>
       <c r="B32" s="94"/>
       <c r="C32" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="10">
         <f>SUM(D33:D35)</f>
@@ -5041,7 +5057,7 @@
       <c r="A33" s="84"/>
       <c r="B33" s="94"/>
       <c r="C33" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="31"/>
@@ -5062,7 +5078,7 @@
       <c r="A34" s="84"/>
       <c r="B34" s="94"/>
       <c r="C34" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="24">
         <v>3</v>
@@ -5109,7 +5125,7 @@
       <c r="A35" s="84"/>
       <c r="B35" s="94"/>
       <c r="C35" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="33"/>
@@ -5130,7 +5146,7 @@
       <c r="A36" s="84"/>
       <c r="B36" s="94"/>
       <c r="C36" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="10">
         <f>SUM(D37:D39)</f>
@@ -5190,7 +5206,7 @@
       <c r="A37" s="84"/>
       <c r="B37" s="94"/>
       <c r="C37" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="31"/>
@@ -5211,7 +5227,7 @@
       <c r="A38" s="84"/>
       <c r="B38" s="94"/>
       <c r="C38" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="31"/>
@@ -5232,7 +5248,7 @@
       <c r="A39" s="84"/>
       <c r="B39" s="95"/>
       <c r="C39" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="26">
         <v>1</v>
@@ -5281,7 +5297,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="10">
         <f>SUM(D41:D43)</f>
@@ -5341,7 +5357,7 @@
       <c r="A41" s="84"/>
       <c r="B41" s="94"/>
       <c r="C41" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="24">
         <v>4</v>
@@ -5388,7 +5404,7 @@
       <c r="A42" s="84"/>
       <c r="B42" s="94"/>
       <c r="C42" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="31"/>
@@ -5409,7 +5425,7 @@
       <c r="A43" s="85"/>
       <c r="B43" s="95"/>
       <c r="C43" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="33"/>
@@ -5428,11 +5444,11 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" s="86"/>
       <c r="C44" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="10">
         <f>SUM(D45:D47)</f>
@@ -5492,7 +5508,7 @@
       <c r="A45" s="84"/>
       <c r="B45" s="87"/>
       <c r="C45" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="31"/>
@@ -5513,7 +5529,7 @@
       <c r="A46" s="84"/>
       <c r="B46" s="87"/>
       <c r="C46" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="19">
         <v>5</v>
@@ -5560,7 +5576,7 @@
       <c r="A47" s="85"/>
       <c r="B47" s="88"/>
       <c r="C47" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="33"/>
@@ -5579,7 +5595,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C48" s="89"/>
       <c r="D48" s="2">
@@ -5743,14 +5759,14 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E2" s="90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="91"/>
       <c r="G2" s="91"/>
       <c r="H2" s="91"/>
       <c r="I2" s="91"/>
       <c r="J2" s="90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="91"/>
       <c r="L2" s="91"/>
@@ -5758,7 +5774,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="40">
         <v>41975</v>
@@ -5790,7 +5806,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="43">
         <v>1</v>
@@ -5822,13 +5838,13 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
@@ -5840,18 +5856,18 @@
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="96">
+        <v>11</v>
+      </c>
+      <c r="B6" s="98">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="15">
         <f>SUM(D7:D9)</f>
@@ -5900,9 +5916,9 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="17"/>
@@ -5921,9 +5937,9 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="24">
         <v>2</v>
@@ -5946,9 +5962,9 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
-      <c r="B9" s="98"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="18"/>
@@ -5967,11 +5983,11 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
-      <c r="B10" s="99" t="s">
-        <v>35</v>
+      <c r="B10" s="101" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="10">
         <f>SUM(D11:D13)</f>
@@ -6020,9 +6036,9 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="84"/>
-      <c r="B11" s="100"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
@@ -6045,9 +6061,9 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
-      <c r="B12" s="100"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="17"/>
@@ -6066,9 +6082,9 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
-      <c r="B13" s="100"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="18"/>
@@ -6087,9 +6103,9 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="84"/>
-      <c r="B14" s="100"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10">
         <f>SUM(D15:D17)</f>
@@ -6138,9 +6154,9 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="84"/>
-      <c r="B15" s="100"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="24">
         <v>3</v>
@@ -6165,9 +6181,9 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="84"/>
-      <c r="B16" s="100"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="24">
         <v>3</v>
@@ -6190,9 +6206,9 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="84"/>
-      <c r="B17" s="100"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="17"/>
@@ -6211,11 +6227,11 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="93"/>
       <c r="C18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="10">
         <f>SUM(D19:D21)</f>
@@ -6266,7 +6282,7 @@
       <c r="A19" s="84"/>
       <c r="B19" s="94"/>
       <c r="C19" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="24">
         <v>2</v>
@@ -6291,7 +6307,7 @@
       <c r="A20" s="84"/>
       <c r="B20" s="94"/>
       <c r="C20" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="24">
         <v>2</v>
@@ -6316,7 +6332,7 @@
       <c r="A21" s="84"/>
       <c r="B21" s="94"/>
       <c r="C21" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="18"/>
@@ -6335,9 +6351,9 @@
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84"/>
-      <c r="B22" s="101"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="49">
         <f>SUM(D23:D25)</f>
@@ -6386,9 +6402,9 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="84"/>
-      <c r="B23" s="101"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="17"/>
@@ -6407,9 +6423,9 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="84"/>
-      <c r="B24" s="101"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="25">
         <v>1</v>
@@ -6432,9 +6448,9 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="85"/>
-      <c r="B25" s="102"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="18"/>
@@ -6453,7 +6469,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="89"/>
       <c r="D26" s="2">
@@ -6509,13 +6525,13 @@
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="96">
+        <v>11</v>
+      </c>
+      <c r="B28" s="98">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="15">
         <f>D6</f>
@@ -6561,9 +6577,9 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="84"/>
-      <c r="B29" s="97"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="57">
         <f t="shared" ref="D29:D47" si="8">D7</f>
@@ -6582,9 +6598,9 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="84"/>
-      <c r="B30" s="97"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="57">
         <f>D8</f>
@@ -6621,9 +6637,9 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="84"/>
-      <c r="B31" s="98"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="58">
         <f t="shared" si="8"/>
@@ -6642,11 +6658,11 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="84"/>
-      <c r="B32" s="99" t="s">
-        <v>35</v>
+      <c r="B32" s="101" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="56">
         <f t="shared" si="8"/>
@@ -6692,9 +6708,9 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="84"/>
-      <c r="B33" s="100"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="57">
         <f t="shared" si="8"/>
@@ -6731,9 +6747,9 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="84"/>
-      <c r="B34" s="100"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="57">
         <f t="shared" si="8"/>
@@ -6752,9 +6768,9 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="84"/>
-      <c r="B35" s="100"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="58">
         <f t="shared" si="8"/>
@@ -6791,9 +6807,9 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
-      <c r="B36" s="100"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="56">
         <f t="shared" si="8"/>
@@ -6839,9 +6855,9 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="84"/>
-      <c r="B37" s="100"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="57">
         <f t="shared" si="8"/>
@@ -6878,9 +6894,9 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="84"/>
-      <c r="B38" s="100"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="57">
         <f t="shared" si="8"/>
@@ -6917,9 +6933,9 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="84"/>
-      <c r="B39" s="100"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="58">
         <f t="shared" si="8"/>
@@ -6938,11 +6954,11 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="93"/>
       <c r="C40" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="56">
         <f t="shared" si="8"/>
@@ -6990,7 +7006,7 @@
       <c r="A41" s="84"/>
       <c r="B41" s="94"/>
       <c r="C41" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="57">
         <f t="shared" si="8"/>
@@ -7029,7 +7045,7 @@
       <c r="A42" s="84"/>
       <c r="B42" s="94"/>
       <c r="C42" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="57">
         <f t="shared" si="8"/>
@@ -7068,7 +7084,7 @@
       <c r="A43" s="84"/>
       <c r="B43" s="94"/>
       <c r="C43" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="58">
         <f t="shared" si="8"/>
@@ -7087,9 +7103,9 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="84"/>
-      <c r="B44" s="101"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="56">
         <f t="shared" si="8"/>
@@ -7135,9 +7151,9 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="84"/>
-      <c r="B45" s="101"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="57">
         <f t="shared" si="8"/>
@@ -7156,9 +7172,9 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="84"/>
-      <c r="B46" s="101"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="57">
         <f t="shared" si="8"/>
@@ -7195,9 +7211,9 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="85"/>
-      <c r="B47" s="102"/>
+      <c r="B47" s="97"/>
       <c r="C47" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="58">
         <f t="shared" si="8"/>
@@ -7234,7 +7250,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C48" s="89"/>
       <c r="D48" s="2">
@@ -7323,6 +7339,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
@@ -7331,14 +7355,6 @@
     <mergeCell ref="A6:A17"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7376,7 +7392,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="91"/>
       <c r="G2" s="91"/>
@@ -7385,7 +7401,7 @@
       <c r="J2" s="91"/>
       <c r="K2" s="91"/>
       <c r="L2" s="90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="91"/>
       <c r="N2" s="91"/>
@@ -7396,7 +7412,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="40">
         <v>42022</v>
@@ -7443,7 +7459,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="43">
         <v>1</v>
@@ -7490,13 +7506,13 @@
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
@@ -7513,18 +7529,18 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="61"/>
       <c r="S5" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="98">
         <v>12</v>
       </c>
-      <c r="B6" s="96">
-        <v>12</v>
-      </c>
       <c r="C6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="15">
         <f>SUM(D7:D9)</f>
@@ -7593,9 +7609,9 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="17"/>
@@ -7619,9 +7635,9 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="62"/>
@@ -7645,9 +7661,9 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
-      <c r="B9" s="98"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="26">
         <v>1.5</v>
@@ -7675,11 +7691,11 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
-      <c r="B10" s="106">
+      <c r="B10" s="111">
         <v>15</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="10">
         <f>SUM(D11:D13)</f>
@@ -7748,9 +7764,9 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="84"/>
-      <c r="B11" s="107"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="17"/>
@@ -7774,9 +7790,9 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
-      <c r="B12" s="107"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="17"/>
@@ -7800,9 +7816,9 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
-      <c r="B13" s="108"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="26">
         <v>1.5</v>
@@ -7830,11 +7846,11 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="84"/>
-      <c r="B14" s="106">
+      <c r="B14" s="111">
         <v>21</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="10">
         <f>SUM(D15:D17)</f>
@@ -7903,9 +7919,9 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="84"/>
-      <c r="B15" s="107"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="24">
         <v>8</v>
@@ -7937,9 +7953,9 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="84"/>
-      <c r="B16" s="107"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="17"/>
@@ -7963,9 +7979,9 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="84"/>
-      <c r="B17" s="108"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="18"/>
@@ -7989,11 +8005,11 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="84"/>
-      <c r="B18" s="106">
+      <c r="B18" s="111">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="10">
         <f>SUM(D19:D21)</f>
@@ -8062,9 +8078,9 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
-      <c r="B19" s="107"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="24">
         <v>3</v>
@@ -8092,9 +8108,9 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
-      <c r="B20" s="107"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="17"/>
@@ -8118,9 +8134,9 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="84"/>
-      <c r="B21" s="108"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="18"/>
@@ -8144,11 +8160,11 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84"/>
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="60" t="s">
         <v>42</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>43</v>
       </c>
       <c r="D22" s="10">
         <f>SUM(D23:D25)</f>
@@ -8217,9 +8233,9 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="84"/>
-      <c r="B23" s="110"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="17"/>
@@ -8243,9 +8259,9 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="84"/>
-      <c r="B24" s="110"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="24">
         <v>8</v>
@@ -8275,9 +8291,9 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="84"/>
-      <c r="B25" s="111"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="18"/>
@@ -8301,11 +8317,11 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="84"/>
-      <c r="B26" s="109" t="s">
-        <v>45</v>
+      <c r="B26" s="103" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="10">
         <f>SUM(D27:D29)</f>
@@ -8374,9 +8390,9 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="84"/>
-      <c r="B27" s="110"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="17"/>
@@ -8400,9 +8416,9 @@
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="84"/>
-      <c r="B28" s="110"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="24">
         <v>5</v>
@@ -8430,9 +8446,9 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="84"/>
-      <c r="B29" s="111"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="18"/>
@@ -8456,11 +8472,11 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="84"/>
-      <c r="B30" s="109">
+      <c r="B30" s="103">
         <v>31</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="10">
         <f>SUM(D31:D33)</f>
@@ -8529,9 +8545,9 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="84"/>
-      <c r="B31" s="110"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="17"/>
@@ -8555,9 +8571,9 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="84"/>
-      <c r="B32" s="110"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="24">
         <v>3</v>
@@ -8585,9 +8601,9 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="85"/>
-      <c r="B33" s="111"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="18"/>
@@ -8611,11 +8627,11 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="93"/>
       <c r="C34" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="10">
         <f t="shared" ref="D34:M34" si="15">SUM(D35:D37)</f>
@@ -8686,7 +8702,7 @@
       <c r="A35" s="84"/>
       <c r="B35" s="94"/>
       <c r="C35" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="17"/>
@@ -8712,7 +8728,7 @@
       <c r="A36" s="84"/>
       <c r="B36" s="94"/>
       <c r="C36" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="24">
         <v>2</v>
@@ -8742,7 +8758,7 @@
       <c r="A37" s="84"/>
       <c r="B37" s="94"/>
       <c r="C37" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="17"/>
@@ -8766,9 +8782,9 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="84"/>
-      <c r="B38" s="103"/>
+      <c r="B38" s="108"/>
       <c r="C38" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="10">
         <f t="shared" ref="D38:M38" si="18">SUM(D39:D41)</f>
@@ -8837,9 +8853,9 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="84"/>
-      <c r="B39" s="104"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="17"/>
@@ -8863,9 +8879,9 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="84"/>
-      <c r="B40" s="104"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="25">
         <v>6</v>
@@ -8893,9 +8909,9 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="85"/>
-      <c r="B41" s="105"/>
+      <c r="B41" s="110"/>
       <c r="C41" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="18"/>
@@ -8918,10 +8934,10 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="113"/>
+      <c r="B42" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="107"/>
       <c r="D42" s="2">
         <f t="shared" ref="D42:R42" si="21">SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30)</f>
         <v>38</v>
@@ -8989,13 +9005,13 @@
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="98">
         <v>12</v>
       </c>
-      <c r="B44" s="96">
-        <v>12</v>
-      </c>
       <c r="C44" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="15">
         <f>SUM(D45:D47)</f>
@@ -9060,9 +9076,9 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="84"/>
-      <c r="B45" s="97"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="24">
         <f>D7</f>
@@ -9085,9 +9101,9 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="84"/>
-      <c r="B46" s="97"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="24">
         <f>D8</f>
@@ -9110,9 +9126,9 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="84"/>
-      <c r="B47" s="98"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="24">
         <f>D9</f>
@@ -9163,11 +9179,11 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="84"/>
-      <c r="B48" s="106">
+      <c r="B48" s="111">
         <v>15</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" s="10">
         <f>SUM(D49:D51)</f>
@@ -9232,9 +9248,9 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="84"/>
-      <c r="B49" s="107"/>
+      <c r="B49" s="112"/>
       <c r="C49" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="24">
         <f>D11</f>
@@ -9257,9 +9273,9 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="84"/>
-      <c r="B50" s="107"/>
+      <c r="B50" s="112"/>
       <c r="C50" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="24">
         <f>D12</f>
@@ -9282,9 +9298,9 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="84"/>
-      <c r="B51" s="108"/>
+      <c r="B51" s="113"/>
       <c r="C51" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" s="24">
         <f>D13</f>
@@ -9338,11 +9354,11 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="84"/>
-      <c r="B52" s="106">
+      <c r="B52" s="111">
         <v>21</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52" s="10">
         <f>SUM(D53:D55)</f>
@@ -9407,9 +9423,9 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="84"/>
-      <c r="B53" s="107"/>
+      <c r="B53" s="112"/>
       <c r="C53" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="24">
         <f>D15</f>
@@ -9460,9 +9476,9 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="84"/>
-      <c r="B54" s="107"/>
+      <c r="B54" s="112"/>
       <c r="C54" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" s="24">
         <f>D16</f>
@@ -9485,9 +9501,9 @@
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="84"/>
-      <c r="B55" s="108"/>
+      <c r="B55" s="113"/>
       <c r="C55" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" s="24">
         <f>D17</f>
@@ -9510,11 +9526,11 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="84"/>
-      <c r="B56" s="106">
+      <c r="B56" s="111">
         <v>18</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D56" s="10">
         <f>SUM(D57:D59)</f>
@@ -9579,9 +9595,9 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="84"/>
-      <c r="B57" s="107"/>
+      <c r="B57" s="112"/>
       <c r="C57" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="24">
         <f>D19</f>
@@ -9632,9 +9648,9 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="84"/>
-      <c r="B58" s="107"/>
+      <c r="B58" s="112"/>
       <c r="C58" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" s="24">
         <f>D20</f>
@@ -9657,9 +9673,9 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="84"/>
-      <c r="B59" s="108"/>
+      <c r="B59" s="113"/>
       <c r="C59" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" s="24">
         <f>D21</f>
@@ -9682,11 +9698,11 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="84"/>
-      <c r="B60" s="109" t="s">
+      <c r="B60" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="60" t="s">
         <v>42</v>
-      </c>
-      <c r="C60" s="60" t="s">
-        <v>43</v>
       </c>
       <c r="D60" s="10">
         <f>SUM(D61:D63)</f>
@@ -9751,9 +9767,9 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="84"/>
-      <c r="B61" s="110"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="24">
         <f>D23</f>
@@ -9776,9 +9792,9 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="84"/>
-      <c r="B62" s="110"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" s="24">
         <f>D24</f>
@@ -9829,9 +9845,9 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="84"/>
-      <c r="B63" s="111"/>
+      <c r="B63" s="105"/>
       <c r="C63" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63" s="24">
         <f>D25</f>
@@ -9854,11 +9870,11 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="84"/>
-      <c r="B64" s="109" t="s">
-        <v>45</v>
+      <c r="B64" s="103" t="s">
+        <v>44</v>
       </c>
       <c r="C64" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="10">
         <f>SUM(D65:D67)</f>
@@ -9923,9 +9939,9 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="84"/>
-      <c r="B65" s="110"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" s="24">
         <f>D27</f>
@@ -9948,9 +9964,9 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="84"/>
-      <c r="B66" s="110"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" s="24">
         <f>D28</f>
@@ -10001,9 +10017,9 @@
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84"/>
-      <c r="B67" s="111"/>
+      <c r="B67" s="105"/>
       <c r="C67" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" s="24">
         <f>D29</f>
@@ -10026,11 +10042,11 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="84"/>
-      <c r="B68" s="109">
+      <c r="B68" s="103">
         <v>31</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D68" s="10">
         <f>SUM(D69:D71)</f>
@@ -10095,9 +10111,9 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="84"/>
-      <c r="B69" s="110"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" s="24">
         <f>D31</f>
@@ -10120,9 +10136,9 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="84"/>
-      <c r="B70" s="110"/>
+      <c r="B70" s="104"/>
       <c r="C70" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" s="24">
         <f>D32</f>
@@ -10173,9 +10189,9 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="85"/>
-      <c r="B71" s="111"/>
+      <c r="B71" s="105"/>
       <c r="C71" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D71" s="24">
         <f>D33</f>
@@ -10198,11 +10214,11 @@
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="96"/>
+        <v>22</v>
+      </c>
+      <c r="B72" s="98"/>
       <c r="C72" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D72" s="10">
         <f>SUM(D73:D75)</f>
@@ -10267,9 +10283,9 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="84"/>
-      <c r="B73" s="97"/>
+      <c r="B73" s="99"/>
       <c r="C73" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" s="24">
         <f>D35</f>
@@ -10292,9 +10308,9 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="84"/>
-      <c r="B74" s="97"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" s="24">
         <f>D36</f>
@@ -10345,9 +10361,9 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="84"/>
-      <c r="B75" s="98"/>
+      <c r="B75" s="100"/>
       <c r="C75" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75" s="24">
         <f>D37</f>
@@ -10370,9 +10386,9 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="84"/>
-      <c r="B76" s="103"/>
+      <c r="B76" s="108"/>
       <c r="C76" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D76" s="10">
         <f>SUM(D77:D79)</f>
@@ -10437,9 +10453,9 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="84"/>
-      <c r="B77" s="104"/>
+      <c r="B77" s="109"/>
       <c r="C77" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" s="24">
         <f>D39</f>
@@ -10462,9 +10478,9 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="84"/>
-      <c r="B78" s="104"/>
+      <c r="B78" s="109"/>
       <c r="C78" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78" s="24">
         <f>D40</f>
@@ -10515,9 +10531,9 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="85"/>
-      <c r="B79" s="105"/>
+      <c r="B79" s="110"/>
       <c r="C79" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79" s="26">
         <f t="shared" ref="D79" si="40">D41</f>
@@ -10539,10 +10555,10 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="C80" s="112"/>
+      <c r="B80" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="106"/>
       <c r="D80" s="2">
         <f t="shared" ref="D80:M80" si="41">SUM(D44,D64,D68,D72,D76)</f>
         <v>17.5</v>
@@ -10668,16 +10684,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B68:B71"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
@@ -10694,6 +10700,16 @@
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B64:B67"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B68:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -10731,7 +10747,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="91"/>
       <c r="G2" s="91"/>
@@ -10740,7 +10756,7 @@
       <c r="J2" s="91"/>
       <c r="K2" s="91"/>
       <c r="L2" s="90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="91"/>
       <c r="N2" s="91"/>
@@ -10751,7 +10767,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="40">
         <v>42064</v>
@@ -10798,7 +10814,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="43">
         <v>1</v>
@@ -10845,13 +10861,13 @@
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
@@ -10868,18 +10884,18 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="61"/>
       <c r="S5" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="96">
+        <v>11</v>
+      </c>
+      <c r="B6" s="98">
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="15">
         <f>SUM(D7:D9)</f>
@@ -10948,9 +10964,9 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="24">
         <v>2</v>
@@ -10978,9 +10994,9 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="62"/>
@@ -11004,9 +11020,9 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
-      <c r="B9" s="98"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="18"/>
@@ -11030,11 +11046,11 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
-      <c r="B10" s="106">
+      <c r="B10" s="111">
         <v>16</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="10">
         <f>SUM(D11:D13)</f>
@@ -11103,9 +11119,9 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="84"/>
-      <c r="B11" s="107"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="24">
         <v>2</v>
@@ -11133,9 +11149,9 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
-      <c r="B12" s="107"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="17"/>
@@ -11159,9 +11175,9 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
-      <c r="B13" s="108"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="18"/>
@@ -11185,11 +11201,11 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="84"/>
-      <c r="B14" s="106">
+      <c r="B14" s="111">
         <v>9</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="10">
         <f>SUM(D15:D17)</f>
@@ -11258,9 +11274,9 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="84"/>
-      <c r="B15" s="107"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="24">
         <v>4</v>
@@ -11288,9 +11304,9 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="84"/>
-      <c r="B16" s="107"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="24">
         <v>4</v>
@@ -11318,9 +11334,9 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="84"/>
-      <c r="B17" s="108"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="18"/>
@@ -11344,11 +11360,11 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="84"/>
-      <c r="B18" s="106" t="s">
-        <v>56</v>
+      <c r="B18" s="111" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="10">
         <f>SUM(D19:D21)</f>
@@ -11417,9 +11433,9 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
-      <c r="B19" s="107"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="17"/>
@@ -11443,9 +11459,9 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
-      <c r="B20" s="107"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="17"/>
@@ -11469,9 +11485,9 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="84"/>
-      <c r="B21" s="108"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="26">
         <v>4</v>
@@ -11499,11 +11515,11 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84"/>
-      <c r="B22" s="96" t="s">
-        <v>57</v>
+      <c r="B22" s="98" t="s">
+        <v>56</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="10">
         <f>SUM(D23:D25)</f>
@@ -11572,9 +11588,9 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="84"/>
-      <c r="B23" s="97"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="24">
         <v>2</v>
@@ -11602,9 +11618,9 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="84"/>
-      <c r="B24" s="97"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="24">
         <v>3.5</v>
@@ -11632,9 +11648,9 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="84"/>
-      <c r="B25" s="98"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="18"/>
@@ -11658,11 +11674,11 @@
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="63"/>
       <c r="C26" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="10">
         <f>SUM(D27:D29)</f>
@@ -11733,7 +11749,7 @@
       <c r="A27" s="84"/>
       <c r="B27" s="64"/>
       <c r="C27" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="24">
         <v>2</v>
@@ -11763,7 +11779,7 @@
       <c r="A28" s="84"/>
       <c r="B28" s="64"/>
       <c r="C28" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="17"/>
@@ -11789,7 +11805,7 @@
       <c r="A29" s="84"/>
       <c r="B29" s="65"/>
       <c r="C29" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="18"/>
@@ -11813,9 +11829,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="84"/>
-      <c r="B30" s="109"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="10">
         <f>SUM(D31:D33)</f>
@@ -11884,9 +11900,9 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="84"/>
-      <c r="B31" s="110"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="24">
         <v>2</v>
@@ -11914,9 +11930,9 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="84"/>
-      <c r="B32" s="110"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="17"/>
@@ -11940,9 +11956,9 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="84"/>
-      <c r="B33" s="111"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="18"/>
@@ -11968,7 +11984,7 @@
       <c r="A34" s="84"/>
       <c r="B34" s="93"/>
       <c r="C34" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="10">
         <f t="shared" ref="D34:R34" si="8">SUM(D35:D37)</f>
@@ -12039,7 +12055,7 @@
       <c r="A35" s="84"/>
       <c r="B35" s="94"/>
       <c r="C35" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="24">
         <v>2</v>
@@ -12069,7 +12085,7 @@
       <c r="A36" s="84"/>
       <c r="B36" s="94"/>
       <c r="C36" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="24">
         <v>8</v>
@@ -12099,7 +12115,7 @@
       <c r="A37" s="84"/>
       <c r="B37" s="94"/>
       <c r="C37" s="66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="17"/>
@@ -12123,9 +12139,9 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="84"/>
-      <c r="B38" s="109"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="10">
         <f t="shared" ref="D38:R38" si="10">SUM(D39:D41)</f>
@@ -12194,9 +12210,9 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="84"/>
-      <c r="B39" s="110"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="25">
         <v>2</v>
@@ -12224,9 +12240,9 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="84"/>
-      <c r="B40" s="110"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="17"/>
@@ -12250,9 +12266,9 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="84"/>
-      <c r="B41" s="111"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="18"/>
@@ -12276,9 +12292,9 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="84"/>
-      <c r="B42" s="109"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="10">
         <f>SUM(D43:D45)</f>
@@ -12347,9 +12363,9 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="84"/>
-      <c r="B43" s="110"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="17"/>
@@ -12373,9 +12389,9 @@
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="84"/>
-      <c r="B44" s="110"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="24">
         <v>4.5</v>
@@ -12405,9 +12421,9 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="84"/>
-      <c r="B45" s="111"/>
+      <c r="B45" s="105"/>
       <c r="C45" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="18"/>
@@ -12431,9 +12447,9 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="84"/>
-      <c r="B46" s="109"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="10">
         <f>SUM(D47:D49)</f>
@@ -12502,9 +12518,9 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="84"/>
-      <c r="B47" s="110"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="24">
         <v>2</v>
@@ -12532,9 +12548,9 @@
     </row>
     <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="84"/>
-      <c r="B48" s="110"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="17"/>
@@ -12558,9 +12574,9 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="85"/>
-      <c r="B49" s="111"/>
+      <c r="B49" s="105"/>
       <c r="C49" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="18"/>
@@ -12584,10 +12600,10 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="75"/>
-      <c r="B50" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="113"/>
+      <c r="B50" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="107"/>
       <c r="D50" s="2">
         <f>SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30,D42,D46)</f>
         <v>44</v>
@@ -12656,13 +12672,13 @@
     <row r="51" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="96">
+        <v>11</v>
+      </c>
+      <c r="B52" s="98">
         <v>28</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D53:D55)</f>
@@ -12727,9 +12743,9 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="84"/>
-      <c r="B53" s="97"/>
+      <c r="B53" s="99"/>
       <c r="C53" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="24">
         <f>D7</f>
@@ -12780,9 +12796,9 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="84"/>
-      <c r="B54" s="97"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" s="24">
         <f>D8</f>
@@ -12805,9 +12821,9 @@
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="84"/>
-      <c r="B55" s="98"/>
+      <c r="B55" s="100"/>
       <c r="C55" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" s="24">
         <f>D9</f>
@@ -12830,11 +12846,11 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="84"/>
-      <c r="B56" s="106">
+      <c r="B56" s="111">
         <v>16</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="10">
         <f>SUM(D57:D59)</f>
@@ -12899,9 +12915,9 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="84"/>
-      <c r="B57" s="107"/>
+      <c r="B57" s="112"/>
       <c r="C57" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="24">
         <f>D11</f>
@@ -12952,9 +12968,9 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="84"/>
-      <c r="B58" s="107"/>
+      <c r="B58" s="112"/>
       <c r="C58" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" s="24">
         <f>D12</f>
@@ -12977,9 +12993,9 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="84"/>
-      <c r="B59" s="108"/>
+      <c r="B59" s="113"/>
       <c r="C59" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" s="24">
         <f>D13</f>
@@ -13002,11 +13018,11 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="84"/>
-      <c r="B60" s="106">
+      <c r="B60" s="111">
         <v>9</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" s="10">
         <f>SUM(D61:D63)</f>
@@ -13071,9 +13087,9 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="84"/>
-      <c r="B61" s="107"/>
+      <c r="B61" s="112"/>
       <c r="C61" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="24">
         <f>D15</f>
@@ -13124,9 +13140,9 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="84"/>
-      <c r="B62" s="107"/>
+      <c r="B62" s="112"/>
       <c r="C62" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" s="24">
         <f>D16</f>
@@ -13177,9 +13193,9 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="84"/>
-      <c r="B63" s="108"/>
+      <c r="B63" s="113"/>
       <c r="C63" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63" s="24">
         <f>D17</f>
@@ -13202,11 +13218,11 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="84"/>
-      <c r="B64" s="106" t="s">
-        <v>56</v>
+      <c r="B64" s="111" t="s">
+        <v>55</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D64" s="10">
         <f>SUM(D65:D67)</f>
@@ -13271,9 +13287,9 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="84"/>
-      <c r="B65" s="107"/>
+      <c r="B65" s="112"/>
       <c r="C65" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" s="24">
         <f>D19</f>
@@ -13296,9 +13312,9 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="84"/>
-      <c r="B66" s="107"/>
+      <c r="B66" s="112"/>
       <c r="C66" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" s="24">
         <f>D20</f>
@@ -13321,9 +13337,9 @@
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84"/>
-      <c r="B67" s="108"/>
+      <c r="B67" s="113"/>
       <c r="C67" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" s="24">
         <f>D21</f>
@@ -13374,11 +13390,11 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="84"/>
-      <c r="B68" s="96" t="s">
-        <v>57</v>
+      <c r="B68" s="98" t="s">
+        <v>56</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D68" s="10">
         <f>SUM(D69:D71)</f>
@@ -13443,9 +13459,9 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="84"/>
-      <c r="B69" s="97"/>
+      <c r="B69" s="99"/>
       <c r="C69" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" s="24">
         <f>D23</f>
@@ -13496,9 +13512,9 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="84"/>
-      <c r="B70" s="97"/>
+      <c r="B70" s="99"/>
       <c r="C70" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" s="24">
         <f>D24</f>
@@ -13549,9 +13565,9 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="85"/>
-      <c r="B71" s="98"/>
+      <c r="B71" s="100"/>
       <c r="C71" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D71" s="24">
         <f>D25</f>
@@ -13574,11 +13590,11 @@
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" s="67"/>
       <c r="C72" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" s="10">
         <f>SUM(D73:D75)</f>
@@ -13645,7 +13661,7 @@
       <c r="A73" s="115"/>
       <c r="B73" s="68"/>
       <c r="C73" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" s="24">
         <f>D27</f>
@@ -13698,7 +13714,7 @@
       <c r="A74" s="115"/>
       <c r="B74" s="68"/>
       <c r="C74" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" s="24">
         <f>D28</f>
@@ -13723,7 +13739,7 @@
       <c r="A75" s="115"/>
       <c r="B75" s="69"/>
       <c r="C75" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75" s="24">
         <f>D29</f>
@@ -13746,9 +13762,9 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="115"/>
-      <c r="B76" s="109"/>
+      <c r="B76" s="103"/>
       <c r="C76" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D76" s="10">
         <f>SUM(D77:D79)</f>
@@ -13813,9 +13829,9 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="115"/>
-      <c r="B77" s="110"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" s="24">
         <f>D31</f>
@@ -13866,9 +13882,9 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="115"/>
-      <c r="B78" s="110"/>
+      <c r="B78" s="104"/>
       <c r="C78" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78" s="24">
         <f>D32</f>
@@ -13891,9 +13907,9 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="115"/>
-      <c r="B79" s="111"/>
+      <c r="B79" s="105"/>
       <c r="C79" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79" s="24">
         <f>D33</f>
@@ -13916,9 +13932,9 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="115"/>
-      <c r="B80" s="96"/>
+      <c r="B80" s="98"/>
       <c r="C80" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D80" s="10">
         <f>SUM(D81:D83)</f>
@@ -13983,9 +13999,9 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="115"/>
-      <c r="B81" s="97"/>
+      <c r="B81" s="99"/>
       <c r="C81" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" s="24">
         <f>D35</f>
@@ -14036,9 +14052,9 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="115"/>
-      <c r="B82" s="97"/>
+      <c r="B82" s="99"/>
       <c r="C82" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D82" s="24">
         <f>D36</f>
@@ -14089,9 +14105,9 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="115"/>
-      <c r="B83" s="98"/>
+      <c r="B83" s="100"/>
       <c r="C83" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D83" s="26">
         <f>D37</f>
@@ -14114,9 +14130,9 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="115"/>
-      <c r="B84" s="109"/>
+      <c r="B84" s="103"/>
       <c r="C84" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D84" s="10">
         <f>SUM(D85:D87)</f>
@@ -14181,9 +14197,9 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="115"/>
-      <c r="B85" s="110"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85" s="24">
         <f>D39</f>
@@ -14234,9 +14250,9 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="115"/>
-      <c r="B86" s="110"/>
+      <c r="B86" s="104"/>
       <c r="C86" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D86" s="24">
         <f>D40</f>
@@ -14287,9 +14303,9 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="115"/>
-      <c r="B87" s="111"/>
+      <c r="B87" s="105"/>
       <c r="C87" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D87" s="26">
         <f>D41</f>
@@ -14312,9 +14328,9 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="115"/>
-      <c r="B88" s="109"/>
+      <c r="B88" s="103"/>
       <c r="C88" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D88" s="10">
         <f>SUM(D89:D91)</f>
@@ -14379,9 +14395,9 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="115"/>
-      <c r="B89" s="110"/>
+      <c r="B89" s="104"/>
       <c r="C89" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" s="24">
         <f>D43</f>
@@ -14404,9 +14420,9 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="115"/>
-      <c r="B90" s="110"/>
+      <c r="B90" s="104"/>
       <c r="C90" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D90" s="24">
         <f>D44</f>
@@ -14457,9 +14473,9 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="115"/>
-      <c r="B91" s="111"/>
+      <c r="B91" s="105"/>
       <c r="C91" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D91" s="26">
         <f>D45</f>
@@ -14482,9 +14498,9 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="115"/>
-      <c r="B92" s="109"/>
+      <c r="B92" s="103"/>
       <c r="C92" s="60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D92" s="10">
         <f>SUM(D93:D95)</f>
@@ -14549,9 +14565,9 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="115"/>
-      <c r="B93" s="110"/>
+      <c r="B93" s="104"/>
       <c r="C93" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93" s="24">
         <f>D47</f>
@@ -14602,9 +14618,9 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="115"/>
-      <c r="B94" s="110"/>
+      <c r="B94" s="104"/>
       <c r="C94" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94" s="24">
         <f>D48</f>
@@ -14655,9 +14671,9 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="115"/>
-      <c r="B95" s="111"/>
+      <c r="B95" s="105"/>
       <c r="C95" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D95" s="26">
         <f>D49</f>
@@ -14679,10 +14695,10 @@
       <c r="R95" s="39"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B96" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96" s="112"/>
+      <c r="B96" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="106"/>
       <c r="D96" s="2">
         <f>SUM(D52,D56,D60,D64,D68,D72,D76,D80,D84,D88,D92)</f>
         <v>44</v>
@@ -14808,6 +14824,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A72:A95"/>
+    <mergeCell ref="A52:A71"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="A6:A25"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -14824,18 +14852,6 @@
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="A72:A95"/>
-    <mergeCell ref="A52:A71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="A6:A25"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14870,7 +14886,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="91"/>
       <c r="G2" s="91"/>
@@ -14879,7 +14895,7 @@
       <c r="J2" s="91"/>
       <c r="K2" s="91"/>
       <c r="L2" s="90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="91"/>
       <c r="N2" s="91"/>
@@ -14890,7 +14906,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="40">
         <v>42079</v>
@@ -14937,7 +14953,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="43">
         <v>1</v>
@@ -14984,13 +15000,13 @@
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
@@ -15007,18 +15023,18 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="61"/>
       <c r="S5" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="15">
         <f>SUM(D7:D9)</f>
@@ -15089,7 +15105,7 @@
       <c r="A7" s="84"/>
       <c r="B7" s="117"/>
       <c r="C7" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="24">
         <v>1</v>
@@ -15119,7 +15135,7 @@
       <c r="A8" s="84"/>
       <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="24">
         <v>3</v>
@@ -15149,7 +15165,7 @@
       <c r="A9" s="84"/>
       <c r="B9" s="118"/>
       <c r="C9" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="18"/>
@@ -15177,7 +15193,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="10">
         <f>SUM(D11:D13)</f>
@@ -15248,7 +15264,7 @@
       <c r="A11" s="84"/>
       <c r="B11" s="120"/>
       <c r="C11" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="24">
         <v>2</v>
@@ -15278,7 +15294,7 @@
       <c r="A12" s="84"/>
       <c r="B12" s="120"/>
       <c r="C12" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="24">
         <v>1</v>
@@ -15308,7 +15324,7 @@
       <c r="A13" s="84"/>
       <c r="B13" s="121"/>
       <c r="C13" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="18"/>
@@ -15336,7 +15352,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="10">
         <f>SUM(D15:D17)</f>
@@ -15407,7 +15423,7 @@
       <c r="A15" s="84"/>
       <c r="B15" s="120"/>
       <c r="C15" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="24">
         <v>10</v>
@@ -15439,7 +15455,7 @@
       <c r="A16" s="84"/>
       <c r="B16" s="120"/>
       <c r="C16" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="17"/>
@@ -15465,7 +15481,7 @@
       <c r="A17" s="84"/>
       <c r="B17" s="121"/>
       <c r="C17" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="26">
         <v>15</v>
@@ -15498,10 +15514,10 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="84"/>
       <c r="B18" s="119" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="10">
         <f>SUM(D19:D21)</f>
@@ -15572,7 +15588,7 @@
       <c r="A19" s="84"/>
       <c r="B19" s="120"/>
       <c r="C19" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="17"/>
@@ -15598,7 +15614,7 @@
       <c r="A20" s="84"/>
       <c r="B20" s="120"/>
       <c r="C20" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="24">
         <v>7</v>
@@ -15630,7 +15646,7 @@
       <c r="A21" s="84"/>
       <c r="B21" s="121"/>
       <c r="C21" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="18"/>
@@ -15654,11 +15670,11 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="116"/>
       <c r="C22" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="10">
         <f>SUM(D23:D25)</f>
@@ -15729,7 +15745,7 @@
       <c r="A23" s="84"/>
       <c r="B23" s="117"/>
       <c r="C23" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="24">
         <v>5</v>
@@ -15759,7 +15775,7 @@
       <c r="A24" s="84"/>
       <c r="B24" s="117"/>
       <c r="C24" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="24">
         <v>3</v>
@@ -15789,7 +15805,7 @@
       <c r="A25" s="84"/>
       <c r="B25" s="118"/>
       <c r="C25" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="26">
         <v>4</v>
@@ -15821,7 +15837,7 @@
       <c r="A26" s="84"/>
       <c r="B26" s="72"/>
       <c r="C26" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="10">
         <f>SUM(D27:D29)</f>
@@ -15892,7 +15908,7 @@
       <c r="A27" s="84"/>
       <c r="B27" s="73"/>
       <c r="C27" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="24">
         <v>5</v>
@@ -15924,7 +15940,7 @@
       <c r="A28" s="84"/>
       <c r="B28" s="73"/>
       <c r="C28" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="24">
         <v>5</v>
@@ -15956,7 +15972,7 @@
       <c r="A29" s="85"/>
       <c r="B29" s="74"/>
       <c r="C29" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="26">
         <v>5</v>
@@ -15986,10 +16002,10 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="71"/>
-      <c r="B30" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="113"/>
+      <c r="B30" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="107"/>
       <c r="D30" s="2">
         <f>SUM(D6,D10,D14,D18,D22,D26)</f>
         <v>66</v>
@@ -16058,13 +16074,13 @@
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="15">
         <f>SUM(D33:D35)</f>
@@ -16131,7 +16147,7 @@
       <c r="A33" s="84"/>
       <c r="B33" s="117"/>
       <c r="C33" s="76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="24">
         <v>1</v>
@@ -16183,7 +16199,7 @@
       <c r="A34" s="84"/>
       <c r="B34" s="117"/>
       <c r="C34" s="76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="24">
         <v>3</v>
@@ -16235,7 +16251,7 @@
       <c r="A35" s="84"/>
       <c r="B35" s="118"/>
       <c r="C35" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="31"/>
@@ -16259,7 +16275,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="10">
         <f>SUM(D37:D39)</f>
@@ -16326,7 +16342,7 @@
       <c r="A37" s="84"/>
       <c r="B37" s="120"/>
       <c r="C37" s="76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="24">
         <v>2</v>
@@ -16385,7 +16401,7 @@
       <c r="A38" s="84"/>
       <c r="B38" s="120"/>
       <c r="C38" s="76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="24">
         <v>1</v>
@@ -16451,7 +16467,7 @@
       <c r="A39" s="84"/>
       <c r="B39" s="121"/>
       <c r="C39" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="31"/>
@@ -16475,7 +16491,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="10">
         <f>SUM(D41:D43)</f>
@@ -16542,7 +16558,7 @@
       <c r="A41" s="84"/>
       <c r="B41" s="120"/>
       <c r="C41" s="76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="24">
         <v>10</v>
@@ -16601,7 +16617,7 @@
       <c r="A42" s="84"/>
       <c r="B42" s="120"/>
       <c r="C42" s="76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="31"/>
@@ -16625,7 +16641,7 @@
       <c r="A43" s="84"/>
       <c r="B43" s="121"/>
       <c r="C43" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="26">
         <v>15</v>
@@ -16648,10 +16664,10 @@
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="84"/>
       <c r="B44" s="119" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="10">
         <f>SUM(D45:D47)</f>
@@ -16718,7 +16734,7 @@
       <c r="A45" s="84"/>
       <c r="B45" s="120"/>
       <c r="C45" s="76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="31"/>
@@ -16740,7 +16756,7 @@
       <c r="A46" s="84"/>
       <c r="B46" s="120"/>
       <c r="C46" s="76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="24">
         <v>7</v>
@@ -16792,7 +16808,7 @@
       <c r="A47" s="84"/>
       <c r="B47" s="121"/>
       <c r="C47" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="33"/>
@@ -16812,11 +16828,11 @@
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" s="116"/>
       <c r="C48" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" s="10">
         <f>SUM(D49:D51)</f>
@@ -16883,7 +16899,7 @@
       <c r="A49" s="84"/>
       <c r="B49" s="117"/>
       <c r="C49" s="76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="24">
         <v>5</v>
@@ -16935,7 +16951,7 @@
       <c r="A50" s="84"/>
       <c r="B50" s="117"/>
       <c r="C50" s="76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="24">
         <v>3</v>
@@ -16987,7 +17003,7 @@
       <c r="A51" s="84"/>
       <c r="B51" s="118"/>
       <c r="C51" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" s="26">
         <v>4</v>
@@ -17011,7 +17027,7 @@
       <c r="A52" s="84"/>
       <c r="B52" s="72"/>
       <c r="C52" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" s="10">
         <f>SUM(D53:D55)</f>
@@ -17078,7 +17094,7 @@
       <c r="A53" s="84"/>
       <c r="B53" s="73"/>
       <c r="C53" s="76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="24">
         <v>5</v>
@@ -17130,7 +17146,7 @@
       <c r="A54" s="84"/>
       <c r="B54" s="73"/>
       <c r="C54" s="76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" s="24">
         <v>5</v>
@@ -17182,7 +17198,7 @@
       <c r="A55" s="85"/>
       <c r="B55" s="74"/>
       <c r="C55" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" s="26">
         <v>5</v>
@@ -17205,10 +17221,10 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="112"/>
+      <c r="B56" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="106"/>
       <c r="D56" s="2">
         <f>SUM(D32, D36, D40, D44, D48,D52)</f>
         <v>66</v>
@@ -17336,6 +17352,13 @@
     <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
     <mergeCell ref="A32:A47"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="A22:A29"/>
@@ -17347,13 +17370,6 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="A6:A21"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17365,7 +17381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -17389,7 +17405,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="91"/>
       <c r="G2" s="91"/>
@@ -17398,7 +17414,7 @@
       <c r="J2" s="91"/>
       <c r="K2" s="91"/>
       <c r="L2" s="90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="91"/>
       <c r="N2" s="91"/>
@@ -17409,7 +17425,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="40">
         <v>42101</v>
@@ -17456,7 +17472,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="43">
         <v>1</v>
@@ -17503,13 +17519,13 @@
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
@@ -17526,18 +17542,18 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="61"/>
       <c r="S5" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="15">
         <f>SUM(D7:D9)</f>
@@ -17608,7 +17624,7 @@
       <c r="A7" s="123"/>
       <c r="B7" s="117"/>
       <c r="C7" s="77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="24">
         <v>6</v>
@@ -17636,7 +17652,7 @@
       <c r="A8" s="123"/>
       <c r="B8" s="117"/>
       <c r="C8" s="77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="62"/>
@@ -17662,7 +17678,7 @@
       <c r="A9" s="123"/>
       <c r="B9" s="118"/>
       <c r="C9" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="18"/>
@@ -17687,10 +17703,10 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="123"/>
       <c r="B10" s="116" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="15">
         <f>SUM(D11:D13)</f>
@@ -17761,7 +17777,7 @@
       <c r="A11" s="123"/>
       <c r="B11" s="117"/>
       <c r="C11" s="77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="24">
         <v>4</v>
@@ -17789,7 +17805,7 @@
       <c r="A12" s="123"/>
       <c r="B12" s="117"/>
       <c r="C12" s="77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="24">
         <v>4</v>
@@ -17819,7 +17835,7 @@
       <c r="A13" s="123"/>
       <c r="B13" s="118"/>
       <c r="C13" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="18"/>
@@ -17844,10 +17860,10 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="123"/>
       <c r="B14" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>80</v>
       </c>
       <c r="D14" s="10">
         <f>SUM(D15:D17)</f>
@@ -17918,7 +17934,7 @@
       <c r="A15" s="123"/>
       <c r="B15" s="120"/>
       <c r="C15" s="77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="17"/>
@@ -17944,7 +17960,7 @@
       <c r="A16" s="123"/>
       <c r="B16" s="120"/>
       <c r="C16" s="77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="17"/>
@@ -17970,7 +17986,7 @@
       <c r="A17" s="123"/>
       <c r="B17" s="121"/>
       <c r="C17" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="26">
         <v>2</v>
@@ -18002,7 +18018,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="15">
         <f>SUM(D19:D21)</f>
@@ -18073,7 +18089,7 @@
       <c r="A19" s="123"/>
       <c r="B19" s="117"/>
       <c r="C19" s="77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="17"/>
@@ -18099,7 +18115,7 @@
       <c r="A20" s="123"/>
       <c r="B20" s="117"/>
       <c r="C20" s="77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="62"/>
@@ -18125,7 +18141,7 @@
       <c r="A21" s="123"/>
       <c r="B21" s="118"/>
       <c r="C21" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="26">
         <v>2</v>
@@ -18154,10 +18170,10 @@
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="123"/>
       <c r="B22" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="15">
         <f>SUM(D23:D25)</f>
@@ -18228,7 +18244,7 @@
       <c r="A23" s="123"/>
       <c r="B23" s="117"/>
       <c r="C23" s="77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="24">
         <v>3</v>
@@ -18256,7 +18272,7 @@
       <c r="A24" s="123"/>
       <c r="B24" s="117"/>
       <c r="C24" s="77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="24">
         <v>5</v>
@@ -18286,7 +18302,7 @@
       <c r="A25" s="123"/>
       <c r="B25" s="118"/>
       <c r="C25" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="18"/>
@@ -18311,10 +18327,10 @@
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="123"/>
       <c r="B26" s="119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="10">
         <f>SUM(D27:D29)</f>
@@ -18385,7 +18401,7 @@
       <c r="A27" s="123"/>
       <c r="B27" s="120"/>
       <c r="C27" s="77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="17"/>
@@ -18411,7 +18427,7 @@
       <c r="A28" s="123"/>
       <c r="B28" s="120"/>
       <c r="C28" s="77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="24">
         <v>7</v>
@@ -18441,7 +18457,7 @@
       <c r="A29" s="123"/>
       <c r="B29" s="121"/>
       <c r="C29" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="18"/>
@@ -18469,7 +18485,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="10">
         <f>SUM(D31:D33)</f>
@@ -18540,7 +18556,7 @@
       <c r="A31" s="123"/>
       <c r="B31" s="120"/>
       <c r="C31" s="77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="17"/>
@@ -18566,7 +18582,7 @@
       <c r="A32" s="123"/>
       <c r="B32" s="120"/>
       <c r="C32" s="77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="24">
         <v>2</v>
@@ -18596,7 +18612,7 @@
       <c r="A33" s="123"/>
       <c r="B33" s="121"/>
       <c r="C33" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="26">
         <v>6</v>
@@ -18628,7 +18644,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="10">
         <f>SUM(D35:D37)</f>
@@ -18699,7 +18715,7 @@
       <c r="A35" s="123"/>
       <c r="B35" s="120"/>
       <c r="C35" s="77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="24">
         <v>6</v>
@@ -18727,7 +18743,7 @@
       <c r="A36" s="123"/>
       <c r="B36" s="120"/>
       <c r="C36" s="77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="17"/>
@@ -18753,7 +18769,7 @@
       <c r="A37" s="123"/>
       <c r="B37" s="121"/>
       <c r="C37" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="18"/>
@@ -18777,10 +18793,10 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="75"/>
-      <c r="B38" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="113"/>
+      <c r="B38" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="107"/>
       <c r="D38" s="2">
         <f t="shared" ref="D38:S38" si="12">SUM(D6,D10,D14,D18, D22, D26, D30, D34)</f>
         <v>47</v>
@@ -18901,6 +18917,7 @@
     <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:A37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="L2:R2"/>
@@ -18912,7 +18929,6 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A6:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Management/Burndown.xlsx
+++ b/Management/Burndown.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="81">
   <si>
     <t>Time (person-hours (p-h))</t>
   </si>
@@ -306,10 +306,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,8 +396,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +433,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -606,11 +619,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -797,6 +811,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,8 +975,9 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1129,6 +1175,9 @@
                 <c:pt idx="5">
                   <c:v>29.5</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1144,11 +1193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110344064"/>
-        <c:axId val="110350336"/>
+        <c:axId val="90857856"/>
+        <c:axId val="90859776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110344064"/>
+        <c:axId val="90857856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110350336"/>
+        <c:crossAx val="90859776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1185,7 +1234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110350336"/>
+        <c:axId val="90859776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110344064"/>
+        <c:crossAx val="90857856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1475,11 +1524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121832960"/>
-        <c:axId val="121834496"/>
+        <c:axId val="90570752"/>
+        <c:axId val="90572288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="121832960"/>
+        <c:axId val="90570752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,14 +1538,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121834496"/>
+        <c:crossAx val="90572288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121834496"/>
+        <c:axId val="90572288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +1556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121832960"/>
+        <c:crossAx val="90570752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1730,11 +1779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121868288"/>
-        <c:axId val="121869824"/>
+        <c:axId val="90650880"/>
+        <c:axId val="90656768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="121868288"/>
+        <c:axId val="90650880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,14 +1793,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121869824"/>
+        <c:crossAx val="90656768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121869824"/>
+        <c:axId val="90656768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121868288"/>
+        <c:crossAx val="90650880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2045,11 +2094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124324096"/>
-        <c:axId val="124325888"/>
+        <c:axId val="90698496"/>
+        <c:axId val="90700032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="124324096"/>
+        <c:axId val="90698496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,14 +2108,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124325888"/>
+        <c:crossAx val="90700032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124325888"/>
+        <c:axId val="90700032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124324096"/>
+        <c:crossAx val="90698496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2364,11 +2413,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124356864"/>
-        <c:axId val="124370944"/>
+        <c:axId val="90991616"/>
+        <c:axId val="91013888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124356864"/>
+        <c:axId val="90991616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,7 +2427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124370944"/>
+        <c:crossAx val="91013888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2386,7 +2435,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124370944"/>
+        <c:axId val="91013888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +2446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124356864"/>
+        <c:crossAx val="90991616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2680,11 +2729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124465920"/>
-        <c:axId val="124467456"/>
+        <c:axId val="91223552"/>
+        <c:axId val="91225088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="124465920"/>
+        <c:axId val="91223552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,14 +2743,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124467456"/>
+        <c:crossAx val="91225088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124467456"/>
+        <c:axId val="91225088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2712,7 +2761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124465920"/>
+        <c:crossAx val="91223552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2757,17 +2806,17 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Working</c:v>
+            <c:v>working</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sp6'!$E$3:$R$3</c:f>
+              <c:f>'Sp6'!$E$3:$Y$3</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42101</c:v>
                 </c:pt>
@@ -2809,18 +2858,102 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>42114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42116</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp6'!#REF!</c:f>
+              <c:f>'Sp6'!$D$73:$Y$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2831,17 +2964,17 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Ideal</c:v>
+            <c:v>ideal</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sp6'!$E$3:$R$3</c:f>
+              <c:f>'Sp6'!$E$3:$Y$3</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42101</c:v>
                 </c:pt>
@@ -2883,18 +3016,102 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>42114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42116</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp6'!#REF!</c:f>
+              <c:f>'Sp6'!$D$74:$Y$74</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.761904761904759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.523809523809518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.285714285714278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.047619047619037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.809523809523796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.571428571428555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.333333333333318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.095238095238081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.857142857142843</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.619047619047606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.380952380952369</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.142857142857132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.904761904761894</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.190476190476183</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9523809523809454</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7142857142857073</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4761904761904692</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.238095238095231</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.1054273576010019E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2911,11 +3128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124549760"/>
-        <c:axId val="124551552"/>
+        <c:axId val="91072000"/>
+        <c:axId val="91073536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="124549760"/>
+        <c:axId val="91072000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,14 +3142,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124551552"/>
+        <c:crossAx val="91073536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124551552"/>
+        <c:axId val="91073536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2943,13 +3160,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124549760"/>
+        <c:crossAx val="91072000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3186,23 +3404,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2505075</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3509,7 +3725,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,13 +3740,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3625,7 +3841,7 @@
         <v>95</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D8" si="2">H4-E5</f>
+        <f t="shared" ref="D5:D9" si="2">H4-E5</f>
         <v>110</v>
       </c>
       <c r="E5" s="4">
@@ -3667,7 +3883,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
+        <f>H5-E6+G5</f>
         <v>82</v>
       </c>
     </row>
@@ -3730,20 +3946,31 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4">
         <v>23</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3872,22 +4099,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="81" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="82"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
@@ -4002,10 +4229,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="116">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4069,8 +4296,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="94"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
@@ -4099,8 +4326,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -4127,8 +4354,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
@@ -4157,8 +4384,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
@@ -4220,8 +4447,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
@@ -4244,8 +4471,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="94"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
@@ -4274,8 +4501,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="94"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
@@ -4298,8 +4525,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="94"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
@@ -4361,8 +4588,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
@@ -4385,8 +4612,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
@@ -4409,8 +4636,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="95"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
@@ -4437,8 +4664,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="93">
+      <c r="A18" s="107"/>
+      <c r="B18" s="116">
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4502,8 +4729,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="7" t="s">
         <v>15</v>
       </c>
@@ -4532,8 +4759,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -4556,8 +4783,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="95"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
@@ -4580,10 +4807,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="86"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="9" t="s">
         <v>23</v>
       </c>
@@ -4645,8 +4872,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="87"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
@@ -4669,8 +4896,8 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="87"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
@@ -4697,8 +4924,8 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="8" t="s">
         <v>17</v>
       </c>
@@ -4721,10 +4948,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="89"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>19</v>
@@ -4789,10 +5016,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="93">
+      <c r="B28" s="116">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4853,8 +5080,8 @@
       <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="94"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="7" t="s">
         <v>15</v>
       </c>
@@ -4900,8 +5127,8 @@
       <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="94"/>
+      <c r="A30" s="107"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
@@ -4947,8 +5174,8 @@
       <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="94"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="8" t="s">
         <v>17</v>
       </c>
@@ -4994,8 +5221,8 @@
       <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="94"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="9" t="s">
         <v>18</v>
       </c>
@@ -5054,8 +5281,8 @@
       <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="94"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="7" t="s">
         <v>15</v>
       </c>
@@ -5075,8 +5302,8 @@
       <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="94"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
@@ -5122,8 +5349,8 @@
       <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="94"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="117"/>
       <c r="C35" s="8" t="s">
         <v>17</v>
       </c>
@@ -5143,8 +5370,8 @@
       <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="94"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="9" t="s">
         <v>19</v>
       </c>
@@ -5203,8 +5430,8 @@
       <c r="Q36" s="23"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
       </c>
@@ -5224,8 +5451,8 @@
       <c r="Q37" s="24"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="94"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -5245,8 +5472,8 @@
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="95"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="118"/>
       <c r="C39" s="8" t="s">
         <v>17</v>
       </c>
@@ -5292,8 +5519,8 @@
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="93">
+      <c r="A40" s="107"/>
+      <c r="B40" s="116">
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -5354,8 +5581,8 @@
       <c r="Q40" s="23"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="94"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="7" t="s">
         <v>15</v>
       </c>
@@ -5401,8 +5628,8 @@
       <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="94"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="117"/>
       <c r="C42" s="7" t="s">
         <v>16</v>
       </c>
@@ -5422,8 +5649,8 @@
       <c r="Q42" s="24"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
-      <c r="B43" s="95"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="118"/>
       <c r="C43" s="8" t="s">
         <v>17</v>
       </c>
@@ -5443,10 +5670,10 @@
       <c r="Q43" s="24"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="86"/>
+      <c r="B44" s="109"/>
       <c r="C44" s="9" t="s">
         <v>23</v>
       </c>
@@ -5505,8 +5732,8 @@
       <c r="Q44" s="23"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="87"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="7" t="s">
         <v>15</v>
       </c>
@@ -5526,8 +5753,8 @@
       <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="87"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="7" t="s">
         <v>16</v>
       </c>
@@ -5573,8 +5800,8 @@
       <c r="Q46" s="24"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="85"/>
-      <c r="B47" s="88"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="8" t="s">
         <v>17</v>
       </c>
@@ -5594,10 +5821,10 @@
       <c r="Q47" s="24"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="89"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>19</v>
@@ -5758,19 +5985,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="90" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -5860,10 +6087,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="98">
+      <c r="B6" s="121">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -5915,8 +6142,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="99"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="45" t="s">
         <v>15</v>
       </c>
@@ -5936,8 +6163,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="99"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="45" t="s">
         <v>16</v>
       </c>
@@ -5961,8 +6188,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="46" t="s">
         <v>17</v>
       </c>
@@ -5982,8 +6209,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="101" t="s">
+      <c r="A10" s="107"/>
+      <c r="B10" s="124" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -6035,8 +6262,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="102"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="45" t="s">
         <v>15</v>
       </c>
@@ -6060,8 +6287,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="45" t="s">
         <v>16</v>
       </c>
@@ -6081,8 +6308,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="102"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="46" t="s">
         <v>17</v>
       </c>
@@ -6102,8 +6329,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="52" t="s">
         <v>32</v>
       </c>
@@ -6153,8 +6380,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="45" t="s">
         <v>15</v>
       </c>
@@ -6180,8 +6407,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="45" t="s">
         <v>16</v>
       </c>
@@ -6205,8 +6432,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="45" t="s">
         <v>17</v>
       </c>
@@ -6226,10 +6453,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="93"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
@@ -6279,8 +6506,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="45" t="s">
         <v>15</v>
       </c>
@@ -6304,8 +6531,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="45" t="s">
         <v>16</v>
       </c>
@@ -6329,8 +6556,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="46" t="s">
         <v>17</v>
       </c>
@@ -6350,8 +6577,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="96"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="49" t="s">
         <v>30</v>
       </c>
@@ -6401,8 +6628,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="96"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="45" t="s">
         <v>15</v>
       </c>
@@ -6422,8 +6649,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="96"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="45" t="s">
         <v>16</v>
       </c>
@@ -6447,8 +6674,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="97"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="46" t="s">
         <v>17</v>
       </c>
@@ -6468,10 +6695,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="89"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="2">
         <f>SUM(D6,D10,D14,D18,D22)</f>
         <v>14</v>
@@ -6524,10 +6751,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="98">
+      <c r="B28" s="121">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -6576,8 +6803,8 @@
       <c r="N28" s="23"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="99"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="45" t="s">
         <v>15</v>
       </c>
@@ -6597,8 +6824,8 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="99"/>
+      <c r="A30" s="107"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="45" t="s">
         <v>16</v>
       </c>
@@ -6636,8 +6863,8 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="100"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="123"/>
       <c r="C31" s="46" t="s">
         <v>17</v>
       </c>
@@ -6657,8 +6884,8 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="101" t="s">
+      <c r="A32" s="107"/>
+      <c r="B32" s="124" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -6707,8 +6934,8 @@
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="102"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="125"/>
       <c r="C33" s="45" t="s">
         <v>15</v>
       </c>
@@ -6746,8 +6973,8 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="102"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="45" t="s">
         <v>16</v>
       </c>
@@ -6767,8 +6994,8 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="46" t="s">
         <v>17</v>
       </c>
@@ -6806,8 +7033,8 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="102"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="125"/>
       <c r="C36" s="52" t="s">
         <v>32</v>
       </c>
@@ -6854,8 +7081,8 @@
       <c r="N36" s="23"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="102"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="125"/>
       <c r="C37" s="45" t="s">
         <v>15</v>
       </c>
@@ -6893,8 +7120,8 @@
       <c r="N37" s="24"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="102"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="125"/>
       <c r="C38" s="45" t="s">
         <v>16</v>
       </c>
@@ -6932,8 +7159,8 @@
       <c r="N38" s="24"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="102"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="45" t="s">
         <v>17</v>
       </c>
@@ -6953,10 +7180,10 @@
       <c r="N39" s="24"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="93"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="10" t="s">
         <v>33</v>
       </c>
@@ -7003,8 +7230,8 @@
       <c r="N40" s="23"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="94"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="45" t="s">
         <v>15</v>
       </c>
@@ -7042,8 +7269,8 @@
       <c r="N41" s="24"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="94"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="117"/>
       <c r="C42" s="45" t="s">
         <v>16</v>
       </c>
@@ -7081,8 +7308,8 @@
       <c r="N42" s="24"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="94"/>
+      <c r="A43" s="107"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="46" t="s">
         <v>17</v>
       </c>
@@ -7102,8 +7329,8 @@
       <c r="N43" s="24"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="96"/>
+      <c r="A44" s="107"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="49" t="s">
         <v>30</v>
       </c>
@@ -7150,8 +7377,8 @@
       <c r="N44" s="23"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="96"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="45" t="s">
         <v>15</v>
       </c>
@@ -7171,8 +7398,8 @@
       <c r="N45" s="24"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="96"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="45" t="s">
         <v>16</v>
       </c>
@@ -7210,8 +7437,8 @@
       <c r="N46" s="24"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="85"/>
-      <c r="B47" s="97"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="120"/>
       <c r="C47" s="46" t="s">
         <v>17</v>
       </c>
@@ -7249,10 +7476,10 @@
       <c r="N47" s="24"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="89"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="2">
         <f>SUM(D28,D32,D36,D40,D44)</f>
         <v>14</v>
@@ -7391,24 +7618,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="90" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="115"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -7533,10 +7760,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="98">
+      <c r="B6" s="121">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -7608,8 +7835,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="99"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="45" t="s">
         <v>15</v>
       </c>
@@ -7634,8 +7861,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="99"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="45" t="s">
         <v>16</v>
       </c>
@@ -7660,8 +7887,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="46" t="s">
         <v>17</v>
       </c>
@@ -7690,8 +7917,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="111">
+      <c r="A10" s="107"/>
+      <c r="B10" s="134">
         <v>15</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -7763,8 +7990,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="45" t="s">
         <v>15</v>
       </c>
@@ -7789,8 +8016,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="112"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="45" t="s">
         <v>16</v>
       </c>
@@ -7815,8 +8042,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="113"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="46" t="s">
         <v>17</v>
       </c>
@@ -7845,8 +8072,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="111">
+      <c r="A14" s="107"/>
+      <c r="B14" s="134">
         <v>21</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -7918,8 +8145,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="45" t="s">
         <v>15</v>
       </c>
@@ -7952,8 +8179,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="112"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="45" t="s">
         <v>16</v>
       </c>
@@ -7978,8 +8205,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="113"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="46" t="s">
         <v>17</v>
       </c>
@@ -8004,8 +8231,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="111">
+      <c r="A18" s="107"/>
+      <c r="B18" s="134">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -8077,8 +8304,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="135"/>
       <c r="C19" s="45" t="s">
         <v>15</v>
       </c>
@@ -8107,8 +8334,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="45" t="s">
         <v>16</v>
       </c>
@@ -8133,8 +8360,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="46" t="s">
         <v>17</v>
       </c>
@@ -8159,8 +8386,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="103" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="126" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="60" t="s">
@@ -8232,8 +8459,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="104"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="45" t="s">
         <v>15</v>
       </c>
@@ -8258,8 +8485,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="104"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="45" t="s">
         <v>16</v>
       </c>
@@ -8290,8 +8517,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="105"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="46" t="s">
         <v>17</v>
       </c>
@@ -8316,8 +8543,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="103" t="s">
+      <c r="A26" s="107"/>
+      <c r="B26" s="126" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="60" t="s">
@@ -8389,8 +8616,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="104"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="45" t="s">
         <v>15</v>
       </c>
@@ -8415,8 +8642,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="104"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="45" t="s">
         <v>16</v>
       </c>
@@ -8445,8 +8672,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="105"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="46" t="s">
         <v>17</v>
       </c>
@@ -8471,8 +8698,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="103">
+      <c r="A30" s="107"/>
+      <c r="B30" s="126">
         <v>31</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -8544,8 +8771,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="104"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="45" t="s">
         <v>15</v>
       </c>
@@ -8570,8 +8797,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="104"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="127"/>
       <c r="C32" s="45" t="s">
         <v>16</v>
       </c>
@@ -8600,8 +8827,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
-      <c r="B33" s="105"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="46" t="s">
         <v>17</v>
       </c>
@@ -8626,10 +8853,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="93"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="10" t="s">
         <v>38</v>
       </c>
@@ -8699,8 +8926,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="94"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="117"/>
       <c r="C35" s="45" t="s">
         <v>15</v>
       </c>
@@ -8725,8 +8952,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="94"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="45" t="s">
         <v>16</v>
       </c>
@@ -8755,8 +8982,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="45" t="s">
         <v>17</v>
       </c>
@@ -8781,8 +9008,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="108"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="10" t="s">
         <v>39</v>
       </c>
@@ -8852,8 +9079,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="109"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="132"/>
       <c r="C39" s="45" t="s">
         <v>15</v>
       </c>
@@ -8878,8 +9105,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="109"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="132"/>
       <c r="C40" s="45" t="s">
         <v>16</v>
       </c>
@@ -8908,8 +9135,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
-      <c r="B41" s="110"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="133"/>
       <c r="C41" s="46" t="s">
         <v>17</v>
       </c>
@@ -8934,10 +9161,10 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="107"/>
+      <c r="C42" s="130"/>
       <c r="D42" s="2">
         <f t="shared" ref="D42:R42" si="21">SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30)</f>
         <v>38</v>
@@ -9004,10 +9231,10 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="98">
+      <c r="B44" s="121">
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -9075,8 +9302,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="99"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="45" t="s">
         <v>15</v>
       </c>
@@ -9100,8 +9327,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="99"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="45" t="s">
         <v>16</v>
       </c>
@@ -9125,8 +9352,8 @@
       <c r="R46" s="37"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
-      <c r="B47" s="100"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="123"/>
       <c r="C47" s="46" t="s">
         <v>17</v>
       </c>
@@ -9178,8 +9405,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
-      <c r="B48" s="111">
+      <c r="A48" s="107"/>
+      <c r="B48" s="134">
         <v>15</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -9247,8 +9474,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
-      <c r="B49" s="112"/>
+      <c r="A49" s="107"/>
+      <c r="B49" s="135"/>
       <c r="C49" s="45" t="s">
         <v>15</v>
       </c>
@@ -9272,8 +9499,8 @@
       <c r="R49" s="37"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
-      <c r="B50" s="112"/>
+      <c r="A50" s="107"/>
+      <c r="B50" s="135"/>
       <c r="C50" s="45" t="s">
         <v>16</v>
       </c>
@@ -9297,8 +9524,8 @@
       <c r="R50" s="36"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
-      <c r="B51" s="113"/>
+      <c r="A51" s="107"/>
+      <c r="B51" s="136"/>
       <c r="C51" s="46" t="s">
         <v>17</v>
       </c>
@@ -9353,8 +9580,8 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
-      <c r="B52" s="111">
+      <c r="A52" s="107"/>
+      <c r="B52" s="134">
         <v>21</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -9422,8 +9649,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="84"/>
-      <c r="B53" s="112"/>
+      <c r="A53" s="107"/>
+      <c r="B53" s="135"/>
       <c r="C53" s="45" t="s">
         <v>15</v>
       </c>
@@ -9475,8 +9702,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="84"/>
-      <c r="B54" s="112"/>
+      <c r="A54" s="107"/>
+      <c r="B54" s="135"/>
       <c r="C54" s="45" t="s">
         <v>16</v>
       </c>
@@ -9500,8 +9727,8 @@
       <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="84"/>
-      <c r="B55" s="113"/>
+      <c r="A55" s="107"/>
+      <c r="B55" s="136"/>
       <c r="C55" s="46" t="s">
         <v>17</v>
       </c>
@@ -9525,8 +9752,8 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="84"/>
-      <c r="B56" s="111">
+      <c r="A56" s="107"/>
+      <c r="B56" s="134">
         <v>18</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -9594,8 +9821,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
-      <c r="B57" s="112"/>
+      <c r="A57" s="107"/>
+      <c r="B57" s="135"/>
       <c r="C57" s="45" t="s">
         <v>15</v>
       </c>
@@ -9647,8 +9874,8 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="84"/>
-      <c r="B58" s="112"/>
+      <c r="A58" s="107"/>
+      <c r="B58" s="135"/>
       <c r="C58" s="45" t="s">
         <v>16</v>
       </c>
@@ -9672,8 +9899,8 @@
       <c r="R58" s="37"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="84"/>
-      <c r="B59" s="113"/>
+      <c r="A59" s="107"/>
+      <c r="B59" s="136"/>
       <c r="C59" s="46" t="s">
         <v>17</v>
       </c>
@@ -9697,8 +9924,8 @@
       <c r="R59" s="38"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="84"/>
-      <c r="B60" s="103" t="s">
+      <c r="A60" s="107"/>
+      <c r="B60" s="126" t="s">
         <v>41</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -9766,8 +9993,8 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="84"/>
-      <c r="B61" s="104"/>
+      <c r="A61" s="107"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="45" t="s">
         <v>15</v>
       </c>
@@ -9791,8 +10018,8 @@
       <c r="R61" s="37"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
-      <c r="B62" s="104"/>
+      <c r="A62" s="107"/>
+      <c r="B62" s="127"/>
       <c r="C62" s="45" t="s">
         <v>16</v>
       </c>
@@ -9844,8 +10071,8 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="84"/>
-      <c r="B63" s="105"/>
+      <c r="A63" s="107"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="46" t="s">
         <v>17</v>
       </c>
@@ -9869,8 +10096,8 @@
       <c r="R63" s="39"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
-      <c r="B64" s="103" t="s">
+      <c r="A64" s="107"/>
+      <c r="B64" s="126" t="s">
         <v>44</v>
       </c>
       <c r="C64" s="60" t="s">
@@ -9938,8 +10165,8 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="84"/>
-      <c r="B65" s="104"/>
+      <c r="A65" s="107"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="45" t="s">
         <v>15</v>
       </c>
@@ -9963,8 +10190,8 @@
       <c r="R65" s="37"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
-      <c r="B66" s="104"/>
+      <c r="A66" s="107"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="45" t="s">
         <v>16</v>
       </c>
@@ -10016,8 +10243,8 @@
       </c>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="84"/>
-      <c r="B67" s="105"/>
+      <c r="A67" s="107"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="46" t="s">
         <v>17</v>
       </c>
@@ -10041,8 +10268,8 @@
       <c r="R67" s="39"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="84"/>
-      <c r="B68" s="103">
+      <c r="A68" s="107"/>
+      <c r="B68" s="126">
         <v>31</v>
       </c>
       <c r="C68" s="60" t="s">
@@ -10110,8 +10337,8 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="84"/>
-      <c r="B69" s="104"/>
+      <c r="A69" s="107"/>
+      <c r="B69" s="127"/>
       <c r="C69" s="45" t="s">
         <v>15</v>
       </c>
@@ -10135,8 +10362,8 @@
       <c r="R69" s="37"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="84"/>
-      <c r="B70" s="104"/>
+      <c r="A70" s="107"/>
+      <c r="B70" s="127"/>
       <c r="C70" s="45" t="s">
         <v>16</v>
       </c>
@@ -10188,8 +10415,8 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="85"/>
-      <c r="B71" s="105"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="128"/>
       <c r="C71" s="46" t="s">
         <v>17</v>
       </c>
@@ -10213,10 +10440,10 @@
       <c r="R71" s="39"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="83" t="s">
+      <c r="A72" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="98"/>
+      <c r="B72" s="121"/>
       <c r="C72" s="10" t="s">
         <v>38</v>
       </c>
@@ -10282,8 +10509,8 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="84"/>
-      <c r="B73" s="99"/>
+      <c r="A73" s="107"/>
+      <c r="B73" s="122"/>
       <c r="C73" s="45" t="s">
         <v>15</v>
       </c>
@@ -10307,8 +10534,8 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="84"/>
-      <c r="B74" s="99"/>
+      <c r="A74" s="107"/>
+      <c r="B74" s="122"/>
       <c r="C74" s="45" t="s">
         <v>16</v>
       </c>
@@ -10360,8 +10587,8 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="84"/>
-      <c r="B75" s="100"/>
+      <c r="A75" s="107"/>
+      <c r="B75" s="123"/>
       <c r="C75" s="45" t="s">
         <v>17</v>
       </c>
@@ -10385,8 +10612,8 @@
       <c r="R75" s="38"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="84"/>
-      <c r="B76" s="108"/>
+      <c r="A76" s="107"/>
+      <c r="B76" s="131"/>
       <c r="C76" s="10" t="s">
         <v>39</v>
       </c>
@@ -10452,8 +10679,8 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="84"/>
-      <c r="B77" s="109"/>
+      <c r="A77" s="107"/>
+      <c r="B77" s="132"/>
       <c r="C77" s="45" t="s">
         <v>15</v>
       </c>
@@ -10477,8 +10704,8 @@
       <c r="R77" s="37"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="84"/>
-      <c r="B78" s="109"/>
+      <c r="A78" s="107"/>
+      <c r="B78" s="132"/>
       <c r="C78" s="45" t="s">
         <v>16</v>
       </c>
@@ -10530,8 +10757,8 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="85"/>
-      <c r="B79" s="110"/>
+      <c r="A79" s="108"/>
+      <c r="B79" s="133"/>
       <c r="C79" s="46" t="s">
         <v>17</v>
       </c>
@@ -10555,10 +10782,10 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="106" t="s">
+      <c r="B80" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="106"/>
+      <c r="C80" s="129"/>
       <c r="D80" s="2">
         <f t="shared" ref="D80:M80" si="41">SUM(D44,D64,D68,D72,D76)</f>
         <v>17.5</v>
@@ -10746,24 +10973,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="90" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="115"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -10888,10 +11115,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="98">
+      <c r="B6" s="121">
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -10963,8 +11190,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="99"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="66" t="s">
         <v>15</v>
       </c>
@@ -10993,8 +11220,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="99"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="66" t="s">
         <v>16</v>
       </c>
@@ -11019,8 +11246,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="46" t="s">
         <v>17</v>
       </c>
@@ -11045,8 +11272,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="111">
+      <c r="A10" s="107"/>
+      <c r="B10" s="134">
         <v>16</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -11118,8 +11345,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="66" t="s">
         <v>15</v>
       </c>
@@ -11148,8 +11375,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="112"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="66" t="s">
         <v>16</v>
       </c>
@@ -11174,8 +11401,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="113"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="46" t="s">
         <v>17</v>
       </c>
@@ -11200,8 +11427,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="111">
+      <c r="A14" s="107"/>
+      <c r="B14" s="134">
         <v>9</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -11273,8 +11500,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="66" t="s">
         <v>15</v>
       </c>
@@ -11303,8 +11530,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="112"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="66" t="s">
         <v>16</v>
       </c>
@@ -11333,8 +11560,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="113"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="46" t="s">
         <v>17</v>
       </c>
@@ -11359,8 +11586,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="111" t="s">
+      <c r="A18" s="107"/>
+      <c r="B18" s="134" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -11432,8 +11659,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="135"/>
       <c r="C19" s="66" t="s">
         <v>15</v>
       </c>
@@ -11458,8 +11685,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="66" t="s">
         <v>16</v>
       </c>
@@ -11484,8 +11711,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="46" t="s">
         <v>17</v>
       </c>
@@ -11514,8 +11741,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="98" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="121" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -11587,8 +11814,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="99"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="66" t="s">
         <v>15</v>
       </c>
@@ -11617,8 +11844,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="99"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="66" t="s">
         <v>16</v>
       </c>
@@ -11647,8 +11874,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="123"/>
       <c r="C25" s="46" t="s">
         <v>17</v>
       </c>
@@ -11673,7 +11900,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="106" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="63"/>
@@ -11746,7 +11973,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="64"/>
       <c r="C27" s="66" t="s">
         <v>15</v>
@@ -11776,7 +12003,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="64"/>
       <c r="C28" s="66" t="s">
         <v>16</v>
@@ -11802,7 +12029,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="65"/>
       <c r="C29" s="46" t="s">
         <v>17</v>
@@ -11828,8 +12055,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="103"/>
+      <c r="A30" s="107"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="60" t="s">
         <v>51</v>
       </c>
@@ -11899,8 +12126,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="104"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="66" t="s">
         <v>15</v>
       </c>
@@ -11929,8 +12156,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="104"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="127"/>
       <c r="C32" s="66" t="s">
         <v>16</v>
       </c>
@@ -11955,8 +12182,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="105"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="46" t="s">
         <v>17</v>
       </c>
@@ -11981,8 +12208,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="93"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="60" t="s">
         <v>57</v>
       </c>
@@ -12052,8 +12279,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="94"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="117"/>
       <c r="C35" s="66" t="s">
         <v>15</v>
       </c>
@@ -12082,8 +12309,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="94"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="66" t="s">
         <v>16</v>
       </c>
@@ -12112,8 +12339,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="66" t="s">
         <v>17</v>
       </c>
@@ -12138,8 +12365,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="103"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="60" t="s">
         <v>52</v>
       </c>
@@ -12209,8 +12436,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="104"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="127"/>
       <c r="C39" s="66" t="s">
         <v>15</v>
       </c>
@@ -12239,8 +12466,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="104"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="127"/>
       <c r="C40" s="66" t="s">
         <v>16</v>
       </c>
@@ -12265,8 +12492,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="105"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="46" t="s">
         <v>17</v>
       </c>
@@ -12291,8 +12518,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="103"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="60" t="s">
         <v>59</v>
       </c>
@@ -12362,8 +12589,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="104"/>
+      <c r="A43" s="107"/>
+      <c r="B43" s="127"/>
       <c r="C43" s="66" t="s">
         <v>15</v>
       </c>
@@ -12388,8 +12615,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="104"/>
+      <c r="A44" s="107"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="66" t="s">
         <v>16</v>
       </c>
@@ -12420,8 +12647,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="105"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="46" t="s">
         <v>17</v>
       </c>
@@ -12446,8 +12673,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="103"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="126"/>
       <c r="C46" s="60" t="s">
         <v>58</v>
       </c>
@@ -12517,8 +12744,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
-      <c r="B47" s="104"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="127"/>
       <c r="C47" s="66" t="s">
         <v>15</v>
       </c>
@@ -12547,8 +12774,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
-      <c r="B48" s="104"/>
+      <c r="A48" s="107"/>
+      <c r="B48" s="127"/>
       <c r="C48" s="66" t="s">
         <v>16</v>
       </c>
@@ -12573,8 +12800,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="85"/>
-      <c r="B49" s="105"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="128"/>
       <c r="C49" s="46" t="s">
         <v>17</v>
       </c>
@@ -12600,10 +12827,10 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="75"/>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="107"/>
+      <c r="C50" s="130"/>
       <c r="D50" s="2">
         <f>SUM(D6,D10,D14,D34,D38,D18,D22,D26,D30,D42,D46)</f>
         <v>44</v>
@@ -12671,10 +12898,10 @@
     </row>
     <row r="51" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="98">
+      <c r="B52" s="121">
         <v>28</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -12742,8 +12969,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="84"/>
-      <c r="B53" s="99"/>
+      <c r="A53" s="107"/>
+      <c r="B53" s="122"/>
       <c r="C53" s="70" t="s">
         <v>15</v>
       </c>
@@ -12795,8 +13022,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="84"/>
-      <c r="B54" s="99"/>
+      <c r="A54" s="107"/>
+      <c r="B54" s="122"/>
       <c r="C54" s="70" t="s">
         <v>16</v>
       </c>
@@ -12820,8 +13047,8 @@
       <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="84"/>
-      <c r="B55" s="100"/>
+      <c r="A55" s="107"/>
+      <c r="B55" s="123"/>
       <c r="C55" s="46" t="s">
         <v>17</v>
       </c>
@@ -12845,8 +13072,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="84"/>
-      <c r="B56" s="111">
+      <c r="A56" s="107"/>
+      <c r="B56" s="134">
         <v>16</v>
       </c>
       <c r="C56" s="47" t="s">
@@ -12914,8 +13141,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
-      <c r="B57" s="112"/>
+      <c r="A57" s="107"/>
+      <c r="B57" s="135"/>
       <c r="C57" s="70" t="s">
         <v>15</v>
       </c>
@@ -12967,8 +13194,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="84"/>
-      <c r="B58" s="112"/>
+      <c r="A58" s="107"/>
+      <c r="B58" s="135"/>
       <c r="C58" s="70" t="s">
         <v>16</v>
       </c>
@@ -12992,8 +13219,8 @@
       <c r="R58" s="36"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="84"/>
-      <c r="B59" s="113"/>
+      <c r="A59" s="107"/>
+      <c r="B59" s="136"/>
       <c r="C59" s="46" t="s">
         <v>17</v>
       </c>
@@ -13017,8 +13244,8 @@
       <c r="R59" s="39"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="84"/>
-      <c r="B60" s="111">
+      <c r="A60" s="107"/>
+      <c r="B60" s="134">
         <v>9</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -13086,8 +13313,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="84"/>
-      <c r="B61" s="112"/>
+      <c r="A61" s="107"/>
+      <c r="B61" s="135"/>
       <c r="C61" s="70" t="s">
         <v>15</v>
       </c>
@@ -13139,8 +13366,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
-      <c r="B62" s="112"/>
+      <c r="A62" s="107"/>
+      <c r="B62" s="135"/>
       <c r="C62" s="70" t="s">
         <v>16</v>
       </c>
@@ -13192,8 +13419,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="84"/>
-      <c r="B63" s="113"/>
+      <c r="A63" s="107"/>
+      <c r="B63" s="136"/>
       <c r="C63" s="46" t="s">
         <v>17</v>
       </c>
@@ -13217,8 +13444,8 @@
       <c r="R63" s="39"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
-      <c r="B64" s="111" t="s">
+      <c r="A64" s="107"/>
+      <c r="B64" s="134" t="s">
         <v>55</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -13286,8 +13513,8 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="84"/>
-      <c r="B65" s="112"/>
+      <c r="A65" s="107"/>
+      <c r="B65" s="135"/>
       <c r="C65" s="70" t="s">
         <v>15</v>
       </c>
@@ -13311,8 +13538,8 @@
       <c r="R65" s="36"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
-      <c r="B66" s="112"/>
+      <c r="A66" s="107"/>
+      <c r="B66" s="135"/>
       <c r="C66" s="70" t="s">
         <v>16</v>
       </c>
@@ -13336,8 +13563,8 @@
       <c r="R66" s="37"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="84"/>
-      <c r="B67" s="113"/>
+      <c r="A67" s="107"/>
+      <c r="B67" s="136"/>
       <c r="C67" s="46" t="s">
         <v>17</v>
       </c>
@@ -13389,8 +13616,8 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="84"/>
-      <c r="B68" s="98" t="s">
+      <c r="A68" s="107"/>
+      <c r="B68" s="121" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -13458,8 +13685,8 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="84"/>
-      <c r="B69" s="99"/>
+      <c r="A69" s="107"/>
+      <c r="B69" s="122"/>
       <c r="C69" s="70" t="s">
         <v>15</v>
       </c>
@@ -13511,8 +13738,8 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="84"/>
-      <c r="B70" s="99"/>
+      <c r="A70" s="107"/>
+      <c r="B70" s="122"/>
       <c r="C70" s="70" t="s">
         <v>16</v>
       </c>
@@ -13564,8 +13791,8 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="85"/>
-      <c r="B71" s="100"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="123"/>
       <c r="C71" s="46" t="s">
         <v>17</v>
       </c>
@@ -13589,7 +13816,7 @@
       <c r="R71" s="39"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="114" t="s">
+      <c r="A72" s="137" t="s">
         <v>22</v>
       </c>
       <c r="B72" s="67"/>
@@ -13658,7 +13885,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="115"/>
+      <c r="A73" s="138"/>
       <c r="B73" s="68"/>
       <c r="C73" s="70" t="s">
         <v>15</v>
@@ -13711,7 +13938,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="115"/>
+      <c r="A74" s="138"/>
       <c r="B74" s="68"/>
       <c r="C74" s="70" t="s">
         <v>16</v>
@@ -13736,7 +13963,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="115"/>
+      <c r="A75" s="138"/>
       <c r="B75" s="69"/>
       <c r="C75" s="46" t="s">
         <v>17</v>
@@ -13761,8 +13988,8 @@
       <c r="R75" s="39"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="115"/>
-      <c r="B76" s="103"/>
+      <c r="A76" s="138"/>
+      <c r="B76" s="126"/>
       <c r="C76" s="60" t="s">
         <v>51</v>
       </c>
@@ -13828,8 +14055,8 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="115"/>
-      <c r="B77" s="104"/>
+      <c r="A77" s="138"/>
+      <c r="B77" s="127"/>
       <c r="C77" s="70" t="s">
         <v>15</v>
       </c>
@@ -13881,8 +14108,8 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="115"/>
-      <c r="B78" s="104"/>
+      <c r="A78" s="138"/>
+      <c r="B78" s="127"/>
       <c r="C78" s="70" t="s">
         <v>16</v>
       </c>
@@ -13906,8 +14133,8 @@
       <c r="R78" s="36"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="115"/>
-      <c r="B79" s="105"/>
+      <c r="A79" s="138"/>
+      <c r="B79" s="128"/>
       <c r="C79" s="46" t="s">
         <v>17</v>
       </c>
@@ -13931,8 +14158,8 @@
       <c r="R79" s="39"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="115"/>
-      <c r="B80" s="98"/>
+      <c r="A80" s="138"/>
+      <c r="B80" s="121"/>
       <c r="C80" s="60" t="s">
         <v>57</v>
       </c>
@@ -13998,8 +14225,8 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="115"/>
-      <c r="B81" s="99"/>
+      <c r="A81" s="138"/>
+      <c r="B81" s="122"/>
       <c r="C81" s="70" t="s">
         <v>15</v>
       </c>
@@ -14051,8 +14278,8 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="115"/>
-      <c r="B82" s="99"/>
+      <c r="A82" s="138"/>
+      <c r="B82" s="122"/>
       <c r="C82" s="70" t="s">
         <v>16</v>
       </c>
@@ -14104,8 +14331,8 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="115"/>
-      <c r="B83" s="100"/>
+      <c r="A83" s="138"/>
+      <c r="B83" s="123"/>
       <c r="C83" s="46" t="s">
         <v>17</v>
       </c>
@@ -14129,8 +14356,8 @@
       <c r="R83" s="38"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="115"/>
-      <c r="B84" s="103"/>
+      <c r="A84" s="138"/>
+      <c r="B84" s="126"/>
       <c r="C84" s="60" t="s">
         <v>52</v>
       </c>
@@ -14196,8 +14423,8 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="115"/>
-      <c r="B85" s="104"/>
+      <c r="A85" s="138"/>
+      <c r="B85" s="127"/>
       <c r="C85" s="70" t="s">
         <v>15</v>
       </c>
@@ -14249,8 +14476,8 @@
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="115"/>
-      <c r="B86" s="104"/>
+      <c r="A86" s="138"/>
+      <c r="B86" s="127"/>
       <c r="C86" s="70" t="s">
         <v>16</v>
       </c>
@@ -14302,8 +14529,8 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="115"/>
-      <c r="B87" s="105"/>
+      <c r="A87" s="138"/>
+      <c r="B87" s="128"/>
       <c r="C87" s="46" t="s">
         <v>17</v>
       </c>
@@ -14327,8 +14554,8 @@
       <c r="R87" s="39"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="115"/>
-      <c r="B88" s="103"/>
+      <c r="A88" s="138"/>
+      <c r="B88" s="126"/>
       <c r="C88" s="60" t="s">
         <v>59</v>
       </c>
@@ -14394,8 +14621,8 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="115"/>
-      <c r="B89" s="104"/>
+      <c r="A89" s="138"/>
+      <c r="B89" s="127"/>
       <c r="C89" s="70" t="s">
         <v>15</v>
       </c>
@@ -14419,8 +14646,8 @@
       <c r="R89" s="37"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="115"/>
-      <c r="B90" s="104"/>
+      <c r="A90" s="138"/>
+      <c r="B90" s="127"/>
       <c r="C90" s="70" t="s">
         <v>16</v>
       </c>
@@ -14472,8 +14699,8 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="115"/>
-      <c r="B91" s="105"/>
+      <c r="A91" s="138"/>
+      <c r="B91" s="128"/>
       <c r="C91" s="46" t="s">
         <v>17</v>
       </c>
@@ -14497,8 +14724,8 @@
       <c r="R91" s="39"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="115"/>
-      <c r="B92" s="103"/>
+      <c r="A92" s="138"/>
+      <c r="B92" s="126"/>
       <c r="C92" s="60" t="s">
         <v>58</v>
       </c>
@@ -14564,8 +14791,8 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="115"/>
-      <c r="B93" s="104"/>
+      <c r="A93" s="138"/>
+      <c r="B93" s="127"/>
       <c r="C93" s="70" t="s">
         <v>15</v>
       </c>
@@ -14617,8 +14844,8 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="115"/>
-      <c r="B94" s="104"/>
+      <c r="A94" s="138"/>
+      <c r="B94" s="127"/>
       <c r="C94" s="70" t="s">
         <v>16</v>
       </c>
@@ -14670,8 +14897,8 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="115"/>
-      <c r="B95" s="105"/>
+      <c r="A95" s="138"/>
+      <c r="B95" s="128"/>
       <c r="C95" s="46" t="s">
         <v>17</v>
       </c>
@@ -14695,10 +14922,10 @@
       <c r="R95" s="39"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B96" s="106" t="s">
+      <c r="B96" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="C96" s="106"/>
+      <c r="C96" s="129"/>
       <c r="D96" s="2">
         <f>SUM(D52,D56,D60,D64,D68,D72,D76,D80,D84,D88,D92)</f>
         <v>44</v>
@@ -14863,8 +15090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A21"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14885,24 +15112,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="90" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="115"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -15027,10 +15254,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="139" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -15102,8 +15329,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="70" t="s">
         <v>15</v>
       </c>
@@ -15132,8 +15359,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="70" t="s">
         <v>16</v>
       </c>
@@ -15162,8 +15389,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="118"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="46" t="s">
         <v>17</v>
       </c>
@@ -15188,8 +15415,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="119">
+      <c r="A10" s="107"/>
+      <c r="B10" s="142">
         <v>26</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -15261,8 +15488,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="70" t="s">
         <v>15</v>
       </c>
@@ -15291,8 +15518,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="120"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="70" t="s">
         <v>16</v>
       </c>
@@ -15321,8 +15548,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="121"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="46" t="s">
         <v>17</v>
       </c>
@@ -15347,8 +15574,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="119">
+      <c r="A14" s="107"/>
+      <c r="B14" s="142">
         <v>26</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -15420,8 +15647,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="120"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="70" t="s">
         <v>15</v>
       </c>
@@ -15452,8 +15679,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="120"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="143"/>
       <c r="C16" s="70" t="s">
         <v>16</v>
       </c>
@@ -15478,8 +15705,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="46" t="s">
         <v>17</v>
       </c>
@@ -15512,8 +15739,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="119" t="s">
+      <c r="A18" s="107"/>
+      <c r="B18" s="142" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -15585,8 +15812,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="120"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="70" t="s">
         <v>15</v>
       </c>
@@ -15611,8 +15838,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="120"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="70" t="s">
         <v>16</v>
       </c>
@@ -15643,8 +15870,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="121"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="46" t="s">
         <v>17</v>
       </c>
@@ -15669,10 +15896,10 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="116"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="10" t="s">
         <v>66</v>
       </c>
@@ -15742,8 +15969,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="117"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="70" t="s">
         <v>15</v>
       </c>
@@ -15772,8 +15999,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="117"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="140"/>
       <c r="C24" s="70" t="s">
         <v>16</v>
       </c>
@@ -15802,8 +16029,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="118"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="46" t="s">
         <v>17</v>
       </c>
@@ -15834,7 +16061,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="72"/>
       <c r="C26" s="60" t="s">
         <v>67</v>
@@ -15905,7 +16132,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="73"/>
       <c r="C27" s="70" t="s">
         <v>15</v>
@@ -15937,7 +16164,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="73"/>
       <c r="C28" s="70" t="s">
         <v>16</v>
@@ -15969,7 +16196,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="74"/>
       <c r="C29" s="46" t="s">
         <v>17</v>
@@ -16002,10 +16229,10 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="71"/>
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="107"/>
+      <c r="C30" s="130"/>
       <c r="D30" s="2">
         <f>SUM(D6,D10,D14,D18,D22,D26)</f>
         <v>66</v>
@@ -16073,10 +16300,10 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="139" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -16144,8 +16371,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="117"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="140"/>
       <c r="C33" s="76" t="s">
         <v>15</v>
       </c>
@@ -16196,8 +16423,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="117"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="140"/>
       <c r="C34" s="76" t="s">
         <v>16</v>
       </c>
@@ -16248,8 +16475,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="118"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="46" t="s">
         <v>17</v>
       </c>
@@ -16270,8 +16497,8 @@
       <c r="R35" s="31"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="119">
+      <c r="A36" s="107"/>
+      <c r="B36" s="142">
         <v>26</v>
       </c>
       <c r="C36" s="47" t="s">
@@ -16339,8 +16566,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="120"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="143"/>
       <c r="C37" s="76" t="s">
         <v>15</v>
       </c>
@@ -16398,8 +16625,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="120"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="76" t="s">
         <v>16</v>
       </c>
@@ -16464,8 +16691,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="121"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="144"/>
       <c r="C39" s="46" t="s">
         <v>17</v>
       </c>
@@ -16486,8 +16713,8 @@
       <c r="R39" s="39"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="119">
+      <c r="A40" s="107"/>
+      <c r="B40" s="142">
         <v>26</v>
       </c>
       <c r="C40" s="60" t="s">
@@ -16555,8 +16782,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="120"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="76" t="s">
         <v>15</v>
       </c>
@@ -16614,8 +16841,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="120"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="143"/>
       <c r="C42" s="76" t="s">
         <v>16</v>
       </c>
@@ -16638,8 +16865,8 @@
       <c r="R42" s="37"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="121"/>
+      <c r="A43" s="107"/>
+      <c r="B43" s="144"/>
       <c r="C43" s="46" t="s">
         <v>17</v>
       </c>
@@ -16662,8 +16889,8 @@
       <c r="R43" s="39"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="119" t="s">
+      <c r="A44" s="107"/>
+      <c r="B44" s="142" t="s">
         <v>65</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -16731,8 +16958,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="120"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="143"/>
       <c r="C45" s="76" t="s">
         <v>15</v>
       </c>
@@ -16753,8 +16980,8 @@
       <c r="R45" s="31"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="120"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="143"/>
       <c r="C46" s="76" t="s">
         <v>16</v>
       </c>
@@ -16805,8 +17032,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
-      <c r="B47" s="121"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="144"/>
       <c r="C47" s="46" t="s">
         <v>17</v>
       </c>
@@ -16827,10 +17054,10 @@
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="116"/>
+      <c r="B48" s="139"/>
       <c r="C48" s="10" t="s">
         <v>66</v>
       </c>
@@ -16896,8 +17123,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
-      <c r="B49" s="117"/>
+      <c r="A49" s="107"/>
+      <c r="B49" s="140"/>
       <c r="C49" s="76" t="s">
         <v>15</v>
       </c>
@@ -16948,8 +17175,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
-      <c r="B50" s="117"/>
+      <c r="A50" s="107"/>
+      <c r="B50" s="140"/>
       <c r="C50" s="76" t="s">
         <v>16</v>
       </c>
@@ -17000,8 +17227,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
-      <c r="B51" s="118"/>
+      <c r="A51" s="107"/>
+      <c r="B51" s="141"/>
       <c r="C51" s="46" t="s">
         <v>17</v>
       </c>
@@ -17024,7 +17251,7 @@
       <c r="R51" s="39"/>
     </row>
     <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
+      <c r="A52" s="107"/>
       <c r="B52" s="72"/>
       <c r="C52" s="60" t="s">
         <v>67</v>
@@ -17091,7 +17318,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="84"/>
+      <c r="A53" s="107"/>
       <c r="B53" s="73"/>
       <c r="C53" s="76" t="s">
         <v>15</v>
@@ -17143,7 +17370,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="84"/>
+      <c r="A54" s="107"/>
       <c r="B54" s="73"/>
       <c r="C54" s="76" t="s">
         <v>16</v>
@@ -17195,7 +17422,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="85"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="74"/>
       <c r="C55" s="46" t="s">
         <v>17</v>
@@ -17221,10 +17448,10 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="106" t="s">
+      <c r="B56" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="106"/>
+      <c r="C56" s="129"/>
       <c r="D56" s="2">
         <f>SUM(D32, D36, D40, D44, D48,D52)</f>
         <v>66</v>
@@ -17379,10 +17606,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S72"/>
+  <dimension ref="A2:Z74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17397,33 +17624,46 @@
     <col min="8" max="13" width="9.140625" style="78"/>
     <col min="14" max="14" width="9.7109375" style="78" customWidth="1"/>
     <col min="15" max="16" width="9.140625" style="78"/>
-    <col min="17" max="17" width="11.7109375" style="78" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="78" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="78" customWidth="1"/>
-    <col min="19" max="19" width="21" style="78" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="78"/>
+    <col min="19" max="19" width="8.28515625" style="78" customWidth="1"/>
+    <col min="20" max="25" width="9.140625" style="78"/>
+    <col min="26" max="26" width="20" style="78" customWidth="1"/>
+    <col min="27" max="31" width="9.140625" style="78"/>
+    <col min="32" max="32" width="19.85546875" style="78" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="90" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E2" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="90" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="115"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
@@ -17445,7 +17685,7 @@
       <c r="J3" s="40">
         <v>42106</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="81">
         <v>42107</v>
       </c>
       <c r="L3" s="40">
@@ -17469,8 +17709,29 @@
       <c r="R3" s="40">
         <v>42114</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S3" s="82">
+        <v>42115</v>
+      </c>
+      <c r="T3" s="40">
+        <v>42116</v>
+      </c>
+      <c r="U3" s="40">
+        <v>42117</v>
+      </c>
+      <c r="V3" s="40">
+        <v>42118</v>
+      </c>
+      <c r="W3" s="40">
+        <v>42119</v>
+      </c>
+      <c r="X3" s="40">
+        <v>42120</v>
+      </c>
+      <c r="Y3" s="40">
+        <v>42121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
@@ -17492,7 +17753,7 @@
       <c r="J4" s="43">
         <v>6</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="48">
         <v>7</v>
       </c>
       <c r="L4" s="43">
@@ -17516,8 +17777,29 @@
       <c r="R4" s="43">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="83">
+        <v>15</v>
+      </c>
+      <c r="T4" s="43">
+        <v>16</v>
+      </c>
+      <c r="U4" s="43">
+        <v>17</v>
+      </c>
+      <c r="V4" s="43">
+        <v>18</v>
+      </c>
+      <c r="W4" s="43">
+        <v>19</v>
+      </c>
+      <c r="X4" s="43">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
         <v>12</v>
       </c>
@@ -17534,22 +17816,29 @@
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="53"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="54" t="s">
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="139" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -17587,7 +17876,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17609,20 +17898,48 @@
       </c>
       <c r="Q6" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="16">
+        <v>6</v>
+      </c>
+      <c r="R6" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="14">
-        <f>SUM(E6:R6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="123"/>
-      <c r="B7" s="117"/>
+      <c r="S6" s="16">
+        <f t="shared" ref="S6:Y6" si="1">SUM(S7:S9)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="14">
+        <f t="shared" ref="Z6:Z37" si="2">SUM(E6:R6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="146"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="77" t="s">
         <v>15</v>
       </c>
@@ -17636,21 +17953,30 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="88"/>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28">
-        <f t="shared" ref="S7:S9" si="1">SUM(E7:R7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="117"/>
+      <c r="Q7" s="27">
+        <v>6</v>
+      </c>
+      <c r="R7" s="89"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="28">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="146"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="77" t="s">
         <v>16</v>
       </c>
@@ -17662,21 +17988,28 @@
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="62"/>
       <c r="N8" s="62"/>
       <c r="O8" s="62"/>
       <c r="P8" s="62"/>
       <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="118"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="146"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="46" t="s">
         <v>17</v>
       </c>
@@ -17688,21 +18021,28 @@
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="L9" s="92"/>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
-      <c r="B10" s="116" t="s">
+      <c r="R9" s="93"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="146"/>
+      <c r="B10" s="139" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -17713,69 +18053,97 @@
         <v>8</v>
       </c>
       <c r="E10" s="16">
-        <f t="shared" ref="E10:R10" si="2">SUM(E11:E13)</f>
+        <f t="shared" ref="E10:R10" si="3">SUM(E11:E13)</f>
         <v>0</v>
       </c>
       <c r="F10" s="16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="16">
+        <f t="shared" ref="S10:Y10" si="4">SUM(S11:S13)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="14">
-        <f>SUM(E10:R10)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
-      <c r="B11" s="117"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="146"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="77" t="s">
         <v>15</v>
       </c>
@@ -17789,21 +18157,30 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="88"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28">
-        <f t="shared" ref="S11:S17" si="3">SUM(E11:R11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="117"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27">
+        <v>4</v>
+      </c>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="146"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="77" t="s">
         <v>16</v>
       </c>
@@ -17819,21 +18196,28 @@
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
+      <c r="L12" s="90"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
       <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="28">
-        <f t="shared" si="3"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="28">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
-      <c r="B13" s="118"/>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="146"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="46" t="s">
         <v>17</v>
       </c>
@@ -17845,21 +18229,28 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="123"/>
-      <c r="B14" s="119" t="s">
+      <c r="R13" s="93"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="146"/>
+      <c r="B14" s="142" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="47" t="s">
@@ -17870,69 +18261,97 @@
         <v>2</v>
       </c>
       <c r="E14" s="16">
-        <f t="shared" ref="E14:R14" si="4">SUM(E15:E17)</f>
+        <f t="shared" ref="E14:R14" si="5">SUM(E15:E17)</f>
         <v>0</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="87">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="123"/>
-      <c r="B15" s="120"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <f t="shared" ref="S14:Y14" si="6">SUM(S15:S17)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="146"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="77" t="s">
         <v>15</v>
       </c>
@@ -17944,21 +18363,28 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
+      <c r="L15" s="88"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="123"/>
-      <c r="B16" s="120"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="146"/>
+      <c r="B16" s="143"/>
       <c r="C16" s="77" t="s">
         <v>16</v>
       </c>
@@ -17970,21 +18396,28 @@
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="L16" s="88"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="123"/>
-      <c r="B17" s="121"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="146"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="46" t="s">
         <v>17</v>
       </c>
@@ -17998,7 +18431,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="L17" s="92"/>
       <c r="M17" s="29">
         <v>2</v>
       </c>
@@ -18006,15 +18439,22 @@
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="30">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="123"/>
-      <c r="B18" s="116">
+      <c r="R17" s="93"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="146"/>
+      <c r="B18" s="139">
         <v>39</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -18025,69 +18465,97 @@
         <v>2</v>
       </c>
       <c r="E18" s="16">
-        <f t="shared" ref="E18:R18" si="5">SUM(E19:E21)</f>
+        <f t="shared" ref="E18:R18" si="7">SUM(E19:E21)</f>
         <v>0</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K18" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="87">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q18" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="14">
-        <f>SUM(E18:R18)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="123"/>
-      <c r="B19" s="117"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="16">
+        <f t="shared" ref="S18:Y18" si="8">SUM(S19:S21)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="146"/>
+      <c r="B19" s="140"/>
       <c r="C19" s="77" t="s">
         <v>15</v>
       </c>
@@ -18099,21 +18567,28 @@
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="88"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="28">
-        <f t="shared" ref="S19:S21" si="6">SUM(E19:R19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="123"/>
-      <c r="B20" s="117"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="146"/>
+      <c r="B20" s="140"/>
       <c r="C20" s="77" t="s">
         <v>16</v>
       </c>
@@ -18125,21 +18600,28 @@
       <c r="I20" s="62"/>
       <c r="J20" s="62"/>
       <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="62"/>
       <c r="N20" s="62"/>
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
       <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="123"/>
-      <c r="B21" s="118"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="146"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="46" t="s">
         <v>17</v>
       </c>
@@ -18153,7 +18635,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="L21" s="92"/>
       <c r="M21" s="29">
         <v>2</v>
       </c>
@@ -18161,15 +18643,22 @@
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="30">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
-      <c r="B22" s="116" t="s">
+      <c r="R21" s="93"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="146"/>
+      <c r="B22" s="139" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -18180,69 +18669,97 @@
         <v>8</v>
       </c>
       <c r="E22" s="16">
-        <f t="shared" ref="E22:R22" si="7">SUM(E23:E25)</f>
+        <f t="shared" ref="E22:R22" si="9">SUM(E23:E25)</f>
         <v>0</v>
       </c>
       <c r="F22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K22" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="87">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q22" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="14">
-        <f>SUM(E22:R22)</f>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="16">
+        <f t="shared" ref="S22:Y22" si="10">SUM(S23:S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="16">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="X22" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="14">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
-      <c r="B23" s="117"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="146"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="77" t="s">
         <v>15</v>
       </c>
@@ -18256,21 +18773,30 @@
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="L23" s="88"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="28">
-        <f t="shared" ref="S23:S37" si="8">SUM(E23:R23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="123"/>
-      <c r="B24" s="117"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27">
+        <v>3</v>
+      </c>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="146"/>
+      <c r="B24" s="140"/>
       <c r="C24" s="77" t="s">
         <v>16</v>
       </c>
@@ -18286,21 +18812,28 @@
       <c r="I24" s="62"/>
       <c r="J24" s="62"/>
       <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
+      <c r="L24" s="90"/>
       <c r="M24" s="62"/>
       <c r="N24" s="62"/>
       <c r="O24" s="62"/>
       <c r="P24" s="62"/>
       <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="28">
-        <f t="shared" si="8"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="28">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
-      <c r="B25" s="118"/>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="146"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="46" t="s">
         <v>17</v>
       </c>
@@ -18312,21 +18845,28 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="L25" s="92"/>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="123"/>
-      <c r="B26" s="119" t="s">
+      <c r="R25" s="93"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="146"/>
+      <c r="B26" s="142" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="47" t="s">
@@ -18337,69 +18877,97 @@
         <v>7</v>
       </c>
       <c r="E26" s="16">
-        <f t="shared" ref="E26:R26" si="9">SUM(E27:E29)</f>
+        <f t="shared" ref="E26:R26" si="11">SUM(E27:E29)</f>
         <v>0</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K26" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="87">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q26" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="16">
+        <f t="shared" ref="S26:Y26" si="12">SUM(S27:S29)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="14">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="123"/>
-      <c r="B27" s="120"/>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="146"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="77" t="s">
         <v>15</v>
       </c>
@@ -18411,21 +18979,28 @@
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+      <c r="L27" s="88"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="28">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="123"/>
-      <c r="B28" s="120"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="146"/>
+      <c r="B28" s="143"/>
       <c r="C28" s="77" t="s">
         <v>16</v>
       </c>
@@ -18439,7 +19014,7 @@
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
+      <c r="L28" s="88"/>
       <c r="M28" s="27">
         <v>7</v>
       </c>
@@ -18447,15 +19022,22 @@
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="28">
-        <f t="shared" si="8"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="28">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="123"/>
-      <c r="B29" s="121"/>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="146"/>
+      <c r="B29" s="144"/>
       <c r="C29" s="46" t="s">
         <v>17</v>
       </c>
@@ -18467,21 +19049,28 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="L29" s="92"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="123"/>
-      <c r="B30" s="119">
+      <c r="R29" s="93"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="146"/>
+      <c r="B30" s="142">
         <v>40</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -18492,69 +19081,97 @@
         <v>8</v>
       </c>
       <c r="E30" s="16">
-        <f t="shared" ref="E30:R30" si="10">SUM(E31:E33)</f>
+        <f t="shared" ref="E30:R30" si="13">SUM(E31:E33)</f>
         <v>0</v>
       </c>
       <c r="F30" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G30" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H30" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I30" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J30" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K30" s="16">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="L30" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L30" s="87">
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="M30" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N30" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O30" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P30" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q30" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="16">
+        <f t="shared" ref="S30:Y30" si="14">SUM(S31:S33)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="14">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="123"/>
-      <c r="B31" s="120"/>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="146"/>
+      <c r="B31" s="143"/>
       <c r="C31" s="77" t="s">
         <v>15</v>
       </c>
@@ -18566,21 +19183,28 @@
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+      <c r="L31" s="88"/>
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="28">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="123"/>
-      <c r="B32" s="120"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="146"/>
+      <c r="B32" s="143"/>
       <c r="C32" s="77" t="s">
         <v>16</v>
       </c>
@@ -18596,21 +19220,28 @@
       <c r="K32" s="27">
         <v>2</v>
       </c>
-      <c r="L32" s="27"/>
+      <c r="L32" s="88"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
       <c r="P32" s="27"/>
       <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="28">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="123"/>
-      <c r="B33" s="121"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="146"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="46" t="s">
         <v>17</v>
       </c>
@@ -18624,7 +19255,7 @@
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
-      <c r="L33" s="29">
+      <c r="L33" s="92">
         <v>6</v>
       </c>
       <c r="M33" s="29"/>
@@ -18632,15 +19263,22 @@
       <c r="O33" s="29"/>
       <c r="P33" s="29"/>
       <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="30">
-        <f t="shared" si="8"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="30">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="123"/>
-      <c r="B34" s="119">
+    <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="146"/>
+      <c r="B34" s="142">
         <v>41</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -18651,69 +19289,97 @@
         <v>6</v>
       </c>
       <c r="E34" s="16">
-        <f t="shared" ref="E34:R34" si="11">SUM(E35:E37)</f>
+        <f t="shared" ref="E34:R34" si="15">SUM(E35:E37)</f>
         <v>0</v>
       </c>
       <c r="F34" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G34" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H34" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I34" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J34" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K34" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="87">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N34" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O34" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P34" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="123"/>
-      <c r="B35" s="120"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="16">
+        <f t="shared" ref="S34:Y34" si="16">SUM(S35:S37)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="16">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="Z34" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="146"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="77" t="s">
         <v>15</v>
       </c>
@@ -18727,21 +19393,30 @@
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
+      <c r="L35" s="88"/>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
       <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="28">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="123"/>
-      <c r="B36" s="120"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27">
+        <v>6</v>
+      </c>
+      <c r="Z35" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="146"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="77" t="s">
         <v>16</v>
       </c>
@@ -18753,21 +19428,28 @@
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
+      <c r="L36" s="88"/>
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
       <c r="O36" s="27"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="28">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="123"/>
-      <c r="B37" s="121"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="146"/>
+      <c r="B37" s="144"/>
       <c r="C37" s="46" t="s">
         <v>17</v>
       </c>
@@ -18779,156 +19461,1835 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
+      <c r="L37" s="92"/>
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R37" s="93"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="75"/>
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="107"/>
+      <c r="C38" s="130"/>
       <c r="D38" s="2">
-        <f t="shared" ref="D38:S38" si="12">SUM(D6,D10,D14,D18, D22, D26, D30, D34)</f>
+        <f t="shared" ref="D38:R38" si="17">SUM(D6,D10,D14,D18, D22, D26, D30, D34)</f>
         <v>47</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>6</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="79">
-        <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" ref="S38:Y38" si="18">SUM(S6,S10,S14,S18, S22, S26, S30, S34)</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="X38" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="Z38" s="79">
+        <f>SUM(Z6,Z10,Z14,Z18, Z22, Z26, Z30, Z34)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="75"/>
       <c r="B39" s="42"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="75"/>
       <c r="B40" s="42"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
-      <c r="B41" s="42"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="75"/>
-      <c r="B42" s="42"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="B43" s="42"/>
-    </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="75"/>
-      <c r="B44" s="42"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
-      <c r="B45" s="42"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="42"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
-      <c r="B47" s="42"/>
-    </row>
-    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-    </row>
-    <row r="51" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="15">
+        <f>SUM(D42:D44)</f>
+        <v>6</v>
+      </c>
+      <c r="E41" s="16">
+        <f t="shared" ref="E41:Y41" si="19">SUM(E42:E44)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="87">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="146"/>
+      <c r="B42" s="140"/>
+      <c r="C42" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="24">
+        <v>6</v>
+      </c>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="97"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="95"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="146"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="95"/>
+    </row>
+    <row r="44" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="146"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="101"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="99"/>
+      <c r="V44" s="99"/>
+      <c r="W44" s="99"/>
+      <c r="X44" s="99"/>
+      <c r="Y44" s="99"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="146"/>
+      <c r="B45" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="15">
+        <f>SUM(D46:D48)</f>
+        <v>8</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" ref="E45:Y45" si="20">SUM(E46:E48)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="87">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="146"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="24">
+        <v>4</v>
+      </c>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="97"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="95"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="95"/>
+      <c r="X46" s="95"/>
+      <c r="Y46" s="95"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="146"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="24">
+        <v>4</v>
+      </c>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="97"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="95"/>
+      <c r="W47" s="95"/>
+      <c r="X47" s="95"/>
+      <c r="Y47" s="95"/>
+    </row>
+    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="146"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="101"/>
+      <c r="S48" s="99"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="99"/>
+      <c r="V48" s="99"/>
+      <c r="W48" s="99"/>
+      <c r="X48" s="99"/>
+      <c r="Y48" s="99"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="146"/>
+      <c r="B49" s="142" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="10">
+        <f>SUM(D50:D52)</f>
+        <v>2</v>
+      </c>
+      <c r="E49" s="16">
+        <f t="shared" ref="E49:Y49" si="21">SUM(E50:E52)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="87">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="146"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="97"/>
+      <c r="S50" s="95"/>
+      <c r="T50" s="95"/>
+      <c r="U50" s="95"/>
+      <c r="V50" s="95"/>
+      <c r="W50" s="95"/>
+      <c r="X50" s="95"/>
+      <c r="Y50" s="95"/>
+    </row>
+    <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="146"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="97"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="95"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="95"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="95"/>
+      <c r="Y51" s="95"/>
+    </row>
+    <row r="52" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="146"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="26">
+        <v>2</v>
+      </c>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="99"/>
+      <c r="N52" s="99"/>
+      <c r="O52" s="99"/>
+      <c r="P52" s="99"/>
+      <c r="Q52" s="99"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="99"/>
+      <c r="T52" s="99"/>
+      <c r="U52" s="99"/>
+      <c r="V52" s="99"/>
+      <c r="W52" s="99"/>
+      <c r="X52" s="99"/>
+      <c r="Y52" s="99"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="146"/>
+      <c r="B53" s="139">
+        <v>39</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="15">
+        <f>SUM(D54:D56)</f>
+        <v>2</v>
+      </c>
+      <c r="E53" s="16">
+        <f t="shared" ref="E53:Y53" si="22">SUM(E54:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="87">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="35">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="146"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="97"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="95"/>
+      <c r="W54" s="95"/>
+      <c r="X54" s="95"/>
+      <c r="Y54" s="95"/>
+    </row>
+    <row r="55" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="146"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="95"/>
+      <c r="N55" s="95"/>
+      <c r="O55" s="95"/>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="95"/>
+      <c r="R55" s="97"/>
+      <c r="S55" s="95"/>
+      <c r="T55" s="95"/>
+      <c r="U55" s="95"/>
+      <c r="V55" s="95"/>
+      <c r="W55" s="95"/>
+      <c r="X55" s="95"/>
+      <c r="Y55" s="95"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="146"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="26">
+        <v>2</v>
+      </c>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="99"/>
+      <c r="N56" s="99"/>
+      <c r="O56" s="99"/>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="99"/>
+      <c r="R56" s="101"/>
+      <c r="S56" s="99"/>
+      <c r="T56" s="99"/>
+      <c r="U56" s="99"/>
+      <c r="V56" s="99"/>
+      <c r="W56" s="99"/>
+      <c r="X56" s="99"/>
+      <c r="Y56" s="99"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="146"/>
+      <c r="B57" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="15">
+        <f>SUM(D58:D60)</f>
+        <v>8</v>
+      </c>
+      <c r="E57" s="16">
+        <f t="shared" ref="E57:Y57" si="23">SUM(E58:E60)</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="87">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="35">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="146"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="24">
+        <v>3</v>
+      </c>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="95"/>
+      <c r="N58" s="95"/>
+      <c r="O58" s="95"/>
+      <c r="P58" s="95"/>
+      <c r="Q58" s="95"/>
+      <c r="R58" s="97"/>
+      <c r="S58" s="95"/>
+      <c r="T58" s="95"/>
+      <c r="U58" s="95"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
+      <c r="X58" s="95"/>
+      <c r="Y58" s="95"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="146"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="24">
+        <v>5</v>
+      </c>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="95"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="95"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="95"/>
+      <c r="R59" s="97"/>
+      <c r="S59" s="95"/>
+      <c r="T59" s="95"/>
+      <c r="U59" s="95"/>
+      <c r="V59" s="95"/>
+      <c r="W59" s="95"/>
+      <c r="X59" s="95"/>
+      <c r="Y59" s="95"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="146"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="98"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
+      <c r="P60" s="99"/>
+      <c r="Q60" s="99"/>
+      <c r="R60" s="101"/>
+      <c r="S60" s="99"/>
+      <c r="T60" s="99"/>
+      <c r="U60" s="99"/>
+      <c r="V60" s="99"/>
+      <c r="W60" s="99"/>
+      <c r="X60" s="99"/>
+      <c r="Y60" s="99"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="146"/>
+      <c r="B61" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="10">
+        <f>SUM(D62:D64)</f>
+        <v>7</v>
+      </c>
+      <c r="E61" s="16">
+        <f t="shared" ref="E61:Y61" si="24">SUM(E62:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="87">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="146"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="95"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="95"/>
+      <c r="N62" s="95"/>
+      <c r="O62" s="95"/>
+      <c r="P62" s="95"/>
+      <c r="Q62" s="95"/>
+      <c r="R62" s="97"/>
+      <c r="S62" s="95"/>
+      <c r="T62" s="95"/>
+      <c r="U62" s="95"/>
+      <c r="V62" s="95"/>
+      <c r="W62" s="95"/>
+      <c r="X62" s="95"/>
+      <c r="Y62" s="95"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="146"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="24">
+        <v>7</v>
+      </c>
+      <c r="E63" s="94"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="95"/>
+      <c r="L63" s="96"/>
+      <c r="M63" s="95"/>
+      <c r="N63" s="95"/>
+      <c r="O63" s="95"/>
+      <c r="P63" s="95"/>
+      <c r="Q63" s="95"/>
+      <c r="R63" s="97"/>
+      <c r="S63" s="95"/>
+      <c r="T63" s="95"/>
+      <c r="U63" s="95"/>
+      <c r="V63" s="95"/>
+      <c r="W63" s="95"/>
+      <c r="X63" s="95"/>
+      <c r="Y63" s="95"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="146"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="100"/>
+      <c r="M64" s="99"/>
+      <c r="N64" s="99"/>
+      <c r="O64" s="99"/>
+      <c r="P64" s="99"/>
+      <c r="Q64" s="99"/>
+      <c r="R64" s="101"/>
+      <c r="S64" s="99"/>
+      <c r="T64" s="99"/>
+      <c r="U64" s="99"/>
+      <c r="V64" s="99"/>
+      <c r="W64" s="99"/>
+      <c r="X64" s="99"/>
+      <c r="Y64" s="99"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="146"/>
+      <c r="B65" s="142">
+        <v>40</v>
+      </c>
+      <c r="C65" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="10">
+        <f>SUM(D66:D68)</f>
+        <v>8</v>
+      </c>
+      <c r="E65" s="16">
+        <f t="shared" ref="E65:Y65" si="25">SUM(E66:E68)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="87">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="146"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="94"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="96"/>
+      <c r="M66" s="95"/>
+      <c r="N66" s="95"/>
+      <c r="O66" s="95"/>
+      <c r="P66" s="95"/>
+      <c r="Q66" s="95"/>
+      <c r="R66" s="97"/>
+      <c r="S66" s="95"/>
+      <c r="T66" s="95"/>
+      <c r="U66" s="95"/>
+      <c r="V66" s="95"/>
+      <c r="W66" s="95"/>
+      <c r="X66" s="95"/>
+      <c r="Y66" s="95"/>
+    </row>
+    <row r="67" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="146"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="24">
+        <v>2</v>
+      </c>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="95"/>
+      <c r="K67" s="95"/>
+      <c r="L67" s="96"/>
+      <c r="M67" s="95"/>
+      <c r="N67" s="95"/>
+      <c r="O67" s="95"/>
+      <c r="P67" s="95"/>
+      <c r="Q67" s="95"/>
+      <c r="R67" s="97"/>
+      <c r="S67" s="95"/>
+      <c r="T67" s="95"/>
+      <c r="U67" s="95"/>
+      <c r="V67" s="95"/>
+      <c r="W67" s="95"/>
+      <c r="X67" s="95"/>
+      <c r="Y67" s="95"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" s="146"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="26">
+        <v>6</v>
+      </c>
+      <c r="E68" s="98"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="99"/>
+      <c r="J68" s="99"/>
+      <c r="K68" s="99"/>
+      <c r="L68" s="100"/>
+      <c r="M68" s="99"/>
+      <c r="N68" s="99"/>
+      <c r="O68" s="99"/>
+      <c r="P68" s="99"/>
+      <c r="Q68" s="99"/>
+      <c r="R68" s="101"/>
+      <c r="S68" s="99"/>
+      <c r="T68" s="99"/>
+      <c r="U68" s="99"/>
+      <c r="V68" s="99"/>
+      <c r="W68" s="99"/>
+      <c r="X68" s="99"/>
+      <c r="Y68" s="99"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="146"/>
+      <c r="B69" s="142">
+        <v>41</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="10">
+        <f>SUM(D70:D72)</f>
+        <v>6</v>
+      </c>
+      <c r="E69" s="16">
+        <f t="shared" ref="E69:Y69" si="26">SUM(E70:E72)</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="87">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="35">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" s="146"/>
+      <c r="B70" s="143"/>
+      <c r="C70" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="24">
+        <v>6</v>
+      </c>
+      <c r="E70" s="94"/>
+      <c r="F70" s="94"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="95"/>
+      <c r="I70" s="95"/>
+      <c r="J70" s="95"/>
+      <c r="K70" s="95"/>
+      <c r="L70" s="96"/>
+      <c r="M70" s="95"/>
+      <c r="N70" s="95"/>
+      <c r="O70" s="95"/>
+      <c r="P70" s="95"/>
+      <c r="Q70" s="95"/>
+      <c r="R70" s="97"/>
+      <c r="S70" s="95"/>
+      <c r="T70" s="95"/>
+      <c r="U70" s="95"/>
+      <c r="V70" s="95"/>
+      <c r="W70" s="95"/>
+      <c r="X70" s="95"/>
+      <c r="Y70" s="95"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" s="146"/>
+      <c r="B71" s="143"/>
+      <c r="C71" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="24"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="95"/>
+      <c r="K71" s="95"/>
+      <c r="L71" s="96"/>
+      <c r="M71" s="95"/>
+      <c r="N71" s="95"/>
+      <c r="O71" s="95"/>
+      <c r="P71" s="95"/>
+      <c r="Q71" s="95"/>
+      <c r="R71" s="97"/>
+      <c r="S71" s="95"/>
+      <c r="T71" s="95"/>
+      <c r="U71" s="95"/>
+      <c r="V71" s="95"/>
+      <c r="W71" s="95"/>
+      <c r="X71" s="95"/>
+      <c r="Y71" s="95"/>
+    </row>
+    <row r="72" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="146"/>
+      <c r="B72" s="144"/>
+      <c r="C72" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="26"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="99"/>
+      <c r="J72" s="99"/>
+      <c r="K72" s="99"/>
+      <c r="L72" s="100"/>
+      <c r="M72" s="99"/>
+      <c r="N72" s="99"/>
+      <c r="O72" s="99"/>
+      <c r="P72" s="99"/>
+      <c r="Q72" s="99"/>
+      <c r="R72" s="101"/>
+      <c r="S72" s="99"/>
+      <c r="T72" s="99"/>
+      <c r="U72" s="99"/>
+      <c r="V72" s="99"/>
+      <c r="W72" s="99"/>
+      <c r="X72" s="99"/>
+      <c r="Y72" s="99"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C73" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2">
+        <f>SUM(D49, D53, D57, D61, D65,D69,D45,D41)</f>
+        <v>47</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" ref="E73:Y73" si="27">SUM(E49, E53, E57, E61, E65,E69,E45,E41)</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D74" s="102">
+        <f>D73</f>
+        <v>47</v>
+      </c>
+      <c r="E74" s="102">
+        <f xml:space="preserve"> D74 - ($D$74/COUNT($E$4:$Y$4))</f>
+        <v>44.761904761904759</v>
+      </c>
+      <c r="F74" s="102">
+        <f t="shared" ref="F74:Y74" si="28" xml:space="preserve"> E74 - ($D$73/COUNT($E$4:$Y$4))</f>
+        <v>42.523809523809518</v>
+      </c>
+      <c r="G74" s="102">
+        <f t="shared" si="28"/>
+        <v>40.285714285714278</v>
+      </c>
+      <c r="H74" s="102">
+        <f t="shared" si="28"/>
+        <v>38.047619047619037</v>
+      </c>
+      <c r="I74" s="102">
+        <f t="shared" si="28"/>
+        <v>35.809523809523796</v>
+      </c>
+      <c r="J74" s="102">
+        <f t="shared" si="28"/>
+        <v>33.571428571428555</v>
+      </c>
+      <c r="K74" s="102">
+        <f t="shared" si="28"/>
+        <v>31.333333333333318</v>
+      </c>
+      <c r="L74" s="102">
+        <f t="shared" si="28"/>
+        <v>29.095238095238081</v>
+      </c>
+      <c r="M74" s="102">
+        <f t="shared" si="28"/>
+        <v>26.857142857142843</v>
+      </c>
+      <c r="N74" s="102">
+        <f t="shared" si="28"/>
+        <v>24.619047619047606</v>
+      </c>
+      <c r="O74" s="102">
+        <f t="shared" si="28"/>
+        <v>22.380952380952369</v>
+      </c>
+      <c r="P74" s="102">
+        <f t="shared" si="28"/>
+        <v>20.142857142857132</v>
+      </c>
+      <c r="Q74" s="102">
+        <f t="shared" si="28"/>
+        <v>17.904761904761894</v>
+      </c>
+      <c r="R74" s="102">
+        <f t="shared" si="28"/>
+        <v>15.666666666666657</v>
+      </c>
+      <c r="S74" s="102">
+        <f t="shared" si="28"/>
+        <v>13.42857142857142</v>
+      </c>
+      <c r="T74" s="102">
+        <f t="shared" si="28"/>
+        <v>11.190476190476183</v>
+      </c>
+      <c r="U74" s="102">
+        <f t="shared" si="28"/>
+        <v>8.9523809523809454</v>
+      </c>
+      <c r="V74" s="102">
+        <f t="shared" si="28"/>
+        <v>6.7142857142857073</v>
+      </c>
+      <c r="W74" s="102">
+        <f t="shared" si="28"/>
+        <v>4.4761904761904692</v>
+      </c>
+      <c r="X74" s="102">
+        <f t="shared" si="28"/>
+        <v>2.238095238095231</v>
+      </c>
+      <c r="Y74" s="102">
+        <f t="shared" si="28"/>
+        <v>-7.1054273576010019E-15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="22">
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="S2:Y2"/>
+    <mergeCell ref="A41:A72"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B72"/>
     <mergeCell ref="A6:A37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
